--- a/explorations/eda.freja/jobtech_jobs.xlsx
+++ b/explorations/eda.freja/jobtech_jobs.xlsx
@@ -626,12 +626,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29977697</t>
+          <t>29982684</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>46-556559-5450-15114242</t>
+          <t>46-556553-5548-6372847-1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -642,22 +642,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977697</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29982684</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565595450/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565535548/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Teknisk dokumentatör till Forsmark!</t>
+          <t>Product Designer – Join Aimo and Shape the Future of Customer Experience</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-10-02T23:59:59</t>
+          <t>2026-02-20T23:59:59</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker nu en engagerad och driven dokumentatör till Forsmark! Har du ett intresse för teknik och hållbarhet har du en möjlighet att utvecklas inom kärnkraftsbranschen. Varmt välkommen in med din ansökan redan idag då urval sker löpande.\n\nOM TJÄNSTEN \n\nForsmarks kärnkraftverk är en av de största elproducenterna i Sverige och producerar en sjättedel av den el som förbrukas i Sverige. Forsmarks vision är att leverera fossilfri el varje dag, året runt. Här har du som har ett intresse för teknik och energibranschen en möjlighet att bidra genom att säkerställa att den eltekniska dokumentationen är korrekt för en stabil och säker produktion. \n\nDu kommer att ingå i dokumentationsteamet på elkonstruktionsenheten. Teamet ansvarar för att uppdatera och administrera ritningar och dokumentation av anläggningen för att säkerställa att dokumentationen är korrekt och uppdaterad. Du kommer att administrera dokumentationen efter installationer och ändringar som sker i anläggningen. Utöver detta driver gruppen bland annat digitaliserings- och utvecklingsprojekt som du kommer att vara delaktig inom.\n\nDu erbjuds\n- Utbildning i Master Concept och Elmaster Design\n- Att ingå i ett dokumentationsteam med framåtdrivande och välkomnande kollegor\n- Lönetillägg för dig som pendlar minst 5 mil till Forsmark, exempelvis för dig som bor i Uppsala, Gävle eller Tierp\n- Kollektivtrafik till och från Forsmark som är anpassade efter dina arbetstider\n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Förvalta eldokumentation  \n* Renritning av elkonstruktioner  \n* Uppdatering av dokumentation vid anläggningsändringar  \n* Övriga administrativa arbetsuppgifter kopplat till eldokumentation och digitaliseringsprojekt \n\n\nVI SÖKER DIG SOM \n- Har ett intresse för teknik och energibranschen\n- Har god datavana och administrativ arbetserfarenhet\n- Är flytande i svenska i tal och skrift då det krävs för kommunikation och dokumentation\n\nMeriterande är om du har en teknisk bakgrund från tidigare arbete eller utbildning, gärna inom industrin. Meriterande är även om du har erfarenhet av eldokumentation och CAD-ritningar.\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nTjänsten är säkerhetsklassad vilket innebär att en säkerhetsprövning kommer att genomföras innan anställning. Säkerhetsprövningen omfattar registerkontroll samt säkerhetsprövningssamtal i enlighet med säkerhetsskyddslagen. Utöver säkerhetsprövningen kommer ett drogtest att genomföras.\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nLäs mer om Forsmark här.', 'text_formatted': 'Vi söker nu en engagerad och driven dokumentatör till Forsmark! Har du ett intresse för teknik och hållbarhet har du en möjlighet att utvecklas inom kärnkraftsbranschen. Varmt välkommen in med din ansökan redan idag då urval sker löpande.\n\nOM TJÄNSTEN \n\nForsmarks kärnkraftverk är en av de största elproducenterna i Sverige och producerar en sjättedel av den el som förbrukas i Sverige. Forsmarks vision är att leverera fossilfri el varje dag, året runt. Här har du som har ett intresse för teknik och energibranschen en möjlighet att bidra genom att säkerställa att den eltekniska dokumentationen är korrekt för en stabil och säker produktion. \n\nDu kommer att ingå i dokumentationsteamet på elkonstruktionsenheten. Teamet ansvarar för att uppdatera och administrera ritningar och dokumentation av anläggningen för att säkerställa att dokumentationen är korrekt och uppdaterad. Du kommer att administrera dokumentationen efter installationer och ändringar som sker i anläggningen. Utöver detta driver gruppen bland annat digitaliserings- och utvecklingsprojekt som du kommer att vara delaktig inom.\n\nDu erbjuds\n- Utbildning i Master Concept och Elmaster Design\n- Att ingå i ett dokumentationsteam med framåtdrivande och välkomnande kollegor\n- Lönetillägg för dig som pendlar minst 5 mil till Forsmark, exempelvis för dig som bor i Uppsala, Gävle eller Tierp\n- Kollektivtrafik till och från Forsmark som är anpassade efter dina arbetstider\n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Förvalta eldokumentation  \n* Renritning av elkonstruktioner  \n* Uppdatering av dokumentation vid anläggningsändringar  \n* Övriga administrativa arbetsuppgifter kopplat till eldokumentation och digitaliseringsprojekt \n\n\nVI SÖKER DIG SOM \n- Har ett intresse för teknik och energibranschen\n- Har god datavana och administrativ arbetserfarenhet\n- Är flytande i svenska i tal och skrift då det krävs för kommunikation och dokumentation\n\nMeriterande är om du har en teknisk bakgrund från tidigare arbete eller utbildning, gärna inom industrin. Meriterande är även om du har erfarenhet av eldokumentation och CAD-ritningar.\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nTjänsten är säkerhetsklassad vilket innebär att en säkerhetsprövning kommer att genomföras innan anställning. Säkerhetsprövningen omfattar registerkontroll samt säkerhetsprövningssamtal i enlighet med säkerhetsskyddslagen. Utöver säkerhetsprövningen kommer ett drogtest att genomföras.\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nLäs mer om Forsmark här.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid'}</t>
+          <t>{'text': 'By continuing to think innovatively and always putting people’s needs first, we believe we can make a real difference. As the leading mobility partner in the Nordic region, we are constantly developing new solutions that make everyday life simpler and more sustainable. We are Aimo.\n \nThe Role – Product Designer\n \nAs a Product Designer at Aimo, you’ll play a key role in shaping the future of Aimo Park’s digital products. You’ll lead design efforts across multiple platforms, ensuring scalable and seamless user experiences that align with both customer needs and business goals.\xa0You will:\n Drive user research initiatives and translate insights into impactful design solutions.\xa0\n Help take ideas to implementation by designing flow charts, wireframes and prototypes.\xa0\n Own and iterate on our design systems and component libraries.\xa0\n Collaborate closely with developers and product managers to ensure smooth iterative handovers of design to code.\xa0\n Coordinate and support design across several development teams.\n Advocate for user needs in cross-functional discussions and supporting experimentation (e.g., A/B testing).\n Connect design decisions to broader business strategies.\n  \nThis role offers a high degree of impact, autonomy, and the opportunity to shape how millions of people interact with mobility services in the Nordics \n  About you\n\nWe believe you are an experienced, hands-on designer with a strong track record of creating engaging digital experiences. You are a fan of using established design patterns to solve complex problems. You are detailed, structured and you love to turn insights into actionable improvements.\xa0We’re looking for someone with:\n Mastery in user experience and digital interface design, with a strong command of Figma.\xa0\n Experience in designing for both web and app. Including responsive design.\n A deep understanding of UX/UI patterns and design systems.\n Proven experience applying design processes to lead complex initiatives.\xa0\n Expertise in planning, conducting, and synthesizing user research.\xa0\n A data-informed mindset, using analytics to guide and validate design decisions.\n Excellent communication and storytelling skills to influence stakeholders and drive change.\n A collaborative spirit, aligning efforts across teams and encouraging cross-functional dialogue.\n A pragmatic mindset focused on delivering what creates the most value.\n   About Aimo\nWith more than 50 years of experience in parking services and pioneering knowledge in car sharing, we are shaping the future of mobility. We are building comprehensive charging infrastructure for electric cars, creating efficient mobility hubs, launching new digital services, and continuously expanding our fleet of electric vehicles.\nOur goal is clear: to make life easier for our customers while promoting sustainable mobility. To achieve this, we have created an ecosystem of smart and sustainable solutions – covering everything from parking and car sharing to charging and environmentally friendly mobility hubs.\nPart of the Sumitomo Group Aimo is owned by Sumitomo Corporation – a global investment company and member of the Sumitomo Group. With extensive experience in long-term investments and successful business partnerships, Sumitomo is ranked in the Fortune Global 500. Their ambition is to continuously create new value and contribute positively to society – a vision we share and bring to life every day.', 'text_formatted': '&lt;p&gt;&lt;em&gt;&lt;/em&gt;By continuing to think innovatively and always putting people’s needs first, we believe we can make a real difference. As the leading mobility partner in the Nordic region, we are constantly developing new solutions that make everyday life simpler and more sustainable. We are Aimo.&lt;/p&gt; &lt;p&gt;&lt;/p&gt;&lt;strong&gt;The Role – Product Designer&lt;/strong&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;As a &lt;strong&gt;Product Designer&lt;/strong&gt; at Aimo, you’ll play a key role in shaping the future of Aimo Park’s digital products. You’ll lead design efforts across multiple platforms, ensuring scalable and seamless user experiences that align with both customer needs and business goals.&amp;nbsp;You will:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Drive user research initiatives and translate insights into impactful design solutions.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Help take ideas to implementation by designing flow charts, wireframes and prototypes.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Own and iterate on our design systems and component libraries.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Collaborate closely with developers and product managers to ensure smooth iterative handovers of design to code.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Coordinate and support design across several development teams.&lt;/li&gt; &lt;li&gt;Advocate for user needs in cross-functional discussions and supporting experimentation (e.g., A/B testing).&lt;/li&gt; &lt;li&gt;Connect design decisions to broader business strategies.&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt;This role offers a high degree of impact, autonomy, and the opportunity to shape how millions of people interact with mobility services in the Nordics &lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;&lt;ul&gt; &lt;/ul&gt;About you&lt;p&gt;&lt;/p&gt;&lt;p&gt;We believe you are an experienced, hands-on designer with a strong track record of creating engaging digital experiences. You are a fan of using established design patterns to solve complex problems. You are detailed, structured and you love to turn insights into actionable improvements.&amp;nbsp;We’re looking for someone with:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Mastery in user experience and digital interface design, with a strong command of&lt;strong&gt; Figma.&amp;nbsp;&lt;/strong&gt;&lt;/li&gt; &lt;li&gt;Experience in designing for both web and app. Including responsive design.&lt;/li&gt; &lt;li&gt;A deep understanding of UX/UI patterns and design systems.&lt;/li&gt; &lt;li&gt;Proven experience applying design processes to lead complex initiatives.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Expertise in planning, conducting, and synthesizing user research.&amp;nbsp;&lt;/li&gt; &lt;li&gt;A data-informed mindset, using analytics to guide and validate design decisions.&lt;/li&gt; &lt;li&gt;Excellent communication and storytelling skills to influence stakeholders and drive change.&lt;/li&gt; &lt;li&gt;A collaborative spirit, aligning efforts across teams and encouraging cross-functional dialogue.&lt;/li&gt; &lt;li&gt;A pragmatic mindset focused on delivering what creates the most value.&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;/ul&gt;&lt;ul&gt; &lt;/ul&gt;About Aimo&lt;p&gt;With more than 50 years of experience in parking services and pioneering knowledge in car sharing, we are shaping the future of mobility. We are building comprehensive charging infrastructure for electric cars, creating efficient mobility hubs, launching new digital services, and continuously expanding our fleet of electric vehicles.&lt;/p&gt;&lt;p&gt;Our goal is clear: to make life easier for our customers while promoting sustainable mobility. To achieve this, we have created an ecosystem of smart and sustainable solutions – covering everything from parking and car sharing to charging and environmentally friendly mobility hubs.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Part of the Sumitomo Group&lt;/strong&gt; Aimo is owned by Sumitomo Corporation – a global investment company and member of the Sumitomo Group. With extensive experience in long-term investments and successful business partnerships, Sumitomo is ranked in the &lt;em&gt;Fortune Global 500&lt;/em&gt;. Their ambition is to continuously create new value and contribute positively to society – a vision we share and bring to life every day.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Enligt avtal</t>
+          <t>Lön enligt överenskommelse</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -701,12 +701,12 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.academicwork.se', 'organization_number': '5565595450', 'name': 'Academic Work Sweden AB', 'workplace': 'Academic Work'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.aimo.se', 'organization_number': '5565535548', 'name': 'Aimo Park Sweden AB', 'workplace': 'Aimo '}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '15114242', 'email': None, 'via_af': False, 'url': 'http://www.academicwork.se/jobad/teknisk-dokumentator-till-forsmark/15114242?apply=1', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://career.aimopark.se/jobs/6372847-product-designer-join-aimo-and-shape-the-future-of-customer-experience?promotion=1612294-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U2" t="b">
@@ -721,12 +721,12 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>{'concept_id': 'q9PK_qMB_caU', 'label': 'Dokumentalist', 'legacy_ams_taxonomy_id': '5903'}</t>
+          <t>{'concept_id': '42SW_cUg_uq2', 'label': 'Designer', 'legacy_ams_taxonomy_id': '3305'}</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'PF4H_kQD_zpL', 'label': 'Övriga designer och formgivare', 'legacy_ams_taxonomy_id': '2179'}</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>{'municipality': 'Östhammar', 'municipality_code': '0382', 'municipality_concept_id': 'VE3L_3Ei_XbG', 'region': 'Uppsala län', 'region_code': '03', 'region_concept_id': 'zBon_eET_fFU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.366615, 60.259712]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'q9PK_qMB_caU', 'label': 'Dokumentalist', 'legacy_ams_taxonomy_id': '5903'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': '42SW_cUg_uq2', 'label': 'Designer', 'legacy_ams_taxonomy_id': '3305'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Johan Andersson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Joakim Wissing', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2025-09-02T12:01:40</t>
+          <t>2025-09-03T11:27:05</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2025-10-02T23:59:59</t>
+          <t>2026-02-20T23:59:59</t>
         </is>
       </c>
       <c r="AH2" t="b">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1756807300483</v>
+        <v>1756891625830</v>
       </c>
     </row>
     <row r="3">
@@ -783,10 +783,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29977195</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>29982092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>46-556195-1996-309060-184904</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -795,22 +799,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977195</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29982092</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87059528/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5561951996/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mandarin speaking Senior Program Designer (CMF)</t>
+          <t>UR söker en produktionsledare till vår Teckenspråksredaktion</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-10-02T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -818,7 +822,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{'text': 'We are looking for a Mandarin speaking Senior Program Designer within Colour, Material &amp; Finish (CMF) for a global company in Gothenburg. Start ASAP, 6 months contract to begin with.\n\n\nThe automotive industry is undergoing a paradigm shift, facing both tough challenges and exciting opportunities in the journey toward new mobility, electrification, and autonomous driving. As part of our commitment to becoming carbon neutral by 2045, we are seeking a Senior Designer CMF to shape the future sustainable CMF palette.\n\n\nIn this role, you will deliver complete CMF solutions and detailed specifications for assigned projects, working closely with a dynamic global team.\n\n\nKey Responsibilities\n• Create innovative, detailed design solutions that meet complex technical requirements in collaboration with multiple design disciplines.\n• Develop sustainable CMF concepts, transforming them into physical prototypes with suppliers and in-house Trim/PaintShop teams.\n• Focus on building patterns in 2D and 3D for diverse applications.\n• Conduct benchmarking and research with a fact-based approach.\n• Prepare and maintain Colour, Material, and Finish definition documents.\n• Safeguard CMF releases aligned with design gateways and property plans.\n• Prepare and present both physical and digital design materials in weekly reviews with Chinese stakeholders and project teams.\n• Represent CMF in project and engineering meetings.\n• Collaborate closely with internal and external stakeholders, including the Shanghai design studio.\n• Liaise with R&amp;D, Project, and Marketing teams in China.\n• Contribute creatively to CMF community workshops and strategic initiatives.\n\n\nEssential Qualifications\n• Bachelor’s degree (minimum) in Industrial Design, Transportation Design, or Fine Arts.\n• 5–10 years of experience in industrial or transportation design; sustainability-related \nexperience is an advantage.\n• In-depth understanding of the design process, CMF methodology, and development stages.\n• Excellent communication and presentation skills (verbal &amp; visual).\n• Proficiency in Adobe Creative Suite and VRED; additional experience with Blender, \nSubstance, Unreal, Rhino, or Grasshopper is valuable.\n• Fluent in English; Mandarin skills are an advantage.\n\n\nPersonal Attributes\n• Adaptable, unafraid of change, and comfortable in high-tempo, unpredictable environments.\n• Possesses a “can-do” entrepreneurial mindset.\n• Structured, methodical, and analytical with strong planning skills.\n• Able to balance big-picture vision with meticulous detail work.\n• Team-oriented, collaborative, and free from prestige or politics.\n• Strong visual communicator with clear verbal skills.\n\n\nWhat We Offer\n• A highly dynamic, creative, and ever-changing work environment.\n• Opportunities to grow professionally through challenging and varied projects.\n• A supportive and spirited team across Sweden and China.\n• Access to state-of-the-art design studios in Gothenburg (since 2022) and Shanghai (since 2024).\n• Travel to China 2–3 times per year for reviews and model builds.\nThis role requires a valid work permit in Sweden since start is immediately.\nThis is a full-time consultant position through Incluso in Gothenburg. Start is ASAP, 6 months limited contract to begin with. This role is 100% onsite in Gothenburg.\nPlease submit your CV as soon as possible since we will review the applications on an on-going basis. Please note that all listed "requirements" are very important for this assignment. Take your time to anwser the questions in a clear way.\nFor more information about this role, please contact Marianne Nilsson, recruiter at Incluso.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;We are looking for a Mandarin speaking Senior Program Designer within Colour, Material &amp;amp; Finish (CMF) for a global company in Gothenburg. Start ASAP, 6 months contract to begin with.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The automotive industry is undergoing a paradigm shift, facing both tough challenges and exciting opportunities in the journey toward new mobility, electrification, and autonomous driving. As part of our commitment to becoming carbon neutral by 2045, we are seeking a Senior Designer CMF to shape the future sustainable CMF palette.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In this role, you will deliver complete CMF solutions and detailed specifications for assigned projects, working closely with a dynamic global team.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Key Responsibilities&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Create innovative, detailed design solutions that meet complex technical requirements in collaboration with multiple design disciplines.&lt;/p&gt;&lt;p&gt;• Develop sustainable CMF concepts, transforming them into physical prototypes with suppliers and in-house Trim/PaintShop teams.&lt;/p&gt;&lt;p&gt;• Focus on building patterns in 2D and 3D for diverse applications.&lt;/p&gt;&lt;p&gt;• Conduct benchmarking and research with a fact-based approach.&lt;/p&gt;&lt;p&gt;• Prepare and maintain Colour, Material, and Finish definition documents.&lt;/p&gt;&lt;p&gt;• Safeguard CMF releases aligned with design gateways and property plans.&lt;/p&gt;&lt;p&gt;• Prepare and present both physical and digital design materials in weekly reviews with Chinese stakeholders and project teams.&lt;/p&gt;&lt;p&gt;• Represent CMF in project and engineering meetings.&lt;/p&gt;&lt;p&gt;• Collaborate closely with internal and external stakeholders, including the Shanghai design studio.&lt;/p&gt;&lt;p&gt;• Liaise with R&amp;amp;D, Project, and Marketing teams in China.&lt;/p&gt;&lt;p&gt;• Contribute creatively to CMF community workshops and strategic initiatives.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Essential Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Bachelor’s degree (minimum) in Industrial Design, Transportation Design, or Fine Arts.&lt;/p&gt;&lt;p&gt;• 5–10 years of experience in industrial or transportation design; sustainability-related &lt;/p&gt;&lt;p&gt;experience is an advantage.&lt;/p&gt;&lt;p&gt;• In-depth understanding of the design process, CMF methodology, and development stages.&lt;/p&gt;&lt;p&gt;• Excellent communication and presentation skills (verbal &amp;amp; visual).&lt;/p&gt;&lt;p&gt;• Proficiency in Adobe Creative Suite and VRED; additional experience with Blender, &lt;/p&gt;&lt;p&gt;Substance, Unreal, Rhino, or Grasshopper is valuable.&lt;/p&gt;&lt;p&gt;• Fluent in English; Mandarin skills are an advantage.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Personal Attributes&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Adaptable, unafraid of change, and comfortable in high-tempo, unpredictable environments.&lt;/p&gt;&lt;p&gt;• Possesses a “can-do” entrepreneurial mindset.&lt;/p&gt;&lt;p&gt;• Structured, methodical, and analytical with strong planning skills.&lt;/p&gt;&lt;p&gt;• Able to balance big-picture vision with meticulous detail work.&lt;/p&gt;&lt;p&gt;• Team-oriented, collaborative, and free from prestige or politics.&lt;/p&gt;&lt;p&gt;• Strong visual communicator with clear verbal skills.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;What We Offer&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• A highly dynamic, creative, and ever-changing work environment.&lt;/p&gt;&lt;p&gt;• Opportunities to grow professionally through challenging and varied projects.&lt;/p&gt;&lt;p&gt;• A supportive and spirited team across Sweden and China.&lt;/p&gt;&lt;p&gt;• Access to state-of-the-art design studios in Gothenburg (since 2022) and Shanghai (since 2024).&lt;/p&gt;&lt;p&gt;• Travel to China 2–3 times per year for reviews and model builds.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;This role requires a valid work permit in Sweden since start is immediately.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This is a full-time consultant position through Incluso in Gothenburg. Start is ASAP, 6 months limited contract to begin with. This role is 100% onsite in Gothenburg.&lt;/p&gt;&lt;p&gt;Please submit your CV as soon as possible since we will review the applications on an on-going basis. Please note that all listed "requirements" are very important for this assignment. Take your time to anwser the questions in a clear way.&lt;/p&gt;&lt;p&gt;For more information about this role, please contact Marianne Nilsson, recruiter at Incluso.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'UR Teckenspråk är en del av projektområdet Minoritetsspråk och Tillgänglighet. Vi producerar utbildningsprogram på svenskt teckenspråk och söker nu dig som med struktur, driv och engagemang vill koordinera vår redaktion som produktionsledare. Om du brinner för tillgänglighet och gillar att få saker att hända, kan det här vara din nästa utmaning!\n\nDet här erbjuder vi dig:\n\n - Ett öppet och inkluderande arbetsklimat, där allas erfarenheter tas tillvara och mångfald är en självklarhet.\n - En arbetsplats som präglas av engagemang, lärande och samhällsnytta.\n - Möjligheten att göra skillnad – på riktigt – för den teckenspråkiga målgruppen.\n - Ett stödjande nätverk av kollegor som brinner för samma syfte som du.\n - Förmåner såsom friskvårdsbidrag, friskvårdstimme och intern kompetensutveckling.\nDu kommer att arbeta på en teckenspråkig redaktion vilket innebär att det primära kommunikationsspråket är svenskt teckenspråk.\n\nArbetsuppgifter och ansvar\n\nSom produktionsledare hos oss kommer du bland annat att:\n\n - Ansvara för att stödja projekt och projektområdet administrativt, utifrån projektens behov.\n - Koordinera och strukturera produktionen – upprätta tydliga produktions- och leveransplaner för pågående projekt.\n - Ansvara för det interna informationsflödet för projekten till andra avdelningar på UR.\n - Bidra till arbetet med budget och uppföljning, samt stötta projektledare med rapporteringsarbetet i UR:s system.\r\nVi söker dig som:\n\n - Behärskar svenskt teckenspråk och innehar dövkompetens.\n - Gymnasieexamen eller motsvarande, alternativt relevant arbetslivserfarenhet.\n - Har god erfarenhet av produktion- och leveransplanering, gärna inom medie- eller utbildningssektorn.\n - Har erfarenhet av administrativa arbetsuppgifter och budgetuppföljning.\n - Är en tydlig kommunikatör som gillar att samarbeta och är strukturerad och effektiv i ditt arbetssätt.\nVem vi tror att du är:\n\n - Social, prestigelös och nyfiken på att lära nytt.\n - En lagspelare som gärna samarbetar och bidrar både i stort och smått.\n - Lösningsorienterad och flexibel – du kan prioritera om när det behövs och gillar ett högt tempo.\n - Strukturerad med förmåga att se både detaljer och helhet.\n - Ansvarstagande och engagerad.\nHur du ansöker\n\nI den här rekryteringsprocessen använder vi oss av urvalsfrågor och CV i stället för att be om ett personligt brev. Det är för att säkerställa att rekryteringen blir kompetensbaserad och effektiv. Genom att klicka på länken nedan kommer du till ansökningsformuläret. Urval sker löpande, så vänta inte med din ansökan. Senast ansökningsdag är 21 september. \n\nVälkommen med din ansökan!\n\nÖvrigt\n\n - Tjänsten är ett vikariat på 12 månader med tillträde i oktober 2025.\n - Det här arbetet är platsförlagt och du förväntas huvudsakligen vara närvarande på UR:s kontor i Stockholm, utifrån redaktionens behov.\n - Har du frågor kring tjänsten är du välkommen att kontakta Sara Carlsson, Innehållschef: sara.carlsson@ur.se. För anställningsfrågor var vänlig kontakta Christine Malmer, HR-partner: christine.malmer@ur.se\n - Fackliga upplysningar lämnas av SACO, Unionen, eller Journalistförbundet (SJF). Samtliga nås via telefon 08-784 40 00. \n\n\nPå UR förenas vi i vår passion att skapa kunskap för livet – för de många och de få. I vårt unika uppdrag kombinerar vi berörande journalistik med effektiv pedagogik och stöttar skolan och allmänheten med oberoende och pålitlig kunskap, och vi är stolta över det positiva bidrag vårt arbete har.\n\nPå UR får vår nyfikenhet och kreativitet spelrum. Vår omväxlande vardag gör vårt arbete både roligt och spännande. Hos oss är det lätt att vara människa på jobbet. Tillsammans skapar vi en välkomnande, positiv och prestigelös kultur. Vi vill varandra väl, och stöttar varandra i stort som smått. För att du ska må bra och nå din fulla potential erbjuder vi flexibiliteten att lägga livspusslet och få ett hållbart arbetsliv. Sammantaget gör detta oss till en schysst arbetsplats.\n\nVi värdesätter allas olikheter, för det är samspelet mellan vår bredd av kompetenser, personligheter och bakgrunder som är grunden i vår framgång.', 'text_formatted': 'UR Teckenspråk är en del av projektområdet Minoritetsspråk och Tillgänglighet. Vi producerar utbildningsprogram på svenskt teckenspråk och söker nu dig som med struktur, driv och engagemang vill koordinera vår redaktion som produktionsledare. Om du brinner för tillgänglighet och gillar att få saker att hända, kan det här vara din nästa utmaning!\n\nDet här erbjuder vi dig:\n\n - Ett öppet och inkluderande arbetsklimat, där allas erfarenheter tas tillvara och mångfald är en självklarhet.\n - En arbetsplats som präglas av engagemang, lärande och samhällsnytta.\n - Möjligheten att göra skillnad – på riktigt – för den teckenspråkiga målgruppen.\n - Ett stödjande nätverk av kollegor som brinner för samma syfte som du.\n - Förmåner såsom friskvårdsbidrag, friskvårdstimme och intern kompetensutveckling.\nDu kommer att arbeta på en teckenspråkig redaktion vilket innebär att det primära kommunikationsspråket är svenskt teckenspråk.\n\nArbetsuppgifter och ansvar\n\nSom produktionsledare hos oss kommer du bland annat att:\n\n - Ansvara för att stödja projekt och projektområdet administrativt, utifrån projektens behov.\n - Koordinera och strukturera produktionen – upprätta tydliga produktions- och leveransplaner för pågående projekt.\n - Ansvara för det interna informationsflödet för projekten till andra avdelningar på UR.\n - Bidra till arbetet med budget och uppföljning, samt stötta projektledare med rapporteringsarbetet i UR:s system.\r\nVi söker dig som:\n\n - Behärskar svenskt teckenspråk och innehar dövkompetens.\n - Gymnasieexamen eller motsvarande, alternativt relevant arbetslivserfarenhet.\n - Har god erfarenhet av produktion- och leveransplanering, gärna inom medie- eller utbildningssektorn.\n - Har erfarenhet av administrativa arbetsuppgifter och budgetuppföljning.\n - Är en tydlig kommunikatör som gillar att samarbeta och är strukturerad och effektiv i ditt arbetssätt.\nVem vi tror att du är:\n\n - Social, prestigelös och nyfiken på att lära nytt.\n - En lagspelare som gärna samarbetar och bidrar både i stort och smått.\n - Lösningsorienterad och flexibel – du kan prioritera om när det behövs och gillar ett högt tempo.\n - Strukturerad med förmåga att se både detaljer och helhet.\n - Ansvarstagande och engagerad.\nHur du ansöker\n\nI den här rekryteringsprocessen använder vi oss av urvalsfrågor och CV i stället för att be om ett personligt brev. Det är för att säkerställa att rekryteringen blir kompetensbaserad och effektiv. Genom att klicka på länken nedan kommer du till ansökningsformuläret. Urval sker löpande, så vänta inte med din ansökan. Senast ansökningsdag är 21 september. \n\nVälkommen med din ansökan!\n\nÖvrigt\n\n - Tjänsten är ett vikariat på 12 månader med tillträde i oktober 2025.\n - Det här arbetet är platsförlagt och du förväntas huvudsakligen vara närvarande på UR:s kontor i Stockholm, utifrån redaktionens behov.\n - Har du frågor kring tjänsten är du välkommen att kontakta Sara Carlsson, Innehållschef: sara.carlsson@ur.se. För anställningsfrågor var vänlig kontakta Christine Malmer, HR-partner: christine.malmer@ur.se\n - Fackliga upplysningar lämnas av SACO, Unionen, eller Journalistförbundet (SJF). Samtliga nås via telefon 08-784 40 00. \n\n\nPå UR förenas vi i vår passion att skapa kunskap för livet – för de många och de få. I vårt unika uppdrag kombinerar vi berörande journalistik med effektiv pedagogik och stöttar skolan och allmänheten med oberoende och pålitlig kunskap, och vi är stolta över det positiva bidrag vårt arbete har.\n\nPå UR får vår nyfikenhet och kreativitet spelrum. Vår omväxlande vardag gör vårt arbete både roligt och spännande. Hos oss är det lätt att vara människa på jobbet. Tillsammans skapar vi en välkomnande, positiv och prestigelös kultur. Vi vill varandra väl, och stöttar varandra i stort som smått. För att du ska må bra och nå din fulla potential erbjuder vi flexibiliteten att lägga livspusslet och få ett hållbart arbetsliv. Sammantaget gör detta oss till en schysst arbetsplats.\n\nVi värdesätter allas olikheter, för det är samspelet mellan vår bredd av kompetenser, personligheter och bakgrunder som är grunden i vår framgång.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nVisstidsanställning 6 månader eller längre'}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -831,7 +835,11 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Fast månads- vecko- eller timlön</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
@@ -850,12 +858,12 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5590023213', 'name': 'Incluso AB', 'workplace': 'Incluso AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.ur.se/', 'organization_number': '5561951996', 'name': 'Sveriges Utbildningsradio AB', 'workplace': 'Sveriges Utbildningsradio'}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://openings.incluso.se/jobs/6379626-mandarin-speaking-senior-program-designer-within-colour-material-finish-cmf', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://emp.jobylon.com/applications/jobs/309060/create/?utm_source=ams&amp;utm_medium=promotionserializer', 'other': None}</t>
         </is>
       </c>
       <c r="U3" t="b">
@@ -870,12 +878,12 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>{'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}</t>
+          <t>{'concept_id': 'L4bL_Xts_Hsr', 'label': 'Produktionsplanerare: kultur, media, film, dataspel', 'legacy_ams_taxonomy_id': '3888'}</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>{'concept_id': 'DqLe_pH6_jyj', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '2171'}</t>
+          <t>{'concept_id': 'rYSG_3WJ_LmC', 'label': 'Regissörer och producenter av film, teater m.m.', 'legacy_ams_taxonomy_id': '2654'}</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -885,17 +893,17 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>{'municipality': 'Göteborg', 'municipality_code': '1480', 'municipality_concept_id': 'PVZL_BQT_XtL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '41133', 'city': 'GÖTEBORG', 'coordinates': [11.974453593603755, 57.6938033459444]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [{'weight': 10, 'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'L4bL_Xts_Hsr', 'label': 'Produktionsplanerare: kultur, media, film, scen', 'legacy_ams_taxonomy_id': '3888'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [{'weight': 5, 'concept_id': 'cxiY_CBR_1Ve', 'label': 'Mandarin/Rikskinesiska', 'legacy_ams_taxonomy_id': '377'}, {'weight': 5, 'concept_id': 'pgjM_8KQ_RZT', 'label': 'Kinesiska', 'legacy_ams_taxonomy_id': '339'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -905,12 +913,12 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2025-09-02T11:23:15</t>
+          <t>2025-09-03T10:27:36</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2025-10-02T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="AH3" t="b">
@@ -919,11 +927,11 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK3" t="n">
-        <v>1756804995722</v>
+        <v>1756888056045</v>
       </c>
     </row>
     <row r="4">
@@ -932,7 +940,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29973460</t>
+          <t>29980811</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -944,17 +952,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29973460</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980811</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88049482/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87000865/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Kommersiell reporter till Poddhuset</t>
+          <t>Grafisk Designer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -967,44 +975,44 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{'text': 'Poddhuset, som gör Trygghetspodden och Sverigepodden, söker nu en kommersiell reporter. Du är en erfaren radio- och/eller TV-reporter.\nPoddhuset har arbetat fram ett unikt poddkoncept - Reapods. Det står för Reality podcasts och innebär att avsnitten görs ute ”i verkligheten”. Vilket ger ett mer levande och intressant innehåll. Det gör också att podden kan kombineras med bilder och video, i t.ex. sociala medier.\nSom kommersiell reporter på Poddhuset gör du poddavsnitt åt olika kunder. Främst genom Reapods-konceptet, men även mer traditionella ”studioavsnitt”.\nDe kommersiella avsnitten görs i nära samarbete med redaktionsledningen samt kunden. I arbetet ingår samtidigt att själv komma på idéer till avsnitt, göra research, boka in lämpliga medverkande, göra ljudinspelning, redigera och sammanställa materialet till färdiga poddavsnitt.\nDet kan även bli aktuellt att skapa videotrailers och ta foton.\nArbetet ställer stora krav på att du har en mycket god färdighet inom journalistik och kreativt ljudskapande, i form av att göra reportage och liknande. Samt är kreativ, driven, kan ta egna initiativ och arbeta självständigt.\nVänligen sök inte tjänsten om du inte uppfyller dessa krav.\nDu kommer till en början främst arbeta med Trygghetspodden, men efterhand även mer med Sverigepodden. Poddhuset kommer framåt dessutom att starta fler poddar. Möjlighet att arbeta med dessa kommer också att finnas.\nTjänsten börjar som frilansuppdrag, men kan sen övergå i en fast anställning.\nVi söker dig som:\när en mycket duktig radiojournalist och intervjuare.\när mycket duktig på ljudredigering.\nhar erfarenhet av ”storytelling” som intervjuteknik – för att kunna levandegöra intervjuerna.\nhar radio/TV-journalistisk utbildning eller lång journalistisk erfarenhet.\nhar en god allmänbildning och koll på såväl aktuell politik som olika relevanta samhällsfrågor.\när duktig på nyhetsvärdering.\nhar god samarbetsförmåga.\n\n\n\nDet är ett plus om, men inte ett krav att du:\när en duktig videofotograf.\när duktig på videoredigering.\när en duktig fotograf.\nkan grundläggande fotoredigering i Photoshop.\nhar erfarenhet av arbete på en nyhetsredaktion.\nhar egen radioreporterutrustning samt videoutrustning/systemkamera.\nhar stor vana av arbete med olika sociala medieplattformar.\nhar körkort och egen bil.\nhar tillgång till en ”podd”/ljudstudio.\n\nI din ansökan bifogar du CV, där du kan styrka dina meriter. Samt ett personligt brev där du berättar om dina kunskaper och erfarenheter kring det som efterfrågas, liksom länkar till radio/TV-reportage du har gjort.\nAnsökningstid: Du kan söka tills tjänsten är tillsatt, men tidig ansökan ger ett försprång. Intervjuer görs löpande.\nStart: Snarast efter överenskommelse.\nPlacering: Uppdragen görs främst i Stockholm, men även i övriga landet.\nErsättning: Fast ersättning per uppdrag, enligt överenskommelse.\nOm Poddhuset: Information om företaget och alla poddavsnitt finns här: https://poddhuset.se\nAnsökan: skickas till info@poddhuset.se senast 250930.\nEventuella frågor skickas också till info@poddhuset.se. Beroende på frågornas art kontaktas du via mejl eller telefon. Bifoga därför telefonnummer vid all kontakt.', 'text_formatted': '&lt;p&gt;Poddhuset, som gör Trygghetspodden och Sverigepodden, söker nu en kommersiell reporter. Du är en erfaren radio- och/eller TV-reporter.&lt;/p&gt;&lt;p&gt;Poddhuset har arbetat fram ett unikt poddkoncept - Reapods. Det står för Reality podcasts och innebär att avsnitten görs ute ”i verkligheten”. Vilket ger ett mer levande och intressant innehåll. Det gör också att podden kan kombineras med bilder och video, i t.ex. sociala medier.&lt;/p&gt;&lt;p&gt;Som kommersiell reporter på Poddhuset gör du poddavsnitt åt olika kunder. Främst genom Reapods-konceptet, men även mer traditionella ”studioavsnitt”.&lt;/p&gt;&lt;p&gt;De kommersiella avsnitten görs i nära samarbete med redaktionsledningen samt kunden. I arbetet ingår samtidigt att själv komma på idéer till avsnitt, göra research, boka in lämpliga medverkande, göra ljudinspelning, redigera och sammanställa materialet till färdiga poddavsnitt.&lt;/p&gt;&lt;p&gt;Det kan även bli aktuellt att skapa videotrailers och ta foton.&lt;/p&gt;&lt;p&gt;Arbetet ställer stora krav på att du har en mycket god färdighet inom journalistik och kreativt ljudskapande, i form av att göra reportage och liknande. Samt är kreativ, driven, kan ta egna initiativ och arbeta självständigt.&lt;/p&gt;&lt;p&gt;Vänligen sök inte tjänsten om du inte uppfyller dessa krav.&lt;/p&gt;&lt;p&gt;Du kommer till en början främst arbeta med Trygghetspodden, men efterhand även mer med Sverigepodden. Poddhuset kommer framåt dessutom att starta fler poddar. Möjlighet att arbeta med dessa kommer också att finnas.&lt;/p&gt;&lt;p&gt;Tjänsten börjar som frilansuppdrag, men kan sen övergå i en fast anställning.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;är en mycket duktig radiojournalist och intervjuare.&lt;/li&gt;&lt;li&gt;är mycket duktig på ljudredigering.&lt;/li&gt;&lt;li&gt;har erfarenhet av ”storytelling” som intervjuteknik – för att kunna levandegöra intervjuerna.&lt;/li&gt;&lt;li&gt;har radio/TV-journalistisk utbildning eller lång journalistisk erfarenhet.&lt;/li&gt;&lt;li&gt;har en god allmänbildning och koll på såväl aktuell politik som olika relevanta samhällsfrågor.&lt;/li&gt;&lt;li&gt;är duktig på nyhetsvärdering.&lt;/li&gt;&lt;li&gt;har god samarbetsförmåga.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Det är ett plus om, men inte ett krav att du:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;är en duktig videofotograf.&lt;/li&gt;&lt;li&gt;är duktig på videoredigering.&lt;/li&gt;&lt;li&gt;är en duktig fotograf.&lt;/li&gt;&lt;li&gt;kan grundläggande fotoredigering i Photoshop.&lt;/li&gt;&lt;li&gt;har erfarenhet av arbete på en nyhetsredaktion.&lt;/li&gt;&lt;li&gt;har egen radioreporterutrustning samt videoutrustning/systemkamera.&lt;/li&gt;&lt;li&gt;har stor vana av arbete med olika sociala medieplattformar.&lt;/li&gt;&lt;li&gt;har körkort och egen bil.&lt;/li&gt;&lt;li&gt;har tillgång till en ”podd”/ljudstudio.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;I din ansökan bifogar du CV, där du kan styrka dina meriter. Samt ett personligt brev där du berättar om dina kunskaper och erfarenheter kring det som efterfrågas, liksom länkar till radio/TV-reportage du har gjort.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökningstid:&lt;/strong&gt; Du kan söka tills tjänsten är tillsatt, men tidig ansökan ger ett försprång. Intervjuer görs löpande.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Start:&lt;/strong&gt; Snarast efter överenskommelse.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Placering:&lt;/strong&gt; Uppdragen görs främst i Stockholm, men även i övriga landet.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ersättning: &lt;/strong&gt;Fast ersättning per uppdrag, enligt överenskommelse.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om Poddhuset: &lt;/strong&gt;Information om företaget och alla poddavsnitt finns här: https://poddhuset.se&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt; skickas till info@poddhuset.se senast 250930.&lt;/p&gt;&lt;p&gt;Eventuella frågor skickas också till info@poddhuset.se. Beroende på frågornas art kontaktas du via mejl eller telefon. Bifoga därför telefonnummer vid all kontakt.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Är du en kreativ formgivare som vill sätta din prägel på ett starkt varumärke? Vi söker en grafisk designer till vårt marknadsteam i Hudiksvall, en roll där du får kombinera kreativitet med strategi och skapa material som syns både nationellt och internationellt.\nOm rollen\nMonitor ERP är marknadsledande inom affärssystem för tillverkande industri. Som grafisk designer blir du en nyckelspelare i våra kreativa projekt, från idé till färdig produktion. Du får arbeta nära projektledare, copywriter, filmproducent, säljteamet och våra dotterbolag runtom i världen.\nHos oss skapar du visuellt material som sticker ut och väcker intresse, både digitalt och i tryckt form. Du får stort utrymme att bidra med nya idéer, kreativa uttryck och aktuella trender. Samtidigt ser du till att vår grafiska identitet är tydlig och konsekvent globalt. Din kreativitet blir avgörande i utvecklingen av material till kampanjer, sociala medier, mässor, säljstöd och mycket mer. \nDina huvudsakliga arbetsuppgifter:\nSkapa visuellt material för både digitala och tryckta kanaler, allt från annonser, mässmontrar och illustrationer till presentationsmaterial, kampanjer och sociala medier.\nUtveckla designkoncept och enklare animerad grafik som stärker varumärket i samband med produktlanseringar, employer branding och andra marknadsaktiviteter.\nBidra i kreativa processer tillsammans med andra i teamet, utveckla idéer, teman och innehåll samt förstärka kommunikationen med enklare copywriting.\nFörvalta och utveckla Monitor Groups grafiska identitet globalt, inklusive att skapa riktlinjer och mallar samt ge feedback och vägledning i grafiska produktioner.\n\nVem är du?\nDu är en kreativ formgivare med skarp känsla för färg, form och detaljer, samtidigt som du har ett strategiskt öga för hur design stärker varumärkesupplevelsen. Du trivs i en ansvarstagande roll där du leder visuella uttryck, driver kreativa processer och förvandlar idéer till genomtänkt och inspirerande produktion.\nVi lägger stor vikt vid dina personliga egenskaper och ser gärna att du känner igen dig i våra värdeord: jordnära, engagerad och långsiktig.\nFör att trivas i rollen bör du känna igen dig i följande:\nDu har några års erfarenhet av grafisk design och är trygg i hela processen, från idé till färdig produktion.\nDu är en kreativ person med skarpt öga för färg, form och layout, och håller dig gärna uppdaterad på trender inom design och kommunikation.\nDu trivs i nära samarbete med andra och inspireras av att utveckla idéer tillsammans med kreativa kollegor, samtidigt som du kan arbeta självständigt och ta egna initiativ.\nDu är kommunikativ, strukturerad och noggrann, med förmåga att växla mellan olika typer av uppdrag.\nDu har ett strategiskt tankesätt och helhetssyn som hjälper dig att skapa och hålla ihop ett konsekvent och starkt varumärkesuttryck.\n\nOm Monitor \nHos Monitor blir du en del av ett stabilt, globalt produktbolag med huvudkontor i den natursköna kuststaden Hudiksvall. Vi utvecklar och säljer vårt eget affärssystem, som hjälper små och medelstora tillverkningsföretag att effektivisera sin verksamhet – från sportbilar till julmust. Med cirka 550 anställda globalt (över 300 i Sverige) är vi mitt i en expansiv och spännande fas där internationell tillväxt är vår primära fokus.\nVarför välja Monitor ERP System?\nEn passionerad och engagerad kultur: Vi arbetar tillsammans för att skapa det bästa affärssystemet och ge våra kunder förstklassig service.\nEn ledare på marknaden: Monitor är Sveriges mest framstående affärsystemsleverantör och växer stadigt både nationellt och internationellt. Vi har en årlig omsättningstillväxt på ca 17%.\nPersonlig utveckling i fokus: Vi tror på att växa tillsammans och investerar i din utveckling. Här hittar du både lokala och internationella karriärmöjligheter.\nHälsa och välmående: Din hälsa är viktig för oss. Vi satsar på en bra arbetsmiljö och erbjuder förmåner som främjar både fysiskt och psykiskt välbefinnande.\nEngagerade medarbetare: Vi har ett eNPS-värde på 58 (Employee Net Promoter Score mäter engagemang och lojalitet hos medarbetare) där benchmark är -2 (över 20 = mycket bra, över 50 = exceptionellt bra).\n\nMer information om rekryteringsprocessen:\nStart: Enligt överenskommelse\nPlats: Hudiksvall\nAnsökan: Urval och intervjuer sker löpande.\nMonitor strävar efter att erbjuda en arbetsplats som är fri från diskriminering och ger lika möjligheter för alla. Vi ser olikheter som en tillgång och uppmuntrar därför en mångfald av sökande till alla våra tjänster. \nVälkommen med din ansökan!\nBo, leva, verka i Hälsingland - här kan du skapa en vardag som kombinerar livskvalitet med framtidstro. Läs med om livet i Hälsingland här.', 'text_formatted': '&lt;p&gt;Är du en kreativ formgivare som vill sätta din prägel på ett starkt varumärke? Vi söker en grafisk designer till vårt marknadsteam i Hudiksvall, en roll där du får kombinera kreativitet med strategi och skapa material som syns både nationellt och internationellt.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Monitor ERP är marknadsledande inom affärssystem för tillverkande industri. Som grafisk designer blir du en nyckelspelare i våra kreativa projekt, från idé till färdig produktion. Du får arbeta nära projektledare, copywriter, filmproducent, säljteamet och våra dotterbolag runtom i världen.&lt;/p&gt;&lt;p&gt;Hos oss skapar du visuellt material som sticker ut och väcker intresse, både digitalt och i tryckt form. Du får stort utrymme att bidra med nya idéer, kreativa uttryck och aktuella trender. Samtidigt ser du till att vår grafiska identitet är tydlig och konsekvent globalt. Din kreativitet blir avgörande i utvecklingen av material till kampanjer, sociala medier, mässor, säljstöd och mycket mer. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Dina huvudsakliga arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Skapa visuellt material för både digitala och tryckta kanaler, allt från annonser, mässmontrar och illustrationer till presentationsmaterial, kampanjer och sociala medier.&lt;/li&gt;&lt;li&gt;Utveckla designkoncept och enklare animerad grafik som stärker varumärket i samband med produktlanseringar, employer branding och andra marknadsaktiviteter.&lt;/li&gt;&lt;li&gt;Bidra i kreativa processer tillsammans med andra i teamet, utveckla idéer, teman och innehåll samt förstärka kommunikationen med enklare copywriting.&lt;/li&gt;&lt;li&gt;Förvalta och utveckla Monitor Groups grafiska identitet globalt, inklusive att skapa riktlinjer och mallar samt ge feedback och vägledning i grafiska produktioner.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vem är du?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du är en kreativ formgivare med skarp känsla för färg, form och detaljer, samtidigt som du har ett strategiskt öga för hur design stärker varumärkesupplevelsen. Du trivs i en ansvarstagande roll där du leder visuella uttryck, driver kreativa processer och förvandlar idéer till genomtänkt och inspirerande produktion.&lt;/p&gt;&lt;p&gt;Vi lägger stor vikt vid dina personliga egenskaper och ser gärna att du känner igen dig i våra värdeord:&lt;strong&gt; jordnära, engagerad och långsiktig.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För att trivas i rollen bör du känna igen dig i följande:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Du har några års erfarenhet av grafisk design och är trygg i hela processen, från idé till färdig produktion.&lt;/li&gt;&lt;li&gt;Du är en kreativ person med skarpt öga för färg, form och layout, och håller dig gärna uppdaterad på trender inom design och kommunikation.&lt;/li&gt;&lt;li&gt;Du trivs i nära samarbete med andra och inspireras av att utveckla idéer tillsammans med kreativa kollegor, samtidigt som du kan arbeta självständigt och ta egna initiativ.&lt;/li&gt;&lt;li&gt;Du är kommunikativ, strukturerad och noggrann, med förmåga att växla mellan olika typer av uppdrag.&lt;/li&gt;&lt;li&gt;Du har ett strategiskt tankesätt och helhetssyn som hjälper dig att skapa och hålla ihop ett konsekvent och starkt varumärkesuttryck.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Om Monitor &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Hos Monitor blir du en del av ett stabilt, globalt produktbolag med huvudkontor i den natursköna kuststaden Hudiksvall. Vi utvecklar och säljer vårt eget affärssystem, som hjälper små och medelstora tillverkningsföretag att effektivisera sin verksamhet – från sportbilar till julmust. Med cirka 550 anställda globalt (över 300 i Sverige) är vi mitt i en expansiv och spännande fas där internationell tillväxt är vår primära fokus.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Varför välja Monitor ERP System?&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;En passionerad och engagerad kultur: &lt;/strong&gt;Vi arbetar tillsammans för att skapa det bästa affärssystemet och ge våra kunder förstklassig service.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;En ledare på marknaden: &lt;/strong&gt;Monitor är Sveriges mest framstående affärsystemsleverantör och växer stadigt både nationellt och internationellt. Vi har en årlig omsättningstillväxt på ca 17%.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Personlig utveckling i fokus: &lt;/strong&gt;Vi tror på att växa tillsammans och investerar i din utveckling. Här hittar du både lokala och internationella karriärmöjligheter.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Hälsa och välmående: &lt;/strong&gt;Din hälsa är viktig för oss. Vi satsar på en bra arbetsmiljö och erbjuder förmåner som främjar både fysiskt och psykiskt välbefinnande.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Engagerade medarbetare: &lt;/strong&gt;Vi har ett eNPS-värde på 58 (Employee Net Promoter Score mäter engagemang och lojalitet hos medarbetare) där benchmark är -2 (över 20 = mycket bra, över 50 = exceptionellt bra).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Mer information om rekryteringsprocessen:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Start: &lt;/strong&gt;Enligt överenskommelse&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plats: &lt;/strong&gt;Hudiksvall&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan: &lt;/strong&gt;Urval och intervjuer sker löpande.&lt;/p&gt;&lt;p&gt;&lt;em&gt;Monitor strävar efter att erbjuda en arbetsplats som är fri från diskriminering och ger lika möjligheter för alla. Vi ser olikheter som en tillgång och uppmuntrar därför en mångfald av sökande till alla våra tjänster. &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Välkommen med din ansökan!&lt;/em&gt;&lt;/p&gt;&lt;p&gt;Bo, leva, verka i Hälsingland - här kan du skapa en vardag som kombinerar livskvalitet med framtidstro. Läs med om livet i Hälsingland här.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{'concept_id': 'asrX_9Df_ukn', 'label': 'Fast och rörlig lön', 'legacy_ams_taxonomy_id': '7'}</t>
+          <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://poddhuset.se', 'organization_number': None, 'name': 'Königsson, Anders', 'workplace': 'Poddhuset'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.monitorerp.com/sv/', 'organization_number': '5560713454', 'name': 'Monitor ERP System AB', 'workplace': 'Monitor ERP System AB'}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': 'info@poddhuset.se', 'via_af': False, 'url': 'http://poddhuset.se', 'other': 'Ansökan via mejl'}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.monitorerp.com/sv/karriaer/lediga-tjaenster/', 'other': None}</t>
         </is>
       </c>
       <c r="U4" t="b">
@@ -1019,12 +1027,12 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>{'concept_id': 'BduY_UUY_pvK', 'label': 'Journalist', 'legacy_ams_taxonomy_id': '6056'}</t>
+          <t>{'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>{'concept_id': 'SgNH_hag_n9D', 'label': 'Journalister m.fl.', 'legacy_ams_taxonomy_id': '2642'}</t>
+          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1034,17 +1042,17 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
+          <t>{'municipality': 'Hudiksvall', 'municipality_code': '2184', 'municipality_concept_id': 'Utks_mwF_axY', 'region': 'Gävleborgs län', 'region_code': '21', 'region_concept_id': 'zupA_8Nt_xcD', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Trädgårdsgatan 7', 'postcode': '82430', 'city': 'Hudiksvall', 'coordinates': [17.104124348186385, 61.73074822591859]}</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'BduY_UUY_pvK', 'label': 'Journalist/Reporter', 'legacy_ams_taxonomy_id': '6056'}], 'education': [{'weight': 10, 'concept_id': 'XscF_9UP_jAQ', 'label': 'Journalistik och information', 'legacy_ams_taxonomy_id': '8'}], 'education_level': [{'weight': 10, 'concept_id': 'asZm_TEQ_Srk', 'label': 'Eftergymnasial utbildning två år eller längre', 'legacy_ams_taxonomy_id': '6'}]}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1054,7 +1062,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2025-09-02T10:38:10</t>
+          <t>2025-09-03T07:45:45</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1072,7 +1080,7 @@
         </is>
       </c>
       <c r="AK4" t="n">
-        <v>1756802290666</v>
+        <v>1756878345782</v>
       </c>
     </row>
     <row r="5">
@@ -1081,14 +1089,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29976561</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>46-202100-3211-852616</t>
-        </is>
-      </c>
+          <t>29980739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -1097,22 +1101,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976561</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980739</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021003211/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/81062974/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bibliotekarie till Avd Vetenskaplig kommunikation, Universitetsbiblioteket</t>
+          <t>Språkanalytiker saho och arabiska - Eritrea</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-09-16T23:59:59</t>
+          <t>2025-10-31T23:59:59</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -1120,12 +1124,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{'text': 'Lunds universitet grundades 1666 och rankas återkommande som ett av världens främsta lärosäten. Här finns omkring 47 000 studenter och mer än 8 800 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\n\nLunds universitet välkomnar sökande med olika bakgrund och erfarenheter. Jämställdhet, lika villkor och mångfald är grundläggande principer för alla delar av vår verksamhet.\n\n\n\r\n\r\nBeskrivning av arbetsplatsen \n\nLunds universitet grundades 1666 och rankas återkommande som ett av världens 100 främsta lärosäten.\r\n\r\nHär finns 40 000 studenter och 7 600 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\nUniversitetsbiblioteket, som är ett fristående bibliotek inom nätverket Lunds Universitets Bibliotek, är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket är också studiecentrum med 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\n\n\nVi erbjuder\n\nLunds universitet är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nLäs mer på universitetets webbplats om att vara anställd hos oss https://www.lu.se/om-universitetet/jobba-hos-oss\n\n\xa0\nArbetsuppgifter och ansvarsområden\n\nAvdelningen för vetenskaplig kommunikation är en av UB:s sju avdelningar. Avdelningen har 17 medarbetare och arbetar främst inom områdena e-media, bibliometri och öppen vetenskap, samt förvaltar system kopplat till dessa områden.\n\nDu kommer arbeta med registervård i Lunds universitets forskningsinformationssystem LUCRIS. Du kommer importera bibliografiska data till systemet, kontrollera registrerad information och ansvara för att data i LUCRIS uppfyller de kvalitetskrav som fastställts av systemförvaltningen.\n\nArbetet kan även innebära tjänstgöring i UB:s informationsdiskar och bemanning av bibliotekets digitala supportkanaler.\n\n\n\nKvalifikationer:\n\n - Ha gedigen kunskap om, och dokumenterad arbetserfarenhet av, katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor.\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\nStor vikt kommer att läggas vid personlig lämplighet. Vi söker dig som är stabil, ansvarstagande, kvalitetsmedveten, noggrann, strukturerad och analytisk. Du har förmåga att arbeta både självständigt och i grupp och medverkar till ett öppet och generöst arbetsklimat.\n\n\xa0\n\nKrav för anställningen är:\n\n - Kunskap om och arbetserfarenhet av katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\n\xa0\n\nÖvrigt:\n\nAnställningen är tidsbegränsad med startdatum 1 oktober 2025 eller enligt överenskommelse, dock längst till 1 juni 2026, med omfattningen 50%.\n\nUniversitetet tillämpar individuell lönesättning. Ange gärna löneanspråk i din ansökan.\n\n\n\n\n\xa0\n\nUniversitetsbiblioteket vid Lunds universitet är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket erbjuder också en studiemiljö med cirka 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\nVi undanber oss alla kontakter från annonsförsäljare, rekryterings- och bemanningsföretag på grund av statliga upphandlingsregler.', 'text_formatted': 'Lunds universitet grundades 1666 och rankas återkommande som ett av världens främsta lärosäten. Här finns omkring 47 000 studenter och mer än 8 800 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\n\nLunds universitet välkomnar sökande med olika bakgrund och erfarenheter. Jämställdhet, lika villkor och mångfald är grundläggande principer för alla delar av vår verksamhet.\n\n\n\r\n\r\nBeskrivning av arbetsplatsen \n\nLunds universitet grundades 1666 och rankas återkommande som ett av världens 100 främsta lärosäten.\r\n\r\nHär finns 40 000 studenter och 7 600 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\nUniversitetsbiblioteket, som är ett fristående bibliotek inom nätverket Lunds Universitets Bibliotek, är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket är också studiecentrum med 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\n\n\nVi erbjuder\n\nLunds universitet är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nLäs mer på universitetets webbplats om att vara anställd hos oss https://www.lu.se/om-universitetet/jobba-hos-oss\n\n\xa0\nArbetsuppgifter och ansvarsområden\n\nAvdelningen för vetenskaplig kommunikation är en av UB:s sju avdelningar. Avdelningen har 17 medarbetare och arbetar främst inom områdena e-media, bibliometri och öppen vetenskap, samt förvaltar system kopplat till dessa områden.\n\nDu kommer arbeta med registervård i Lunds universitets forskningsinformationssystem LUCRIS. Du kommer importera bibliografiska data till systemet, kontrollera registrerad information och ansvara för att data i LUCRIS uppfyller de kvalitetskrav som fastställts av systemförvaltningen.\n\nArbetet kan även innebära tjänstgöring i UB:s informationsdiskar och bemanning av bibliotekets digitala supportkanaler.\n\n\n\nKvalifikationer:\n\n - Ha gedigen kunskap om, och dokumenterad arbetserfarenhet av, katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor.\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\nStor vikt kommer att läggas vid personlig lämplighet. Vi söker dig som är stabil, ansvarstagande, kvalitetsmedveten, noggrann, strukturerad och analytisk. Du har förmåga att arbeta både självständigt och i grupp och medverkar till ett öppet och generöst arbetsklimat.\n\n\xa0\n\nKrav för anställningen är:\n\n - Kunskap om och arbetserfarenhet av katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\n\xa0\n\nÖvrigt:\n\nAnställningen är tidsbegränsad med startdatum 1 oktober 2025 eller enligt överenskommelse, dock längst till 1 juni 2026, med omfattningen 50%.\n\nUniversitetet tillämpar individuell lönesättning. Ange gärna löneanspråk i din ansökan.\n\n\n\n\n\xa0\n\nUniversitetsbiblioteket vid Lunds universitet är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket erbjuder också en studiemiljö med cirka 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\nVi undanber oss alla kontakter från annonsförsäljare, rekryterings- och bemanningsföretag på grund av statliga upphandlingsregler.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '50. Tillträde: Snarast eller efter överenskommelse\r\nVisstidsanställning till '}</t>
+          <t>{'text': 'Please note that we seek a Saho and Arabic speaker from Eritrea.\nThe job entails\n·       carrying out and recording interviews for dialect analysis,\n·       listening to recorded speech and using a specific template to report the details of the dialect spoken.\nThe work will be carried out remotely via audio link.\nVerified AB is one of the largest companies in Europe to provide language analysis. Our clients are primarily authorities concerned with asylum matters. The analyses support the authorities in determining the background of asylum seekers. In each case, a language analyst with a specific linguistic and areal competence is involved. The native speaker analysts work together with Verified’s linguists.\nTo work as a language analyst for Saho/Arabic, you should\n- speak Saho and Arabic as spoken in Eritrea\n- have in-depth knowledge of the area where Saho is spoken (born and raised/long-term residence) and be well acquainted with the social, cultural and political situation there\n- be familiar with dialectal variation in Saho and Eritrean Arabic and its relationship to neighbouring languages\n-  be aware of current developments in the Saho community in Eritrea\n- be able to express yourself clearly and correctly in English (or Swedish)\n- have good computer skills\nWe value punctuality, orderliness and dependability among our analysts.\nThere are presently only a few requests per year for analysis of Saho/ Eritrean Arabic and work will be assigned on a case-by-case basis. This job is suitable as a sideline for a language enthusiast.\nPlease write your application in English/Swedish and include a curriculum vitae (CV). Make sure that the CV shows your educational background and employment history.\nThe successful applicant must submit a clean criminal record prior to employment.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Please note&lt;/strong&gt; that we seek a Saho and Arabic speaker from Eritrea.&lt;/p&gt;&lt;p&gt;The job entails&lt;/p&gt;&lt;p&gt;·       carrying out and recording interviews for dialect analysis,&lt;/p&gt;&lt;p&gt;·       listening to recorded speech and using a specific template to report the details of the dialect spoken.&lt;/p&gt;&lt;p&gt;The work will be carried out remotely via audio link.&lt;/p&gt;&lt;p&gt;Verified AB is one of the largest companies in Europe to provide language analysis. Our clients are primarily authorities concerned with asylum matters. The analyses support the authorities in determining the background of asylum seekers. In each case, a language analyst with a specific linguistic and areal competence is involved. The native speaker analysts work together with Verified’s linguists.&lt;/p&gt;&lt;p&gt;To work as a language analyst for Saho/Arabic, you should&lt;/p&gt;&lt;p&gt;- speak Saho and Arabic as spoken in Eritrea&lt;/p&gt;&lt;p&gt;- have in-depth knowledge of the area where Saho is spoken (born and raised/long-term residence) and be well acquainted with the social, cultural and political situation there&lt;/p&gt;&lt;p&gt;- be familiar with dialectal variation in Saho and Eritrean Arabic and its relationship to neighbouring languages&lt;/p&gt;&lt;p&gt;-  be aware of current developments in the Saho community in Eritrea&lt;/p&gt;&lt;p&gt;- be able to express yourself clearly and correctly in English (or Swedish)&lt;/p&gt;&lt;p&gt;- have good computer skills&lt;/p&gt;&lt;p&gt;We value punctuality, orderliness and dependability among our analysts.&lt;/p&gt;&lt;p&gt;There are presently only a few requests per year for analysis of Saho/ Eritrean Arabic and work will be assigned on a case-by-case basis. This job is suitable as a sideline for a language enthusiast.&lt;/p&gt;&lt;p&gt;Please write your application in English/Swedish and include a curriculum vitae (CV). Make sure that the CV shows your educational background and employment history.&lt;/p&gt;&lt;p&gt;The successful applicant must submit a clean criminal record prior to employment.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1133,39 +1137,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Månadslön</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Xj7x_7yZ_jEn', 'label': '3 månader – upp till 6 månader', 'legacy_ams_taxonomy_id': '3'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2021003211', 'name': 'Lunds Universitet', 'workplace': 'Lunds universitet, 009999 LUNDS UNIVERSITET, 820000 ÖVR VERK'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.verified.se', 'organization_number': '5566385190', 'name': 'Verified AB', 'workplace': 'VERIFIED AB'}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'PA2025/2478', 'email': None, 'via_af': False, 'url': 'https://lu.varbi.com/what:job/jobID:852616/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': 'Saho och arabiska / Eritrea', 'email': 'jobb@verified.se', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1176,12 +1176,12 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
+          <t>{'concept_id': 'vaEY_R9R_LjB', 'label': 'Tolk', 'legacy_ams_taxonomy_id': '6037'}</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'PQDm_Z63_zst', 'label': 'Översättare, tolkar och lingvister m.fl.', 'legacy_ams_taxonomy_id': '2643'}</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>{'municipality': 'Lund', 'municipality_code': '1281', 'municipality_concept_id': 'muSY_tsR_vDZ', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.191008, 55.70466]}</t>
+          <t>{'municipality': None, 'municipality_code': None, 'municipality_concept_id': None, 'region': None, 'region_code': None, 'region_concept_id': None, 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'w9hf_iyH_FCH', 'label': 'Saho', 'legacy_ams_taxonomy_id': '10519'}, {'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}, {'weight': 10, 'concept_id': '3iEY_RGP_qXq', 'label': 'Arabiska', 'legacy_ams_taxonomy_id': '247'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'WyA4_g1g_jS4', 'label': 'Auktoriserad tolk', 'legacy_ams_taxonomy_id': '342'}, {'weight': 5, 'concept_id': 'ppnH_9N4_FE2', 'label': 'Språk, undervisning högskolenivå', 'legacy_ams_taxonomy_id': '608259'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Kristoffer Holmqvist, Avdelningschef', 'email': 'kristoffer.holmqvist@ub.lu.se', 'telephone': '046-2228255', 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2025-09-02T10:20:16</t>
+          <t>2025-09-03T01:41:25</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2025-09-16T23:59:59</t>
+          <t>2025-10-31T23:59:59</t>
         </is>
       </c>
       <c r="AH5" t="b">
@@ -1225,11 +1225,11 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK5" t="n">
-        <v>1756801216263</v>
+        <v>1756856625726</v>
       </c>
     </row>
     <row r="6">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29976477</t>
+          <t>29970771</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>46-232100-0016-840996</t>
+          <t>46-212000-0126-EBDBC467996F4663908DE7591A0E66CD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976477</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29970771</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2321000016/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2120000126/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tillsynsarkivarie</t>
+          <t>Arkivarie med ansvar för digital arkiv- och informationshantering</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-09-21T23:59:59</t>
+          <t>2025-09-22T23:59:59</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{'text': 'Är du utåtriktad och driven med ett positivt förhållningssätt samtidigt som du brinner för framtidens arkivfrågor? Nu har du chansen att tillsammans med en kompetent, ambitiös och inkluderande grupp kollegor få arbeta med styrning kring informationshantering och arkiv.\r\n\r\nOm oss\n\nRegion Stockholm är en av landets största myndigheter och regionens verksamheter genererar varje dag mängder av information. Regionarkivet har uppdraget att agera som Region Stockholms arkivmyndighet och ansvarar för styrning och uppföljning av regionens informationshantering.\xa0I vårt uppdrag ingår också att långtidslagra, vårda och tillhandahålla regionens arkiv för att de ska kunna användas av regionens verksamheter, myndigheter, allmänhet och forskning idag och i framtiden. Regionarkivet består av enheterna Informationsstyrning och tillsyn, Arkiv- och informationsförvaltning och SVAR.\n\nOm tjänsten\n\nEnheten Informationsstyrning och tillsyn har som uppdrag att styra och följa upp informationshanteringen inom Region Stockholms förvaltningar, bolag och stiftelser. Det gör vi genom att ta fram och förvalta de styrande och stödjande dokument som krävs, vi följer också upp hur regelverket efterlevs genom att bland annat utföra inspektioner.\n\nDina arbetsuppgifter innefattar både arbetsgruppens gemensamma uppgifter samt egna uppdrag och ansvarsområden. Mycket av enhetens arbete är utåtriktat med täta externa kontakter inom Region Stockholm. Du handhar samrådsärenden, deltar i nätverk och håller i utbildningar. I\xa0 tjänsten ingår också utrednings- och utvecklingsarbete.\n\nI rollen som tillsynsarkivarie gör du en viktig insats för att säkerställa att Region Stockholms allmänna handlingar hanteras korrekt och effektivt och tillsammans med 6 drivna kolleger arbetar du för en informationshantering med ett livscykelperspektiv.\n\nJag som kommer att bli din chef heter Monica Dahlgren. Jag brinner för att skapa en god arbetsmiljö där medarbetare trivs och ges möjlighet att utvecklas – både i sin yrkesroll och tillsammans med verksamheten.\n\nVem är du?\n\nVi söker dig med ett positivt och öppet förhållningssätt. Regionens myndigheter är våra kunder och det är viktigt att vi bemöter dem på ett professionellt sätt. Du är kreativ och kan arbeta självständigt men också på ett engagerande och drivande sätt medverka i arbetsgrupper för att bidra till enhetens, Regionarkivets och Region Stockholms utveckling. Du är en problemlösare med god analytisk förmåga som ser sammanhang, hanterar komplexa frågor och fokuserar på möjligheter snarare än hinder.\xa0 Du kommer att samarbeta mycket med olika verksamheter så förmåga att bygga relationer i kombination med kommunikativ förmåga är viktiga egenskaper för att lyckas i rollen.\n\nFör att passa i rollen har du erfarenhet av att ha arbetat som arkivarie, gärna inom offentlig förvaltning. Du ska ha examen från högskola eller universitet där arkivvetenskap ingår, alternativt annan relevant högskoleutbildning. Du ska ha mycket goda kunskaper i svenska, såväl i tal som i skrift.\n\nDet är meriterande om du har juridisk utbildning/kompetens, gärna med inriktning mot Tryckfrihetsförordningen och Offentlighets- och sekretesslagen.\n\nFör oss är det viktigt att hitta rätt person till uppdraget, och därför fäster vi stor vikt vid personliga egenskaper.\n\nVårt erbjudande\n\nHos Regionarkivet får du arbeta tillsammans med kompetenta och erfarna kollegor som ser fram emot att välkomna dig och din kompetens till teamet.\n\nVi har kollektivavtal och med det följer kollektivavtalade försäkringar, tjänstepension och möjlighet till löneväxling. För att du ska kunna ta ansvar för din hälsa erbjuder vi friskvårdsbidrag, friskvårdstimme samt subventionerad sjukvård i form av kostnadsfri öppensjukvård. Vi har flexibel arbetstid och möjlighet till distansavtal för att underlätta för dig att få ihop vardagen. Här kan du läsa mer om förmånerna i vårt kollektivavtal.\n\nRegionarkivet finns i rymliga och nyrenoverade lokaler i Flemingsberg med egna kontor och tillgång till eget gym.\n\nAnsökan\n\nLåter det här som något för dig ser vi gärna att du söker så snart som möjligt genom att bifoga CV och personligt brev. Intervjuerna sker löpande så vänta inte med din ansökan.\n\nHar du frågor är du välkommen att kontakta:\n\nMonica Dahlgren,\xa0Enhetschef Informationsstyrning och tillsyn\n\nTelefon: 08-123 188 80, e-post: monica.dahlgren@regionstockholm.se\nKulturförvaltningen arbetar för att regionens invånare får tillgång till ett rikt och mångsidigt kulturliv. Med ekonomiskt stöd, som beslutas av Region Stockholms kulturnämnd, stöttar förvaltningen kultur- och föreningslivet i länet. Kulturförvaltningen arbetar också med konst och kultur i vården. Kulturnämnden är även arkivmyndighet för Region Stockholm. https://www.regionstockholm.se/om-region-stockholm/organisation/forvaltningar/kulturforvaltningen/. Följ oss gärna på https://www.linkedin.com/company/kulturf%C3%B6rvaltningen/about/=.\n\nAtt söka jobb i Region Stockholm\n\nVi eftersträvar jämställdhet och jämlikhet på vår arbetsplats och ser gärna sökande med olika bakgrund och förutsättningar.\n\n\nVi tar endast emot ansökningar via detta system. Ansök genom att klicka på knappen ”Ansök”. Ansökningar per brev eller e-post beaktas inte. Vi undanber oss direktkontakt med bemannings- och rekryteringsföretag samt säljare av ytterligare jobbannonser.\n\n\nVårt rekryteringssystem kan inte hantera anonyma ansökningar eller sökande med skyddade personuppgifter. Om du har skyddade personuppgifter ber vi dig att kontakta den kontaktpersonen som finns angiven i annonsen. Din ansökan kommer då att hanteras utanför rekryteringssystemet. Du bör även vara försiktig med vilken information du lämnar i din ansökan och endast ta med information som är relevant för den aktuella befattningen.\n\n\nRegion Stockholm ansvarar för hälso- och sjukvård, kollektivtrafik, regional utveckling och bidrar till kulturlivet. Varje dag, dygnet runt. I landets snabbaste växande region. Tillsammans skapar vi Europas attraktivaste storstadsregion.\n\n\nhttps://www.regionstockholm.se/jobb', 'text_formatted': 'Är du utåtriktad och driven med ett positivt förhållningssätt samtidigt som du brinner för framtidens arkivfrågor? Nu har du chansen att tillsammans med en kompetent, ambitiös och inkluderande grupp kollegor få arbeta med styrning kring informationshantering och arkiv.\r\n\r\nOm oss\n\nRegion Stockholm är en av landets största myndigheter och regionens verksamheter genererar varje dag mängder av information. Regionarkivet har uppdraget att agera som Region Stockholms arkivmyndighet och ansvarar för styrning och uppföljning av regionens informationshantering.\xa0I vårt uppdrag ingår också att långtidslagra, vårda och tillhandahålla regionens arkiv för att de ska kunna användas av regionens verksamheter, myndigheter, allmänhet och forskning idag och i framtiden. Regionarkivet består av enheterna Informationsstyrning och tillsyn, Arkiv- och informationsförvaltning och SVAR.\n\nOm tjänsten\n\nEnheten Informationsstyrning och tillsyn har som uppdrag att styra och följa upp informationshanteringen inom Region Stockholms förvaltningar, bolag och stiftelser. Det gör vi genom att ta fram och förvalta de styrande och stödjande dokument som krävs, vi följer också upp hur regelverket efterlevs genom att bland annat utföra inspektioner.\n\nDina arbetsuppgifter innefattar både arbetsgruppens gemensamma uppgifter samt egna uppdrag och ansvarsområden. Mycket av enhetens arbete är utåtriktat med täta externa kontakter inom Region Stockholm. Du handhar samrådsärenden, deltar i nätverk och håller i utbildningar. I\xa0 tjänsten ingår också utrednings- och utvecklingsarbete.\n\nI rollen som tillsynsarkivarie gör du en viktig insats för att säkerställa att Region Stockholms allmänna handlingar hanteras korrekt och effektivt och tillsammans med 6 drivna kolleger arbetar du för en informationshantering med ett livscykelperspektiv.\n\nJag som kommer att bli din chef heter Monica Dahlgren. Jag brinner för att skapa en god arbetsmiljö där medarbetare trivs och ges möjlighet att utvecklas – både i sin yrkesroll och tillsammans med verksamheten.\n\nVem är du?\n\nVi söker dig med ett positivt och öppet förhållningssätt. Regionens myndigheter är våra kunder och det är viktigt att vi bemöter dem på ett professionellt sätt. Du är kreativ och kan arbeta självständigt men också på ett engagerande och drivande sätt medverka i arbetsgrupper för att bidra till enhetens, Regionarkivets och Region Stockholms utveckling. Du är en problemlösare med god analytisk förmåga som ser sammanhang, hanterar komplexa frågor och fokuserar på möjligheter snarare än hinder.\xa0 Du kommer att samarbeta mycket med olika verksamheter så förmåga att bygga relationer i kombination med kommunikativ förmåga är viktiga egenskaper för att lyckas i rollen.\n\nFör att passa i rollen har du erfarenhet av att ha arbetat som arkivarie, gärna inom offentlig förvaltning. Du ska ha examen från högskola eller universitet där arkivvetenskap ingår, alternativt annan relevant högskoleutbildning. Du ska ha mycket goda kunskaper i svenska, såväl i tal som i skrift.\n\nDet är meriterande om du har juridisk utbildning/kompetens, gärna med inriktning mot Tryckfrihetsförordningen och Offentlighets- och sekretesslagen.\n\nFör oss är det viktigt att hitta rätt person till uppdraget, och därför fäster vi stor vikt vid personliga egenskaper.\n\nVårt erbjudande\n\nHos Regionarkivet får du arbeta tillsammans med kompetenta och erfarna kollegor som ser fram emot att välkomna dig och din kompetens till teamet.\n\nVi har kollektivavtal och med det följer kollektivavtalade försäkringar, tjänstepension och möjlighet till löneväxling. För att du ska kunna ta ansvar för din hälsa erbjuder vi friskvårdsbidrag, friskvårdstimme samt subventionerad sjukvård i form av kostnadsfri öppensjukvård. Vi har flexibel arbetstid och möjlighet till distansavtal för att underlätta för dig att få ihop vardagen. Här kan du läsa mer om förmånerna i vårt kollektivavtal.\n\nRegionarkivet finns i rymliga och nyrenoverade lokaler i Flemingsberg med egna kontor och tillgång till eget gym.\n\nAnsökan\n\nLåter det här som något för dig ser vi gärna att du söker så snart som möjligt genom att bifoga CV och personligt brev. Intervjuerna sker löpande så vänta inte med din ansökan.\n\nHar du frågor är du välkommen att kontakta:\n\nMonica Dahlgren,\xa0Enhetschef Informationsstyrning och tillsyn\n\nTelefon: 08-123 188 80, e-post: monica.dahlgren@regionstockholm.se\nKulturförvaltningen arbetar för att regionens invånare får tillgång till ett rikt och mångsidigt kulturliv. Med ekonomiskt stöd, som beslutas av Region Stockholms kulturnämnd, stöttar förvaltningen kultur- och föreningslivet i länet. Kulturförvaltningen arbetar också med konst och kultur i vården. Kulturnämnden är även arkivmyndighet för Region Stockholm. https://www.regionstockholm.se/om-region-stockholm/organisation/forvaltningar/kulturforvaltningen/. Följ oss gärna på https://www.linkedin.com/company/kulturf%C3%B6rvaltningen/about/=.\n\nAtt söka jobb i Region Stockholm\n\nVi eftersträvar jämställdhet och jämlikhet på vår arbetsplats och ser gärna sökande med olika bakgrund och förutsättningar.\n\n\nVi tar endast emot ansökningar via detta system. Ansök genom att klicka på knappen ”Ansök”. Ansökningar per brev eller e-post beaktas inte. Vi undanber oss direktkontakt med bemannings- och rekryteringsföretag samt säljare av ytterligare jobbannonser.\n\n\nVårt rekryteringssystem kan inte hantera anonyma ansökningar eller sökande med skyddade personuppgifter. Om du har skyddade personuppgifter ber vi dig att kontakta den kontaktpersonen som finns angiven i annonsen. Din ansökan kommer då att hanteras utanför rekryteringssystemet. Du bör även vara försiktig med vilken information du lämnar i din ansökan och endast ta med information som är relevant för den aktuella befattningen.\n\n\nRegion Stockholm ansvarar för hälso- och sjukvård, kollektivtrafik, regional utveckling och bidrar till kulturlivet. Varje dag, dygnet runt. I landets snabbaste växande region. Tillsammans skapar vi Europas attraktivaste storstadsregion.\n\n\nhttps://www.regionstockholm.se/jobb', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100 %. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
+          <t>{'text': 'Var med och gör Sveriges bästa kommun ännu bättre. Danderyds kommun erbjuder gemenskap, utveckling och delaktighet på jobbet. Vi gör skillnad och skapar värde i vardagen i dialog med alla som lever, bor och verkar här. Genom närhet och korta beslutsvägar får du möjlighet att ta ansvar och jobba med både delar och helhet i ditt yrke. Här växer vi tillsammans med engagerade invånare, företag och kompetenta kollegor i trädgårdsstadens vackra miljö. Ta steget till ett utvecklande och hållbart arbetsliv i en lagom stor kommun nära allt.\n\nTjänsten är placerad på Kommunledningskontorets kansli. Kanslienheten ansvarar bl.a. för arkiv, registratur, nämndsekretariat och överförmyndarverksamheten. Tjänsten är en tillsvidareanställning.\xa0\n\nHar du stort intresse för digital arkiv- och informationshantering, verksamhetsutveckling och e-arkiv? Då söker vi dig!\r\n\r\nARBETSUPPGIFTER\nI rollen som arkivarie med ansvar för verksamhetsutveckling och e-arkiv är du expert inom digital arkiv- och informationshantering. I ditt arbete kommer du att ha nära kontakter med kommunens övriga förvaltningar samt IT-enheten.\n\nDu är ansvarig för att planera och samordna utveckling och införande av leveransprocessen till det kommungemensamma e-arkivet. Du kommer att kravställa leveranser från verksamhetssystemen samt att fungera som en brygga mellan teknik och verksamheter, såsom användarstöd, support och systemvård.\n\nSom arkivarie med ansvar för digital arkiv- och informationshantering kommer du proaktivt ta fram strategier och styrdokument för kommunens digitala arkiv- och informationshantering. Du förväntas vara ett stöd till de kommunala verksamheterna.\n\nI rollen kommer du att leda utvecklingsprojekt med inriktning på digitalisering, arkiv- och informationshantering. Du är systemförvaltare och ansvarar för att vidareutveckla kommunens e-arkiv.\xa0\n\nÖvriga sedvanliga arkivuppgifter förekommer även i denna tjänst.\r\n\r\nKVALIFIKATIONER\nVi söker dig som har:\n\n\t• Akademisk examen inom arkiv- och informationshantering eller annan likvärdig dokumenterad erfarenhet\n\t• God kommunikationsförmåga och behärskar svenska och engelska obehindrat i tal och skrift\n\t• Erfarenhet av att arbeta med e-arkiv\n\nDet är meriterande om du har:\n\n\t• Erfarenhet av att leda projekt\n\t• Arbetat som systemförvaltare\n\t• Arbetat i en politisk styrd organisation\n\nVi söker en driven arkivarie som har förmåga att lösa problem utan att missa de långsiktiga strategierna, och kan se logik och samband i komplex information. Du arbetar enligt en tydlig process och organiserar och planerar ditt arbete väl. Du har förmågan att snabbt hitta lösningar på uppkomna problem och har ambitionen att ständigt kompetensutveckla dig själv och omvärldsbevakar. Vi lägger stor vikt vid personlig lämplighet.\n\nProvanställning kan komma att tillämpas.\r\n\nÖVRIGT\nDanderyds kommun strävar efter en personalsammansättning som speglar samhällets mångfald. Vi erbjuder en spännande arbetsplats med många trevliga och kunniga medarbetare. Besök gärna vår jobbportal https://www.danderyd.se/ovriga-verksamheter/jobb/ om du vill veta vad våra chefer säger om kommunens uppdrag och utvecklingen framåt. Här kan du också samla information, bland annat om våra förmåner. Mer information om vår verksamhet hittar du på www.danderyd.se.\n\nFör att kvalitetssäkra rekryteringsprocessen i Danderyds kommun samt möjliggöra god kommunikation med våra sökande önskar vi att du skickar in din ansökan digitalt enligt ovan.\n\nBetyg och övriga handlingar tar du med vid en eventuell intervju.\n\nVarmt välkommen med din ansökan!\n\nVi undanber oss alla erbjudanden om annonserings- och rekryteringshjälp i samband med denna annons.', 'text_formatted': 'Var med och gör Sveriges bästa kommun ännu bättre. Danderyds kommun erbjuder gemenskap, utveckling och delaktighet på jobbet. Vi gör skillnad och skapar värde i vardagen i dialog med alla som lever, bor och verkar här. Genom närhet och korta beslutsvägar får du möjlighet att ta ansvar och jobba med både delar och helhet i ditt yrke. Här växer vi tillsammans med engagerade invånare, företag och kompetenta kollegor i trädgårdsstadens vackra miljö. Ta steget till ett utvecklande och hållbart arbetsliv i en lagom stor kommun nära allt.\n\nTjänsten är placerad på Kommunledningskontorets kansli. Kanslienheten ansvarar bl.a. för arkiv, registratur, nämndsekretariat och överförmyndarverksamheten. Tjänsten är en tillsvidareanställning.\xa0\n\nHar du stort intresse för digital arkiv- och informationshantering, verksamhetsutveckling och e-arkiv? Då söker vi dig!\r\n\r\nARBETSUPPGIFTER\nI rollen som arkivarie med ansvar för verksamhetsutveckling och e-arkiv är du expert inom digital arkiv- och informationshantering. I ditt arbete kommer du att ha nära kontakter med kommunens övriga förvaltningar samt IT-enheten.\n\nDu är ansvarig för att planera och samordna utveckling och införande av leveransprocessen till det kommungemensamma e-arkivet. Du kommer att kravställa leveranser från verksamhetssystemen samt att fungera som en brygga mellan teknik och verksamheter, såsom användarstöd, support och systemvård.\n\nSom arkivarie med ansvar för digital arkiv- och informationshantering kommer du proaktivt ta fram strategier och styrdokument för kommunens digitala arkiv- och informationshantering. Du förväntas vara ett stöd till de kommunala verksamheterna.\n\nI rollen kommer du att leda utvecklingsprojekt med inriktning på digitalisering, arkiv- och informationshantering. Du är systemförvaltare och ansvarar för att vidareutveckla kommunens e-arkiv.\xa0\n\nÖvriga sedvanliga arkivuppgifter förekommer även i denna tjänst.\r\n\r\nKVALIFIKATIONER\nVi söker dig som har:\n\n\t• Akademisk examen inom arkiv- och informationshantering eller annan likvärdig dokumenterad erfarenhet\n\t• God kommunikationsförmåga och behärskar svenska och engelska obehindrat i tal och skrift\n\t• Erfarenhet av att arbeta med e-arkiv\n\nDet är meriterande om du har:\n\n\t• Erfarenhet av att leda projekt\n\t• Arbetat som systemförvaltare\n\t• Arbetat i en politisk styrd organisation\n\nVi söker en driven arkivarie som har förmåga att lösa problem utan att missa de långsiktiga strategierna, och kan se logik och samband i komplex information. Du arbetar enligt en tydlig process och organiserar och planerar ditt arbete väl. Du har förmågan att snabbt hitta lösningar på uppkomna problem och har ambitionen att ständigt kompetensutveckla dig själv och omvärldsbevakar. Vi lägger stor vikt vid personlig lämplighet.\n\nProvanställning kan komma att tillämpas.\r\n\nÖVRIGT\nDanderyds kommun strävar efter en personalsammansättning som speglar samhällets mångfald. Vi erbjuder en spännande arbetsplats med många trevliga och kunniga medarbetare. Besök gärna vår jobbportal https://www.danderyd.se/ovriga-verksamheter/jobb/ om du vill veta vad våra chefer säger om kommunens uppdrag och utvecklingen framåt. Här kan du också samla information, bland annat om våra förmåner. Mer information om vår verksamhet hittar du på www.danderyd.se.\n\nFör att kvalitetssäkra rekryteringsprocessen i Danderyds kommun samt möjliggöra god kommunikation med våra sökande önskar vi att du skickar in din ansökan digitalt enligt ovan.\n\nBetyg och övriga handlingar tar du med vid en eventuell intervju.\n\nVarmt välkommen med din ansökan!\n\nVi undanber oss alla erbjudanden om annonserings- och rekryteringshjälp i samband med denna annons.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid.  Dagtid.\r\nTillsvidareanställning, tillträde: Enligt överenskommelse.'}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1313,16 +1313,16 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2321000016', 'name': 'REGION STOCKHOLM', 'workplace': 'Regionarkivet'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120000126', 'name': 'Danderyds kommun', 'workplace': 'Danderyds kommun, Kanslienheten'}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '2025/4291', 'email': None, 'via_af': False, 'url': 'https://regionstockholm.varbi.com/what:job/jobID:840996/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': 'C269003', 'email': None, 'via_af': False, 'url': 'https://recruit.visma.com/spa/public/apply?guidAssignment=ebdbc467-996f-4663-908d-e7591a0e66cd&amp;publishCode=AMS&amp;TK=d27972a8-bfd8-4e29-b4d6-c3b5d54b101b', 'other': None}</t>
         </is>
       </c>
       <c r="U6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -1348,12 +1348,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>{'municipality': 'Huddinge', 'municipality_code': '0126', 'municipality_concept_id': 'g1Gc_aXK_EKu', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [17.982157, 59.23633]}</t>
+          <t>{'municipality': 'Danderyd', 'municipality_code': '0162', 'municipality_concept_id': 'E4CV_a5E_ucX', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.019075, 59.407906]}</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Monica Dahlgren', 'email': None, 'telephone': '08-12318880', 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'André Schembri', 'email': 'andre.schembri@danderyd.se', 'telephone': '+46 8 56891918', 'contact_type': 'Kanslichef '}]</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2025-09-02T10:08:16</t>
+          <t>2025-09-03T00:00:00</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2025-09-21T23:59:59</t>
+          <t>2025-09-22T23:59:59</t>
         </is>
       </c>
       <c r="AH6" t="b">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="AK6" t="n">
-        <v>1756802055860</v>
+        <v>1756715716634</v>
       </c>
     </row>
     <row r="7">
@@ -1395,14 +1395,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29976463</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>46-559359-5001-302922-182755</t>
-        </is>
-      </c>
+          <t>29980633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -1411,26 +1407,26 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976463</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980633</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Professional / Senior Narrative Animator</t>
+          <t>Quality Inspector</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-02-02T23:59:59</t>
+          <t>2025-10-02T23:59:59</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{'text': "Remedy Entertainment, the creator of Control®, Max Payne®, Alan Wake®, and one of the leading independent game studios in the world, is looking for a Professional / Senior Narrative Animator to work on the highly anticipated remake of Max Payne 1 &amp; 2.\n\nDo you want to create exciting and memorable gameplay experiences, crafting dynamic in-game animations centered around Narrative Storytelling and world building?   \n\nAs a Professional / Senior Narrative Animator, you’ll have the chance to be a key influencer in creating the Narrative Experience Players will enjoy, time and time again.  You should be passionate about the craft of animation, in combination with visual storytelling and the enhancement of the Narrative. The ideal candidate will display an ability to marry the visual with the technical to create appealing sequences and experiences for Players.   \n\nYou will create believable character performances, working on an incredible remake of a beloved classic, as a part of a solid and experienced team.     \n\nWe enthusiastically welcome diverse viewpoints and backgrounds. We at Remedy value and are committed to ensuring an inclusive and safe work environment for all our team members.   \nWHAT YOU GET TO DO\n\n\n    \n - In this role you will have the chance to bring characters to life by creating and maintaining high quality animations that support the Narrative Design.   \n - You will animate a whole host of characters, along with vehicles and any environmental assets that help bring the world to life through visual storytelling means. \n - You will develop and create animations for Player, Enemy and Companion NPC's using motion capture and hand-keyed animations.  \n - You will successfully collaborate with Directors, Narrative Designers, Level Designers and Environment/Hard-Surface Artists to enable a fast prototyping workflow, secure animation quality, and make sure that the Animation and Narrative Design guidelines are met. \n - You will design, capture, and help integrate animations into our own proprietary Northlight engine while ensuring technical design constraints are met. \n - You will also collaborate with the project team, communicating effectively and proactively, so that the development process runs smoothly.\n\n\n    WHAT YOU BRING TO THE ROLE\n\n\n    \n\n - You are an experienced Animator, having already worked in game development, with solid skills in keyframe animation (great sense of weight, timing and strong posing) \n - You have a strong understanding of Motion Builder and mocap data editing techniques for games.   \n - You have a solid understanding of Narrative storytelling and character performance design in relation to Player experiences and actions. \n - You are able to craft appealing animations, having an excellent understanding of shape, composition and layout – Cinematography and camera techniques a bonus.   \n - You have experience using game engines and hands-on experience working with state machine/blend tree solutions (knowledge of motion matching is a plus).   \n - You are adept at organising and managing your work to reach milestone goals and deliverables. \n - You can give and receive constructive feedback when interacting with other team members, keeping the focus on making the best game possible.   \n - It's a plus if you have prior experience, knowledge or interest in scripting or programming languages. \n\n\n    WHAT'S IN IT FOR YOU?\n\n\n - At Remedy you get to work on awesome, memorable game experiences for our players, in a studio where your input is valued and your creative freedom is encouraged.   \n - We work in an environment that values both individual and team-work, ensuring that everyone’s voice is heard &amp; workload stays sensible. We believe in and support work-life balance. Happy people work better!  \n - We offer an extensive set of employee benefits and an annual bonus system as well as opportunities for you to develop your skills further. On top of this, in Finland and Sweden you get up to 5 weeks of paid vacation, in addition to public holidays and other special occasions.   \n - Our studio is based in Helsinki metropolitan area in Finland, a safe country, with exceptional quality of life, free education and pristine nature at your doorstep. If you're not already in Finland, our relocation service is there every step of the way to take care of you. You can concentrate on work, while we take care of everything else!  \n - If you are based in Sweden, we also welcome candidates to our new location in Stockholm.  \nTo apply, please fill in the application form with your demo reel, CV (in English) and other information relevant to the position. The position will be filled as soon as a suitable applicant is found.#LI-VR1\r\n\n\nJoin us and you’ll discover a vibrant, connected universe filled with stories and characters that stay with you long after you switch off.\u200b\u200b\n\nOver the past 25 years we’ve built a unique, people-first environment where\u200b courageous creativity thrives. You might be surprised by the next thing we release,\u200b but you’ll have no doubt it’s Remedy.\n\nThe Remedy culture consists of three core values. They describe who we are and how we work and interact together. We base our decisions and actions on camaraderie, pioneering spirit, and smart creativity. Our three core values together make us One Remedy.", 'text_formatted': "Remedy Entertainment, the creator of Control®, Max Payne®, Alan Wake®, and one of the leading independent game studios in the world, is looking for a Professional / Senior Narrative Animator to work on the highly anticipated remake of Max Payne 1 &amp;amp; 2.\n\nDo you want to create exciting and memorable gameplay experiences, crafting dynamic in-game animations centered around Narrative Storytelling and world building?   \n\nAs a Professional / Senior Narrative Animator, you’ll have the chance to be a key influencer in creating the Narrative Experience Players will enjoy, time and time again.  You should be passionate about the craft of animation, in combination with visual storytelling and the enhancement of the Narrative. The ideal candidate will display an ability to marry the visual with the technical to create appealing sequences and experiences for Players.   \n\nYou will create believable character performances, working on an incredible remake of a beloved classic, as a part of a solid and experienced team.     \n\nWe enthusiastically welcome diverse viewpoints and backgrounds. We at Remedy value and are committed to ensuring an inclusive and safe work environment for all our team members.   \nWHAT YOU GET TO DO\n\n\n    \n - In this role you will have the chance to bring characters to life by creating and maintaining high quality animations that support the Narrative Design.   \n - You will animate a whole host of characters, along with vehicles and any environmental assets that help bring the world to life through visual storytelling means. \n - You will develop and create animations for Player, Enemy and Companion NPC's using motion capture and hand-keyed animations.  \n - You will successfully collaborate with Directors, Narrative Designers, Level Designers and Environment/Hard-Surface Artists to enable a fast prototyping workflow, secure animation quality, and make sure that the Animation and Narrative Design guidelines are met. \n - You will design, capture, and help integrate animations into our own proprietary Northlight engine while ensuring technical design constraints are met. \n - You will also collaborate with the project team, communicating effectively and proactively, so that the development process runs smoothly.\n\n\n    WHAT YOU BRING TO THE ROLE\n\n\n    \n\n - You are an experienced Animator, having already worked in game development, with solid skills in keyframe animation (great sense of weight, timing and strong posing) \n - You have a strong understanding of Motion Builder and mocap data editing techniques for games.   \n - You have a solid understanding of Narrative storytelling and character performance design in relation to Player experiences and actions. \n - You are able to craft appealing animations, having an excellent understanding of shape, composition and layout – Cinematography and camera techniques a bonus.   \n - You have experience using game engines and hands-on experience working with state machine/blend tree solutions (knowledge of motion matching is a plus).   \n - You are adept at organising and managing your work to reach milestone goals and deliverables. \n - You can give and receive constructive feedback when interacting with other team members, keeping the focus on making the best game possible.   \n - It's a plus if you have prior experience, knowledge or interest in scripting or programming languages. \n\n\n    WHAT'S IN IT FOR YOU?\n\n\n - At Remedy you get to work on awesome, memorable game experiences for our players, in a studio where your input is valued and your creative freedom is encouraged.   \n - We work in an environment that values both individual and team-work, ensuring that everyone’s voice is heard &amp;amp; workload stays sensible. We believe in and support work-life balance. Happy people work better!  \n - We offer an extensive set of employee benefits and an annual bonus system as well as opportunities for you to develop your skills further. On top of this, in Finland and Sweden you get up to 5 weeks of paid vacation, in addition to public holidays and other special occasions.   \n - Our studio is based in Helsinki metropolitan area in Finland, a safe country, with exceptional quality of life, free education and pristine nature at your doorstep. If you're not already in Finland, our relocation service is there every step of the way to take care of you. You can concentrate on work, while we take care of everything else!  \n - If you are based in Sweden, we also welcome candidates to our new location in Stockholm.  \nTo apply, please fill in the application form with your demo reel, CV (in English) and other information relevant to the position. The position will be filled as soon as a suitable applicant is found.#LI-VR1\r\n\n\nJoin us and you’ll discover a vibrant, connected universe filled with stories and characters that stay with you long after you switch off.\u200b\u200b\n\nOver the past 25 years we’ve built a unique, people-first environment where\u200b courageous creativity thrives. You might be surprised by the next thing we release,\u200b but you’ll have no doubt it’s Remedy.\n\nThe Remedy culture consists of three core values. They describe who we are and how we work and interact together. We base our decisions and actions on camaraderie, pioneering spirit, and smart creativity. Our three core values together make us One Remedy.", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
+          <t>{'text': 'Aquatech is a global leader in water purification systems technology for both industrial and infrastructure markets located in the United States and internationally. We support our clients with sustainable water purification systems and technologies that are solving the worlds water scarcity challenges. \nAquatech has an immediate need for a fulltime Site Quality Inspector to work on our Project in Boden, Sweden. The Site Quality Inspector will report to the Project Quality Manager and will perform the duties described in the job description below… and will be considered an Exempt employee.\nThe ideal candidate will be highly organized, have an attention for detail, be a problem solver, have strong technical knowledge, and be team oriented. This candidate also must be certified as a CWI by the AWS or an IWI Level IWI-C, or IWI-B.\nMinimum Qualifications / Requirements: \nMust have an AWS CWI certification or deep technical understanding in NDT – PT, MT &amp; RT.\nMust have five (5) years’ experience in Quality and fabrication within a construction type of setting.\nMust have Worked with PED and AFS regulations before.\nThe Site Quality Inspector must be able to be a full-time resident close the construction site.\n\nJob Description: \nThe primary duties will be the oversight of various subcontractors engaged in mechanical and electrical work.\nThe Site Quality Inspector will monitor, review, and observe the various construction activities to verify compliance with applicable Project specification requirements and to ensure that work is done in accordance with applicable European, Swedish and site Laws and regulations.\nThe Site Quality Inspector will interface with the client, Aquatech corporate personnel, our selected NOBO Agency, and the various subcontractors.\nThe Site Quality Inspector will be responsible to report on any deviations to Project quality requirements, to observe any rework and to close out any discrepancies noted.\nThe Site Quality Inspector will immediately identify any conditions that may warrant a “HOLD” on further work from a quality standpoint to the Site Quality Manager.\nThe SQI will provide a daily inspection report that includes general observations, any conditions that may require corrective actions or any other information required to effectively communicate with the Project Team.\n\n \n \n \n \nSkill Requirements: \nHighly organized and ability to keep accurate record keeping.\nAbility to use a computer (Microsoft Office: Word, Excel, PowerPoint, and Outlook)\nDeep understanding of the requirements in AFS(Swedish) and European regulations.\nMust be fluent in English and fluent in any Scandinavian language.\n\nEssential Functions:\nTo perform this job successfully, an individual must be able to perform each essential duty satisfactorily. The requirements listed above and below are representative of the knowledge, skill, and/or ability required. \nPhysical Job Demands:\nLifting / carrying / moving 50 kg, may need to climb ladders, enter confined spaces and work from scaffolding or elevated work platforms. The Site Quality Inspector will need to wear Personal Protective Equipment (PPE) while on site. Work may involve exposure to bad weather.', 'text_formatted': '&lt;p&gt;Aquatech is a global leader in water purification systems technology for both industrial and infrastructure markets located in the United States and internationally. We support our clients with sustainable water purification systems and technologies that are solving the worlds water scarcity challenges. &lt;/p&gt;&lt;p&gt;Aquatech has an immediate need for a fulltime Site Quality Inspector to work on our Project in Boden, Sweden. The Site Quality Inspector will report to the Project Quality Manager and will perform the duties described in the job description below… and will be considered an Exempt employee.&lt;/p&gt;&lt;p&gt;The ideal candidate will be highly organized, have an attention for detail, be a problem solver, have strong technical knowledge, and be team oriented. This candidate also must be certified as a CWI by the AWS or an IWI Level IWI-C, or IWI-B.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Minimum Qualifications / Requirements: &lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Must have an AWS CWI certification or deep technical understanding in NDT – PT, MT &amp;amp; RT.&lt;/li&gt;&lt;li&gt;Must have five (5) years’ experience in Quality and fabrication within a construction type of setting.&lt;/li&gt;&lt;li&gt;Must have Worked with PED and AFS regulations before.&lt;/li&gt;&lt;li&gt;The Site Quality Inspector must be able to be a full-time resident close the construction site.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Job Description:&lt;/u&gt;&lt;/strong&gt; &lt;/p&gt;&lt;ul&gt;&lt;li&gt;The primary duties will be the oversight of various subcontractors engaged in mechanical and electrical work.&lt;/li&gt;&lt;li&gt;The Site Quality Inspector will monitor, review, and observe the various construction activities to verify compliance with applicable Project specification requirements and to ensure that work is done in accordance with applicable European, Swedish and site Laws and regulations.&lt;/li&gt;&lt;li&gt;The Site Quality Inspector will interface with the client, Aquatech corporate personnel, our selected NOBO Agency, and the various subcontractors.&lt;/li&gt;&lt;li&gt;The Site Quality Inspector will be responsible to report on any deviations to Project quality requirements, to observe any rework and to close out any discrepancies noted.&lt;/li&gt;&lt;li&gt;The Site Quality Inspector will immediately identify any conditions that may warrant a “HOLD” on further work from a quality standpoint to the Site Quality Manager.&lt;/li&gt;&lt;li&gt;The SQI will provide a daily inspection report that includes general observations, any conditions that may require corrective actions or any other information required to effectively communicate with the Project Team.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;   &lt;/p&gt;&lt;p&gt;  &lt;/p&gt;&lt;p&gt;   &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Skill Requirements: &lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Highly organized and ability to keep accurate record keeping.&lt;/li&gt;&lt;li&gt;Ability to use a computer (Microsoft Office: Word, Excel, PowerPoint, and Outlook)&lt;/li&gt;&lt;li&gt;Deep understanding of the requirements in AFS(Swedish) and European regulations.&lt;/li&gt;&lt;li&gt;Must be fluent in English and fluent in any Scandinavian language.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Essential Functions:&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;To perform this job successfully, an individual must be able to perform each essential duty satisfactorily. The requirements listed above and below are representative of the knowledge, skill, and/or ability required. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Physical Job Demands:&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Lifting / carrying / moving 50 kg, may need to climb ladders, enter confined spaces and work from scaffolding or elevated work platforms. The Site Quality Inspector will need to wear Personal Protective Equipment (PPE) while on site. Work may involve exposure to bad weather.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt; &lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1443,11 +1439,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Fast månads- vecko- eller timlön</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -1466,12 +1458,12 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.remedygames.com/', 'organization_number': '5593595001', 'name': 'Remedy Entertainment Sweden AB', 'workplace': 'Remedy Entertainment'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.aquatech.com/', 'organization_number': '5594472820', 'name': 'Aquatech International AB', 'workplace': 'Aquatech International AB'}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://emp.jobylon.com/applications/jobs/302922/create/?utm_source=ams&amp;utm_medium=promotionserializer', 'other': None}</t>
+          <t>{'information': None, 'reference': 'Quality Inspector - Sweden', 'email': 'careersatase@aquatech.com', 'via_af': False, 'url': 'https://www.paycomonline.net/v4/ats/web.php/jobs/ViewJobDetails?job=152817&amp;clientkey=285B0FC22C0B62BD90D98E46E5AC01CA', 'other': None}</t>
         </is>
       </c>
       <c r="U7" t="b">
@@ -1481,17 +1473,21 @@
         <v>0</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>{'concept_id': 'NmF5_vMj_Mjj', 'label': 'Animatör', 'legacy_ams_taxonomy_id': '3829'}</t>
+          <t>{'concept_id': 'Zjz2_R2c_ySs', 'label': 'Inspicient', 'legacy_ams_taxonomy_id': '6260'}</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1501,32 +1497,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Boden', 'municipality_code': '2582', 'municipality_concept_id': 'y4NQ_tnB_eVd', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '96143', 'city': 'BODEN', 'coordinates': [21.6885199222827, 65.80425857793193]}</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'NmF5_vMj_Mjj', 'label': 'Animator/Animatör', 'legacy_ams_taxonomy_id': '3829'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'a1Sf_mey_gVk', 'label': 'Kvalitetssäkring', 'legacy_ams_taxonomy_id': '3258'}, {'weight': 5, 'concept_id': 'U1JW_vPG_Dqk', 'label': 'Kvalitetsansvar', 'legacy_ams_taxonomy_id': '3252'}, {'weight': 5, 'concept_id': '48zu_t6j_A28', 'label': 'Avloppsteknik/Vattenreningsteknik', 'legacy_ams_taxonomy_id': '378'}, {'weight': 5, 'concept_id': 'aNcD_UfW_vYN', 'label': 'IW (International Welder), certifikat', 'legacy_ams_taxonomy_id': '608480'}], 'languages': [{'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [{'weight': 5, 'concept_id': 'Zjz2_R2c_ySs', 'label': 'Inspicient', 'legacy_ams_taxonomy_id': '6260'}], 'education': [{'weight': 5, 'concept_id': 'TVjf_K43_Tom', 'label': 'Samhällsbyggnad och byggnadsteknik', 'legacy_ams_taxonomy_id': '17'}], 'education_level': [{'weight': 5, 'concept_id': '3Bof_mmm_XRk', 'label': 'Eftergymnasial utbildning kortare än två år', 'legacy_ams_taxonomy_id': '5'}]}</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Ashley Beckner', 'description': None, 'email': 'becknera@aquatech.com', 'telephone': '724-749-5300', 'contact_type': 'Senior Recruiter'}]</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2025-09-02T10:07:36</t>
+          <t>2025-09-02T22:36:20</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2026-02-02T23:59:59</t>
+          <t>2025-10-02T23:59:59</t>
         </is>
       </c>
       <c r="AH7" t="b">
@@ -1535,11 +1531,11 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>1756800456459</v>
+        <v>1756845380801</v>
       </c>
     </row>
     <row r="8">
@@ -1548,14 +1544,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29975640</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>46-556426-7655-74221</t>
-        </is>
-      </c>
+          <t>29980657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
@@ -1564,22 +1556,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975640</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980657</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5564267655/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/25087125/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Administratör / Web Administratör till Ringhals</t>
+          <t>UI/UX Designer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-09-05T23:59:59</t>
+          <t>2025-10-31T23:59:59</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1587,7 +1579,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'text': 'För ett längre konsultuppdrag söker vi dig som söker en stimulerande arbetsmiljö i ett framstående företag som ligger i framkant inom digitalisering och hållbarhet. Är du en fena på webb, kommunikation och administration och har den erfarenhet och egenskaper vi söker? Varmt välkommen med din ansökan till detta spännande uppdrag på Ringhals/Vattenfall i Väröbacka!\n\nDina arbetsuppgifter i huvudsak\nArbetsuppgifter\n•\tAnsvara för möteskoordinering: planera, bjuda in och följa upp möten, samt skriva tekniska protokoll med hög precision\n•\tDriva och koordinera utvecklingsprojekt inom avdelningen för att förbättra processer och arbetsflöden\n•\tBygga och strukturera sidor, mappar och innehåll i Vattenfalls intranät \n•\tMigrera befintliga texter och länka dokument till intranätssidor\n•\tIntegrera och länka processbilder för att skapa tydliga visuella flöden\n•\tProducera, redigera och publicera texter på både svenska och engelska\n•\tSäkerställa att intranätets innehåll är uppdaterat, korrekt och lättillgängligt för slutanvändare\n\n\nVem är du?\nVi söker dig med följande erfarenhet/kvalifikationer:\n\n•\tFlera års erfarenhet av liknande administrativa uppgifter, gärna som administratör på en avdelning eller enhet samt webbadministration\n•\tMycket goda kunskaper i MS Office, inklusive Word, Excel och PowerPoint\n•\tMycket god vana av teknisk protokollskrivning och dokumentation\n•\tFlytande i engelska och svenska, både skriftligt och muntligt\n•\tErfarenhet av att driva och koordinera utvecklingsinitiativ inom verksamhet eller projekt\n•\tTidigare arbete inom projektledning eller kommunikationsområdet är meriterande\n\n\nOm verksamheten\nKonsultrollen passar dig som på kort tid vill skaffa dig bred erfarenhet. Vi erbjuder dig chansen att arbeta på populära arbetsplatser med välkända varumärken där du kan utveckla din kompetens och bredda ditt CV. Du kommer att trivas som konsult om du söker en värld av spännande uppdrag och nya kontaktnät. Vid din sida har du din konsultchef som agerar bollplank och stöttar dig i att lyckas på dina uppdrag. Vi vill att du ska må bra och trivas med oss på Poolia. Därför erbjuder vi dig friskvårdsbidrag, rabatter på olika träningsanläggningar m.m. Självklart omfattas din anställning på Poolia av kollektivavtal, försäkringar och tjänstepension.\n\nUrval och intervjuer sker löpande och tjänsten kan komma att tillsättas innan sista ansökningsdag.\n\nVarmt välkommen med din ansökan!', 'text_formatted': 'För ett längre konsultuppdrag söker vi dig som söker en stimulerande arbetsmiljö i ett framstående företag som ligger i framkant inom digitalisering och hållbarhet. Är du en fena på webb, kommunikation och administration och har den erfarenhet och egenskaper vi söker? Varmt välkommen med din ansökan till detta spännande uppdrag på Ringhals/Vattenfall i Väröbacka!\n\nDina arbetsuppgifter i huvudsak\nArbetsuppgifter\n•\tAnsvara för möteskoordinering: planera, bjuda in och följa upp möten, samt skriva tekniska protokoll med hög precision\n•\tDriva och koordinera utvecklingsprojekt inom avdelningen för att förbättra processer och arbetsflöden\n•\tBygga och strukturera sidor, mappar och innehåll i Vattenfalls intranät \n•\tMigrera befintliga texter och länka dokument till intranätssidor\n•\tIntegrera och länka processbilder för att skapa tydliga visuella flöden\n•\tProducera, redigera och publicera texter på både svenska och engelska\n•\tSäkerställa att intranätets innehåll är uppdaterat, korrekt och lättillgängligt för slutanvändare\n\n\nVem är du?\nVi söker dig med följande erfarenhet/kvalifikationer:\n\n•\tFlera års erfarenhet av liknande administrativa uppgifter, gärna som administratör på en avdelning eller enhet samt webbadministration\n•\tMycket goda kunskaper i MS Office, inklusive Word, Excel och PowerPoint\n•\tMycket god vana av teknisk protokollskrivning och dokumentation\n•\tFlytande i engelska och svenska, både skriftligt och muntligt\n•\tErfarenhet av att driva och koordinera utvecklingsinitiativ inom verksamhet eller projekt\n•\tTidigare arbete inom projektledning eller kommunikationsområdet är meriterande\n\n\nOm verksamheten\nKonsultrollen passar dig som på kort tid vill skaffa dig bred erfarenhet. Vi erbjuder dig chansen att arbeta på populära arbetsplatser med välkända varumärken där du kan utveckla din kompetens och bredda ditt CV. Du kommer att trivas som konsult om du söker en värld av spännande uppdrag och nya kontaktnät. Vid din sida har du din konsultchef som agerar bollplank och stöttar dig i att lyckas på dina uppdrag. Vi vill att du ska må bra och trivas med oss på Poolia. Därför erbjuder vi dig friskvårdsbidrag, rabatter på olika träningsanläggningar m.m. Självklart omfattas din anställning på Poolia av kollektivavtal, försäkringar och tjänstepension.\n\nUrval och intervjuer sker löpande och tjänsten kan komma att tillsättas innan sista ansökningsdag.\n\nVarmt välkommen med din ansökan!', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
+          <t>{'text': 'We are looking for a talented UI/UX Designer to join our team. You will be responsible for designing user-friendly interfaces, creating intuitive user experiences, and collaborating with our development team to bring digital products to life.\nÖppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.', 'text_formatted': '&lt;p&gt;We are looking for a talented UI/UX Designer to join our team. You will be responsible for designing user-friendly interfaces, creating intuitive user experiences, and collaborating with our development team to bring digital products to life.&lt;/p&gt;&lt;p id="oppenforalla"&gt;Öppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1600,11 +1592,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Fast l?n</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -1623,12 +1611,12 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.poolia.se', 'organization_number': '5564267655', 'name': 'Poolia AB', 'workplace': 'Poolia Sverige AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://niceway.se', 'organization_number': '5569796443', 'name': 'Nice Way AB', 'workplace': 'Nice Way AB'}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '74221', 'email': None, 'via_af': False, 'url': 'https://poolia.se/jobb/74221', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': 'emil@niceway.se', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U8" t="b">
@@ -1643,12 +1631,12 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>{'concept_id': 'b3Jk_Gfs_oo9', 'label': 'Webbredaktör', 'legacy_ams_taxonomy_id': '6739'}</t>
+          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>{'concept_id': 'SgNH_hag_n9D', 'label': 'Journalister m.fl.', 'legacy_ams_taxonomy_id': '2642'}</t>
+          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1658,32 +1646,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>{'municipality': 'Varberg', 'municipality_code': '1383', 'municipality_concept_id': 'AkUx_yAq_kGr', 'region': 'Hallands län', 'region_code': '13', 'region_concept_id': 'wjee_qH2_yb6', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.25209, 57.107117]}</t>
+          <t>{'municipality': 'Laholm', 'municipality_code': '1381', 'municipality_concept_id': 'c1iL_rqh_Zja', 'region': 'Hallands län', 'region_code': '13', 'region_concept_id': 'wjee_qH2_yb6', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'b3Jk_Gfs_oo9', 'label': 'Webbredaktör', 'legacy_ams_taxonomy_id': '6739'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'S368_jFS_2hP', 'label': 'Tyska', 'legacy_ams_taxonomy_id': '484'}, {'weight': 5, 'concept_id': 'AJf5_p3a_b64', 'label': 'Franska', 'legacy_ams_taxonomy_id': '295'}], 'work_experiences': [], 'education': [{'weight': 5, 'concept_id': 'u2a1_mAW_vt1', 'label': 'Konst och media', 'legacy_ams_taxonomy_id': '5'}], 'education_level': [{'weight': 5, 'concept_id': 'asZm_TEQ_Srk', 'label': 'Eftergymnasial utbildning två år eller längre', 'legacy_ams_taxonomy_id': '6'}]}</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Christian Haraldsson', 'email': 'christian.haraldsson@poolia.se', 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': 'Emil Ölund', 'description': None, 'email': 'emil@niceway.se', 'telephone': '+46102804403', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2025-09-02T08:45:26</t>
+          <t>2025-09-02T22:29:45</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2025-09-05T23:59:59</t>
+          <t>2025-10-31T23:59:59</t>
         </is>
       </c>
       <c r="AH8" t="b">
@@ -1692,11 +1680,11 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK8" t="n">
-        <v>1756795526268</v>
+        <v>1756844985652</v>
       </c>
     </row>
     <row r="9">
@@ -1705,14 +1693,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29975107</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>46-556570-3138-6377934-1</t>
-        </is>
-      </c>
+          <t>29980337</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -1721,22 +1705,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975107</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980337</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565703138/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/86897226/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Engagerad lokal fotograf Kalix</t>
+          <t>Driftoperatör - Gotlands Energi</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-19T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1744,7 +1728,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'text': 'Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.\xa0\nVarför Diakrit?\nSom frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.\xa0\nVår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.\nMed hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.\xa0\nÄr det dig vi söker?\nVi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.\xa0\nFör att arbeta som frilansfotograf på Diakrit behöver du följande:\n \nKamerahus (systemkamera, helst fullformat)\n\n  \nVidvinkelzoomobjektiv\n\n \nNormalobjektiv eller zoom (t.ex 24-70mm)\n\n \nStabilt stativ\n\n \nExtern vridbar blixt\n\n \nKörkort och tillgång till bil\n\n \nF-skatt\n\n \n Om Diakrit:\nDiakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.\xa0 \nAnsökan:\nAnsök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.\xa0Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.\nFör att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.\nRekrytering sker löpande så vänta inte med din ansökan!', 'text_formatted': '&lt;p&gt;Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Varför Diakrit?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Vår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.&lt;/p&gt;&lt;p&gt;Med hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Är det dig vi söker?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För att arbeta som frilansfotograf på Diakrit behöver du följande:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Kamerahus (systemkamera, helst fullformat)&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Vidvinkelzoomobjektiv&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Normalobjektiv eller zoom (t.ex 24-70mm)&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Stabilt stativ&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern vridbar blixt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Körkort och tillgång till bil&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;F-skatt&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt; &lt;strong&gt;Om Diakrit:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Diakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.&amp;nbsp; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Ansök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.&amp;nbsp;Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.&lt;/p&gt;&lt;p&gt;För att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.&lt;/p&gt;&lt;p&gt;Rekrytering sker löpande så vänta inte med din ansökan! &lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'Företagsbeskrivning\nGeab är ett energibolag som bedriver verksamhet genom tre bolag, moderbolaget Gotlands Energi AB samt dotterbolagen Gotlands Elförsäljning AB och Gotlands Elnät AB. Geab ägs till 75% av Vattenfall och till 25% av Region Gotland. Vi är idag cirka 170 medarbetare som jobbar inom en rad olika yrken och expertisområden med våra värderingar i fokus, öppen, aktiv, positiv och säkerhet. Vi är fast beslutna att göra det möjligt att leva ett fossilfritt liv. Klimatet är vår mest spännande utmaning inför framtiden. Tillsammans kan vi göra skillnad och vi behöver dig för att nå dit.\nOm rollen\nVill du kliva in i rollen som Driftoperatör och samtidigt vara med och bidra till en fossilfri framtid?\nTillsammans gör vi skillnad i energibranschen. Vi erbjuder dig en varierande och spännande roll och en möjlighet att följa med oss på resan mot en fossilfri framtid.\n \nAnsvarsområde\nSom Driftoperatör hos oss arbetar du med övervakning av fjärrvärme och elnät-systemen. Du kommer att ingå i ett team bestående av 9 kollegor som arbetar tätt tillsammans. Verksamheten är bemannad dygnet runt och skiftgång ingår i arbetet. Ensamarbete förekommer i samband med skiftgången.\nDu kommer bland annat ansvara för:\nOptimering, styrning, övervakning av el- samt värmedistribution\nKörning och övervakning av produktionsanläggningar\nLarmhantering och loggboksföring\nAdministration, hantering av arbetsorder och rapporteringar\nFelanmälan och felavhjälpning\nSystem/tjänsteförvaltare\n\nKravspecifikation\nHar möjlighet att arbeta skift\nHar Energi/Elkrafts utbildning på universitet-/högskolenivå alternativt motsvarande arbetslivserfarenhet\nGoda datorkunskaper\nFlytande svenska och engelska i både tal och skrift\n\n \nDet är meriterande om du har:\nErfarenhet av driftcentral\nESA-utbildning\nPannskötare utbildad\n\n \nSom person värdesätter vi att du tycker om och har lätt för att samarbeta med andra människor, eftersom du kommer att ha många kontaktytor i rollen. Vi letar efter en person som är pålitlig, kommunikativ och som vinner andras förtroende genom ärlighet. Tjänsten ställer höga krav på noggrannhet och säkerhetsmedvetenhet, vi är ytterst måna om att vårt servicearbete utförs med högsta kvalitet under säkra förhållanden. Då det här är en väldigt varierad roll där allt kan hända behöver du vara anpassningsbar för att trivas.\nYtterligare information\nVi erbjuder\nFörutom att du får vara med och forma framtidens smarta energisamhälle erbjuder vi en arbetsplats med goda möjligheter till utveckling. Vi uppmuntrar dig som vill komma vidare och utforska nya områden inom företaget. På Geab jobbar olika yrkesgrupper och generationer sida vid sida. Vi utformar arbetsförhållanden och anställningsvillkor för att underlätta för medarbetare att kombinera arbete, privatliv och föräldraskap. Vi är övertygade om att mångfald och inkludering leder till nytänkande, förbättrade affärsresultat och ökat engagemang och vi strävar efter att representera mångfalden bland våra kunder och samhället vi verkar i.\n\n\nPlaceringsort: Visby. \n\n\nFör mer information om själva tjänsten kontakta rekryterande chef Clas Lingren, clas.lingren@geab.vattenfall.se. För frågor om rekryteringsprocessen kontakta rekryterare Caroline Grammenos, caroline.grammenos@vattenfall.com. \n\n\nFackliga representanter för denna tjänst är Eva Jirhem, Ledarna, tfn 08-739 50 00. Jeanette Regin, Unionen, tfn 0498-28 50 22 och Patrik Malmquist, SEKO, tfn 0725 756 538.\n\n\nVälkommen med din ansökan senast 21 september 2025. Vi tar endast emot ansökningar via vår webbplats. Vi tar inte emot personligt brev i ansökan. Du söker snabbt och enkelt genom att svara på urvalsfrågor och bifoga ditt CV. Urval och intervjuer sker efter sista ansökningsdag.\n\n\n\n\nAtt arbeta inom Geab innebär att arbeta med samhällsviktig infrastruktur. Därmed är många av våra tjänster säkerhetsklassade. Är denna tjänst säkerhetsklassad kommer säkerhetsprövning genomföras innan anställning, i enlighet med säkerhetsskyddslagen \n\n\nVi ser fram emot din ansökan!', 'text_formatted': '&lt;p&gt;Företagsbeskrivning&lt;/p&gt;&lt;p&gt;Geab är ett energibolag som bedriver verksamhet genom tre bolag, moderbolaget Gotlands Energi AB samt dotterbolagen Gotlands Elförsäljning AB och Gotlands Elnät AB. Geab ägs till 75% av Vattenfall och till 25% av Region Gotland. Vi är idag cirka 170 medarbetare som jobbar inom en rad olika yrken och expertisområden med våra värderingar i fokus, öppen, aktiv, positiv och säkerhet. Vi är fast beslutna att göra det möjligt att leva ett fossilfritt liv. Klimatet är vår mest spännande utmaning inför framtiden. Tillsammans kan vi göra skillnad och vi behöver dig för att nå dit.&lt;/p&gt;&lt;p&gt;Om rollen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vill du kliva in i rollen som Driftoperatör och samtidigt vara med och bidra till en fossilfri framtid?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tillsammans gör vi skillnad i energibranschen. Vi erbjuder dig en varierande och spännande roll och en möjlighet att följa med oss på resan mot en fossilfri framtid.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansvarsområde&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som Driftoperatör hos oss arbetar du med övervakning av fjärrvärme och elnät-systemen. Du kommer att ingå i ett team bestående av 9 kollegor som arbetar tätt tillsammans. Verksamheten är bemannad dygnet runt och skiftgång ingår i arbetet. Ensamarbete förekommer i samband med skiftgången.&lt;/p&gt;&lt;p&gt;Du kommer bland annat ansvara för:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Optimering, styrning, övervakning av el- samt värmedistribution&lt;/li&gt;&lt;li&gt;Körning och övervakning av produktionsanläggningar&lt;/li&gt;&lt;li&gt;Larmhantering och loggboksföring&lt;/li&gt;&lt;li&gt;Administration, hantering av arbetsorder och rapporteringar&lt;/li&gt;&lt;li&gt;Felanmälan och felavhjälpning&lt;/li&gt;&lt;li&gt;System/tjänsteförvaltare&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Kravspecifikation&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Har möjlighet att arbeta skift&lt;/li&gt;&lt;li&gt;Har Energi/Elkrafts utbildning på universitet-/högskolenivå alternativt motsvarande arbetslivserfarenhet&lt;/li&gt;&lt;li&gt;Goda datorkunskaper&lt;/li&gt;&lt;li&gt;Flytande svenska och engelska i både tal och skrift&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Det är meriterande om du har:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Erfarenhet av driftcentral&lt;/li&gt;&lt;li&gt;ESA-utbildning&lt;/li&gt;&lt;li&gt;Pannskötare utbildad&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Som person värdesätter&lt;/strong&gt; vi att du tycker om och har lätt för att samarbeta med andra människor, eftersom du kommer att ha många kontaktytor i rollen. Vi letar efter en person som är pålitlig, kommunikativ och som vinner andras förtroende genom ärlighet. Tjänsten ställer höga krav på noggrannhet och säkerhetsmedvetenhet, vi är ytterst måna om att vårt servicearbete utförs med högsta kvalitet under säkra förhållanden. Då det här är en väldigt varierad roll där allt kan hända behöver du vara anpassningsbar för att trivas.&lt;/p&gt;&lt;p&gt;Ytterligare information&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi erbjuder&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Förutom att du får vara med och forma framtidens smarta energisamhälle erbjuder vi en arbetsplats med goda möjligheter till utveckling. Vi uppmuntrar dig som vill komma vidare och utforska nya områden inom företaget. På Geab jobbar olika yrkesgrupper och generationer sida vid sida. Vi utformar arbetsförhållanden och anställningsvillkor för att underlätta för medarbetare att kombinera arbete, privatliv och föräldraskap. Vi är övertygade om att mångfald och inkludering leder till nytänkande, förbättrade affärsresultat och ökat engagemang och vi strävar efter att representera mångfalden bland våra kunder och samhället vi verkar i.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Placeringsort: &lt;/strong&gt;Visby. &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För mer information &lt;/strong&gt;om själva tjänsten kontakta rekryterande chef Clas Lingren, clas.lingren@geab.vattenfall.se. För frågor om rekryteringsprocessen kontakta rekryterare Caroline Grammenos, caroline.grammenos@vattenfall.com. &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Fackliga representanter för denna tjänst är Eva Jirhem, Ledarna, tfn 08-739 50 00. Jeanette Regin, Unionen, tfn 0498-28 50 22 och Patrik Malmquist, SEKO, tfn 0725 756 538.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan senast 21 september 2025.&lt;/strong&gt; Vi tar endast emot ansökningar via vår webbplats. Vi tar inte emot personligt brev i ansökan. Du söker snabbt och enkelt genom att svara på urvalsfrågor och bifoga ditt CV. Urval och intervjuer sker efter sista ansökningsdag.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Att arbeta inom Geab innebär att arbeta med samhällsviktig infrastruktur. Därmed är många av våra tjänster säkerhetsklassade. Är denna tjänst säkerhetsklassad kommer säkerhetsprövning genomföras innan anställning, i enlighet med säkerhetsskyddslagen &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi ser fram emot din ansökan! &lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1757,11 +1741,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -1769,23 +1749,23 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5565703138', 'name': 'Diakrit Fastighetsmäklarservice AB', 'workplace': 'Diakrit '}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5560362138', 'name': 'Vattenfall AB', 'workplace': 'Visby - Gotlands Energi AB'}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://career.diakrit.com/jobs/6377934-engagerad-lokal-fotograf-kalix?promotion=1609678-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.smartrecruiters.com/Vattenfall/744000079299395-driftoperator-gotlands-energi', 'other': None}</t>
         </is>
       </c>
       <c r="U9" t="b">
@@ -1800,12 +1780,12 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
+          <t>{'concept_id': 'XDgH_ApE_nBH', 'label': 'Technical Operation Manager/TOM', 'legacy_ams_taxonomy_id': '6188'}</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
+          <t>{'concept_id': 'CkRH_4Qn_iX3', 'label': 'Bild- och sändningstekniker', 'legacy_ams_taxonomy_id': '3521'}</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1815,12 +1795,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>{'municipality': 'Kalix', 'municipality_code': '2514', 'municipality_concept_id': 'cUyN_C9V_HLU', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [23.143965, 65.85528]}</t>
+          <t>{'municipality': 'Gotland', 'municipality_code': '0980', 'municipality_concept_id': 'Ft9P_E8F_VLJ', 'region': 'Gotlands län', 'region_code': '09', 'region_concept_id': 'K8iD_VQv_2BA', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Västra Törnekvior 4B', 'postcode': '62143', 'city': 'Visby', 'coordinates': [18.316532117935, 57.6265793738976]}</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -1830,17 +1810,17 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'DIAKRIT RECRUITMENT', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2025-09-02T06:55:15</t>
+          <t>2025-09-02T17:32:55</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2026-02-19T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="AH9" t="b">
@@ -1849,11 +1829,11 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK9" t="n">
-        <v>1756788915726</v>
+        <v>1756827175725</v>
       </c>
     </row>
     <row r="10">
@@ -1862,12 +1842,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29975081</t>
+          <t>29980259</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>46-556570-3138-6377901-1</t>
+          <t>46-202100-3153-38263</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1878,22 +1858,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975081</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29980259</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565703138/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021003153/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Engagerad lokal fotograf Boden</t>
+          <t>Universitetsbibliotekarie</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-02-19T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1901,7 +1881,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'text': 'Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.\xa0\nVarför Diakrit?\nSom frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.\xa0\nVår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.\nMed hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.\xa0\nÄr det dig vi söker?\nVi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.\xa0\nFör att arbeta som frilansfotograf på Diakrit behöver du följande:\n \nKamerahus (systemkamera, helst fullformat)\n\n  \nVidvinkelzoomobjektiv\n\n \nNormalobjektiv eller zoom (t.ex 24-70mm)\n\n \nStabilt stativ\n\n \nExtern vridbar blixt\n\n \nKörkort och tillgång till bil\n\n \nF-skatt\n\n \n Om Diakrit:\nDiakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.\xa0 \nAnsökan:\nAnsök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.\xa0Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.\nFör att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.\nRekrytering sker löpande så vänta inte med din ansökan!', 'text_formatted': '&lt;p&gt;Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Varför Diakrit?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Vår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.&lt;/p&gt;&lt;p&gt;Med hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Är det dig vi söker?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För att arbeta som frilansfotograf på Diakrit behöver du följande:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Kamerahus (systemkamera, helst fullformat)&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Vidvinkelzoomobjektiv&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Normalobjektiv eller zoom (t.ex 24-70mm)&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Stabilt stativ&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern vridbar blixt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Körkort och tillgång till bil&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;F-skatt&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt; &lt;strong&gt;Om Diakrit:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Diakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.&amp;nbsp; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Ansök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.&amp;nbsp;Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.&lt;/p&gt;&lt;p&gt;För att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.&lt;/p&gt;&lt;p&gt;Rekrytering sker löpande så vänta inte med din ansökan! &lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'Göteborgs universitet möter samhällets utmaningar med mångsidig kunskap. 56 000 studenter och 6 600 medarbetare gör universitetet till en stor och inspirerande arbetsplats. Stark forskning och attraktiva utbildningar lockar forskare och studenter från hela världen. Med ny kunskap och nya perspektiv bidrar Göteborgs universitet till en bättre framtid.Göteborgs universitetsbibliotek är ett av landets största bibliotek och består av sju bibliotek med olika ämnesinriktningar och en enhet för digitala tjänster. Göteborgs universitetsbibliotek svarar i första hand för informationsförsörjningen vid Göteborgs universitet, men har också ett nationellt och regionalt ansvar.\n\nSamhällsvetenskapliga biblioteken utgör en av enheterna och består av tre bibliotek som i första hand ger service till studenter, forskare och lärare på Handelshögskolan, Samhällsvetenskapliga fakulteten och Utbildningsvetenskapliga fakulteten. Vi är idag cirka 60 medarbetare. Verksamheten är organiserad i tre team.\n\nVi arbetar kontinuerligt för ett nära samarbete för att fortsätta utveckla en relevant och attraktiv biblioteksservice som stödjer lärande och forskning vid Göteborgs universitet. Vi vill tillsammans med våra målgrupper skapa en ömsesidig förståelse för hur universitetsbibliotekets resurser kan användas effektfullt.\xa0Vi arbetar med verksamhetsutveckling utifrån ett undersökande arbetssätt.\xa0Målet är att säkerställa en relevant och hållbar biblioteksservice. Vi söker dig som kan förena egen driftighet med god samarbetsförmåga.\xa0\n\nArbetsuppgifter\xa0\nPå Samhällsvetenskapliga biblioteken är möten med våra användare i olika former och kanaler centrala inslag. Som medlem i Team Användarservice arbetar du med att utveckla och genomföra aktiviteter som stödjer studenters lärande och synliggör universitetets forskning. Fokus är på vägledning i biblioteksrummet såväl som digitalt, samt vägledning för studenter med läsnedsättning. Det förekommer också biblioteksintroduktioner, workshopar, föreläsningar.\n\nVi söker dig som är nyfiken på och har erfarenhet av att bedriva användarfokuserade verksamheter både i den digitala såväl som i den fysiska biblioteksmiljön och som har ett lika naturligt förhållningssätt i båda kontexterna. Då vi tillämpar ett undersökande arbetssätt i allt vårt utvecklingsarbete är du delaktig i att utforma, genomföra och tolka användarstudier av olika omfattning. I tjänsten ingår även sedvanliga bibliotekarieuppgifter.\n\nKvällstjänstgöring ingår i tjänsten. Anställningen gäller alla de tre samhällsvetenskapliga biblioteken.\n\nKvalifikationer\xa0\nVi söker dig som har en akademisk examen i biblioteks- och informationsvetenskap. Du skall ha teoretiska kunskaper om och praktiska erfarenheter av pedagogiska aktiviteter. Du skall ha ett självklart pedagogiskt förhållningssätt i mötet med bibliotekets användare. Du är serviceinriktad och sätter användaren i fokus. Du har god samarbetsförmåga och kan också arbeta självständigt. Du kommunicerar väl på svenska och engelska.\n\nDet är meriterande med erfarenhet av arbete på högskole- eller universitetsbibliotek med arbetsuppgifter som vi beskrivit ovan.\n\nAnställning\xa0\nAnställningen är på 100% under perioden 3 november 2025 till och med 30 juni 2026, eller enligt överenskommelse, med placering på Samhällsvetenskapliga biblioteken vid Göteborgs universitetsbibliotek.\n\nKontaktuppgifter för anställningen\xa0\nHar du frågor om anställningen är du välkommen att kontakta:\n\nAnette Eliasson, bibliotekschef\n 031-786 68 67\n anette.eliasson@ub.gu.se\n\nElin Nord, teamledare användarservice\n 031-7862728\n Elin.nord@ub.gu.se\n\nFackliga\u202forganisationer\xa0\n\nFackliga företrädare vid Göteborgs universitet hittar du här:\u202fhttps://www.gu.se/om-universitetet/jobba-hos-oss/hjalp-for-sokande\xa0\n\n\xa0\n\nAnsökan\xa0\nDu söker anställningen via Göteborgs universitets rekryteringsportal genom att klicka på knappen "Ansök". Du som sökande ansvarar för att ansökan är komplett i enlighet med annonsen och att den är universitetet tillhanda senast sista ansökningsdag.\xa0\n\nAnsökan ska vara inkommen senast: 2025-09-16\n\n\xa0\n\nUniversitetet arbetar aktivt för en arbetsmiljö med jämställda förhållanden och sätter värde på de kvalitéer mångfald tillför verksamheten. \n\nUniversitetet tillämpar individuell lönesättning. \n\nEnligt Riksarkivets föreskrifter är universitetet skyldigt att förvara ansökningshandlingar i två år efter tillsättningsbeslutet. Om du som sökande till en anställning särskilt begär tillbaka dina handlingar återsänds de när de två åren har förflutit, i annat fall kommer de att gallras ut. \n\nTill bemannings- och rekryteringsföretag och till dig som är försäljare: Göteborgs universitet anlitar upphandlad annonsbyrå i samband med rekrytering av personal. Vi undanber oss vänligen men bestämt direktkontakt med bemannings- och rekryteringsföretag samt försäljare av jobbannonser.', 'text_formatted': 'Göteborgs universitet möter samhällets utmaningar med mångsidig kunskap. 56 000 studenter och 6 600 medarbetare gör universitetet till en stor och inspirerande arbetsplats. Stark forskning och attraktiva utbildningar lockar forskare och studenter från hela världen. Med ny kunskap och nya perspektiv bidrar Göteborgs universitet till en bättre framtid.Göteborgs universitetsbibliotek är ett av landets största bibliotek och består av sju bibliotek med olika ämnesinriktningar och en enhet för digitala tjänster. Göteborgs universitetsbibliotek svarar i första hand för informationsförsörjningen vid Göteborgs universitet, men har också ett nationellt och regionalt ansvar.\n\nSamhällsvetenskapliga biblioteken utgör en av enheterna och består av tre bibliotek som i första hand ger service till studenter, forskare och lärare på Handelshögskolan, Samhällsvetenskapliga fakulteten och Utbildningsvetenskapliga fakulteten. Vi är idag cirka 60 medarbetare. Verksamheten är organiserad i tre team.\n\nVi arbetar kontinuerligt för ett nära samarbete för att fortsätta utveckla en relevant och attraktiv biblioteksservice som stödjer lärande och forskning vid Göteborgs universitet. Vi vill tillsammans med våra målgrupper skapa en ömsesidig förståelse för hur universitetsbibliotekets resurser kan användas effektfullt.\xa0Vi arbetar med verksamhetsutveckling utifrån ett undersökande arbetssätt.\xa0Målet är att säkerställa en relevant och hållbar biblioteksservice. Vi söker dig som kan förena egen driftighet med god samarbetsförmåga.\xa0\n\nArbetsuppgifter\xa0\nPå Samhällsvetenskapliga biblioteken är möten med våra användare i olika former och kanaler centrala inslag. Som medlem i Team Användarservice arbetar du med att utveckla och genomföra aktiviteter som stödjer studenters lärande och synliggör universitetets forskning. Fokus är på vägledning i biblioteksrummet såväl som digitalt, samt vägledning för studenter med läsnedsättning. Det förekommer också biblioteksintroduktioner, workshopar, föreläsningar.\n\nVi söker dig som är nyfiken på och har erfarenhet av att bedriva användarfokuserade verksamheter både i den digitala såväl som i den fysiska biblioteksmiljön och som har ett lika naturligt förhållningssätt i båda kontexterna. Då vi tillämpar ett undersökande arbetssätt i allt vårt utvecklingsarbete är du delaktig i att utforma, genomföra och tolka användarstudier av olika omfattning. I tjänsten ingår även sedvanliga bibliotekarieuppgifter.\n\nKvällstjänstgöring ingår i tjänsten. Anställningen gäller alla de tre samhällsvetenskapliga biblioteken.\n\nKvalifikationer\xa0\nVi söker dig som har en akademisk examen i biblioteks- och informationsvetenskap. Du skall ha teoretiska kunskaper om och praktiska erfarenheter av pedagogiska aktiviteter. Du skall ha ett självklart pedagogiskt förhållningssätt i mötet med bibliotekets användare. Du är serviceinriktad och sätter användaren i fokus. Du har god samarbetsförmåga och kan också arbeta självständigt. Du kommunicerar väl på svenska och engelska.\n\nDet är meriterande med erfarenhet av arbete på högskole- eller universitetsbibliotek med arbetsuppgifter som vi beskrivit ovan.\n\nAnställning\xa0\nAnställningen är på 100% under perioden 3 november 2025 till och med 30 juni 2026, eller enligt överenskommelse, med placering på Samhällsvetenskapliga biblioteken vid Göteborgs universitetsbibliotek.\n\nKontaktuppgifter för anställningen\xa0\nHar du frågor om anställningen är du välkommen att kontakta:\n\nAnette Eliasson, bibliotekschef\n 031-786 68 67\n anette.eliasson@ub.gu.se\n\nElin Nord, teamledare användarservice\n 031-7862728\n Elin.nord@ub.gu.se\n\nFackliga\u202forganisationer\xa0\n\nFackliga företrädare vid Göteborgs universitet hittar du här:\u202fhttps://www.gu.se/om-universitetet/jobba-hos-oss/hjalp-for-sokande\xa0\n\n\xa0\n\nAnsökan\xa0\nDu söker anställningen via Göteborgs universitets rekryteringsportal genom att klicka på knappen "Ansök". Du som sökande ansvarar för att ansökan är komplett i enlighet med annonsen och att den är universitetet tillhanda senast sista ansökningsdag.\xa0\n\nAnsökan ska vara inkommen senast: 2025-09-16\n\n\xa0\n\nUniversitetet arbetar aktivt för en arbetsmiljö med jämställda förhållanden och sätter värde på de kvalitéer mångfald tillför verksamheten. \n\nUniversitetet tillämpar individuell lönesättning. \n\nEnligt Riksarkivets föreskrifter är universitetet skyldigt att förvara ansökningshandlingar i två år efter tillsättningsbeslutet. Om du som sökande till en anställning särskilt begär tillbaka dina handlingar återsänds de när de två åren har förflutit, i annat fall kommer de att gallras ut. \n\nTill bemannings- och rekryteringsföretag och till dig som är försäljare: Göteborgs universitet anlitar upphandlad annonsbyrå i samband med rekrytering av personal. Vi undanber oss vänligen men bestämt direktkontakt med bemannings- och rekryteringsföretag samt försäljare av jobbannonser.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1916,33 +1896,33 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Lön enligt överenskommelse</t>
+          <t>Göteborgs universitet tillämpar individuell lönesättning</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5565703138', 'name': 'Diakrit Fastighetsmäklarservice AB', 'workplace': 'Diakrit '}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.gu.se/', 'organization_number': '2021003153', 'name': 'Göteborgs Universitet', 'workplace': 'Göteborgs universitet'}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://career.diakrit.com/jobs/6377901-engagerad-lokal-fotograf-boden?promotion=1609676-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://go.talentech.io/w0ZPk', 'other': None}</t>
         </is>
       </c>
       <c r="U10" t="b">
@@ -1957,12 +1937,12 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
+          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1972,12 +1952,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>{'municipality': 'Boden', 'municipality_code': '2582', 'municipality_concept_id': 'y4NQ_tnB_eVd', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [21.688704, 65.82512]}</t>
+          <t>{'municipality': 'Göteborg', 'municipality_code': '1480', 'municipality_concept_id': 'PVZL_BQT_XtL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [11.97456, 57.70887]}</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1987,17 +1967,17 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'DIAKRIT RECRUITMENT', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2025-09-02T06:28:25</t>
+          <t>2025-09-02T17:08:15</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2026-02-19T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="AH10" t="b">
@@ -2010,7 +1990,7 @@
         </is>
       </c>
       <c r="AK10" t="n">
-        <v>1756787305771</v>
+        <v>1756825695674</v>
       </c>
     </row>
     <row r="11">
@@ -2019,12 +1999,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29974278</t>
+          <t>29979709</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46-556902-4804-6319802-2</t>
+          <t>46-817600-7089-2012</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -2035,22 +2015,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29974278</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5569024804/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29979709</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Experience Designer (XD)</t>
+          <t>Kulturarbetare sökes – Musikglädje till äldreboenden!</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -2058,7 +2034,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{'text': "At EVORA, our culture drives everything we do:\nWe collaborate, we care, and we grow—together. We’re a passionate team on a mission that makes a real difference.\xa0\nWho we areWe’re experts in real estate, investing, sustainability, and data collection. Now, we’re looking for a new EVORIAN to join us in Product Engineering and make us even better. \nWe believe the future lies in breaking down silos and creating seamless interactions that build genuine confidence and trust in the services we offer. We're shifting toward journey-centric design, and we need someone who gets excited about connecting the dots between touchpoints, making complex systems feel intuitive, and turning ordinary service moments into meaningful ones.\nThe teamWorking within our distributed team setup, you'll belong to our design team (distributed in UK and Gothenburg, Sweden) while spending your time either embedded with a product team as their design lead or partnering across departments on initiatives that span multiple touchpoints. We're looking for an Experience Designer (XD) who sees the bigger picture and enjoys the challenge of\xa0transforming complex ESG data into clear insights that drive sustainable investment decisions.\xa0Someone who brings (service) design thinking to product work.\xa0\nRole descriptionYou'll apply journey-level thinking when leading end-to-end design initiatives from discovery to delivery, balancing business outcomes and goals with user and customer needs. You'll use customer journeys and service blueprints to uncover insights and identify opportunities, then translate these into improved service moments and polished digital experiences. Hands-on nitty-gritty work will remain a significant part of your role alongside the journey-level thinking.\nYou'll design across both our products and services portfolio. We are using a\xa0modern tech stack for building our\xa0web applications.\xa0Our ESG services include e.g. data collection,\xa0climate risk assessments, and sustainable reports.\nAs we're shifting toward journey-centric design, you'll collaborate to define what great digital experience looks like at EVORA. You will also\xa0help breaking down organisational silos to create seamless interactions that build confidence and trust, throughout our services and products.\nWe are looking for We are open to all experience levels in UX, Product Design, or Service Design.\n You are a design thinker that\xa0has experience in journey mapping and service blueprints to identify gaps and opportunities to inform decisions. \n Full product lifecycle hands-on skills – from discovery to delivery including assumption validation, user research, wireframing/prototyping.\n Have experience documenting research findings and comfortably presenting the rationale for your design decisions to diverse stakeholders.\xa0\n Can balance multiple stakeholders while maintaining a clear design perspective.\n Enjoy working in ambiguous, complex problem spaces where you can take ownership and collaborate closely with cross-functional partners and stakeholders.\n Have experience with tools such as\xa0Figma, Miro,\xa0Storybook, Dovetail etc.\n Enjoy mentoring others and contributing to design culture.\n Bonus if you\xa0have experience working in B2B and SaaS product organisations.\n Our offer to you Design autonomy: While we're part of a larger organisation, our team operates with significant independence and collaborative decision-making.\n Early-stage opportunity: Join us during this journey-centric transformation and help shape the direction of digital\xa0experience design at EVORA.\n Growth opportunities: Develop your skills across various design disciplines, strategy, and emerging technologies in a growing organisation.\n Learning together: Join a culture where we learn from each other - share insights from your work and help shape our design practices with your personal perspective.\n Work-life balance: Flexible working arrangements that respect your personal time – a hybrid work culture with options to work from our London or Gothenburg offices.\n Innovation time: Regular hackathons to explore emerging technologies, exciting topics, and collaborate on complex challenges. Imagine where Agentic AI could transform sustainability experiences or fully transform back-office processes? \n \nDo you want to design experiences that feel connected, purposeful, and trusted? Apply now and join our growing 4-person design team!\xa0You will report to the Design Manager.", 'text_formatted': "At EVORA, our culture drives everything we do:&lt;p&gt;We collaborate, we care, and we grow—together. We’re a passionate team on a mission that makes a real difference.&amp;nbsp;&lt;/p&gt;Who we are&lt;p&gt;We’re experts in real estate, investing, sustainability, and data collection. Now, we’re looking for a new EVORIAN to join us in Product Engineering and make us even better. &lt;/p&gt;&lt;p&gt;We believe the future lies in breaking down silos and creating seamless interactions that build genuine confidence and trust in the services we offer. We're shifting toward journey-centric design&lt;strong&gt;,&lt;/strong&gt; and we need someone who gets excited about connecting the dots between touchpoints, making complex systems feel intuitive, and turning ordinary service moments into meaningful ones.&lt;/p&gt;The team&lt;p&gt;Working within our distributed team setup, you'll belong to our design team (distributed in UK and Gothenburg, Sweden) while spending your time either embedded with a product team as their design lead or partnering across departments on initiatives that span multiple touchpoints. We're looking for an &lt;strong&gt;Experience Designer (XD)&lt;/strong&gt; who sees the bigger picture and enjoys the challenge of&amp;nbsp;transforming complex ESG data into clear insights that drive sustainable investment decisions.&amp;nbsp;Someone who brings (service) design thinking to product work.&amp;nbsp;&lt;/p&gt;Role description&lt;p&gt;You'll apply journey-level thinking when leading end-to-end design initiatives from discovery to delivery, balancing business outcomes and goals with user and customer needs. You'll use customer journeys and service blueprints to uncover insights and identify opportunities, then translate these into improved service moments and polished digital experiences. Hands-on nitty-gritty work will remain a significant part of your role alongside the journey-level thinking.&lt;/p&gt;&lt;p&gt;You'll design across both our products and services portfolio. We are using a&amp;nbsp;modern tech stack for building our&amp;nbsp;web applications.&amp;nbsp;Our ESG services include e.g. data collection,&amp;nbsp;climate risk assessments, and sustainable reports.&lt;/p&gt;&lt;p&gt;As we're shifting toward journey-centric design, you'll collaborate to define what great digital experience looks like at EVORA. You will also&amp;nbsp;help breaking down organisational silos to create seamless interactions that build confidence and trust, throughout our services and products.&lt;/p&gt;We are looking for&lt;ul&gt; &lt;li&gt;We are open to all experience levels in UX, Product Design, or Service Design.&lt;/li&gt; &lt;li&gt;You are a design thinker that&amp;nbsp;has experience in journey mapping and service blueprints to identify gaps and opportunities to inform decisions. &lt;/li&gt; &lt;li&gt;Full product lifecycle hands-on skills – from discovery to delivery including assumption validation, user research, wireframing/prototyping.&lt;/li&gt; &lt;li&gt;Have experience documenting research findings and comfortably presenting the rationale for your design decisions to diverse stakeholders.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Can balance multiple stakeholders while maintaining a clear design perspective.&lt;/li&gt; &lt;li&gt;Enjoy working in ambiguous, complex problem spaces where you can take ownership and collaborate closely with cross-functional partners and stakeholders.&lt;/li&gt; &lt;li&gt;Have experience with tools such as&amp;nbsp;Figma, Miro,&amp;nbsp;Storybook, Dovetail etc.&lt;/li&gt; &lt;li&gt;Enjoy mentoring others and contributing to design culture.&lt;/li&gt; &lt;li&gt;Bonus if you&amp;nbsp;have experience working in B2B and SaaS product organisations.&lt;/li&gt; &lt;/ul&gt;Our offer to you&lt;ul&gt; &lt;li&gt;&lt;strong&gt;Design autonomy:&lt;/strong&gt; While we're part of a larger organisation, our team operates with significant independence and collaborative decision-making.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Early-stage opportunity:&lt;/strong&gt; Join us during this journey-centric transformation and help shape the direction of digital&amp;nbsp;experience design at EVORA.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Growth opportunities:&lt;/strong&gt; Develop your skills across various design disciplines, strategy, and emerging technologies in a growing organisation.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Learning together:&lt;/strong&gt; Join a culture where we learn from each other - share insights from your work and help shape our design practices with your personal perspective.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Work-life balance:&lt;/strong&gt; Flexible working arrangements that respect your personal time – a hybrid work culture with options to work from our London or Gothenburg offices.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Innovation time:&lt;/strong&gt; Regular hackathons to explore emerging technologies, exciting topics, and collaborate on complex challenges. Imagine where Agentic AI could transform sustainability experiences or fully transform back-office processes? &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Do you want to design experiences that feel connected, purposeful, and trusted? Apply now and join our growing 4-person design team!&amp;nbsp;You will report to the Design Manager. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nEmployment Period according to agreement'}</t>
+          <t>{'text': 'Medborgarskolan skapar mötesplatser för dig som söker kunskap, utveckling och upplevelser. Kunniga kurs- och cirkelledare inspirerar till lustfyllt och livslångt lärande. Våra kärnvärden är individen i centrum, utveckling i samverkan, ömsesidig respekt och kunskapens egenvärde.\n\nMedborgarskolan är indelad i sex regioner. Medborgarskolan Nord är en ideell förening som förutom traditionell folkbildning även bedriver företagsutbildningar samt verksamhet inom arbetsmarknadsområdet. Medborgarskolan region Nord omfattar Västerbotten, Norrbotten och Jämtlands län. Regionen har 15 lokalkontor, cirka 50 medarbetare och cirka 1000 kurs- och cirkelledare.\nVi söker en engagerad och varm kulturarbetare som med musikens kraft vill sprida glädje till våra äldre! Har du förmågan att spela ett instrument och sjunga, och vill göra skillnad i människors vardag? Då kan detta vara uppdraget för dig.\n\nOm uppdraget:\xa0Du kommer att besöka äldreboenden i Piteå med musikaliska inslag som skapar gemenskap, nostalgi och livsglädje. Det kan vara allt från visor och schlager till klassiska pärlor – repertoaren anpassas efter målgruppen och din egen stil.\n\nVi söker dig som:\n\n\n• Spelar ett eller flera instrument (t.ex. gitarr, piano, dragspel)\n• Har sångvana och gärna erfarenhet av att uppträda\n• Är lyhörd, social och trygg i mötet med äldre\n• Har möjlighet att arbeta dagtid, enligt överenskommelse\n\nVi erbjuder:\n\n\n• Ett meningsfullt uppdrag där du gör skillnad\n• Flexibla tider och möjlighet att påverka upplägget\n• Ersättning enligt överenskommelse\nOm oss\nVi är en organisation som sätter kunskap och framtidstro i fokus, med starkt engagemang för mångfald och inkludering. Vår verksamhet präglas av gemenskap och samarbete, och vi värdesätter en trygg miljö för både elever och personal. Hos oss uppmuntras kreativitet, innovation och lärande som livslångt äventyr. Vi skapar meningsfulla lärandemiljöer och stödjer folkbildning med ett öppet hjärta och sinne.\n\nSå om du har vad som krävs för att göra musiken till ett medel för glädje och gemenskap, hör av dig genom vår ansökningsportal. Kom och bli en stjärna i vårt team och sprid musikens magi där den behövs som mest!\n\n\n\nMedborgarskolan är ett studieförbund med ett brett kursutbud, stor musikverksamhet och samarbete med föreningar och grupper inom många olika ämnen. Deltagarna är i alla åldrar och med olika bakgrunder och intressen.', 'text_formatted': 'Medborgarskolan skapar mötesplatser för dig som söker kunskap, utveckling och upplevelser. Kunniga kurs- och cirkelledare inspirerar till lustfyllt och livslångt lärande. Våra kärnvärden är individen i centrum, utveckling i samverkan, ömsesidig respekt och kunskapens egenvärde.\n\nMedborgarskolan är indelad i sex regioner. Medborgarskolan Nord är en ideell förening som förutom traditionell folkbildning även bedriver företagsutbildningar samt verksamhet inom arbetsmarknadsområdet. Medborgarskolan region Nord omfattar Västerbotten, Norrbotten och Jämtlands län. Regionen har 15 lokalkontor, cirka 50 medarbetare och cirka 1000 kurs- och cirkelledare.\nVi söker en engagerad och varm kulturarbetare som med musikens kraft vill sprida glädje till våra äldre! Har du förmågan att spela ett instrument och sjunga, och vill göra skillnad i människors vardag? Då kan detta vara uppdraget för dig.\n\nOm uppdraget:\xa0Du kommer att besöka äldreboenden i Piteå med musikaliska inslag som skapar gemenskap, nostalgi och livsglädje. Det kan vara allt från visor och schlager till klassiska pärlor – repertoaren anpassas efter målgruppen och din egen stil.\n\nVi söker dig som:\n\n\n• Spelar ett eller flera instrument (t.ex. gitarr, piano, dragspel)\n• Har sångvana och gärna erfarenhet av att uppträda\n• Är lyhörd, social och trygg i mötet med äldre\n• Har möjlighet att arbeta dagtid, enligt överenskommelse\n\nVi erbjuder:\n\n\n• Ett meningsfullt uppdrag där du gör skillnad\n• Flexibla tider och möjlighet att påverka upplägget\n• Ersättning enligt överenskommelse\nOm oss\nVi är en organisation som sätter kunskap och framtidstro i fokus, med starkt engagemang för mångfald och inkludering. Vår verksamhet präglas av gemenskap och samarbete, och vi värdesätter en trygg miljö för både elever och personal. Hos oss uppmuntras kreativitet, innovation och lärande som livslångt äventyr. Vi skapar meningsfulla lärandemiljöer och stödjer folkbildning med ett öppet hjärta och sinne.\n\nSå om du har vad som krävs för att göra musiken till ett medel för glädje och gemenskap, hör av dig genom vår ansökningsportal. Kom och bli en stjärna i vårt team och sprid musikens magi där den behövs som mest!\n\n\n\nMedborgarskolan är ett studieförbund med ett brett kursutbud, stor musikverksamhet och samarbete med föreningar och grupper inom många olika ämnen. Deltagarna är i alla åldrar och med olika bakgrunder och intressen.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid/\r\nEj specificerat'}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2073,53 +2049,57 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Lön enligt överenskommelse</t>
+          <t>Lön enligt kollektivavtal.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://evoraglobal.com', 'organization_number': '5569024804', 'name': 'Metry AB', 'workplace': 'EVORA Global'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '8176007089', 'name': 'Studieförbundet Medborgarskolan', 'workplace': 'Medborgarskolan'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.evoraglobal.com/jobs/6319802-experience-designer-xd?promotion=1608557-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.medborgarskolan.se/om-medborgarskolan/lediga-jobb/?rmpage=apply&amp;rmjob=2012&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
         </is>
       </c>
       <c r="U11" t="b">
         <v>1</v>
       </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
+        </is>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
+          <t>{'concept_id': 'UCXb_LjK_pHv', 'label': 'Musiker', 'legacy_ams_taxonomy_id': '6110'}</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
+          <t>{'concept_id': 'AWJF_wqZ_va9', 'label': 'Musiker, sångare och kompositörer', 'legacy_ams_taxonomy_id': '2652'}</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2129,12 +2109,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>{'municipality': 'Göteborg', 'municipality_code': '1480', 'municipality_concept_id': 'PVZL_BQT_XtL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [11.97456, 57.70887]}</t>
+          <t>{'municipality': 'Piteå', 'municipality_code': '2581', 'municipality_concept_id': 'umej_bP2_PpK', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [21.480036, 65.316696]}</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'UCXb_LjK_pHv', 'label': 'Musiker', 'legacy_ams_taxonomy_id': '6110'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2144,17 +2124,17 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Sebastian Levander', 'email': 'slevander@evoraglobal.com', 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Nadin Saleh', 'email': 'nadin.saleh@medborgarskolan.se', 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2025-09-01T16:42:55</t>
+          <t>2025-09-02T15:55:15</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="AH11" t="b">
@@ -2167,7 +2147,7 @@
         </is>
       </c>
       <c r="AK11" t="n">
-        <v>1756737775986</v>
+        <v>1756821315690</v>
       </c>
     </row>
     <row r="12">
@@ -2176,12 +2156,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29974199</t>
+          <t>29978630</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>46-202100-4474-1420</t>
+          <t>46-556870-3721-309297-184820</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -2192,30 +2172,30 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29974199</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29978630</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021004474/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5568703721/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Arkivarie</t>
+          <t>Senior Feature Designer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-09-21T23:59:59</t>
+          <t>2026-02-28T23:59:59</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'text': 'Det är på regeringens uppdrag som Statens fastighetsverk (SFV) förvaltar vårt gemensamma natur- och kulturarv. Vi förvaltar en mångfald av statligt ägda fastigheter – däribland regeringsbyggnader, domstolar, slott och kungsgårdar, teatrar, museer, ambassader\n\nsamt en sjundedel av landets yta bestående av skog och mark.\n\nSom medarbetare är vi stolta över att vara anställda på en myndighet, arbeta utifrån den statliga värdegrunden och få bidra till en positiv samhällsutveckling.\n\nArkiv- och informationsförvaltning är en del av myndighetens ledningsstöd. Vi säkerställer en enhetlig, korrekt och hållbar informationsförvaltning. Förvaltningen består idag av 20 medarbetare som stödjer den dagliga informationshanteringen samt tar sig an de långsiktiga utmaningarna och utvecklar förutsättningar för en modern informationsförvaltning.\n\nVill du lära dig mer om överlämnande av arkivbestånd? Vill du få praktisk erfarenhet inom området? Vill du bidra till att bevara vårt kulturarv? Då kan du vara vår arkivarie!\n\nDin roll\n\nEnheten förbereder för närvarande överlämnande av delar av myndighetens analoga arkivbestånd till Riksarkivet.\n\nDina arbetsuppgifter är av praktisk karaktär och består av att ordna och förteckna fysiska handlingar enligt allmänna arkivschemat. Du jobbar med kontorsdokument, fotografier och ritningar. I arbetet ingår även inventering, gallring, rensning och annan arkivvård. Du arbetar i team med ett flertal medarbetare på enheten.\n\nTunga lyft förekommer då packning och annan logistik ingår i arbetet inför överlämnandet av arkivbeståndet.\n\nRollen är tidsbegränsad från och med 2025-10-15, dock längst till och med 2026-09-30.\n\nDin profil\n\nVi tror att du är i början av din yrkeskarriär som arkivarie och vill omsätta dina teoretiska kunskaper i ett pågående projekt med Riksarkivet.\n\nVi söker dig som har:\n\n\n• akademisk examen om minst 60 HP inom arkivvetenskap eller informationsvetenskap,\n• god svenska i tal och skrift,\n• god vana av att arbeta i digitala system där du söker och förtecknar information samt\n• erfarenhet av samarbete i större team.\n\nDet är meriterande om du har:\n\n\n• kunskap av att läsa ritningar samt\n• arbetat i uppdrag med skarpa deadlines.\n\nPersonliga egenskaper\n\nVi lägger stor vikt vid dina personliga egenskaper. Vi söker dig som har lätt att samarbeta, lära dig, är självgående och har vana att ta sig an uppgifter tillsammans med andra. Du är noggrann, stresstålig och pragmatiskt lagd. Du har förmåga att prioritera och organisera dina arbetsuppgifter och respekterar givna tidsramar.\n\nSå söker du tjänsten\xa0\n\nFör att söka tjänsten ber vi dig bifoga ditt CV och besvara ett antal urvalsfrågor som utgår från kravprofilen. Vid första urvalet kommer vi endast att utgå ifrån ditt CV och dina svar på frågorna. Vi önskar att du svarar konkret och kortfattat, och att det finns en tydlig koppling mellan dina svar och ditt CV. \xa0\n\nOm du har skyddade personuppgifter ber vi dig att kontakta rekryterande chef för att skicka in din ansökan.\xa0 \xa0\n\nFör frågor är du välkommen att kontakta rekryterande chef Lenka Medin tfn 010-478 72 10.\xa0\n\nFackliga representanter för Saco, Seko och OFR/S nås via vår växel, 010-478 70 00. Mer information om SFV hittar du på\u202fwww.sfv.se.\xa0\xa0\n\nSista ansökningsdag: 2025-09-21\xa0\n\nMer information \xa0\n \xa0\n Anställningsform: Tjänsten är en särskild visstidsanställning (SÄVA) från och med 2025-10-15, dock längst till och med 2026-09-30. SFV avser att anställa en eller flera arkivarier.\n\nPlacering: Stockholm\xa0\n\nTillträde: Önskat tillträde 2025-10-15\xa0\xa0\n\nMöjlighet till distansarbete: Det finns ingen möjlighet till distansarbete i denna tjänst.\n\nInnan ett beslut om anställning fattas kan en säkerhetsprövning enligt säkerhetsskyddslagen (2018:585) komma att genomföras. Om anställningen avser befattning i säkerhetsklass kommer säkerhetsprövningen även att innefatta en registerkontroll och i vissa fall krävs svenskt medborgarskap.\xa0\n\nStatens fastighetsverk verkar inom branscher som är exponerade mot olika risker för oegentligheter, i förbyggande syfte förekommer därför tjänster där lämplighetsprövning genomförs.\xa0\n\nJobba hos oss\xa0\n\nPå SFV arbetar vi på medborgarnas uppdrag, med utgångspunkt i den statliga värdegrunden och utifrån vår medarbetarbetarpolicy. Medarbetare på SFV har god förståelse för SFV:s uppdrag och mål, tar ansvar och samarbetar. Våra chefer leder vårt arbete genom att ha helhetssyn, leda mot resultat samt skapa delaktighet och involvering.\xa0\xa0\xa0\xa0\xa0\n\nTa del av vår medarbetarpolicy och hur det är att jobba hos oss på Jobba hos oss | SFV.\xa0\n\nVälkommen till oss!', 'text_formatted': 'Det är på regeringens uppdrag som Statens fastighetsverk (SFV) förvaltar vårt gemensamma natur- och kulturarv. Vi förvaltar en mångfald av statligt ägda fastigheter – däribland regeringsbyggnader, domstolar, slott och kungsgårdar, teatrar, museer, ambassader\n\nsamt en sjundedel av landets yta bestående av skog och mark.\n\nSom medarbetare är vi stolta över att vara anställda på en myndighet, arbeta utifrån den statliga värdegrunden och få bidra till en positiv samhällsutveckling.\n\nArkiv- och informationsförvaltning är en del av myndighetens ledningsstöd. Vi säkerställer en enhetlig, korrekt och hållbar informationsförvaltning. Förvaltningen består idag av 20 medarbetare som stödjer den dagliga informationshanteringen samt tar sig an de långsiktiga utmaningarna och utvecklar förutsättningar för en modern informationsförvaltning.\n\nVill du lära dig mer om överlämnande av arkivbestånd? Vill du få praktisk erfarenhet inom området? Vill du bidra till att bevara vårt kulturarv? Då kan du vara vår arkivarie!\n\nDin roll\n\nEnheten förbereder för närvarande överlämnande av delar av myndighetens analoga arkivbestånd till Riksarkivet.\n\nDina arbetsuppgifter är av praktisk karaktär och består av att ordna och förteckna fysiska handlingar enligt allmänna arkivschemat. Du jobbar med kontorsdokument, fotografier och ritningar. I arbetet ingår även inventering, gallring, rensning och annan arkivvård. Du arbetar i team med ett flertal medarbetare på enheten.\n\nTunga lyft förekommer då packning och annan logistik ingår i arbetet inför överlämnandet av arkivbeståndet.\n\nRollen är tidsbegränsad från och med 2025-10-15, dock längst till och med 2026-09-30.\n\nDin profil\n\nVi tror att du är i början av din yrkeskarriär som arkivarie och vill omsätta dina teoretiska kunskaper i ett pågående projekt med Riksarkivet.\n\nVi söker dig som har:\n\n\n• akademisk examen om minst 60 HP inom arkivvetenskap eller informationsvetenskap,\n• god svenska i tal och skrift,\n• god vana av att arbeta i digitala system där du söker och förtecknar information samt\n• erfarenhet av samarbete i större team.\n\nDet är meriterande om du har:\n\n\n• kunskap av att läsa ritningar samt\n• arbetat i uppdrag med skarpa deadlines.\n\nPersonliga egenskaper\n\nVi lägger stor vikt vid dina personliga egenskaper. Vi söker dig som har lätt att samarbeta, lära dig, är självgående och har vana att ta sig an uppgifter tillsammans med andra. Du är noggrann, stresstålig och pragmatiskt lagd. Du har förmåga att prioritera och organisera dina arbetsuppgifter och respekterar givna tidsramar.\n\nSå söker du tjänsten\xa0\n\nFör att söka tjänsten ber vi dig bifoga ditt CV och besvara ett antal urvalsfrågor som utgår från kravprofilen. Vid första urvalet kommer vi endast att utgå ifrån ditt CV och dina svar på frågorna. Vi önskar att du svarar konkret och kortfattat, och att det finns en tydlig koppling mellan dina svar och ditt CV. \xa0\n\nOm du har skyddade personuppgifter ber vi dig att kontakta rekryterande chef för att skicka in din ansökan.\xa0 \xa0\n\nFör frågor är du välkommen att kontakta rekryterande chef Lenka Medin tfn 010-478 72 10.\xa0\n\nFackliga representanter för Saco, Seko och OFR/S nås via vår växel, 010-478 70 00. Mer information om SFV hittar du på\u202fwww.sfv.se.\xa0\xa0\n\nSista ansökningsdag: 2025-09-21\xa0\n\nMer information \xa0\n \xa0\n Anställningsform: Tjänsten är en särskild visstidsanställning (SÄVA) från och med 2025-10-15, dock längst till och med 2026-09-30. SFV avser att anställa en eller flera arkivarier.\n\nPlacering: Stockholm\xa0\n\nTillträde: Önskat tillträde 2025-10-15\xa0\xa0\n\nMöjlighet till distansarbete: Det finns ingen möjlighet till distansarbete i denna tjänst.\n\nInnan ett beslut om anställning fattas kan en säkerhetsprövning enligt säkerhetsskyddslagen (2018:585) komma att genomföras. Om anställningen avser befattning i säkerhetsklass kommer säkerhetsprövningen även att innefatta en registerkontroll och i vissa fall krävs svenskt medborgarskap.\xa0\n\nStatens fastighetsverk verkar inom branscher som är exponerade mot olika risker för oegentligheter, i förbyggande syfte förekommer därför tjänster där lämplighetsprövning genomförs.\xa0\n\nJobba hos oss\xa0\n\nPå SFV arbetar vi på medborgarnas uppdrag, med utgångspunkt i den statliga värdegrunden och utifrån vår medarbetarbetarpolicy. Medarbetare på SFV har god förståelse för SFV:s uppdrag och mål, tar ansvar och samarbetar. Våra chefer leder vårt arbete genom att ha helhetssyn, leda mot resultat samt skapa delaktighet och involvering.\xa0\xa0\xa0\xa0\xa0\n\nTa del av vår medarbetarpolicy och hur det är att jobba hos oss på Jobba hos oss | SFV.\xa0\n\nVälkommen till oss!\xa0', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
+          <t>{'text': 'At Toca Boca, we believe in the power of play. Our games give kids the tools to express themselves, explore their imagination, and create their own worlds. We’re now looking for a Senior Feature Designer to help shape the future of Toca Boca World, designing new features and play loops that empower kids to tell stories in safe, open, and creative ways.\n\n\n\nWhat you’ll be doing\n\nAs Senior Feature Designer, you’ll design core mechanics and features that support both existing and future content packs, always guided by the Kids First perspective and design principles of Toca Boca World. You’ll work closely with creative leadership and stakeholders to define opportunities, balance technical limitations, and expand Toca Boca World to meet the demands of an increasingly competitive and fast-moving market.\n\nYour role will include creating prototypes that allow for quick testing and iteration, providing risk assessments for upcoming releases, and maintaining clear design documentation. You’ll communicate complex design ideas in an accessible way across disciplines and act as a reliable point of reference for your team, ensuring the vision is carried through in development.\n\nStaying on top of industry trends and kids’ communities will be key, helping you ensure that Toca Boca World remains relevant and inspiring for its audience. You’ll collaborate with the User Research team to design test cases and run live testing sessions with kids, translating their feedback into actionable improvements. At the same time, with the help of your lead you’ll serve as a bridge between the team and the Design Director, helping future-proof Toca Boca World while designing thoughtful and practical solutions to complex challenges.\r\nIs this you?\n\nYou are a senior designer, having worked in cross-functional teams focused on mobile and free-to-play titles. You have worked on live-operated mobile projects, and if you contributed to a couple of shipped titles or long-term live-ops projects - that’s great.\xa0\n\nYou’re confident in designing technical features and core mechanics within frameworks that include multiple intertwining systems. An iterative mindset is key—you value prototyping, testing, gathering feedback, and refining your designs until they deliver the best possible player experience. You’re curious and have an understanding of open-ended play, with the ability to step away from linear or traditionally competitive gameplay to create playful, imaginative experiences. Experience with social gameplay features is a big plus.\n\n\n\nYou have strong communication skills with the ability to convey complex concepts in a way that makes sense to different disciplines. Above all, you’re passionate about designing safe, creative, and joyful play experiences for kids.\n\nA portfolio showcasing relevant work on handheld or mobile devices is required.\n\n\n\nThis is us!\n\nPlay is in our DNA. At Toca Boca, we make playful, safe spaces where kids can have fun and feel free to be themselves. Over 60 million kids from all over the world play our games every month. Are you in? Let’s play.\n\n\n\nGood to know!\n\nThis position is full time and based in our Stockholm studio with a hybrid working model (part office, part working from home). We apply a 6-month probationary period. You’ll need to be located in Sweden as we are unable to support relocation. As we’re an international company, with over 20 nationalities working here, and millions of users all over the world, you need to be fluent in English. Your application should therefore be in English.\n\n\n\nToca Boca develops digital games that capture the power of play and that are filled with fun and silliness that kids around the world can instantly relate to. Since our first product launch in 2011, we have released 46 apps that have been downloaded more than 444 million times the world over, making us the No. 1 mobile-first kids brand in the App Store. Our products focus on sparking kids’ creativity and imagination, creating opportunities for open-ended play.\n\nWith offices in Stockholm and San Francisco, Toca Boca is owned by Spin Master Corp., a global children’s entertainment company that creates, designs and manufactures a diversified portfolio of innovative toys, games, products and entertainment properties.', 'text_formatted': 'At Toca Boca, we believe in the power of play. Our games give kids the tools to express themselves, explore their imagination, and create their own worlds. We’re now looking for a Senior Feature Designer to help shape the future of Toca Boca World, designing new features and play loops that empower kids to tell stories in safe, open, and creative ways.\n\n\n\nWhat you’ll be doing\n\nAs Senior Feature Designer, you’ll design core mechanics and features that support both existing and future content packs, always guided by the Kids First perspective and design principles of Toca Boca World. You’ll work closely with creative leadership and stakeholders to define opportunities, balance technical limitations, and expand Toca Boca World to meet the demands of an increasingly competitive and fast-moving market.\n\nYour role will include creating prototypes that allow for quick testing and iteration, providing risk assessments for upcoming releases, and maintaining clear design documentation. You’ll communicate complex design ideas in an accessible way across disciplines and act as a reliable point of reference for your team, ensuring the vision is carried through in development.\n\nStaying on top of industry trends and kids’ communities will be key, helping you ensure that Toca Boca World remains relevant and inspiring for its audience. You’ll collaborate with the User Research team to design test cases and run live testing sessions with kids, translating their feedback into actionable improvements. At the same time, with the help of your lead you’ll serve as a bridge between the team and the Design Director, helping future-proof Toca Boca World while designing thoughtful and practical solutions to complex challenges.\r\nIs this you?\n\nYou are a senior designer, having worked in cross-functional teams focused on mobile and free-to-play titles. You have worked on live-operated mobile projects, and if you contributed to a couple of shipped titles or long-term live-ops projects - that’s great.\xa0\n\nYou’re confident in designing technical features and core mechanics within frameworks that include multiple intertwining systems. An iterative mindset is key—you value prototyping, testing, gathering feedback, and refining your designs until they deliver the best possible player experience. You’re curious and have an understanding of open-ended play, with the ability to step away from linear or traditionally competitive gameplay to create playful, imaginative experiences. Experience with social gameplay features is a big plus.\n\n\n\nYou have strong communication skills with the ability to convey complex concepts in a way that makes sense to different disciplines. Above all, you’re passionate about designing safe, creative, and joyful play experiences for kids.\n\nA portfolio showcasing relevant work on handheld or mobile devices is required.\n\n\n\nThis is us!\n\nPlay is in our DNA. At Toca Boca, we make playful, safe spaces where kids can have fun and feel free to be themselves. Over 60 million kids from all over the world play our games every month. Are you in? Let’s play.\n\n\n\nGood to know!\n\nThis position is full time and based in our Stockholm studio with a hybrid working model (part office, part working from home). We apply a 6-month probationary period. You’ll need to be located in Sweden as we are unable to support relocation. As we’re an international company, with over 20 nationalities working here, and millions of users all over the world, you need to be fluent in English. Your application should therefore be in English.\n\n\n\nToca Boca develops digital games that capture the power of play and that are filled with fun and silliness that kids around the world can instantly relate to. Since our first product launch in 2011, we have released 46 apps that have been downloaded more than 444 million times the world over, making us the No. 1 mobile-first kids brand in the App Store. Our products focus on sparking kids’ creativity and imagination, creating opportunities for open-ended play.\n\nWith offices in Stockholm and San Francisco, Toca Boca is owned by Spin Master Corp., a global children’s entertainment company that creates, designs and manufactures a diversified portfolio of innovative toys, games, products and entertainment properties.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2230,12 +2210,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Individuell lönesättning</t>
+          <t>Fast månads- vecko- eller timlön</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2251,12 +2231,12 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.statensfastighetsverk.se/', 'organization_number': '2021004474', 'name': 'Statens Fastighetsverk', 'workplace': 'Statens fastighetsverk'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://tocaboca.com/', 'organization_number': '5568703721', 'name': 'Toca Boca AB', 'workplace': 'Toca Boca'}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.sfv.se/om-oss/karriar/lediga-jobb/?rmpage=job&amp;rmjob=1420&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://emp.jobylon.com/applications/jobs/309297/create/?utm_source=ams&amp;utm_medium=promotionserializer', 'other': None}</t>
         </is>
       </c>
       <c r="U12" t="b">
@@ -2271,12 +2251,12 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
+          <t>{'concept_id': 'ytrP_JCv_bwH', 'label': 'Game designer/Speldesigner', 'legacy_ams_taxonomy_id': '7437'}</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2291,7 +2271,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'ytrP_JCv_bwH', 'label': 'Game designer/Speldesigner', 'legacy_ams_taxonomy_id': '7437'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -2306,12 +2286,12 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2025-09-01T16:32:45</t>
+          <t>2025-09-02T14:04:06</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2025-09-21T23:59:59</t>
+          <t>2026-02-28T23:59:59</t>
         </is>
       </c>
       <c r="AH12" t="b">
@@ -2324,7 +2304,7 @@
         </is>
       </c>
       <c r="AK12" t="n">
-        <v>1756737336670</v>
+        <v>1756814646905</v>
       </c>
     </row>
     <row r="13">
@@ -2333,14 +2313,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29973719</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>46-556945-6659-quest-7165</t>
-        </is>
-      </c>
+          <t>29977920</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
@@ -2349,30 +2325,30 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29973719</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977920</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5569456659/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/10206795/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Arkivarie till vår kund!</t>
+          <t>Senior UX Designer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-09-05T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'text': 'Arbetet präglas av samarbete och dialog inom och utanför det egna teamet. Korta feedbackloopar och tät dialog med Kunden och dess verksamhet bidrar till att Leverantören är delaktig i hela utvecklingsprocessen.\n\nI arkiv teamet arbetar Leverantören dagligen med:\n\nIdentifiering av förbättringsområden inom arkivhanteringen\nFörslag på effektiviseringar och kvalitetshöjande åtgärder\nUtbildning och kompetensutveckling av medarbetare\nUppföljning och utvärdering av arkivprocesser\xa0\n\n\nFör att lyckas långsiktigt handlar en viktig del av utvecklingsarbetet om att bygga för kvalitet och automatisering, där stort fokus ligger på agilt arbetssätt. I uppdraget ingår att Leverantören ska dokumentera för Kundens räkning och kompetensöverföra till relevant personal hos Kunden\n\nHuvudsakliga arbetsuppgifter\n\nUpprättande och löpande uppdatering av arkivriktlinjer och arkivreglemente\nUtveckling av informationshanteringsplan och klassificeringsstruktur\nFramtagning och revidering av styrande dokument för arkivhantering\nGenomförande av gallringsutredningar och upprättande av bevarandeplaner\nAnalys och utvärdering av befintliga arkivprocesser\nLöpande arkivvård och kvalitetssäkring av arkivhanteringen\nUpprätthållande av struktur och ordning på Bolagsverkets handlingar\nHantering av både digitala och fysiska dokument\nRegistrering och klassificering av handlingar enligt fastställda rutiner\nRådgivning till medarbetare i arkivfrågor\n\n\nÖvriga arbetsuppgifter\n\nUtreda vilka handlingar som ska bevaras respektive gallras\nSäkerställa korrekt vård av handlingar i organisationens analoga samt digitala arkiv\nOrdning och förteckning av handlingar\nAdministration av arkivredovisningssystemet Klara\nSamarbete med Riksarkivet på Arkivcentrum Nord i Härnösand\n\n\nDin ansökan\n\nLåter rollen intressant och passande? Ansök i så fall omgående för vi intervjuar löpande och rollen kan tillsättas innan sista ansökningsdatum. Vi kan enbart ta emot och bearbeta din ansökan genom att du registrerar ditt CV i vår portal. Med avseende på GDPR kan vi ej ta emot ansökningar via e-post. Varmt välkommen med din ansökan! Uppdraget är en del av Quest Consulting personaluthyrning.\n\nOm oss\n\nQuest Consulting är ett auktoriserat konsultbolag med kollektivavtal, försäkringar, friskvård och tjänstepension. Vi är specialiserade inom IT, Teknik, HR, Administration och Ekonomi. Vår målsättning är att vara din personliga samarbetspartner och just därför är det så viktigt för oss att arbeta efter våra kärnvärden där våra ledord är att vara Personliga, Nyskapande och Professionella.', 'text_formatted': '&lt;p&gt;Arbetet präglas av samarbete och dialog inom och utanför det egna teamet. Korta feedbackloopar och tät dialog med Kunden och dess verksamhet bidrar till att Leverantören är delaktig i hela utvecklingsprocessen.&lt;/p&gt;\n&lt;p&gt;I arkiv teamet arbetar Leverantören dagligen med:&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Identifiering av förbättringsområden inom arkivhanteringen&lt;/li&gt;&lt;li&gt;Förslag på effektiviseringar och kvalitetshöjande åtgärder&lt;/li&gt;&lt;li&gt;Utbildning och kompetensutveckling av medarbetare&lt;/li&gt;&lt;li&gt;Uppföljning och utvärdering av arkivprocesser\xa0&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;För att lyckas långsiktigt handlar en viktig del av utvecklingsarbetet om att bygga för kvalitet och automatisering, där stort fokus ligger på agilt arbetssätt. I uppdraget ingår att Leverantören ska dokumentera för Kundens räkning och kompetensöverföra till relevant personal hos Kunden&lt;/p&gt;\n&lt;p&gt;Huvudsakliga arbetsuppgifter&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Upprättande och löpande uppdatering av arkivriktlinjer och arkivreglemente&lt;/li&gt;&lt;li&gt;Utveckling av informationshanteringsplan och klassificeringsstruktur&lt;/li&gt;&lt;li&gt;Framtagning och revidering av styrande dokument för arkivhantering&lt;/li&gt;&lt;li&gt;Genomförande av gallringsutredningar och upprättande av bevarandeplaner&lt;/li&gt;&lt;li&gt;Analys och utvärdering av befintliga arkivprocesser&lt;/li&gt;&lt;li&gt;Löpande arkivvård och kvalitetssäkring av arkivhanteringen&lt;/li&gt;&lt;li&gt;Upprätthållande av struktur och ordning på Bolagsverkets handlingar&lt;/li&gt;&lt;li&gt;Hantering av både digitala och fysiska dokument&lt;/li&gt;&lt;li&gt;Registrering och klassificering av handlingar enligt fastställda rutiner&lt;/li&gt;&lt;li&gt;Rådgivning till medarbetare i arkivfrågor&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;Övriga arbetsuppgifter&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Utreda vilka handlingar som ska bevaras respektive gallras&lt;/li&gt;&lt;li&gt;Säkerställa korrekt vård av handlingar i organisationens analoga samt digitala arkiv&lt;/li&gt;&lt;li&gt;Ordning och förteckning av handlingar&lt;/li&gt;&lt;li&gt;Administration av arkivredovisningssystemet Klara&lt;/li&gt;&lt;li&gt;Samarbete med Riksarkivet på Arkivcentrum Nord i Härnösand&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;Din ansökan&lt;/p&gt;\n&lt;p&gt;Låter rollen intressant och passande? Ansök i så fall omgående för vi intervjuar löpande och rollen kan tillsättas innan sista ansökningsdatum. Vi kan enbart ta emot och bearbeta din ansökan genom att du registrerar ditt CV i vår portal. Med avseende på GDPR kan vi ej ta emot ansökningar via e-post. Varmt välkommen med din ansökan! Uppdraget är en del av Quest Consulting personaluthyrning.&lt;/p&gt;\n&lt;p&gt;Om oss&lt;/p&gt;\n&lt;p&gt;Quest Consulting är ett auktoriserat konsultbolag med kollektivavtal, försäkringar, friskvård och tjänstepension. Vi är specialiserade inom IT, Teknik, HR, Administration och Ekonomi. Vår målsättning är att vara din personliga samarbetspartner och just därför är det så viktigt för oss att arbeta efter våra kärnvärden där våra ledord är att vara Personliga, Nyskapande och Professionella.\xa0\xa0&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nUppdraget är på 100%'}</t>
+          <t>{'text': 'TRATON is a group of strong brands with a shared mission: transforming transportation together to create the future of sustainable transport solutions. Within TRATON, we include MAN, Scania, Volkswagen Truck &amp; Bus, and International. As part of a global team of industry experts, you get to think bigger, experience more, and reach further. Together, we have the power to transform transportation - Let´s make a difference together. Find out more: www.traton.com\nOur values – customer first, respect, team spirit, responsibility, and elimination of waste – are at the heart of everything we do.\nDo you want to lead by design and shape digital experiences that matter?\nThis role is a part of TRATON Group R&amp;D, located in Södertälje, Sweden. \nWe’re seeking a Senior UX Designer with informal leadership experience to join our TRATON team. You’ll drive strategic design efforts, mentor junior colleagues, and collaborate across disciplines to deliver impactful solutions.\nThe Team\nYou’ll work in a cross-functional group dedicated to improving collaboration and creating user-centered solutions within the TRATON ecosystem. The team partners with engineers, product managers, and business stakeholders to build intuitive, efficient tools. \nCollaboration, openness, and continuous learning are central values. The environment is international and dynamic, with opportunities to influence both strategy and hands-on design outcomes. \nWithin TRATON Group R&amp;D, you are an important part of something bigger. Joining us means gaining access to the ins and outs of the entire transportation industry. \nWho you are\n5+ years of UX design experience, ideally in complex or enterprise environments\nExpertise in end-to-end design: research, ideation, prototyping, validation\nAbility to mentor junior designers and foster a design-driven culture\nStrong portfolio showcasing design systems, user flows, and impactful case studies\nExcellent communication and stakeholder management skills, with the ability to influence product strategy \n\n \nWe welcome applicants from all backgrounds – your unique experience and perspectives is valuable to us. \nTRATON Offers\nYou’ll have the autonomy to influence product strategy and the opportunity to shape our design culture. We offer a collaborative environment where your ideas and leadership can make a real difference across the TRATON Group. \nWe offer a dynamic, flexible workplace with hybrid work options, including Scania Sergel and Midway hubs. With a structured development plan and courses, TRATON Group R&amp;D supports your career growth both locally and internationally. Benefits include wellness allowance, bonus, flexible hours, and company car leasing. We also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job express buses for an easy commute to Södertälje. \nApplication\nYour application should include a CV and any relevant certificates. We welcome all applicants and strive for diversity in our recruitment processes. Apply as soon as possible, no later than 2025-09-16. Screening will take place on an ongoing basis during the application period. Logical and personality tests may be used as part of the selection process, and a background check may be required for this role. If you have questions or would like more information, please contact: Pedroso Filho Luiz Miguel, Manager TRATON Group, miguel.pedroso@scania.com or Rakhi Romarker, Talent Acquisition Specialist, rakhi.romarker@scania.com \nWe look forward to your application! \n\n\nThis recruitment process is handled by Scania for TRATON Group R&amp;D', 'text_formatted': '&lt;p&gt;TRATON is a group of strong brands with a shared mission: transforming transportation together to create the future of sustainable transport solutions. Within TRATON, we include MAN, Scania, Volkswagen Truck &amp;amp; Bus, and International. As part of a global team of industry experts, you get to think bigger, experience more, and reach further. Together, we have the power to transform transportation - Let´s make a difference together. Find out more: www.traton.com&lt;/p&gt;&lt;p&gt;Our values – customer first, respect, team spirit, responsibility, and elimination of waste – are at the heart of everything we do.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Do you want to lead by design and shape digital experiences that matter?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This role is a part of TRATON Group R&amp;amp;D, located in Södertälje, Sweden. &lt;/p&gt;&lt;p&gt;We’re seeking a Senior UX Designer with informal leadership experience to join our TRATON team. You’ll drive strategic design efforts, mentor junior colleagues, and collaborate across disciplines to deliver impactful solutions.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;The Team&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;You’ll work in a cross-functional group dedicated to improving collaboration and creating user-centered solutions within the TRATON ecosystem. The team partners with engineers, product managers, and business stakeholders to build intuitive, efficient tools. &lt;/p&gt;&lt;p&gt;Collaboration, openness, and continuous learning are central values. The environment is international and dynamic, with opportunities to influence both strategy and hands-on design outcomes. &lt;/p&gt;&lt;p&gt;Within TRATON Group R&amp;amp;D, you are an important part of something bigger. Joining us means gaining access to the ins and outs of the entire transportation industry. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Who you are&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;5+ years of UX design experience, ideally in complex or enterprise environments&lt;/li&gt;&lt;li&gt;Expertise in end-to-end design: research, ideation, prototyping, validation&lt;/li&gt;&lt;li&gt;Ability to mentor junior designers and foster a design-driven culture&lt;/li&gt;&lt;li&gt;Strong portfolio showcasing design systems, user flows, and impactful case studies&lt;/li&gt;&lt;li&gt;Excellent communication and stakeholder management skills, with the ability to influence product strategy &lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;We welcome applicants from all backgrounds – your unique experience and perspectives is valuable to us. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;TRATON Offers&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;You’ll have the autonomy to influence product strategy and the opportunity to shape our design culture. We offer a collaborative environment where your ideas and leadership can make a real difference across the TRATON Group. &lt;/p&gt;&lt;p&gt;We offer a dynamic, flexible workplace with hybrid work options, including Scania Sergel and Midway hubs. With a structured development plan and courses, TRATON Group R&amp;amp;D supports your career growth both locally and internationally. Benefits include wellness allowance, bonus, flexible hours, and company car leasing. We also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job express buses for an easy commute to Södertälje. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Application&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Your application should include a CV and any relevant certificates. We welcome all applicants and strive for diversity in our recruitment processes. Apply as soon as possible, no later than 2025-09-16. Screening will take place on an ongoing basis during the application period. Logical and personality tests may be used as part of the selection process, and a background check may be required for this role. If you have questions or would like more information, please contact: Pedroso Filho Luiz Miguel, Manager TRATON Group, miguel.pedroso@scania.com or Rakhi Romarker, Talent Acquisition Specialist, rakhi.romarker@scania.com &lt;/p&gt;&lt;p&gt;We look forward to your application! &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This recruitment process is handled by Scania for TRATON Group R&amp;amp;D &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2385,11 +2361,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Månadslön - Fast lön</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -2408,12 +2380,12 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://quest.se/', 'organization_number': '5569456659', 'name': 'Quest Consulting Sverige AB', 'workplace': 'Quest Consulting Sverige AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5560840976', 'name': 'Scania CV AB', 'workplace': 'TRATON GROUP R&amp;D'}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://pnty-apply.ponty-system.se/quest?id=7165&amp;pnty_src=arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.scania.com/job-invite/20578/', 'other': None}</t>
         </is>
       </c>
       <c r="U13" t="b">
@@ -2428,12 +2400,12 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
+          <t>{'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'DqLe_pH6_jyj', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '2171'}</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2443,17 +2415,17 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Södertälje', 'municipality_code': '0181', 'municipality_concept_id': 'g6hK_M1o_hiU', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '15187', 'city': 'SÖDERTÄLJE', 'coordinates': [17.5318456, 59.1738517]}</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2463,12 +2435,12 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2025-09-01T15:43:26</t>
+          <t>2025-09-02T12:50:05</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2025-09-05T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="AH13" t="b">
@@ -2477,11 +2449,11 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>1756734206056</v>
+        <v>1756810205715</v>
       </c>
     </row>
     <row r="14">
@@ -2490,14 +2462,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29971395</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>46-559277-3492-6357488-1</t>
-        </is>
-      </c>
+          <t>29973543</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -2506,18 +2474,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971395</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29973543</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84853771/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hallvärd med fotoinriktning, halvtid (50%)</t>
+          <t>Kundmottagare med grafisk kompetens</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -2525,7 +2497,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. \n Arbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: halvtid (50%)\nVanligaste arbetstiderna: Måndag till fredag kl: 15-19 \nKörkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. &lt;/p&gt;&lt;p&gt; &lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;halvtid (50%)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vanligaste arbetstiderna:&lt;/strong&gt; Måndag till fredag kl: 15-19 &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'Sveriges ledande tryckerikedja söker en kundmottagare med grafisk kompetens till ett av våra tryckerier i centrala Stockholm.\nJustNu – en ledande aktör med ambitioner\nJustNu är Sveriges främsta tryckerikedja, med verksamheter över hela landet och en tydlig vision: att bli Nordens största grafiska aktör. Sedan 1971 har vi varit en stabil och pålitlig partner på den grafiska marknaden, med fokus på kvalitet och stabila leveranser.\nVi är stolta över vår öppna och inkluderande företagskultur, där alla medarbetare uppmuntras att bidra till vår gemensamma framgång. Med en jämn könsfördelning är vi dessutom ett av branschens mest jämställda företag – något vi värderar högt.\nHos oss står kundfokus alltid i centrum. Vi strävar efter att erbjuda lokal närvaro, personligt bemötande och pålitliga leveranser av trycksaker och tjänster – alltid i tid och till rätt plats. Vi har ett starkt nätverk av kollegor över stora delar av landet och tillsammans bygger vi långsiktiga relationer med våra kunder!\nEn kreativ arbetsplats i Stockholm city\nPå Östermalm hittar du ett av våra tre tryckerier i Stockholm. Två av dem på kort promenadavstånd från varandra. Här kombinerar vi kundmottagning och expo med produktionsdel för digitaltryck och efterbehandling. Hos oss får du arbeta i en miljö där kreativitet, delaktighet och ambition inte bara uppskattas utan uppmuntras. Här finns alla förutsättningar för dig att utvecklas och trivas!\nEn roll där ingen dag är den andra lik\nI den här rollen får du kombinera kreativitet, service och affärsmannaskap. Du kommer inte bara att sälja och skapa trycksaksoriginal, utan också få inblick i hela tryckeriets flöde – från offert till leverans av färdiga produkter. Som en av våra främsta kontakter mot kunder kommer du att ha en viktig roll i att skapa positiva upplevelser, både via telefon, e-post och i personliga möten. Ena stunden designar du en folder, nästa stund säljer du profilerade produkter, eller skickar en offert. Det här är en tjänst för dig som älskar omväxling och att bidra i flera delar av processen!\nÄlskar du variation och högt tempo?\nVi söker dig som trivs i en dynamisk miljö där varje dag bjuder på nya utmaningar. Du har förmågan att hantera flera arbetsuppgifter parallellt och skifta fokus snabbt när det behövs. Om du ser variation och fartfyllda dagar som inspirerande kommer du att trivas hos oss. Din flexibilitet och förmåga att prioritera rätt blir avgörande för att skapa framgång i rollen – och vi vågar lova att du aldrig kommer ha tråkigt!\nEn möjlighet för dig med grafisk kompetens\nDu har jobbat på tryckeri med liknande uppgifter och känner dig redo för något nytt. Eller så har du nyligen avslutat en grafisk utbildning och söker ditt första jobb i branschen. Kanske är du en kreativ person med ett brinnande intresse för grafisk form som har erfarenhet av försäljning och kundservice.\nHar du erfarenhet av produktion inom digitaltryck är det ett stort plus. Goda kunskaper i Adobe CS/CC är ett krav. Kunskap i kalkylprogram för trycksaker som t ex Summa är mycket meriterande.\n\n\n• Tjänsten är tills vidare med tillsättning snarast\n• Lön enligt kollektivavtal\n• Sista ansökningsdag 30 september 2025\n\n\nÄr du rätt person för jobbet? \nSkicka då ditt CV och en kort beskrivning av vem du är till:\nansokan@justnu.se\nAnge referens "Grafiker Stockholm" i ämnesraden.\nVi ser fram emot din ansökan!', 'text_formatted': '&lt;p&gt;Sveriges ledande tryckerikedja söker en kundmottagare med grafisk kompetens till ett av våra tryckerier i centrala Stockholm.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;JustNu – en ledande aktör med ambitioner&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;JustNu är Sveriges främsta tryckerikedja, med verksamheter över hela landet och en tydlig vision: att bli Nordens största grafiska aktör. Sedan 1971 har vi varit en stabil och pålitlig partner på den grafiska marknaden, med fokus på kvalitet och stabila leveranser.&lt;/p&gt;&lt;p&gt;Vi är stolta över vår öppna och inkluderande företagskultur, där alla medarbetare uppmuntras att bidra till vår gemensamma framgång. Med en jämn könsfördelning är vi dessutom ett av branschens mest jämställda företag – något vi värderar högt.&lt;/p&gt;&lt;p&gt;Hos oss står kundfokus alltid i centrum. Vi strävar efter att erbjuda lokal närvaro, personligt bemötande och pålitliga leveranser av trycksaker och tjänster – alltid i tid och till rätt plats. Vi har ett starkt nätverk av kollegor över stora delar av landet och tillsammans bygger vi långsiktiga relationer med våra kunder!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;En kreativ arbetsplats i Stockholm city&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;På Östermalm hittar du ett av våra tre tryckerier i Stockholm. Två av dem på kort promenadavstånd från varandra. Här kombinerar vi kundmottagning och expo med produktionsdel för digitaltryck och efterbehandling. Hos oss får du arbeta i en miljö där kreativitet, delaktighet och ambition inte bara uppskattas utan uppmuntras. Här finns alla förutsättningar för dig att utvecklas och trivas!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;En roll där ingen dag är den andra lik&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;I den här rollen får du kombinera kreativitet, service och affärsmannaskap. Du kommer inte bara att sälja och skapa trycksaksoriginal, utan också få inblick i hela tryckeriets flöde – från offert till leverans av färdiga produkter. Som en av våra främsta kontakter mot kunder kommer du att ha en viktig roll i att skapa positiva upplevelser, både via telefon, e-post och i personliga möten. Ena stunden designar du en folder, nästa stund säljer du profilerade produkter, eller skickar en offert. Det här är en tjänst för dig som älskar omväxling och att bidra i flera delar av processen!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Älskar du variation och högt tempo?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som trivs i en dynamisk miljö där varje dag bjuder på nya utmaningar. Du har förmågan att hantera flera arbetsuppgifter parallellt och skifta fokus snabbt när det behövs. Om du ser variation och fartfyllda dagar som inspirerande kommer du att trivas hos oss. Din flexibilitet och förmåga att prioritera rätt blir avgörande för att skapa framgång i rollen – och vi vågar lova att du aldrig kommer ha tråkigt!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;En möjlighet för dig med grafisk kompetens&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har jobbat på tryckeri med liknande uppgifter och känner dig redo för något nytt. Eller så har du nyligen avslutat en grafisk utbildning och söker ditt första jobb i branschen. Kanske är du en kreativ person med ett brinnande intresse för grafisk form som har erfarenhet av försäljning och kundservice.&lt;/p&gt;&lt;p&gt;Har du erfarenhet av produktion inom digitaltryck är det ett stort plus. Goda kunskaper i Adobe CS/CC är ett krav. Kunskap i kalkylprogram för trycksaker som t ex Summa är mycket meriterande.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;• Tjänsten är tills vidare med tillsättning snarast&lt;/p&gt;&lt;p&gt;• Lön enligt kollektivavtal&lt;/p&gt;&lt;p&gt;• Sista ansökningsdag 30 september 2025&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Är du rätt person för jobbet? &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Skicka då ditt CV och en kort beskrivning av vem du är till:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ansokan@justnu.se&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Ange referens "Grafiker Stockholm" i ämnesraden.&lt;/p&gt;&lt;p&gt;Vi ser fram emot din ansökan!&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2538,11 +2510,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -2550,27 +2518,27 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'www.justnu.se', 'organization_number': '5566711924', 'name': 'JustNu AB', 'workplace': 'JustNu Stockholm'}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357488-hallvard-med-fotoinriktning-halvtid-50?promotion=1608130-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': 'Grafiker Stockholm', 'email': 'ansokan@justnu.se', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -2581,12 +2549,12 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
+          <t>{'concept_id': 'SxqC_BSK_D3u', 'label': 'Originalare/Final Art', 'legacy_ams_taxonomy_id': '6149'}</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
+          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2596,32 +2564,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Brahegatan 38', 'postcode': '11437', 'city': 'STOCKHOLM', 'coordinates': [18.0785957157058, 59.3407438877851]}</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 10, 'concept_id': 'Y2t4_aS8_tGo', 'label': 'Layout-Adobe InDesign', 'legacy_ams_taxonomy_id': '606743'}, {'weight': 10, 'concept_id': 'xNyv_PTi_fSa', 'label': '2D-grafik-Adobe Photoshop', 'legacy_ams_taxonomy_id': '4486'}, {'weight': 10, 'concept_id': 'FKub_QFH_Btk', 'label': '2D-grafik-Adobe Illustrator', 'legacy_ams_taxonomy_id': '2584'}, {'weight': 10, 'concept_id': 'RB7E_jE5_MZ3', 'label': 'Adobe Acrobat', 'legacy_ams_taxonomy_id': '608364'}], 'languages': [{'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [{'weight': 10, 'concept_id': 'SxqC_BSK_D3u', 'label': 'Originalare/Final Art', 'legacy_ams_taxonomy_id': '6149'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': '4vZx_NLd_txd', 'label': 'Trycksakskalkylering', 'legacy_ams_taxonomy_id': '606588'}], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': 'Agneta Bremmers', 'description': None, 'email': 'agneta.bremmers@justnu.se', 'telephone': None, 'contact_type': 'vice VD/HR-ansvarig'}]</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2025-09-01T11:37:25</t>
+          <t>2025-09-02T12:47:15</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="AH14" t="b">
@@ -2630,11 +2598,11 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>1756719445681</v>
+        <v>1756810035735</v>
       </c>
     </row>
     <row r="15">
@@ -2643,14 +2611,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29971421</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>46-559277-3492-6357451-1</t>
-        </is>
-      </c>
+          <t>29977856</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -2659,26 +2623,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971421</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977856</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/10206795/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hallvärd med fotoinriktning  heltid (100%)</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. \n Arbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: Heltid (100%)\nVanligaste arbetstiderna: Måndag till fredag kl: 8-17 eller 10-19 \n Körkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. &lt;/p&gt;&lt;p&gt; &lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;Heltid (100%)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vanligaste arbetstiderna:&lt;/strong&gt; Måndag till fredag kl: 8-17 eller 10-19 &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'TRATON is a group of strong brands with a shared mission: transforming transportation together to create the future of sustainable transport solutions. Within TRATON, we include MAN, Scania, Volkswagen Truck &amp; Bus, and International. As part of a global team of industry experts, you get to think bigger, experience more, and reach further. Together, we have the power to transform transportation - Let´s make a difference together. Find out more: www.traton.com\nOur values – customer first, respect, team spirit, responsibility, and elimination of waste – are at the heart of everything we do.\nAre you ready to grow your UX skills in a collaborative, international environment?\nThis role is part of TRATON Group R&amp;D, located in Södertälje, Sweden. \nWe’re looking for a Junior UX Designer to join our cross-functional team within the TRATON ecosystem. You’ll help shape intuitive digital tools and processes that support engineers, product managers, and business stakeholders.\nThe Team\nYou’ll be part of a dynamic group focused on improving collaboration and creating user-centered solutions. \nThe team works closely with engineers, product managers, and business stakeholders to design digital tools and processes that are intuitive, efficient, and impactful. \nCollaboration, openness, and continuous learning are central values. The environment is international and fast-paced, with opportunities to influence both strategy and hands-on design outcomes.\nJoining TRATON Group R&amp;D means gaining access to the ins and outs of the entire transportation industry and being part of something bigger. \nYour Profile\n1–2 years of experience in UX/UI design (internships or academic projects also considered)\nBasic skills in user research, wireframing, prototyping, and usability testing\nFamiliarity with design tools like Figma\nStrong motivation to learn and grow in a collaborative setting\nClear communication skills and a user-first mindset \n\n\n\nWe welcome applicants from all backgrounds – your unique experience and perspectives are valuable to us.\nWhy Join Us?\nYou’ll gain mentorship, work on meaningful projects, and contribute to tools used across the TRATON Group. We offer flexibility, support, and a culture that encourages experimentation and development. Our dynamic, hybrid workplace includes access to Scania Sergel and Midway hubs. \nYou’ll benefit from a structured development plan, courses, wellness allowance, bonus, flexible hours, and company car leasing. \nWe also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job Express buses for an easy commute.\nWithin TRATON Group R&amp;D, you are an important part of something bigger. Joining us means gaining access to the ins and outs of the entire transportation industry.\nTRATON Offers\nWe offer a dynamic, flexible workplace with hybrid work options, including Scania Sergel and Midway hubs. With a structured development plan and courses, TRATON Group R&amp;D supports your career growth both locally and internationally. Benefits include wellness allowance, bonus, flexible hours, and company car leasing. We also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job express buses for an easy commute to Södertälje.\nApplication\nYour application should include a CV and any relevant certificates. We welcome all applicants and strive for diversity in our recruitment processes. Apply as soon as possible, no later than 2025-09-16. Screening will take place on an ongoing basis during the application period. Logical and personality tests may be used as part of the selection process, and a background check may be required for this role. \nFor questions or more information, please contact: Pedroso Filho Luiz Miguel, Manager TRATON Group – miguel.pedroso@scania.com or Romarker Rakhi, Talent Acquisition Specialist – rakhi.romarker@scania.com.\nWe look forward to your application! \nThis recruitment process is handled by Scania for TRATON Group R&amp;D.', 'text_formatted': '&lt;p&gt;TRATON is a group of strong brands with a shared mission: transforming transportation together to create the future of sustainable transport solutions. Within TRATON, we include MAN, Scania, Volkswagen Truck &amp;amp; Bus, and International. As part of a global team of industry experts, you get to think bigger, experience more, and reach further. Together, we have the power to transform transportation - Let´s make a difference together. Find out more: www.traton.com&lt;/p&gt;&lt;p&gt;Our values – customer first, respect, team spirit, responsibility, and elimination of waste – are at the heart of everything we do.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Are you ready to grow your UX skills in a collaborative, international environment?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This role is part of TRATON Group R&amp;amp;D, located in Södertälje, Sweden. &lt;/p&gt;&lt;p&gt;We’re looking for a Junior UX Designer to join our cross-functional team within the TRATON ecosystem. You’ll help shape intuitive digital tools and processes that support engineers, product managers, and business stakeholders.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;The Team&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;You’ll be part of a dynamic group focused on improving collaboration and creating user-centered solutions. &lt;/p&gt;&lt;p&gt;The team works closely with engineers, product managers, and business stakeholders to design digital tools and processes that are intuitive, efficient, and impactful. &lt;/p&gt;&lt;p&gt;Collaboration, openness, and continuous learning are central values. The environment is international and fast-paced, with opportunities to influence both strategy and hands-on design outcomes.&lt;/p&gt;&lt;p&gt;Joining TRATON Group R&amp;amp;D means gaining access to the ins and outs of the entire transportation industry and being part of something bigger. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your Profile&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;1–2 years of experience in UX/UI design (internships or academic projects also considered)&lt;/li&gt;&lt;li&gt;Basic skills in user research, wireframing, prototyping, and usability testing&lt;/li&gt;&lt;li&gt;Familiarity with design tools like Figma&lt;/li&gt;&lt;li&gt;Strong motivation to learn and grow in a collaborative setting&lt;/li&gt;&lt;li&gt;Clear communication skills and a user-first mindset &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;We welcome applicants from all backgrounds – your unique experience and perspectives are valuable to us.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Why Join Us?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;You’ll gain mentorship, work on meaningful projects, and contribute to tools used across the TRATON Group. We offer flexibility, support, and a culture that encourages experimentation and development. Our dynamic, hybrid workplace includes access to Scania Sergel and Midway hubs. &lt;/p&gt;&lt;p&gt;You’ll benefit from a structured development plan, courses, wellness allowance, bonus, flexible hours, and company car leasing. &lt;/p&gt;&lt;p&gt;We also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job Express buses for an easy commute.&lt;/p&gt;&lt;p&gt;Within TRATON Group R&amp;amp;D, you are an important part of something bigger. Joining us means gaining access to the ins and outs of the entire transportation industry.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;TRATON Offers&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;We offer a dynamic, flexible workplace with hybrid work options, including Scania Sergel and Midway hubs. With a structured development plan and courses, TRATON Group R&amp;amp;D supports your career growth both locally and internationally. Benefits include wellness allowance, bonus, flexible hours, and company car leasing. We also host events for employees and their families, and Stockholm residents enjoy direct access to Södertälje via Scania Job express buses for an easy commute to Södertälje.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Application&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Your application should include a CV and any relevant certificates. We welcome all applicants and strive for diversity in our recruitment processes. Apply as soon as possible, no later than 2025-09-16. Screening will take place on an ongoing basis during the application period. Logical and personality tests may be used as part of the selection process, and a background check may be required for this role. &lt;/p&gt;&lt;p&gt;For questions or more information, please contact: Pedroso Filho Luiz Miguel, Manager TRATON Group – miguel.pedroso@scania.com or Romarker Rakhi, Talent Acquisition Specialist – rakhi.romarker@scania.com.&lt;/p&gt;&lt;p&gt;We look forward to your application! &lt;/p&gt;&lt;p&gt;This recruitment process is handled by Scania for TRATON Group R&amp;amp;D. &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2691,11 +2659,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -2714,16 +2678,16 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5560840976', 'name': 'Scania CV AB', 'workplace': 'TRATON GROUP R&amp;D'}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357451-hallvard-med-fotoinriktning-heltid-100?promotion=1608126-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.scania.com/job-invite/19539/', 'other': None}</t>
         </is>
       </c>
       <c r="U15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -2734,12 +2698,12 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
+          <t>{'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
+          <t>{'concept_id': 'DqLe_pH6_jyj', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '2171'}</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2749,7 +2713,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Södertälje', 'municipality_code': '0181', 'municipality_concept_id': 'g6hK_M1o_hiU', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '15187', 'city': 'SÖDERTÄLJE', 'coordinates': [17.5318456, 59.1738517]}</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2759,22 +2723,22 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2025-09-01T11:36:45</t>
+          <t>2025-09-02T12:45:10</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="AH15" t="b">
@@ -2783,11 +2747,11 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK15" t="n">
-        <v>1756719405685</v>
+        <v>1756809910666</v>
       </c>
     </row>
     <row r="16">
@@ -2796,12 +2760,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>29971419</t>
+          <t>29977697</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>46-559277-3492-6357386-1</t>
+          <t>46-556559-5450-15114242</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -2812,18 +2776,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971419</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977697</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565595450/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Hallvärd med fotoinriktning (timanställning)</t>
+          <t>Teknisk dokumentatör till Forsmark!</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-03T23:59:59</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -2831,7 +2799,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen.\xa0\nArbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: Timanställning vid behov \nKörkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;Timanställning vid behov &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'Vi söker nu en engagerad och driven dokumentatör till Forsmark! Har du ett intresse för teknik och hållbarhet har du en möjlighet att utvecklas inom kärnkraftsbranschen. Varmt välkommen in med din ansökan redan idag då urval sker löpande.\n\nOM TJÄNSTEN \n\nForsmarks kärnkraftverk är en av de största elproducenterna i Sverige och producerar en sjättedel av den el som förbrukas i Sverige. Forsmarks vision är att leverera fossilfri el varje dag, året runt. Här har du som har ett intresse för teknik och energibranschen en möjlighet att bidra genom att säkerställa att den eltekniska dokumentationen är korrekt för en stabil och säker produktion. \n\nDu kommer att ingå i dokumentationsteamet på elkonstruktionsenheten. Teamet ansvarar för att uppdatera och administrera ritningar och dokumentation av anläggningen för att säkerställa att dokumentationen är korrekt och uppdaterad. Du kommer att administrera dokumentationen efter installationer och ändringar som sker i anläggningen. Utöver detta driver gruppen bland annat digitaliserings- och utvecklingsprojekt som du kommer att vara delaktig inom.\n\nDu erbjuds\n- Utbildning i Master Concept och Elmaster Design\n- Att ingå i ett dokumentationsteam med framåtdrivande och välkomnande kollegor\n- Lönetillägg för dig som pendlar minst 5 mil till Forsmark, exempelvis för dig som bor i Uppsala, Gävle eller Tierp\n- Kollektivtrafik till och från Forsmark som är anpassade efter dina arbetstider\n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Förvalta eldokumentation  \n* Renritning av elkonstruktioner  \n* Uppdatering av dokumentation vid anläggningsändringar  \n* Övriga administrativa arbetsuppgifter kopplat till eldokumentation och digitaliseringsprojekt \n\n\nVI SÖKER DIG SOM \n- Har ett intresse för teknik och energibranschen\n- Har god datavana och administrativ arbetserfarenhet\n- Är flytande i svenska i tal och skrift då det krävs för kommunikation och dokumentation\n\nMeriterande är om du har en teknisk bakgrund från tidigare arbete eller utbildning, gärna inom industrin. Meriterande är även om du har erfarenhet av eldokumentation och CAD-ritningar.\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nTjänsten är säkerhetsklassad vilket innebär att en säkerhetsprövning kommer att genomföras innan anställning. Säkerhetsprövningen omfattar registerkontroll samt säkerhetsprövningssamtal i enlighet med säkerhetsskyddslagen. Utöver säkerhetsprövningen kommer ett drogtest att genomföras.\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nLäs mer om Forsmark här.', 'text_formatted': 'Vi söker nu en engagerad och driven dokumentatör till Forsmark! Har du ett intresse för teknik och hållbarhet har du en möjlighet att utvecklas inom kärnkraftsbranschen. Varmt välkommen in med din ansökan redan idag då urval sker löpande.\n\nOM TJÄNSTEN \n\nForsmarks kärnkraftverk är en av de största elproducenterna i Sverige och producerar en sjättedel av den el som förbrukas i Sverige. Forsmarks vision är att leverera fossilfri el varje dag, året runt. Här har du som har ett intresse för teknik och energibranschen en möjlighet att bidra genom att säkerställa att den eltekniska dokumentationen är korrekt för en stabil och säker produktion. \n\nDu kommer att ingå i dokumentationsteamet på elkonstruktionsenheten. Teamet ansvarar för att uppdatera och administrera ritningar och dokumentation av anläggningen för att säkerställa att dokumentationen är korrekt och uppdaterad. Du kommer att administrera dokumentationen efter installationer och ändringar som sker i anläggningen. Utöver detta driver gruppen bland annat digitaliserings- och utvecklingsprojekt som du kommer att vara delaktig inom.\n\nDu erbjuds\n- Utbildning i Master Concept och Elmaster Design\n- Att ingå i ett dokumentationsteam med framåtdrivande och välkomnande kollegor\n- Lönetillägg för dig som pendlar minst 5 mil till Forsmark, exempelvis för dig som bor i Uppsala, Gävle eller Tierp\n- Kollektivtrafik till och från Forsmark som är anpassade efter dina arbetstider\n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Förvalta eldokumentation  \n* Renritning av elkonstruktioner  \n* Uppdatering av dokumentation vid anläggningsändringar  \n* Övriga administrativa arbetsuppgifter kopplat till eldokumentation och digitaliseringsprojekt \n\n\nVI SÖKER DIG SOM \n- Har ett intresse för teknik och energibranschen\n- Har god datavana och administrativ arbetserfarenhet\n- Är flytande i svenska i tal och skrift då det krävs för kommunikation och dokumentation\n\nMeriterande är om du har en teknisk bakgrund från tidigare arbete eller utbildning, gärna inom industrin. Meriterande är även om du har erfarenhet av eldokumentation och CAD-ritningar.\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nTjänsten är säkerhetsklassad vilket innebär att en säkerhetsprövning kommer att genomföras innan anställning. Säkerhetsprövningen omfattar registerkontroll samt säkerhetsprövningssamtal i enlighet med säkerhetsskyddslagen. Utöver säkerhetsprövningen kommer ett drogtest att genomföras.\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nLäs mer om Forsmark här.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid'}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2846,37 +2814,37 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Lön enligt överenskommelse</t>
+          <t>Enligt avtal</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.academicwork.se', 'organization_number': '5565595450', 'name': 'Academic Work Sweden AB', 'workplace': 'Academic Work'}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357386-hallvard-med-fotoinriktning-timanstallning?promotion=1608123-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': '15114242', 'email': None, 'via_af': False, 'url': 'http://www.academicwork.se/jobad/teknisk-dokumentator-till-forsmark/15114242?apply=1', 'other': None}</t>
         </is>
       </c>
       <c r="U16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -2887,12 +2855,12 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
+          <t>{'concept_id': 'q9PK_qMB_caU', 'label': 'Dokumentalist', 'legacy_ams_taxonomy_id': '5903'}</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2902,32 +2870,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Östhammar', 'municipality_code': '0382', 'municipality_concept_id': 'VE3L_3Ei_XbG', 'region': 'Uppsala län', 'region_code': '03', 'region_concept_id': 'zBon_eET_fFU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.366615, 60.259712]}</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'q9PK_qMB_caU', 'label': 'Dokumentalist', 'legacy_ams_taxonomy_id': '5903'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Johan Andersson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>2025-09-01T11:36:05</t>
+          <t>2025-09-02T12:01:40</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-03T23:59:59</t>
         </is>
       </c>
       <c r="AH16" t="b">
@@ -2940,7 +2908,7 @@
         </is>
       </c>
       <c r="AK16" t="n">
-        <v>1756719365659</v>
+        <v>1756850509237</v>
       </c>
     </row>
     <row r="17">
@@ -2949,14 +2917,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29970793</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>46-559360-7517-6372546-1</t>
-        </is>
-      </c>
+          <t>29977195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -2965,22 +2929,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29970793</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29977195</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5593607517/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87059528/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kommunikationsstrategisk designer/Art director - Malmö, Hybrid</t>
+          <t>Mandarin speaking Senior Program Designer (CMF)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-02T23:59:59</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -2988,7 +2952,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{'text': 'Vill du bidra till att utveckla framtidens hållbara mobilitet? \n Vi söker en erfaren Kommunikationsstrategisk designer/Art Director som vill kombinera strategiskt arbete med kreativ produktion. Här får du möjlighet att driva kommunikationsinsatser i spännande mobilitetsprojekt och skapa tydliga, visuellt starka lösningar för en bred målgrupp.\n\nDina ansvarsområden\nVara ett strategiskt och praktiskt stöd i mobilitetsprojekt\n\n\nUtveckla koncept och kommunikationsstrategier\n\n\nTa fram presentationsmaterial, t.ex. PowerPoint och digitala handböcker \n\n\nBidra i utvecklingen av en digital handbok inom ett EU-finansierat Interreg-projekt\n\n\nArbeta prestigelöst med både komplexa strategiska uppdrag och enklare produktioner\n\n\nSamverka med projektorganisationen och säkerställa högkvalitativa leveranser\n\n Din profil\n\nGedigen erfarenhet av strategiskt kommunikationsarbete\n\n\nMångårig erfarenhet som Art Director \n\n\nVan att kommunicera med olika målgrupper och visualisera komplex information\n\n\nErfarenhet av designuppdrag för Interreg/EU-projekt och/eller offentlig verksamhet\n\n\nErfarenhet av komplexa tryckproduktioner\n\n\nRelevant eftergymnasial utbildning\n\n \nMeriterande:\n\nInternationell erfarenhet och flytande engelska \n\n\nErfarenhet av mobilitetsfrågor och/eller kommunikation kring hållbarhet\n\n Uppdragets ramar\n\nPlats: ca 30 % onsite (Malmö/Lund), 70 % distans\n\n\nOmfattning: 150–200 timmar\n\n\nStart: Omgående \n\n\nSlutdatum: 31 augusti 2026 (möjlighet till 12 månaders förlängning)\n\n\nErsättning: Löpande timarvode (ingen ersättning för resor eller restid)\n\n \n Är du redo att kombinera strategi och kreativitet för att forma framtidens mobilitet? Ansök redan idag!\nSway Sourcing är en innovativ rekryteringspartner som specialiserar sig på att matcha rätt talang med rätt företag – snabbt och effektivt. Vårt huvudfokus ligger inom Ekonomi, Administration, HR, Marknad och IT, men vi har även den breda expertis och flexibilitet som krävs för att leverera skräddarsydda rekryteringslösningar inom alla branscher.\nTrots att vi är en relativt ny aktör har vi redan byggt förtroende hos många av Sveriges största företag och arbetar både nationellt och internationellt. Med baser i Sverige och Spanien erbjuder vi en unik kombination av lokal expertis och global räckvidd. Vårt starka nätverk och djupa branschinsikter gör oss till en självklar partner för företag som vill ligga steget före i sin rekrytering.', 'text_formatted': '&lt;p&gt;Vill du bidra till att utveckla framtidens hållbara mobilitet? &lt;/p&gt;&lt;p&gt; Vi söker en erfaren Kommunikationsstrategisk designer/Art Director som vill kombinera strategiskt arbete med kreativ produktion. Här får du möjlighet att driva kommunikationsinsatser i spännande mobilitetsprojekt och skapa tydliga, visuellt starka lösningar för en bred målgrupp.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;Dina ansvarsområden&lt;p&gt;&lt;/p&gt;&lt;p&gt;Vara ett strategiskt och praktiskt stöd i mobilitetsprojekt&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Utveckla koncept och kommunikationsstrategier&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Ta fram presentationsmaterial, t.ex. PowerPoint och digitala handböcker &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Bidra i utvecklingen av en digital handbok inom ett EU-finansierat Interreg-projekt&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Arbeta prestigelöst med både komplexa strategiska uppdrag och enklare produktioner&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Samverka med projektorganisationen och säkerställa högkvalitativa leveranser&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;Din profil&lt;p&gt;&lt;/p&gt;&lt;p&gt;Gedigen erfarenhet av strategiskt kommunikationsarbete&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Mångårig erfarenhet som Art Director &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Van att kommunicera med olika målgrupper och visualisera komplex information&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av designuppdrag för Interreg/EU-projekt och/eller offentlig verksamhet&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av komplexa tryckproduktioner&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Relevant eftergymnasial utbildning&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Meriterande:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Internationell erfarenhet och flytande engelska &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av mobilitetsfrågor och/eller kommunikation kring hållbarhet&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;Uppdragets ramar&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plats:&lt;/strong&gt; ca 30 % onsite (Malmö/Lund), 70 % distans&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Omfattning:&lt;/strong&gt; 150–200 timmar&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Start:&lt;/strong&gt; Omgående &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Slutdatum:&lt;/strong&gt; 31 augusti 2026 (möjlighet till 12 månaders förlängning)&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ersättning:&lt;/strong&gt; Löpande timarvode (ingen ersättning för resor eller restid)&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt; Är du redo att kombinera strategi och kreativitet för att forma framtidens mobilitet? Ansök redan idag!&lt;/p&gt;&lt;p&gt;Sway Sourcing är en innovativ rekryteringspartner som specialiserar sig på att matcha rätt talang med rätt företag – snabbt och effektivt. Vårt huvudfokus ligger inom Ekonomi, Administration, HR, Marknad och IT, men vi har även den breda expertis och flexibilitet som krävs för att leverera skräddarsydda rekryteringslösningar inom alla branscher.&lt;/p&gt;&lt;p&gt;Trots att vi är en relativt ny aktör har vi redan byggt förtroende hos många av Sveriges största företag och arbetar både nationellt och internationellt. Med baser i Sverige och Spanien erbjuder vi en unik kombination av lokal expertis och global räckvidd. Vårt starka nätverk och djupa branschinsikter gör oss till en självklar partner för företag som vill ligga steget före i sin rekrytering.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': 'We are looking for a Mandarin speaking Senior Program Designer within Colour, Material &amp; Finish (CMF) for a global company in Gothenburg. Start ASAP, 6 months contract to begin with.\n\n\nThe automotive industry is undergoing a paradigm shift, facing both tough challenges and exciting opportunities in the journey toward new mobility, electrification, and autonomous driving. As part of our commitment to becoming carbon neutral by 2045, we are seeking a Senior Designer CMF to shape the future sustainable CMF palette.\n\n\nIn this role, you will deliver complete CMF solutions and detailed specifications for assigned projects, working closely with a dynamic global team.\n\n\nKey Responsibilities\n• Create innovative, detailed design solutions that meet complex technical requirements in collaboration with multiple design disciplines.\n• Develop sustainable CMF concepts, transforming them into physical prototypes with suppliers and in-house Trim/PaintShop teams.\n• Focus on building patterns in 2D and 3D for diverse applications.\n• Conduct benchmarking and research with a fact-based approach.\n• Prepare and maintain Colour, Material, and Finish definition documents.\n• Safeguard CMF releases aligned with design gateways and property plans.\n• Prepare and present both physical and digital design materials in weekly reviews with Chinese stakeholders and project teams.\n• Represent CMF in project and engineering meetings.\n• Collaborate closely with internal and external stakeholders, including the Shanghai design studio.\n• Liaise with R&amp;D, Project, and Marketing teams in China.\n• Contribute creatively to CMF community workshops and strategic initiatives.\n\n\nEssential Qualifications\n• Bachelor’s degree (minimum) in Industrial Design, Transportation Design, or Fine Arts.\n• 5–10 years of experience in industrial or transportation design; sustainability-related \nexperience is an advantage.\n• In-depth understanding of the design process, CMF methodology, and development stages.\n• Excellent communication and presentation skills (verbal &amp; visual).\n• Proficiency in Adobe Creative Suite and VRED; additional experience with Blender, \nSubstance, Unreal, Rhino, or Grasshopper is valuable.\n• Fluent in English; Mandarin skills are an advantage.\n\n\nPersonal Attributes\n• Adaptable, unafraid of change, and comfortable in high-tempo, unpredictable environments.\n• Possesses a “can-do” entrepreneurial mindset.\n• Structured, methodical, and analytical with strong planning skills.\n• Able to balance big-picture vision with meticulous detail work.\n• Team-oriented, collaborative, and free from prestige or politics.\n• Strong visual communicator with clear verbal skills.\n\n\nWhat We Offer\n• A highly dynamic, creative, and ever-changing work environment.\n• Opportunities to grow professionally through challenging and varied projects.\n• A supportive and spirited team across Sweden and China.\n• Access to state-of-the-art design studios in Gothenburg (since 2022) and Shanghai (since 2024).\n• Travel to China 2–3 times per year for reviews and model builds.\nThis role requires a valid work permit in Sweden since start is immediately.\nThis is a full-time consultant position through Incluso in Gothenburg. Start is ASAP, 6 months limited contract to begin with. This role is 100% onsite in Gothenburg.\nPlease submit your CV as soon as possible since we will review the applications on an on-going basis. Please note that all listed "requirements" are very important for this assignment. Take your time to anwser the questions in a clear way.\nFor more information about this role, please contact Marianne Nilsson, recruiter at Incluso.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;We are looking for a Mandarin speaking Senior Program Designer within Colour, Material &amp;amp; Finish (CMF) for a global company in Gothenburg. Start ASAP, 6 months contract to begin with.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;The automotive industry is undergoing a paradigm shift, facing both tough challenges and exciting opportunities in the journey toward new mobility, electrification, and autonomous driving. As part of our commitment to becoming carbon neutral by 2045, we are seeking a Senior Designer CMF to shape the future sustainable CMF palette.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;In this role, you will deliver complete CMF solutions and detailed specifications for assigned projects, working closely with a dynamic global team.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Key Responsibilities&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Create innovative, detailed design solutions that meet complex technical requirements in collaboration with multiple design disciplines.&lt;/p&gt;&lt;p&gt;• Develop sustainable CMF concepts, transforming them into physical prototypes with suppliers and in-house Trim/PaintShop teams.&lt;/p&gt;&lt;p&gt;• Focus on building patterns in 2D and 3D for diverse applications.&lt;/p&gt;&lt;p&gt;• Conduct benchmarking and research with a fact-based approach.&lt;/p&gt;&lt;p&gt;• Prepare and maintain Colour, Material, and Finish definition documents.&lt;/p&gt;&lt;p&gt;• Safeguard CMF releases aligned with design gateways and property plans.&lt;/p&gt;&lt;p&gt;• Prepare and present both physical and digital design materials in weekly reviews with Chinese stakeholders and project teams.&lt;/p&gt;&lt;p&gt;• Represent CMF in project and engineering meetings.&lt;/p&gt;&lt;p&gt;• Collaborate closely with internal and external stakeholders, including the Shanghai design studio.&lt;/p&gt;&lt;p&gt;• Liaise with R&amp;amp;D, Project, and Marketing teams in China.&lt;/p&gt;&lt;p&gt;• Contribute creatively to CMF community workshops and strategic initiatives.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Essential Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Bachelor’s degree (minimum) in Industrial Design, Transportation Design, or Fine Arts.&lt;/p&gt;&lt;p&gt;• 5–10 years of experience in industrial or transportation design; sustainability-related &lt;/p&gt;&lt;p&gt;experience is an advantage.&lt;/p&gt;&lt;p&gt;• In-depth understanding of the design process, CMF methodology, and development stages.&lt;/p&gt;&lt;p&gt;• Excellent communication and presentation skills (verbal &amp;amp; visual).&lt;/p&gt;&lt;p&gt;• Proficiency in Adobe Creative Suite and VRED; additional experience with Blender, &lt;/p&gt;&lt;p&gt;Substance, Unreal, Rhino, or Grasshopper is valuable.&lt;/p&gt;&lt;p&gt;• Fluent in English; Mandarin skills are an advantage.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Personal Attributes&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Adaptable, unafraid of change, and comfortable in high-tempo, unpredictable environments.&lt;/p&gt;&lt;p&gt;• Possesses a “can-do” entrepreneurial mindset.&lt;/p&gt;&lt;p&gt;• Structured, methodical, and analytical with strong planning skills.&lt;/p&gt;&lt;p&gt;• Able to balance big-picture vision with meticulous detail work.&lt;/p&gt;&lt;p&gt;• Team-oriented, collaborative, and free from prestige or politics.&lt;/p&gt;&lt;p&gt;• Strong visual communicator with clear verbal skills.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;What We Offer&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• A highly dynamic, creative, and ever-changing work environment.&lt;/p&gt;&lt;p&gt;• Opportunities to grow professionally through challenging and varied projects.&lt;/p&gt;&lt;p&gt;• A supportive and spirited team across Sweden and China.&lt;/p&gt;&lt;p&gt;• Access to state-of-the-art design studios in Gothenburg (since 2022) and Shanghai (since 2024).&lt;/p&gt;&lt;p&gt;• Travel to China 2–3 times per year for reviews and model builds.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;This role requires a valid work permit in Sweden since start is immediately.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This is a full-time consultant position through Incluso in Gothenburg. Start is ASAP, 6 months limited contract to begin with. This role is 100% onsite in Gothenburg.&lt;/p&gt;&lt;p&gt;Please submit your CV as soon as possible since we will review the applications on an on-going basis. Please note that all listed "requirements" are very important for this assignment. Take your time to anwser the questions in a clear way.&lt;/p&gt;&lt;p&gt;For more information about this role, please contact Marianne Nilsson, recruiter at Incluso.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3001,11 +2965,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
@@ -3024,12 +2984,12 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5593607517', 'name': 'Sway Sourcing Sweden AB', 'workplace': 'Sway Sourcing'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5590023213', 'name': 'Incluso AB', 'workplace': 'Incluso AB'}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.swaysourcing.com/jobs/6372546-kommunikationsstrategisk-designer-art-director-malmo-hybrid?promotion=1607929-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://openings.incluso.se/jobs/6379626-mandarin-speaking-senior-program-designer-within-colour-material-finish-cmf', 'other': None}</t>
         </is>
       </c>
       <c r="U17" t="b">
@@ -3044,12 +3004,12 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>{'concept_id': 'E4KE_68y_6ag', 'label': 'Art Director/AD', 'legacy_ams_taxonomy_id': '6193'}</t>
+          <t>{'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
+          <t>{'concept_id': 'DqLe_pH6_jyj', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '2171'}</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3059,32 +3019,32 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>{'municipality': 'Lund', 'municipality_code': '1281', 'municipality_concept_id': 'muSY_tsR_vDZ', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.191008, 55.70466]}</t>
+          <t>{'municipality': 'Göteborg', 'municipality_code': '1480', 'municipality_concept_id': 'PVZL_BQT_XtL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '41133', 'city': 'GÖTEBORG', 'coordinates': [11.974453593603755, 57.6938033459444]}</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E4KE_68y_6ag', 'label': 'Art Director/AD', 'legacy_ams_taxonomy_id': '6193'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [{'weight': 10, 'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 5, 'concept_id': 'cxiY_CBR_1Ve', 'label': 'Mandarin/Rikskinesiska', 'legacy_ams_taxonomy_id': '377'}, {'weight': 5, 'concept_id': 'pgjM_8KQ_RZT', 'label': 'Kinesiska', 'legacy_ams_taxonomy_id': '339'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Christopher Sandoval', 'email': 'christopher@swaysourcing.com', 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2025-09-01T10:32:25</t>
+          <t>2025-09-02T11:23:15</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2026-02-18T23:59:59</t>
+          <t>2025-10-02T23:59:59</t>
         </is>
       </c>
       <c r="AH17" t="b">
@@ -3093,11 +3053,11 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK17" t="n">
-        <v>1756715545762</v>
+        <v>1756804995722</v>
       </c>
     </row>
     <row r="18">
@@ -3106,7 +3066,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29970093</t>
+          <t>29973460</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -3118,22 +3078,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29970093</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29973460</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87184914/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88049482/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bibliotikarie</t>
+          <t>Kommersiell reporter till Poddhuset</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-11-01T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -3141,44 +3101,44 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{'text': 'Hej du skolbibliotikarie med några års erfarenhet av jobbet!\nVi på Skolia hälsar dig välkommen att söka en spännande tjänst under utveckling. Vill du vara med och starta en ny verksamhetsgren hos oss, biblioteksutveckling och underhåll av små bibliotek?\nSkolia arbetar bla med fristående mindre skolor i Skåne och vi vill kunna erbjuda de ett stöd i uppbyggandet och underhållet av ett bibliotek.\nLåter det intressant? Är du den vi söker? Vi söker dig med adekvat utbildning för tjänsten.\n\n\nSök!', 'text_formatted': '&lt;p&gt;Hej du skolbibliotikarie med några års erfarenhet av jobbet!&lt;/p&gt;&lt;p&gt;Vi på Skolia hälsar dig välkommen att söka en spännande tjänst under utveckling. Vill du vara med och starta en ny verksamhetsgren hos oss, biblioteksutveckling och underhåll av små bibliotek?&lt;/p&gt;&lt;p&gt;Skolia arbetar bla med fristående mindre skolor i Skåne och vi vill kunna erbjuda de ett stöd i uppbyggandet och underhållet av ett bibliotek.&lt;/p&gt;&lt;p&gt;Låter det intressant? Är du den vi söker? Vi söker dig med adekvat utbildning för tjänsten.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sök!&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Poddhuset, som gör Trygghetspodden och Sverigepodden, söker nu en kommersiell reporter. Du är en erfaren radio- och/eller TV-reporter.\nPoddhuset har arbetat fram ett unikt poddkoncept - Reapods. Det står för Reality podcasts och innebär att avsnitten görs ute ”i verkligheten”. Vilket ger ett mer levande och intressant innehåll. Det gör också att podden kan kombineras med bilder och video, i t.ex. sociala medier.\nSom kommersiell reporter på Poddhuset gör du poddavsnitt åt olika kunder. Främst genom Reapods-konceptet, men även mer traditionella ”studioavsnitt”.\nDe kommersiella avsnitten görs i nära samarbete med redaktionsledningen samt kunden. I arbetet ingår samtidigt att själv komma på idéer till avsnitt, göra research, boka in lämpliga medverkande, göra ljudinspelning, redigera och sammanställa materialet till färdiga poddavsnitt.\nDet kan även bli aktuellt att skapa videotrailers och ta foton.\nArbetet ställer stora krav på att du har en mycket god färdighet inom journalistik och kreativt ljudskapande, i form av att göra reportage och liknande. Samt är kreativ, driven, kan ta egna initiativ och arbeta självständigt.\nVänligen sök inte tjänsten om du inte uppfyller dessa krav.\nDu kommer till en början främst arbeta med Trygghetspodden, men efterhand även mer med Sverigepodden. Poddhuset kommer framåt dessutom att starta fler poddar. Möjlighet att arbeta med dessa kommer också att finnas.\nTjänsten börjar som frilansuppdrag, men kan sen övergå i en fast anställning.\nVi söker dig som:\när en mycket duktig radiojournalist och intervjuare.\när mycket duktig på ljudredigering.\nhar erfarenhet av ”storytelling” som intervjuteknik – för att kunna levandegöra intervjuerna.\nhar radio/TV-journalistisk utbildning eller lång journalistisk erfarenhet.\nhar en god allmänbildning och koll på såväl aktuell politik som olika relevanta samhällsfrågor.\när duktig på nyhetsvärdering.\nhar god samarbetsförmåga.\n\n\n\nDet är ett plus om, men inte ett krav att du:\när en duktig videofotograf.\när duktig på videoredigering.\när en duktig fotograf.\nkan grundläggande fotoredigering i Photoshop.\nhar erfarenhet av arbete på en nyhetsredaktion.\nhar egen radioreporterutrustning samt videoutrustning/systemkamera.\nhar stor vana av arbete med olika sociala medieplattformar.\nhar körkort och egen bil.\nhar tillgång till en ”podd”/ljudstudio.\n\nI din ansökan bifogar du CV, där du kan styrka dina meriter. Samt ett personligt brev där du berättar om dina kunskaper och erfarenheter kring det som efterfrågas, liksom länkar till radio/TV-reportage du har gjort.\nAnsökningstid: Du kan söka tills tjänsten är tillsatt, men tidig ansökan ger ett försprång. Intervjuer görs löpande.\nStart: Snarast efter överenskommelse.\nPlacering: Uppdragen görs främst i Stockholm, men även i övriga landet.\nErsättning: Fast ersättning per uppdrag, enligt överenskommelse.\nOm Poddhuset: Information om företaget och alla poddavsnitt finns här: https://poddhuset.se\nAnsökan: skickas till info@poddhuset.se senast 250930.\nEventuella frågor skickas också till info@poddhuset.se. Beroende på frågornas art kontaktas du via mejl eller telefon. Bifoga därför telefonnummer vid all kontakt.', 'text_formatted': '&lt;p&gt;Poddhuset, som gör Trygghetspodden och Sverigepodden, söker nu en kommersiell reporter. Du är en erfaren radio- och/eller TV-reporter.&lt;/p&gt;&lt;p&gt;Poddhuset har arbetat fram ett unikt poddkoncept - Reapods. Det står för Reality podcasts och innebär att avsnitten görs ute ”i verkligheten”. Vilket ger ett mer levande och intressant innehåll. Det gör också att podden kan kombineras med bilder och video, i t.ex. sociala medier.&lt;/p&gt;&lt;p&gt;Som kommersiell reporter på Poddhuset gör du poddavsnitt åt olika kunder. Främst genom Reapods-konceptet, men även mer traditionella ”studioavsnitt”.&lt;/p&gt;&lt;p&gt;De kommersiella avsnitten görs i nära samarbete med redaktionsledningen samt kunden. I arbetet ingår samtidigt att själv komma på idéer till avsnitt, göra research, boka in lämpliga medverkande, göra ljudinspelning, redigera och sammanställa materialet till färdiga poddavsnitt.&lt;/p&gt;&lt;p&gt;Det kan även bli aktuellt att skapa videotrailers och ta foton.&lt;/p&gt;&lt;p&gt;Arbetet ställer stora krav på att du har en mycket god färdighet inom journalistik och kreativt ljudskapande, i form av att göra reportage och liknande. Samt är kreativ, driven, kan ta egna initiativ och arbeta självständigt.&lt;/p&gt;&lt;p&gt;Vänligen sök inte tjänsten om du inte uppfyller dessa krav.&lt;/p&gt;&lt;p&gt;Du kommer till en början främst arbeta med Trygghetspodden, men efterhand även mer med Sverigepodden. Poddhuset kommer framåt dessutom att starta fler poddar. Möjlighet att arbeta med dessa kommer också att finnas.&lt;/p&gt;&lt;p&gt;Tjänsten börjar som frilansuppdrag, men kan sen övergå i en fast anställning.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;är en mycket duktig radiojournalist och intervjuare.&lt;/li&gt;&lt;li&gt;är mycket duktig på ljudredigering.&lt;/li&gt;&lt;li&gt;har erfarenhet av ”storytelling” som intervjuteknik – för att kunna levandegöra intervjuerna.&lt;/li&gt;&lt;li&gt;har radio/TV-journalistisk utbildning eller lång journalistisk erfarenhet.&lt;/li&gt;&lt;li&gt;har en god allmänbildning och koll på såväl aktuell politik som olika relevanta samhällsfrågor.&lt;/li&gt;&lt;li&gt;är duktig på nyhetsvärdering.&lt;/li&gt;&lt;li&gt;har god samarbetsförmåga.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Det är ett plus om, men inte ett krav att du:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;är en duktig videofotograf.&lt;/li&gt;&lt;li&gt;är duktig på videoredigering.&lt;/li&gt;&lt;li&gt;är en duktig fotograf.&lt;/li&gt;&lt;li&gt;kan grundläggande fotoredigering i Photoshop.&lt;/li&gt;&lt;li&gt;har erfarenhet av arbete på en nyhetsredaktion.&lt;/li&gt;&lt;li&gt;har egen radioreporterutrustning samt videoutrustning/systemkamera.&lt;/li&gt;&lt;li&gt;har stor vana av arbete med olika sociala medieplattformar.&lt;/li&gt;&lt;li&gt;har körkort och egen bil.&lt;/li&gt;&lt;li&gt;har tillgång till en ”podd”/ljudstudio.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;I din ansökan bifogar du CV, där du kan styrka dina meriter. Samt ett personligt brev där du berättar om dina kunskaper och erfarenheter kring det som efterfrågas, liksom länkar till radio/TV-reportage du har gjort.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökningstid:&lt;/strong&gt; Du kan söka tills tjänsten är tillsatt, men tidig ansökan ger ett försprång. Intervjuer görs löpande.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Start:&lt;/strong&gt; Snarast efter överenskommelse.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Placering:&lt;/strong&gt; Uppdragen görs främst i Stockholm, men även i övriga landet.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ersättning: &lt;/strong&gt;Fast ersättning per uppdrag, enligt överenskommelse.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om Poddhuset: &lt;/strong&gt;Information om företaget och alla poddavsnitt finns här: https://poddhuset.se&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt; skickas till info@poddhuset.se senast 250930.&lt;/p&gt;&lt;p&gt;Eventuella frågor skickas också till info@poddhuset.se. Beroende på frågornas art kontaktas du via mejl eller telefon. Bifoga därför telefonnummer vid all kontakt.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'asrX_9Df_ukn', 'label': 'Fast och rörlig lön', 'legacy_ams_taxonomy_id': '7'}</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.skolia.se', 'organization_number': '5568279474', 'name': 'Skolia AB', 'workplace': 'Skolia AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://poddhuset.se', 'organization_number': None, 'name': 'Königsson, Anders', 'workplace': 'Poddhuset'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'Skolbibliotikarie', 'email': 'maria.brakel@skolia.se', 'via_af': False, 'url': None, 'other': 'mail '}</t>
+          <t>{'information': None, 'reference': None, 'email': 'info@poddhuset.se', 'via_af': False, 'url': 'http://poddhuset.se', 'other': 'Ansökan via mejl'}</t>
         </is>
       </c>
       <c r="U18" t="b">
@@ -3193,12 +3153,12 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
+          <t>{'concept_id': 'BduY_UUY_pvK', 'label': 'Journalist', 'legacy_ams_taxonomy_id': '6056'}</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'SgNH_hag_n9D', 'label': 'Journalister m.fl.', 'legacy_ams_taxonomy_id': '2642'}</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3208,19 +3168,19 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Stadiongatan 65', 'postcode': '21762', 'city': 'MALMÖ', 'coordinates': [12.975194578977, 55.5848854113152]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'BduY_UUY_pvK', 'label': 'Journalist/Reporter', 'legacy_ams_taxonomy_id': '6056'}], 'education': [{'weight': 10, 'concept_id': 'XscF_9UP_jAQ', 'label': 'Journalistik och information', 'legacy_ams_taxonomy_id': '8'}], 'education_level': [{'weight': 10, 'concept_id': 'asZm_TEQ_Srk', 'label': 'Eftergymnasial utbildning två år eller längre', 'legacy_ams_taxonomy_id': '6'}]}</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE18" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3228,12 +3188,12 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2025-09-01T09:20:55</t>
+          <t>2025-09-02T10:38:10</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2025-11-01T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="AH18" t="b">
@@ -3246,7 +3206,7 @@
         </is>
       </c>
       <c r="AK18" t="n">
-        <v>1756797725748</v>
+        <v>1756802290666</v>
       </c>
     </row>
     <row r="19">
@@ -3255,12 +3215,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29969963</t>
+          <t>29976561</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>46-212000-2924-852070</t>
+          <t>46-202100-3211-852616</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -3271,18 +3231,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969963</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976561</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021003211/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dansresidens vid Vara Konserthus</t>
+          <t>Bibliotekarie till Avd Vetenskaplig kommunikation, Universitetsbiblioteket</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-10-01T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -3290,7 +3254,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'text': 'Dansresidens vid Vara Konserthus\xa0\nVi söker en grupp verksamma inom dansområdet som vill skapa en ny dansföreställning eller utveckla en redan befintlig föreställningsidé.\r\n\r\nMålgruppen för föreställningen ska vara barn och unga i åldrarna 10-12 år. Vi erbjuder vår scen för möjlighet till rep, och produktionsmedel, samt möjligheten att spela den färdiga föreställningen för skolpublik. Välkommen med din ansökan! \xa0\xa0\n\nAnsökningsperiod: 1 sept – 1 okt 2025\xa0\nDatum för produktionsresidenset: Repetitionsperiod v. 34-35, 2026. \xa0\nFöljt av sex skolföreställningar under v. 36, 2026. \xa0\xa0\nPlats: Vara Konserthus, Vara \xa0\xa0\nScen: Sparbanken Blackbox (https://varakonserthus-my.sharepoint.com/:f:/g/personal/vkh-extern_varakonserthus_onmicrosoft_com/Evx8DeQIXf1OoCJIzXQojO8BVGzbAvMFwNYOhaX2kbqywA).\xa0\xa0\xa0\n\nVad innebär residenset?\xa0\xa0\xa0\nResidenset innebär att skapa eller utveckla en befintlig scenkonstproduktion. Målgruppen är barn i mellanstadieåldern. Residenset utmynnar i en föreställning med premiär på Vara Konserthus september 2026. Det är att föredra att föreställningen görs som en samproduktion där ni har tillgång till en annan lokal för repetition och/eller ytterligare finansiering av projektet.\xa0\xa0\n\nProduktionsresidenset görs inom ramen för Vara Konserthus residensverksamhet som är ett uppdrag från Västra Götalandsregion.\xa0\xa0\xa0\n\nVad erbjuder Vara Konserthus?\xa0\xa0\n - 250\u202f000 kr produktionsmedel för framtagande av produktionen. \xa0\nProduktionsmedel är avsedda för att bekosta relevanta funktioner för framtagandet av föreställningen så som ex. ljus- och ljudtekniker, producent samt koreograf.\xa0\xa0\xa0\n - Tillgång till konserthusets scenlokal Sparbanken Blackbox under 2 veckors repetition (v. 34 och 35, 2026).\xa0\xa0\xa0\n - Produktionsresidenset i blackboxen sker med överenskommen teknisk specifikation. Det kan exempelvis inkludera enkelt ljud och ljus, eventuell dansmatta/riggning som bestäms vid planeringsmöte inför beslut om residens.\xa0\xa0\xa0\xa0\n - Repetition i Vara Konserthus lokal Studion eller motsvarande lokal våren 2026 innan själva produktionsresidenset är även en möjlighet.\xa0\xa0\xa0\n - Under vecka 36 genomförs sex skolföreställningar på Vara Konserthus. Gaget för föreställningarna ingår i ovan nämnda produktionsbudget.\xa0\xa0\xa0\n - Vara Konserthus bokar och bekostar boende för max 5 personer i Vara under residenstiden och under eventuell repperiod i Studion.\xa0\xa0\xa0\n - Löpande kontakt med ansvarig producent och tekniker under residenstiden.\xa0\xa0\n\nVem kan söka?\xa0\xa0\xa0\nDu eller ni som söker ska vara professionellt verksamma inom dansstområdet med utbildning inom området. Förutsättningarna är även att ni ska vara skrivna i Sverige och ha F-skatt. Vi ser gärna att ni ämnar turnera föreställningen i Västra Götalandsregionen eller övriga Sverige, samt att det tidigt i planeringen tas hänsyn till turnéanpassning av föreställningen. Vi ser gärna att tekniker (operativ samt samordnande) samt producent finns bland funktionerna i teamet.\xa0\n\nVad skall ansökan innehålla?\xa0\xa0\xa0\n - En kortare presentation där du i skrift och bild beskriver din idé. Bilderna kan vara inspirationsbilder som ger en känsla för inriktningen på det konstnärliga innehållet.\xa0\xa0\xa0\n - Utkast på produktionsplanering\xa0\xa0\n - Teknisk specifikation – beskrivning av rummet och önskat tekniskt behov\xa0\xa0\xa0\n - Presentation av samtliga i teamet\xa0\xa0\xa0\xa0\n - Tidigare produktioner. Gärna dokumentation i form av rörlig bild exempelvis länk till trailers, inspelade föreställningar etc.\xa0\xa0\xa0\n - En enkel budget för produktionen, där även eventuell annan finansiering framgår.\xa0\n\nHur går urvalsprocessen till?\xa0 \xa0\xa0\nUrvalet görs av konserthusets produktionsgrupp, bestående av produktionschef och producenter. Ansökan kommer först att läsas enskilt och sedan behandlas i samtal med produktionsgruppen. I samband med ansökningsperioden kommer även intervjuer att göras.\nSvar om residensplats meddelas oktober 2025.\n\nHar du frågor?\xa0\xa0\nKontakta Ida Jarlgren, producent Vara Konserthus\nmailto:ida.jarlgren@varakonserthus.se\xa0\xa0\n\nVälkommen med din ansökan!\xa0\xa0\xa0\n\nOm Vara Konserthus\xa0 \xa0\xa0\nVara Konserthus är en levande mötesplats som varje år presenterar nästan 200 konserter och föreställningar för 70 000 besökare. Här upplever du allt från symfonier och jazz till stand-up och teater. Vi är övertygade om att kultur gör Vara med omnejd till en ännu trevligare plats att besöka, leva och verka i.\xa0\xa0\n\nMed uppdrag från Vara kommun ser vi till att alla, oavsett ålder, har tillgång till kulturella upplevelser. Vi samarbetar med lokala kulturaktörer, skolor och föreningar för att stärka kulturens roll i regionen.\xa0\xa0\n\nFrån Västra Götalandsregionen har vi uppdraget att bli en nod för konstnärlig utveckling, med fokus på musik, dans och kultur för barn och unga. Vi utvecklar storbandsmusiken genom\xa0https://www.bohuslanbigband.com/\xa0och ungdomsstorbandet\xa0https://www.bohuslanbigband.com/next-generation-big-band/, och samarbetar med residensartister för att stärka vår position som en viktig scen och mötesplats.\xa0\xa0\n\nUtöver konserter arrangerar vi årligen närmare 200 konferenser och event med över 10 000 besökare. Vår nyaste scen,\xa0https://www.varakonserthus.se/scener-och-salar/sparbanken-blackbox/, invigdes 2019 och erbjuder teknisk utrustning och flexibilitet för både traditionell scenkonst och nya konstformer som nycirkus.\xa0\xa0\n\nLäs mer om Vara Konserthus på\xa0https://www.varakonserthus.se/', 'text_formatted': 'Dansresidens vid Vara Konserthus\xa0\nVi söker en grupp verksamma inom dansområdet som vill skapa en ny dansföreställning eller utveckla en redan befintlig föreställningsidé.\r\n\r\nMålgruppen för föreställningen ska vara barn och unga i åldrarna 10-12 år. Vi erbjuder vår scen för möjlighet till rep, och produktionsmedel, samt möjligheten att spela den färdiga föreställningen för skolpublik. Välkommen med din ansökan! \xa0\xa0\n\nAnsökningsperiod: 1 sept – 1 okt 2025\xa0\nDatum för produktionsresidenset: Repetitionsperiod v. 34-35, 2026. \xa0\nFöljt av sex skolföreställningar under v. 36, 2026. \xa0\xa0\nPlats: Vara Konserthus, Vara \xa0\xa0\nScen: Sparbanken Blackbox (https://varakonserthus-my.sharepoint.com/:f:/g/personal/vkh-extern_varakonserthus_onmicrosoft_com/Evx8DeQIXf1OoCJIzXQojO8BVGzbAvMFwNYOhaX2kbqywA).\xa0\xa0\xa0\n\nVad innebär residenset?\xa0\xa0\xa0\nResidenset innebär att skapa eller utveckla en befintlig scenkonstproduktion. Målgruppen är barn i mellanstadieåldern. Residenset utmynnar i en föreställning med premiär på Vara Konserthus september 2026. Det är att föredra att föreställningen görs som en samproduktion där ni har tillgång till en annan lokal för repetition och/eller ytterligare finansiering av projektet.\xa0\xa0\n\nProduktionsresidenset görs inom ramen för Vara Konserthus residensverksamhet som är ett uppdrag från Västra Götalandsregion.\xa0\xa0\xa0\n\nVad erbjuder Vara Konserthus?\xa0\xa0\n - 250\u202f000 kr produktionsmedel för framtagande av produktionen. \xa0\nProduktionsmedel är avsedda för att bekosta relevanta funktioner för framtagandet av föreställningen så som ex. ljus- och ljudtekniker, producent samt koreograf.\xa0\xa0\xa0\n - Tillgång till konserthusets scenlokal Sparbanken Blackbox under 2 veckors repetition (v. 34 och 35, 2026).\xa0\xa0\xa0\n - Produktionsresidenset i blackboxen sker med överenskommen teknisk specifikation. Det kan exempelvis inkludera enkelt ljud och ljus, eventuell dansmatta/riggning som bestäms vid planeringsmöte inför beslut om residens.\xa0\xa0\xa0\xa0\n - Repetition i Vara Konserthus lokal Studion eller motsvarande lokal våren 2026 innan själva produktionsresidenset är även en möjlighet.\xa0\xa0\xa0\n - Under vecka 36 genomförs sex skolföreställningar på Vara Konserthus. Gaget för föreställningarna ingår i ovan nämnda produktionsbudget.\xa0\xa0\xa0\n - Vara Konserthus bokar och bekostar boende för max 5 personer i Vara under residenstiden och under eventuell repperiod i Studion.\xa0\xa0\xa0\n - Löpande kontakt med ansvarig producent och tekniker under residenstiden.\xa0\xa0\n\nVem kan söka?\xa0\xa0\xa0\nDu eller ni som söker ska vara professionellt verksamma inom dansstområdet med utbildning inom området. Förutsättningarna är även att ni ska vara skrivna i Sverige och ha F-skatt. Vi ser gärna att ni ämnar turnera föreställningen i Västra Götalandsregionen eller övriga Sverige, samt att det tidigt i planeringen tas hänsyn till turnéanpassning av föreställningen. Vi ser gärna att tekniker (operativ samt samordnande) samt producent finns bland funktionerna i teamet.\xa0\n\nVad skall ansökan innehålla?\xa0\xa0\xa0\n - En kortare presentation där du i skrift och bild beskriver din idé. Bilderna kan vara inspirationsbilder som ger en känsla för inriktningen på det konstnärliga innehållet.\xa0\xa0\xa0\n - Utkast på produktionsplanering\xa0\xa0\n - Teknisk specifikation – beskrivning av rummet och önskat tekniskt behov\xa0\xa0\xa0\n - Presentation av samtliga i teamet\xa0\xa0\xa0\xa0\n - Tidigare produktioner. Gärna dokumentation i form av rörlig bild exempelvis länk till trailers, inspelade föreställningar etc.\xa0\xa0\xa0\n - En enkel budget för produktionen, där även eventuell annan finansiering framgår.\xa0\n\nHur går urvalsprocessen till?\xa0 \xa0\xa0\nUrvalet görs av konserthusets produktionsgrupp, bestående av produktionschef och producenter. Ansökan kommer först att läsas enskilt och sedan behandlas i samtal med produktionsgruppen. I samband med ansökningsperioden kommer även intervjuer att göras.\nSvar om residensplats meddelas oktober 2025.\n\nHar du frågor?\xa0\xa0\nKontakta Ida Jarlgren, producent Vara Konserthus\nmailto:ida.jarlgren@varakonserthus.se\xa0\xa0\n\nVälkommen med din ansökan!\xa0\xa0\xa0\n\nOm Vara Konserthus\xa0 \xa0\xa0\nVara Konserthus är en levande mötesplats som varje år presenterar nästan 200 konserter och föreställningar för 70 000 besökare. Här upplever du allt från symfonier och jazz till stand-up och teater. Vi är övertygade om att kultur gör Vara med omnejd till en ännu trevligare plats att besöka, leva och verka i.\xa0\xa0\n\nMed uppdrag från Vara kommun ser vi till att alla, oavsett ålder, har tillgång till kulturella upplevelser. Vi samarbetar med lokala kulturaktörer, skolor och föreningar för att stärka kulturens roll i regionen.\xa0\xa0\n\nFrån Västra Götalandsregionen har vi uppdraget att bli en nod för konstnärlig utveckling, med fokus på musik, dans och kultur för barn och unga. Vi utvecklar storbandsmusiken genom\xa0https://www.bohuslanbigband.com/\xa0och ungdomsstorbandet\xa0https://www.bohuslanbigband.com/next-generation-big-band/, och samarbetar med residensartister för att stärka vår position som en viktig scen och mötesplats.\xa0\xa0\n\nUtöver konserter arrangerar vi årligen närmare 200 konferenser och event med över 10 000 besökare. Vår nyaste scen,\xa0https://www.varakonserthus.se/scener-och-salar/sparbanken-blackbox/, invigdes 2019 och erbjuder teknisk utrustning och flexibilitet för både traditionell scenkonst och nya konstformer som nycirkus.\xa0\xa0\n\nLäs mer om Vara Konserthus på\xa0https://www.varakonserthus.se/\xa0', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Begränsad residensperiod. Tillträde: November 2025\r\nVisstidsanställning till '}</t>
+          <t>{'text': 'Lunds universitet grundades 1666 och rankas återkommande som ett av världens främsta lärosäten. Här finns omkring 47 000 studenter och mer än 8 800 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\n\nLunds universitet välkomnar sökande med olika bakgrund och erfarenheter. Jämställdhet, lika villkor och mångfald är grundläggande principer för alla delar av vår verksamhet.\n\n\n\r\n\r\nBeskrivning av arbetsplatsen \n\nLunds universitet grundades 1666 och rankas återkommande som ett av världens 100 främsta lärosäten.\r\n\r\nHär finns 40 000 studenter och 7 600 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\nUniversitetsbiblioteket, som är ett fristående bibliotek inom nätverket Lunds Universitets Bibliotek, är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket är också studiecentrum med 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\n\n\nVi erbjuder\n\nLunds universitet är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nLäs mer på universitetets webbplats om att vara anställd hos oss https://www.lu.se/om-universitetet/jobba-hos-oss\n\n\xa0\nArbetsuppgifter och ansvarsområden\n\nAvdelningen för vetenskaplig kommunikation är en av UB:s sju avdelningar. Avdelningen har 17 medarbetare och arbetar främst inom områdena e-media, bibliometri och öppen vetenskap, samt förvaltar system kopplat till dessa områden.\n\nDu kommer arbeta med registervård i Lunds universitets forskningsinformationssystem LUCRIS. Du kommer importera bibliografiska data till systemet, kontrollera registrerad information och ansvara för att data i LUCRIS uppfyller de kvalitetskrav som fastställts av systemförvaltningen.\n\nArbetet kan även innebära tjänstgöring i UB:s informationsdiskar och bemanning av bibliotekets digitala supportkanaler.\n\n\n\nKvalifikationer:\n\n - Ha gedigen kunskap om, och dokumenterad arbetserfarenhet av, katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor.\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\nStor vikt kommer att läggas vid personlig lämplighet. Vi söker dig som är stabil, ansvarstagande, kvalitetsmedveten, noggrann, strukturerad och analytisk. Du har förmåga att arbeta både självständigt och i grupp och medverkar till ett öppet och generöst arbetsklimat.\n\n\xa0\n\nKrav för anställningen är:\n\n - Kunskap om och arbetserfarenhet av katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\n\xa0\n\nÖvrigt:\n\nAnställningen är tidsbegränsad med startdatum 1 oktober 2025 eller enligt överenskommelse, dock längst till 1 juni 2026, med omfattningen 50%.\n\nUniversitetet tillämpar individuell lönesättning. Ange gärna löneanspråk i din ansökan.\n\n\n\n\n\xa0\n\nUniversitetsbiblioteket vid Lunds universitet är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket erbjuder också en studiemiljö med cirka 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\nVi undanber oss alla kontakter från annonsförsäljare, rekryterings- och bemanningsföretag på grund av statliga upphandlingsregler.', 'text_formatted': 'Lunds universitet grundades 1666 och rankas återkommande som ett av världens främsta lärosäten. Här finns omkring 47 000 studenter och mer än 8 800 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\n\nLunds universitet välkomnar sökande med olika bakgrund och erfarenheter. Jämställdhet, lika villkor och mångfald är grundläggande principer för alla delar av vår verksamhet.\n\n\n\r\n\r\nBeskrivning av arbetsplatsen \n\nLunds universitet grundades 1666 och rankas återkommande som ett av världens 100 främsta lärosäten.\r\n\r\nHär finns 40 000 studenter och 7 600 medarbetare i Lund, Helsingborg och Malmö. Vi förenas i vår strävan att förstå, förklara och förbättra vår värld och människors villkor.\n\nUniversitetsbiblioteket, som är ett fristående bibliotek inom nätverket Lunds Universitets Bibliotek, är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket är också studiecentrum med 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\n\n\nVi erbjuder\n\nLunds universitet är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nLäs mer på universitetets webbplats om att vara anställd hos oss https://www.lu.se/om-universitetet/jobba-hos-oss\n\n\xa0\nArbetsuppgifter och ansvarsområden\n\nAvdelningen för vetenskaplig kommunikation är en av UB:s sju avdelningar. Avdelningen har 17 medarbetare och arbetar främst inom områdena e-media, bibliometri och öppen vetenskap, samt förvaltar system kopplat till dessa områden.\n\nDu kommer arbeta med registervård i Lunds universitets forskningsinformationssystem LUCRIS. Du kommer importera bibliografiska data till systemet, kontrollera registrerad information och ansvara för att data i LUCRIS uppfyller de kvalitetskrav som fastställts av systemförvaltningen.\n\nArbetet kan även innebära tjänstgöring i UB:s informationsdiskar och bemanning av bibliotekets digitala supportkanaler.\n\n\n\nKvalifikationer:\n\n - Ha gedigen kunskap om, och dokumenterad arbetserfarenhet av, katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor.\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\nStor vikt kommer att läggas vid personlig lämplighet. Vi söker dig som är stabil, ansvarstagande, kvalitetsmedveten, noggrann, strukturerad och analytisk. Du har förmåga att arbeta både självständigt och i grupp och medverkar till ett öppet och generöst arbetsklimat.\n\n\xa0\n\nKrav för anställningen är:\n\n - Kunskap om och arbetserfarenhet av katalogisering av elektroniskt material, bibliografiskt underhåll och metadatafrågor\n - Examen i biblioteks- och informationsvetenskap eller annan utbildning som arbetsgivaren bedömer som likvärdig.\n - Erfarenhet av arbete på universitets- eller högskolebibliotek.\n - God kommunikativ förmåga i svenska och engelska i tal och skrift\n\n\xa0\n\nÖvrigt:\n\nAnställningen är tidsbegränsad med startdatum 1 oktober 2025 eller enligt överenskommelse, dock längst till 1 juni 2026, med omfattningen 50%.\n\nUniversitetet tillämpar individuell lönesättning. Ange gärna löneanspråk i din ansökan.\n\n\n\n\n\xa0\n\nUniversitetsbiblioteket vid Lunds universitet är ett tvärvetenskapligt bibliotek med bas i omfattande samlingar av såväl tryckt som elektroniskt material. Biblioteket erbjuder också en studiemiljö med cirka 400 läsplatser. Universitetsbiblioteket har cirka 100 anställda.\n\nVi undanber oss alla kontakter från annonsförsäljare, rekryterings- och bemanningsföretag på grund av statliga upphandlingsregler.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '50. Tillträde: Snarast eller efter överenskommelse\r\nVisstidsanställning till '}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3310,7 +3274,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'Xj7x_7yZ_jEn', 'label': '3 månader – upp till 6 månader', 'legacy_ams_taxonomy_id': '3'}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -3326,16 +3290,16 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120002924', 'name': 'Vara kommun', 'workplace': 'Vara konserthus AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2021003211', 'name': 'Lunds Universitet', 'workplace': 'Lunds universitet, 009999 LUNDS UNIVERSITET, 820000 ÖVR VERK'}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '2025/221', 'email': None, 'via_af': False, 'url': 'https://vara.varbi.com/what:job/jobID:852070/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': 'PA2025/2478', 'email': None, 'via_af': False, 'url': 'https://lu.varbi.com/what:job/jobID:852616/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -3346,12 +3310,12 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>{'concept_id': 'euJP_wxo_skF', 'label': 'Dansare', 'legacy_ams_taxonomy_id': '6050'}</t>
+          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>{'concept_id': 'gmRr_7tt_eHj', 'label': 'Koreografer och dansare', 'legacy_ams_taxonomy_id': '2653'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3361,12 +3325,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>{'municipality': 'Vara', 'municipality_code': '1470', 'municipality_concept_id': 'fbHM_yhA_BqS', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.960194, 58.26178]}</t>
+          <t>{'municipality': 'Lund', 'municipality_code': '1281', 'municipality_concept_id': 'muSY_tsR_vDZ', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.191008, 55.70466]}</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'euJP_wxo_skF', 'label': 'Dansare', 'legacy_ams_taxonomy_id': '6050'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3376,17 +3340,17 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Kristoffer Holmqvist, Avdelningschef', 'email': 'kristoffer.holmqvist@ub.lu.se', 'telephone': '046-2228255', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>2025-09-01T09:06:25</t>
+          <t>2025-09-02T10:20:16</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>2025-10-01T23:59:59</t>
+          <t>2025-09-16T23:59:59</t>
         </is>
       </c>
       <c r="AH19" t="b">
@@ -3399,7 +3363,7 @@
         </is>
       </c>
       <c r="AK19" t="n">
-        <v>1756710385733</v>
+        <v>1756801216263</v>
       </c>
     </row>
     <row r="20">
@@ -3408,12 +3372,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29969956</t>
+          <t>29976477</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>46-202100-3138-4337</t>
+          <t>46-232100-0016-840996</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -3424,22 +3388,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969956</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976477</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021003138/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2321000016/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bibliotekarie</t>
+          <t>Tillsynsarkivarie</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-09-22T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -3447,7 +3411,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'text': 'Högskolan i Borås erbjuder mer än bara ett jobb – här är du med och påverkar och bidrar till utveckling. Vi vill att du ska må bra både på och utanför jobbet. Därför erbjuder vi bland annat flexibla arbetstider, ett generöst semesteravtal och bra villkor vid föräldraledighet. Det finns även möjlighet till internationell kompetensutveckling genom studier eller praktik utomlands. Med vårt centrala läge har du nära till stadens utbud och goda pendlingsmöjligheter.\n\nVälkommen till oss på Biblioteket!\n\nDina arbetsuppgifter\nBiblioteket ingår i högskolans verksamhetsstöd och utför ett uppskattat arbete som är väl integrerat i högskolans utbildning och forskning. Biblioteket är en välbesökt mötesplats där studenter, personal och allmänhet är välkomna att ta del av samlingar och använda studie- och lärmiljöer. Vi erbjuder stöd och vägledning både genom personliga möten och i digitala kanaler. Service av hög kvalitet med användaren i fokus är en självklarhet för oss. Nu söker vi dig som vill vara med och utveckla servicen till våra användare.\n\nDina arbetsuppgifter innebär:\xa0\n\n\n• tjänstgöring i informationsdisk och arbete med övriga supportkanaler, t ex chat\n• arbete med låne- och cirkulationsfrågor, både i form av kontakt med användare och genom systemadministration (bibliotekssystem Alma).\n• att delta i arbetet med schemaläggning och utveckling av bibliotekets användarstöd\n• att delta i utvecklingsprojekt med möjlighet att ge idéer till verksamhetsutveckling\n• andra, allmänt förekommande arbetsuppgifter för bibliotekarier.\n\n\nDina kvalifikationer\xa0\nVi söker dig som har\xa0examen i biblioteks- och informationsvetenskap eller annan akademisk examen som arbetsgivaren bedömer likvärdig. Du behöver även ha mycket goda kunskaper i svenska och engelska, både muntliga och skriftliga.\xa0Stor vikt kommer att läggas vid personlig lämplighet och du behöver ha\xa0förmåga att ta egna initiativ samt att självständigt planera och utföra arbetsuppgifter. Därutöver har du\xa0god service- och samarbetsförmåga, god digital kompetens och är kommunikativ och relationsbyggande.\n\nDin anställning\nSärskild visstidsanställning, heltid (100 %) under 11 månader. Tillträde enligt överenskommelse.\xa0\n\nPlaceringsort\xa0Borås.\xa0\n\nDiarienummer:\xa0PA2025/136\n\nSå här ansöker du \nVälkommen med din kompletta ansökan inklusive diarienummer och bilagor via vårt rekryteringssystem senast 22 september.\xa0\n\nGuide för hur du ansöker i vårt rekryteringssystem och bilagor som ska bifogas\n\nHögskolan i Borås uppmuntrar ansökningar från personer med varierande bakgrunder, erfarenheter och synsätt eftersom detta berikar och stärker vår verksamhet. Vi eftersträvar jämn könsfördelning hos medarbetarna och värdesätter mångfald i verksamheten.\n\nVill du veta mer?\nHögskolan i Borås är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nFörmåner för anställda\n\nJobba hos oss\n\nKontakta nedanstående personer om du vill veta mer:\n\nJonas Gilbert, rekryterande chef.\n\nFacklig företrädare för Saco-S är Klas Håkan Alm som nås via högskolans växel tfn 033-435 40 00. Facklig företrädare för OFR/S nås via stvidhb@hb.se.\n\n\nVi undanber oss kontakt med rekryteringsföretag och annonsförsäljare i samband med denna rekrytering.', 'text_formatted': 'Högskolan i Borås erbjuder mer än bara ett jobb – här är du med och påverkar och bidrar till utveckling. Vi vill att du ska må bra både på och utanför jobbet. Därför erbjuder vi bland annat flexibla arbetstider, ett generöst semesteravtal och bra villkor vid föräldraledighet. Det finns även möjlighet till internationell kompetensutveckling genom studier eller praktik utomlands. Med vårt centrala läge har du nära till stadens utbud och goda pendlingsmöjligheter.\n\nVälkommen till oss på Biblioteket!\n\nDina arbetsuppgifter\nBiblioteket ingår i högskolans verksamhetsstöd och utför ett uppskattat arbete som är väl integrerat i högskolans utbildning och forskning. Biblioteket är en välbesökt mötesplats där studenter, personal och allmänhet är välkomna att ta del av samlingar och använda studie- och lärmiljöer. Vi erbjuder stöd och vägledning både genom personliga möten och i digitala kanaler. Service av hög kvalitet med användaren i fokus är en självklarhet för oss. Nu söker vi dig som vill vara med och utveckla servicen till våra användare.\n\nDina arbetsuppgifter innebär:\xa0\n\n\n• tjänstgöring i informationsdisk och arbete med övriga supportkanaler, t ex chat\n• arbete med låne- och cirkulationsfrågor, både i form av kontakt med användare och genom systemadministration (bibliotekssystem Alma).\n• att delta i arbetet med schemaläggning och utveckling av bibliotekets användarstöd\n• att delta i utvecklingsprojekt med möjlighet att ge idéer till verksamhetsutveckling\n• andra, allmänt förekommande arbetsuppgifter för bibliotekarier.\n\n\nDina kvalifikationer\xa0\nVi söker dig som har\xa0examen i biblioteks- och informationsvetenskap eller annan akademisk examen som arbetsgivaren bedömer likvärdig. Du behöver även ha mycket goda kunskaper i svenska och engelska, både muntliga och skriftliga.\xa0Stor vikt kommer att läggas vid personlig lämplighet och du behöver ha\xa0förmåga att ta egna initiativ samt att självständigt planera och utföra arbetsuppgifter. Därutöver har du\xa0god service- och samarbetsförmåga, god digital kompetens och är kommunikativ och relationsbyggande.\n\nDin anställning\nSärskild visstidsanställning, heltid (100 %) under 11 månader. Tillträde enligt överenskommelse.\xa0\n\nPlaceringsort\xa0Borås.\xa0\n\nDiarienummer:\xa0PA2025/136\n\nSå här ansöker du \nVälkommen med din kompletta ansökan inklusive diarienummer och bilagor via vårt rekryteringssystem senast 22 september.\xa0\n\nGuide för hur du ansöker i vårt rekryteringssystem och bilagor som ska bifogas\n\nHögskolan i Borås uppmuntrar ansökningar från personer med varierande bakgrunder, erfarenheter och synsätt eftersom detta berikar och stärker vår verksamhet. Vi eftersträvar jämn könsfördelning hos medarbetarna och värdesätter mångfald i verksamheten.\n\nVill du veta mer?\nHögskolan i Borås är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nFörmåner för anställda\n\nJobba hos oss\n\nKontakta nedanstående personer om du vill veta mer:\n\nJonas Gilbert, rekryterande chef.\n\nFacklig företrädare för Saco-S är Klas Håkan Alm som nås via högskolans växel tfn 033-435 40 00. Facklig företrädare för OFR/S nås via stvidhb@hb.se.\n\n\nVi undanber oss kontakt med rekryteringsföretag och annonsförsäljare i samband med denna rekrytering.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
+          <t>{'text': 'Är du utåtriktad och driven med ett positivt förhållningssätt samtidigt som du brinner för framtidens arkivfrågor? Nu har du chansen att tillsammans med en kompetent, ambitiös och inkluderande grupp kollegor få arbeta med styrning kring informationshantering och arkiv.\r\n\r\nOm oss\n\nRegion Stockholm är en av landets största myndigheter och regionens verksamheter genererar varje dag mängder av information. Regionarkivet har uppdraget att agera som Region Stockholms arkivmyndighet och ansvarar för styrning och uppföljning av regionens informationshantering.\xa0I vårt uppdrag ingår också att långtidslagra, vårda och tillhandahålla regionens arkiv för att de ska kunna användas av regionens verksamheter, myndigheter, allmänhet och forskning idag och i framtiden. Regionarkivet består av enheterna Informationsstyrning och tillsyn, Arkiv- och informationsförvaltning och SVAR.\n\nOm tjänsten\n\nEnheten Informationsstyrning och tillsyn har som uppdrag att styra och följa upp informationshanteringen inom Region Stockholms förvaltningar, bolag och stiftelser. Det gör vi genom att ta fram och förvalta de styrande och stödjande dokument som krävs, vi följer också upp hur regelverket efterlevs genom att bland annat utföra inspektioner.\n\nDina arbetsuppgifter innefattar både arbetsgruppens gemensamma uppgifter samt egna uppdrag och ansvarsområden. Mycket av enhetens arbete är utåtriktat med täta externa kontakter inom Region Stockholm. Du handhar samrådsärenden, deltar i nätverk och håller i utbildningar. I\xa0 tjänsten ingår också utrednings- och utvecklingsarbete.\n\nI rollen som tillsynsarkivarie gör du en viktig insats för att säkerställa att Region Stockholms allmänna handlingar hanteras korrekt och effektivt och tillsammans med 6 drivna kolleger arbetar du för en informationshantering med ett livscykelperspektiv.\n\nJag som kommer att bli din chef heter Monica Dahlgren. Jag brinner för att skapa en god arbetsmiljö där medarbetare trivs och ges möjlighet att utvecklas – både i sin yrkesroll och tillsammans med verksamheten.\n\nVem är du?\n\nVi söker dig med ett positivt och öppet förhållningssätt. Regionens myndigheter är våra kunder och det är viktigt att vi bemöter dem på ett professionellt sätt. Du är kreativ och kan arbeta självständigt men också på ett engagerande och drivande sätt medverka i arbetsgrupper för att bidra till enhetens, Regionarkivets och Region Stockholms utveckling. Du är en problemlösare med god analytisk förmåga som ser sammanhang, hanterar komplexa frågor och fokuserar på möjligheter snarare än hinder.\xa0 Du kommer att samarbeta mycket med olika verksamheter så förmåga att bygga relationer i kombination med kommunikativ förmåga är viktiga egenskaper för att lyckas i rollen.\n\nFör att passa i rollen har du erfarenhet av att ha arbetat som arkivarie, gärna inom offentlig förvaltning. Du ska ha examen från högskola eller universitet där arkivvetenskap ingår, alternativt annan relevant högskoleutbildning. Du ska ha mycket goda kunskaper i svenska, såväl i tal som i skrift.\n\nDet är meriterande om du har juridisk utbildning/kompetens, gärna med inriktning mot Tryckfrihetsförordningen och Offentlighets- och sekretesslagen.\n\nFör oss är det viktigt att hitta rätt person till uppdraget, och därför fäster vi stor vikt vid personliga egenskaper.\n\nVårt erbjudande\n\nHos Regionarkivet får du arbeta tillsammans med kompetenta och erfarna kollegor som ser fram emot att välkomna dig och din kompetens till teamet.\n\nVi har kollektivavtal och med det följer kollektivavtalade försäkringar, tjänstepension och möjlighet till löneväxling. För att du ska kunna ta ansvar för din hälsa erbjuder vi friskvårdsbidrag, friskvårdstimme samt subventionerad sjukvård i form av kostnadsfri öppensjukvård. Vi har flexibel arbetstid och möjlighet till distansavtal för att underlätta för dig att få ihop vardagen. Här kan du läsa mer om förmånerna i vårt kollektivavtal.\n\nRegionarkivet finns i rymliga och nyrenoverade lokaler i Flemingsberg med egna kontor och tillgång till eget gym.\n\nAnsökan\n\nLåter det här som något för dig ser vi gärna att du söker så snart som möjligt genom att bifoga CV och personligt brev. Intervjuerna sker löpande så vänta inte med din ansökan.\n\nHar du frågor är du välkommen att kontakta:\n\nMonica Dahlgren,\xa0Enhetschef Informationsstyrning och tillsyn\n\nTelefon: 08-123 188 80, e-post: monica.dahlgren@regionstockholm.se\nKulturförvaltningen arbetar för att regionens invånare får tillgång till ett rikt och mångsidigt kulturliv. Med ekonomiskt stöd, som beslutas av Region Stockholms kulturnämnd, stöttar förvaltningen kultur- och föreningslivet i länet. Kulturförvaltningen arbetar också med konst och kultur i vården. Kulturnämnden är även arkivmyndighet för Region Stockholm. https://www.regionstockholm.se/om-region-stockholm/organisation/forvaltningar/kulturforvaltningen/. Följ oss gärna på https://www.linkedin.com/company/kulturf%C3%B6rvaltningen/about/=.\n\nAtt söka jobb i Region Stockholm\n\nVi eftersträvar jämställdhet och jämlikhet på vår arbetsplats och ser gärna sökande med olika bakgrund och förutsättningar.\n\n\nVi tar endast emot ansökningar via detta system. Ansök genom att klicka på knappen ”Ansök”. Ansökningar per brev eller e-post beaktas inte. Vi undanber oss direktkontakt med bemannings- och rekryteringsföretag samt säljare av ytterligare jobbannonser.\n\n\nVårt rekryteringssystem kan inte hantera anonyma ansökningar eller sökande med skyddade personuppgifter. Om du har skyddade personuppgifter ber vi dig att kontakta den kontaktpersonen som finns angiven i annonsen. Din ansökan kommer då att hanteras utanför rekryteringssystemet. Du bör även vara försiktig med vilken information du lämnar i din ansökan och endast ta med information som är relevant för den aktuella befattningen.\n\n\nRegion Stockholm ansvarar för hälso- och sjukvård, kollektivtrafik, regional utveckling och bidrar till kulturlivet. Varje dag, dygnet runt. I landets snabbaste växande region. Tillsammans skapar vi Europas attraktivaste storstadsregion.\n\n\nhttps://www.regionstockholm.se/jobb', 'text_formatted': 'Är du utåtriktad och driven med ett positivt förhållningssätt samtidigt som du brinner för framtidens arkivfrågor? Nu har du chansen att tillsammans med en kompetent, ambitiös och inkluderande grupp kollegor få arbeta med styrning kring informationshantering och arkiv.\r\n\r\nOm oss\n\nRegion Stockholm är en av landets största myndigheter och regionens verksamheter genererar varje dag mängder av information. Regionarkivet har uppdraget att agera som Region Stockholms arkivmyndighet och ansvarar för styrning och uppföljning av regionens informationshantering.\xa0I vårt uppdrag ingår också att långtidslagra, vårda och tillhandahålla regionens arkiv för att de ska kunna användas av regionens verksamheter, myndigheter, allmänhet och forskning idag och i framtiden. Regionarkivet består av enheterna Informationsstyrning och tillsyn, Arkiv- och informationsförvaltning och SVAR.\n\nOm tjänsten\n\nEnheten Informationsstyrning och tillsyn har som uppdrag att styra och följa upp informationshanteringen inom Region Stockholms förvaltningar, bolag och stiftelser. Det gör vi genom att ta fram och förvalta de styrande och stödjande dokument som krävs, vi följer också upp hur regelverket efterlevs genom att bland annat utföra inspektioner.\n\nDina arbetsuppgifter innefattar både arbetsgruppens gemensamma uppgifter samt egna uppdrag och ansvarsområden. Mycket av enhetens arbete är utåtriktat med täta externa kontakter inom Region Stockholm. Du handhar samrådsärenden, deltar i nätverk och håller i utbildningar. I\xa0 tjänsten ingår också utrednings- och utvecklingsarbete.\n\nI rollen som tillsynsarkivarie gör du en viktig insats för att säkerställa att Region Stockholms allmänna handlingar hanteras korrekt och effektivt och tillsammans med 6 drivna kolleger arbetar du för en informationshantering med ett livscykelperspektiv.\n\nJag som kommer att bli din chef heter Monica Dahlgren. Jag brinner för att skapa en god arbetsmiljö där medarbetare trivs och ges möjlighet att utvecklas – både i sin yrkesroll och tillsammans med verksamheten.\n\nVem är du?\n\nVi söker dig med ett positivt och öppet förhållningssätt. Regionens myndigheter är våra kunder och det är viktigt att vi bemöter dem på ett professionellt sätt. Du är kreativ och kan arbeta självständigt men också på ett engagerande och drivande sätt medverka i arbetsgrupper för att bidra till enhetens, Regionarkivets och Region Stockholms utveckling. Du är en problemlösare med god analytisk förmåga som ser sammanhang, hanterar komplexa frågor och fokuserar på möjligheter snarare än hinder.\xa0 Du kommer att samarbeta mycket med olika verksamheter så förmåga att bygga relationer i kombination med kommunikativ förmåga är viktiga egenskaper för att lyckas i rollen.\n\nFör att passa i rollen har du erfarenhet av att ha arbetat som arkivarie, gärna inom offentlig förvaltning. Du ska ha examen från högskola eller universitet där arkivvetenskap ingår, alternativt annan relevant högskoleutbildning. Du ska ha mycket goda kunskaper i svenska, såväl i tal som i skrift.\n\nDet är meriterande om du har juridisk utbildning/kompetens, gärna med inriktning mot Tryckfrihetsförordningen och Offentlighets- och sekretesslagen.\n\nFör oss är det viktigt att hitta rätt person till uppdraget, och därför fäster vi stor vikt vid personliga egenskaper.\n\nVårt erbjudande\n\nHos Regionarkivet får du arbeta tillsammans med kompetenta och erfarna kollegor som ser fram emot att välkomna dig och din kompetens till teamet.\n\nVi har kollektivavtal och med det följer kollektivavtalade försäkringar, tjänstepension och möjlighet till löneväxling. För att du ska kunna ta ansvar för din hälsa erbjuder vi friskvårdsbidrag, friskvårdstimme samt subventionerad sjukvård i form av kostnadsfri öppensjukvård. Vi har flexibel arbetstid och möjlighet till distansavtal för att underlätta för dig att få ihop vardagen. Här kan du läsa mer om förmånerna i vårt kollektivavtal.\n\nRegionarkivet finns i rymliga och nyrenoverade lokaler i Flemingsberg med egna kontor och tillgång till eget gym.\n\nAnsökan\n\nLåter det här som något för dig ser vi gärna att du söker så snart som möjligt genom att bifoga CV och personligt brev. Intervjuerna sker löpande så vänta inte med din ansökan.\n\nHar du frågor är du välkommen att kontakta:\n\nMonica Dahlgren,\xa0Enhetschef Informationsstyrning och tillsyn\n\nTelefon: 08-123 188 80, e-post: monica.dahlgren@regionstockholm.se\nKulturförvaltningen arbetar för att regionens invånare får tillgång till ett rikt och mångsidigt kulturliv. Med ekonomiskt stöd, som beslutas av Region Stockholms kulturnämnd, stöttar förvaltningen kultur- och föreningslivet i länet. Kulturförvaltningen arbetar också med konst och kultur i vården. Kulturnämnden är även arkivmyndighet för Region Stockholm. https://www.regionstockholm.se/om-region-stockholm/organisation/forvaltningar/kulturforvaltningen/. Följ oss gärna på https://www.linkedin.com/company/kulturf%C3%B6rvaltningen/about/=.\n\nAtt söka jobb i Region Stockholm\n\nVi eftersträvar jämställdhet och jämlikhet på vår arbetsplats och ser gärna sökande med olika bakgrund och förutsättningar.\n\n\nVi tar endast emot ansökningar via detta system. Ansök genom att klicka på knappen ”Ansök”. Ansökningar per brev eller e-post beaktas inte. Vi undanber oss direktkontakt med bemannings- och rekryteringsföretag samt säljare av ytterligare jobbannonser.\n\n\nVårt rekryteringssystem kan inte hantera anonyma ansökningar eller sökande med skyddade personuppgifter. Om du har skyddade personuppgifter ber vi dig att kontakta den kontaktpersonen som finns angiven i annonsen. Din ansökan kommer då att hanteras utanför rekryteringssystemet. Du bör även vara försiktig med vilken information du lämnar i din ansökan och endast ta med information som är relevant för den aktuella befattningen.\n\n\nRegion Stockholm ansvarar för hälso- och sjukvård, kollektivtrafik, regional utveckling och bidrar till kulturlivet. Varje dag, dygnet runt. I landets snabbaste växande region. Tillsammans skapar vi Europas attraktivaste storstadsregion.\n\n\nhttps://www.regionstockholm.se/jobb', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100 %. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3467,7 +3431,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3483,12 +3447,12 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.hb.se/', 'organization_number': '2021003138', 'name': 'Högskolan i Borås', 'workplace': 'Högskolan i Borås'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2321000016', 'name': 'REGION STOCKHOLM', 'workplace': 'Regionarkivet'}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.hb.se/Om-hogskolan/Jobba-hos-oss/Lediga-anstallningar/?rmpage=job&amp;rmjob=4337&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': '2025/4291', 'email': None, 'via_af': False, 'url': 'https://regionstockholm.varbi.com/what:job/jobID:840996/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U20" t="b">
@@ -3503,7 +3467,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
+          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3518,12 +3482,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>{'municipality': 'Borås', 'municipality_code': '1490', 'municipality_concept_id': 'TpRZ_bFL_jhL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.939819, 57.721035]}</t>
+          <t>{'municipality': 'Huddinge', 'municipality_code': '0126', 'municipality_concept_id': 'g1Gc_aXK_EKu', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [17.982157, 59.23633]}</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3533,17 +3497,17 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Monica Dahlgren', 'email': None, 'telephone': '08-12318880', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>2025-09-01T09:05:26</t>
+          <t>2025-09-02T10:08:16</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>2025-09-22T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="AH20" t="b">
@@ -3556,7 +3520,7 @@
         </is>
       </c>
       <c r="AK20" t="n">
-        <v>1756710326316</v>
+        <v>1756802055860</v>
       </c>
     </row>
     <row r="21">
@@ -3565,10 +3529,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29969937</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>29976463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>46-559359-5001-302922-182755</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -3577,35 +3545,31 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969937</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/85591282/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29976463</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TOLKAR I TELEGU OCH LETTISKA ÖVER HELA SVERIGE</t>
+          <t>Professional / Senior Narrative Animator</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-01T23:59:59</t>
+          <t>2026-02-02T23:59:59</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{'text': 'Vi är en modern tolkförmedling som bokar och förmedlar tolkar genom vår webb och app.\nNu söker vi tolkar i telegu över hela Sverige.\nVi söker tolkar på alla nivåer.  Har du mycket goda språkfärdigheter, men saknar utbildning, erbjuder vi dig en kostnadsfri onlineutbildning.\nDu ska, förutom goda språkkunskaper, ha god samhällsuppfattning, vara serviceinriktad och kan röra dig i många miljöer och sammanhang. Att vara tolk är ett roligt arbete, och kräver att du har hög integritet, är noggrann, mycket ansvarsfull och kan passa tider.\nVi utför tolkuppdrag både på plats hos kunder och via telefon samt video\nKörkort och bil krävs ej men är en fördel för uppdrag på plats\nArbetet är vid behov och alla bokningar sker genom webben eller mobilen. Via telefon eller video kan du få uppdrag i hela Sverige.\nANSÖK PÅ: https://rekrytering.digitaltolk.se/', 'text_formatted': '&lt;p&gt;Vi är en modern tolkförmedling som bokar och förmedlar tolkar genom vår webb och app.&lt;/p&gt;&lt;p&gt;Nu söker vi tolkar i telegu över hela Sverige.&lt;/p&gt;&lt;p&gt;Vi söker tolkar på alla nivåer.  Har du mycket goda språkfärdigheter, men saknar utbildning, erbjuder vi dig en kostnadsfri onlineutbildning.&lt;/p&gt;&lt;p&gt;Du ska, förutom goda språkkunskaper, ha god samhällsuppfattning, vara serviceinriktad och kan röra dig i många miljöer och sammanhang. Att vara tolk är ett roligt arbete, och kräver att du har hög integritet, är noggrann, mycket ansvarsfull och kan passa tider.&lt;/p&gt;&lt;p&gt;Vi utför tolkuppdrag både på plats hos kunder och via telefon samt video&lt;/p&gt;&lt;p&gt;Körkort och bil krävs ej men är en fördel för uppdrag på plats&lt;/p&gt;&lt;p&gt;Arbetet är vid behov och alla bokningar sker genom webben eller mobilen. Via telefon eller video kan du få uppdrag i hela Sverige.&lt;/p&gt;&lt;p&gt;ANSÖK PÅ: https://rekrytering.digitaltolk.se/&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': "Remedy Entertainment, the creator of Control®, Max Payne®, Alan Wake®, and one of the leading independent game studios in the world, is looking for a Professional / Senior Narrative Animator to work on the highly anticipated remake of Max Payne 1 &amp; 2.\n\nDo you want to create exciting and memorable gameplay experiences, crafting dynamic in-game animations centered around Narrative Storytelling and world building?   \n\nAs a Professional / Senior Narrative Animator, you’ll have the chance to be a key influencer in creating the Narrative Experience Players will enjoy, time and time again.  You should be passionate about the craft of animation, in combination with visual storytelling and the enhancement of the Narrative. The ideal candidate will display an ability to marry the visual with the technical to create appealing sequences and experiences for Players.   \n\nYou will create believable character performances, working on an incredible remake of a beloved classic, as a part of a solid and experienced team.     \n\nWe enthusiastically welcome diverse viewpoints and backgrounds. We at Remedy value and are committed to ensuring an inclusive and safe work environment for all our team members.   \nWHAT YOU GET TO DO\n\n\n    \n - In this role you will have the chance to bring characters to life by creating and maintaining high quality animations that support the Narrative Design.   \n - You will animate a whole host of characters, along with vehicles and any environmental assets that help bring the world to life through visual storytelling means. \n - You will develop and create animations for Player, Enemy and Companion NPC's using motion capture and hand-keyed animations.  \n - You will successfully collaborate with Directors, Narrative Designers, Level Designers and Environment/Hard-Surface Artists to enable a fast prototyping workflow, secure animation quality, and make sure that the Animation and Narrative Design guidelines are met. \n - You will design, capture, and help integrate animations into our own proprietary Northlight engine while ensuring technical design constraints are met. \n - You will also collaborate with the project team, communicating effectively and proactively, so that the development process runs smoothly.\n\n\n    WHAT YOU BRING TO THE ROLE\n\n\n    \n\n - You are an experienced Animator, having already worked in game development, with solid skills in keyframe animation (great sense of weight, timing and strong posing) \n - You have a strong understanding of Motion Builder and mocap data editing techniques for games.   \n - You have a solid understanding of Narrative storytelling and character performance design in relation to Player experiences and actions. \n - You are able to craft appealing animations, having an excellent understanding of shape, composition and layout – Cinematography and camera techniques a bonus.   \n - You have experience using game engines and hands-on experience working with state machine/blend tree solutions (knowledge of motion matching is a plus).   \n - You are adept at organising and managing your work to reach milestone goals and deliverables. \n - You can give and receive constructive feedback when interacting with other team members, keeping the focus on making the best game possible.   \n - It's a plus if you have prior experience, knowledge or interest in scripting or programming languages. \n\n\n    WHAT'S IN IT FOR YOU?\n\n\n - At Remedy you get to work on awesome, memorable game experiences for our players, in a studio where your input is valued and your creative freedom is encouraged.   \n - We work in an environment that values both individual and team-work, ensuring that everyone’s voice is heard &amp; workload stays sensible. We believe in and support work-life balance. Happy people work better!  \n - We offer an extensive set of employee benefits and an annual bonus system as well as opportunities for you to develop your skills further. On top of this, in Finland and Sweden you get up to 5 weeks of paid vacation, in addition to public holidays and other special occasions.   \n - Our studio is based in Helsinki metropolitan area in Finland, a safe country, with exceptional quality of life, free education and pristine nature at your doorstep. If you're not already in Finland, our relocation service is there every step of the way to take care of you. You can concentrate on work, while we take care of everything else!  \n - If you are based in Sweden, we also welcome candidates to our new location in Stockholm.  \nTo apply, please fill in the application form with your demo reel, CV (in English) and other information relevant to the position. The position will be filled as soon as a suitable applicant is found.#LI-VR1\r\n\n\nJoin us and you’ll discover a vibrant, connected universe filled with stories and characters that stay with you long after you switch off.\u200b\u200b\n\nOver the past 25 years we’ve built a unique, people-first environment where\u200b courageous creativity thrives. You might be surprised by the next thing we release,\u200b but you’ll have no doubt it’s Remedy.\n\nThe Remedy culture consists of three core values. They describe who we are and how we work and interact together. We base our decisions and actions on camaraderie, pioneering spirit, and smart creativity. Our three core values together make us One Remedy.", 'text_formatted': "Remedy Entertainment, the creator of Control®, Max Payne®, Alan Wake®, and one of the leading independent game studios in the world, is looking for a Professional / Senior Narrative Animator to work on the highly anticipated remake of Max Payne 1 &amp;amp; 2.\n\nDo you want to create exciting and memorable gameplay experiences, crafting dynamic in-game animations centered around Narrative Storytelling and world building?   \n\nAs a Professional / Senior Narrative Animator, you’ll have the chance to be a key influencer in creating the Narrative Experience Players will enjoy, time and time again.  You should be passionate about the craft of animation, in combination with visual storytelling and the enhancement of the Narrative. The ideal candidate will display an ability to marry the visual with the technical to create appealing sequences and experiences for Players.   \n\nYou will create believable character performances, working on an incredible remake of a beloved classic, as a part of a solid and experienced team.     \n\nWe enthusiastically welcome diverse viewpoints and backgrounds. We at Remedy value and are committed to ensuring an inclusive and safe work environment for all our team members.   \nWHAT YOU GET TO DO\n\n\n    \n - In this role you will have the chance to bring characters to life by creating and maintaining high quality animations that support the Narrative Design.   \n - You will animate a whole host of characters, along with vehicles and any environmental assets that help bring the world to life through visual storytelling means. \n - You will develop and create animations for Player, Enemy and Companion NPC's using motion capture and hand-keyed animations.  \n - You will successfully collaborate with Directors, Narrative Designers, Level Designers and Environment/Hard-Surface Artists to enable a fast prototyping workflow, secure animation quality, and make sure that the Animation and Narrative Design guidelines are met. \n - You will design, capture, and help integrate animations into our own proprietary Northlight engine while ensuring technical design constraints are met. \n - You will also collaborate with the project team, communicating effectively and proactively, so that the development process runs smoothly.\n\n\n    WHAT YOU BRING TO THE ROLE\n\n\n    \n\n - You are an experienced Animator, having already worked in game development, with solid skills in keyframe animation (great sense of weight, timing and strong posing) \n - You have a strong understanding of Motion Builder and mocap data editing techniques for games.   \n - You have a solid understanding of Narrative storytelling and character performance design in relation to Player experiences and actions. \n - You are able to craft appealing animations, having an excellent understanding of shape, composition and layout – Cinematography and camera techniques a bonus.   \n - You have experience using game engines and hands-on experience working with state machine/blend tree solutions (knowledge of motion matching is a plus).   \n - You are adept at organising and managing your work to reach milestone goals and deliverables. \n - You can give and receive constructive feedback when interacting with other team members, keeping the focus on making the best game possible.   \n - It's a plus if you have prior experience, knowledge or interest in scripting or programming languages. \n\n\n    WHAT'S IN IT FOR YOU?\n\n\n - At Remedy you get to work on awesome, memorable game experiences for our players, in a studio where your input is valued and your creative freedom is encouraged.   \n - We work in an environment that values both individual and team-work, ensuring that everyone’s voice is heard &amp;amp; workload stays sensible. We believe in and support work-life balance. Happy people work better!  \n - We offer an extensive set of employee benefits and an annual bonus system as well as opportunities for you to develop your skills further. On top of this, in Finland and Sweden you get up to 5 weeks of paid vacation, in addition to public holidays and other special occasions.   \n - Our studio is based in Helsinki metropolitan area in Finland, a safe country, with exceptional quality of life, free education and pristine nature at your doorstep. If you're not already in Finland, our relocation service is there every step of the way to take care of you. You can concentrate on work, while we take care of everything else!  \n - If you are based in Sweden, we also welcome candidates to our new location in Stockholm.  \nTo apply, please fill in the application form with your demo reel, CV (in English) and other information relevant to the position. The position will be filled as soon as a suitable applicant is found.#LI-VR1\r\n\n\nJoin us and you’ll discover a vibrant, connected universe filled with stories and characters that stay with you long after you switch off.\u200b\u200b\n\nOver the past 25 years we’ve built a unique, people-first environment where\u200b courageous creativity thrives. You might be surprised by the next thing we release,\u200b but you’ll have no doubt it’s Remedy.\n\nThe Remedy culture consists of three core values. They describe who we are and how we work and interact together. We base our decisions and actions on camaraderie, pioneering spirit, and smart creativity. Our three core values together make us One Remedy.", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3613,31 +3577,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Fast månads- vecko- eller timlön</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.digitaltolk.se', 'organization_number': '5569367484', 'name': 'Vs Consulting AB', 'workplace': 'DIGITAL INTERPRETATIONS SCANDINAVIA AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.remedygames.com/', 'organization_number': '5593595001', 'name': 'Remedy Entertainment Sweden AB', 'workplace': 'Remedy Entertainment'}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': None, 'other': 'jobb.digitaltolk.se'}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://emp.jobylon.com/applications/jobs/302922/create/?utm_source=ams&amp;utm_medium=promotionserializer', 'other': None}</t>
         </is>
       </c>
       <c r="U21" t="b">
@@ -3652,12 +3620,12 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>{'concept_id': 'vaEY_R9R_LjB', 'label': 'Tolk', 'legacy_ams_taxonomy_id': '6037'}</t>
+          <t>{'concept_id': 'NmF5_vMj_Mjj', 'label': 'Animatör', 'legacy_ams_taxonomy_id': '3829'}</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PQDm_Z63_zst', 'label': 'Översättare, tolkar och lingvister m.fl.', 'legacy_ams_taxonomy_id': '2643'}</t>
+          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3667,19 +3635,19 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>{'municipality': None, 'municipality_code': None, 'municipality_concept_id': None, 'region': None, 'region_code': None, 'region_concept_id': None, 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'NmF5_vMj_Mjj', 'label': 'Animator/Animatör', 'legacy_ams_taxonomy_id': '3829'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE21" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3687,12 +3655,12 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2025-09-01T09:03:20</t>
+          <t>2025-09-02T10:07:36</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>2026-02-01T23:59:59</t>
+          <t>2026-02-02T23:59:59</t>
         </is>
       </c>
       <c r="AH21" t="b">
@@ -3701,11 +3669,11 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK21" t="n">
-        <v>1756710200766</v>
+        <v>1756800456459</v>
       </c>
     </row>
     <row r="22">
@@ -3714,10 +3682,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29969716</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>29975640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>46-556426-7655-74221</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -3726,22 +3698,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969716</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975640</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88255487/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5564267655/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Senior Tekniker till Enwell</t>
+          <t>Administratör / Web Administratör till Ringhals</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-10-01T23:59:59</t>
+          <t>2025-09-05T23:59:59</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -3749,7 +3721,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'text': 'Företagsbeskrivning\nPå Enwell brinner vi för att skapa en hållbar framtid för kommande generationer.\u202fDetta har vi gemensamt med vår ägare Vattenfall och tillsammans jobbar vi för en fossilfri framtid. Vill du vara med? \nVi befinner oss just nu på en spännande resa, där vi genom ett högt engagemang från kollegor och en entreprenöriell företagskultur vill konsolidera och professionalisera marknaden för hållbara energilösningar för villa- och fastighetsmarknaden. \nPå denna tillväxtresa behöver vi vidareutveckla Enwell med nya medarbetare som vill vara med och bygga ett marknadsledande bolag. \nEnwell söker nu en erfaren Tekniker/Installatör till vårt team i Stockholm!\nOm rollen\nI den här rollen kommer du bli en del av ett härligt och glatt team bestående av både erfarna kollegor och nya talanger inom branschen. Du kommer samarbeta med kollegor i andra tekniska roller samt med vår serviceavdelning. För oss är det viktigt att du som person kan bidra till vår utveckling, både inom teamet och i vår kundresa framåt.\n\n\nDu kommer ansvara för installation, driftsättning, service och felsökning av olika typer av värmepumpar. Du arbetar med allt från rördragning och elanslutningar till funktionstester och kundrådgivning. I rollen ingår även att dokumentera arbetet noggrant och säkerställa att allt sker enligt gällande föreskrifter – alltid med kundens behov och upplevelse i fokus.\nDina huvudsakliga arbetsuppgifter:\nAnsvara för installation och driftsättning av olika typer av värmepumpar såsom bergvärme, luftvatten och frånluftsvärmepumpar\nGenomföra provkörning och funktionstest av installerad värmepump\nUtföra regelbundet underhåll och service på installerade värmepumpar för att säkerställa att systemen fungerar optimalt\nIdentifiera och åtgärda problem som kan uppstå med värmepumpar och andra tillhörande system (till exempel cirkulationspumpar, styrsystem)\nFelsöka och reparera mekaniska och elektriska problem i värmesystemet\n\nKundkontakt och Rådgivning\nGe kunderna rådgivning och vägledning kring värmesystem och energibesparande åtgärder utifrån kundens behov och förutsättningar\nSäkerställa tydlig kommunikation med kunden gällande installation, service och tidsramar\n\nDokumentation och Rapportering\nFöra noggranna protokoll och rapporter över installationer, serviceåtgärder och felsökningar\nSäkerställa att all dokumentation, inklusive garantier och certifikat, är korrekt och arkiverad enligt företagets rutiner\n\nKravspecifikation\nVi söker dig som har följande:\nArbetslivserfarenhet av VVS-arbeten\nArbetslivserfarenhet som tekniker /värmepumpsinstallatör med inriktning bergvärme, luftvatten och frånluftsvärmepumpar\nVan vid att arbeta med digital avrapportering\nKörkort B\nGod kunskap i Officepaket samt andra digitala planeringssystem \nGoda skriftliga som muntliga kunskaper i svenska\n\nMeriterande:\nHeta arbeten certifikat\nTidigare erfarenhet av arbete med fastighetsanläggningar \nTidigare haft en arbetsledande roll eller liknande\nSpråkkunskaper utöver svenska språket\n\nPersonliga egenskaper:\nPersonlig mognad gällande både de tekniska, och de mänskliga aspekterna i rollen\nHög servicekänsla. Du är duktig på att skapa långsiktiga och hållbara kundrelationer\nÄr ansvarstagande och självgående i det dagliga arbetet\nLojalitet och arbetsmoral är grundläggande värderingar för dig\nTar mentorskap för dina kollegor och teamet i stort\n\nDet vi ser som absolut viktigast för att du ska trivas i den här rollen är att du är kunnig, driven och självständig i ditt arbete. Du är serviceinriktad och uppskattar ett gott samarbete med både kunder och kollegor då detta är av största vikt för oss!\nYtterligare information\nFör frågor om rekryteringsprocessen kontakta rekryterare Amanda Pehrson, amanda.pehrson@vattenfall.com\nVälkommen med din ansökan senast 2025-09-18. Vi tar endast emot ansökningar via vår webbplats. \nVi ser fram emot din ansökan!\nVi är övertygade om att mångfald bidrar till att bygga ett mer lönsamt och tilltalande företag och strävar efter att vara goda förebilder när det gäller mångfald. ENWELL arbetar aktivt för att alla medarbetare ska ha samma möjligheter och rättigheter oavsett ålder, etnisk eller kulturell bakgrund, könstillhörighet, religion/tro, sexuell läggning eller funktionsförutsättning.\nOm oss:\nEnergimarknaden och mer specifikt energieffektivisering i fastigheter, stora som små, är en viktig del i omställningen i samhället. Detta sträcker sig från EU:s allt högre krav för att kunna tillgodogöra sig grön finansiering till den enskilde villaägarens behov att påverka och sänka sina energikostnader. Enwell är väl positionerad för att leda utvecklingen.\nEnwell är idag ett av Sveriges ledande företag med fokus på hållbara energilösningar för villa- och fastighetsmarknaden. Företaget bildades 2013 och våren 2017 inleddes ett samarbete med Vattenfall avseende värmepumpinstallationer till privatkunder. Vattenfall är från 2021 100% ägare. Enwell-gruppen består idag av ca 230 anställda, från Skåne i söder till Mora i norr och omsätter drygt 750 Mkr.\nLäs gärna mer om oss på vår hemsida: www.enwell.se', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Företagsbeskrivning&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;På Enwell brinner vi för att skapa en hållbar framtid för kommande generationer.\u202fDetta har vi gemensamt med vår ägare Vattenfall och tillsammans jobbar vi för en fossilfri framtid. Vill du vara med? &lt;/p&gt;&lt;p&gt;Vi befinner oss just nu på en spännande resa, där vi genom ett högt engagemang från kollegor och en entreprenöriell företagskultur vill konsolidera och professionalisera marknaden för hållbara energilösningar för villa- och fastighetsmarknaden. &lt;/p&gt;&lt;p&gt;På denna tillväxtresa behöver vi vidareutveckla Enwell med nya medarbetare som vill vara med och bygga ett marknadsledande bolag. &lt;/p&gt;&lt;p&gt;Enwell söker nu en erfaren &lt;strong&gt;Tekniker/Installatör &lt;/strong&gt;till vårt team i Stockholm!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;I den här rollen kommer du bli en del av ett härligt och glatt team bestående av både erfarna kollegor och nya talanger inom branschen. Du kommer samarbeta med kollegor i andra tekniska roller samt med vår serviceavdelning. För oss är det viktigt att du som person kan bidra till vår utveckling, både inom teamet och i vår kundresa framåt.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du kommer ansvara för installation, driftsättning, service och felsökning av olika typer av värmepumpar. Du arbetar med allt från rördragning och elanslutningar till funktionstester och kundrådgivning. I rollen ingår även att dokumentera arbetet noggrant och säkerställa att allt sker enligt gällande föreskrifter – alltid med kundens behov och upplevelse i fokus.&lt;/p&gt;&lt;p&gt;Dina huvudsakliga arbetsuppgifter:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ansvara för installation och driftsättning av olika typer av värmepumpar såsom bergvärme, luftvatten och frånluftsvärmepumpar&lt;/li&gt;&lt;li&gt;Genomföra provkörning och funktionstest av installerad värmepump&lt;/li&gt;&lt;li&gt;Utföra regelbundet underhåll och service på installerade värmepumpar för att säkerställa att systemen fungerar optimalt&lt;/li&gt;&lt;li&gt;Identifiera och åtgärda problem som kan uppstå med värmepumpar och andra tillhörande system (till exempel cirkulationspumpar, styrsystem)&lt;/li&gt;&lt;li&gt;Felsöka och reparera mekaniska och elektriska problem i värmesystemet&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Kundkontakt och Rådgivning&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ge kunderna rådgivning och vägledning kring värmesystem och energibesparande åtgärder utifrån kundens behov och förutsättningar&lt;/li&gt;&lt;li&gt;Säkerställa tydlig kommunikation med kunden gällande installation, service och tidsramar&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Dokumentation och Rapportering&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Föra noggranna protokoll och rapporter över installationer, serviceåtgärder och felsökningar&lt;/li&gt;&lt;li&gt;Säkerställa att all dokumentation, inklusive garantier och certifikat, är korrekt och arkiverad enligt företagets rutiner&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Kravspecifikation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som har följande:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Arbetslivserfarenhet av VVS-arbeten&lt;/li&gt;&lt;li&gt;Arbetslivserfarenhet som tekniker /värmepumpsinstallatör med inriktning bergvärme, luftvatten och frånluftsvärmepumpar&lt;/li&gt;&lt;li&gt;Van vid att arbeta med digital avrapportering&lt;/li&gt;&lt;li&gt;Körkort B&lt;/li&gt;&lt;li&gt;God kunskap i Officepaket samt andra digitala planeringssystem &lt;/li&gt;&lt;li&gt;Goda skriftliga som muntliga kunskaper i svenska&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Meriterande:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Heta arbeten certifikat&lt;/li&gt;&lt;li&gt;Tidigare erfarenhet av arbete med fastighetsanläggningar &lt;/li&gt;&lt;li&gt;Tidigare haft en arbetsledande roll eller liknande&lt;/li&gt;&lt;li&gt;Språkkunskaper utöver svenska språket&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Personliga egenskaper:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Personlig mognad gällande både de tekniska, och de mänskliga aspekterna i rollen&lt;/li&gt;&lt;li&gt;Hög servicekänsla. Du är duktig på att skapa långsiktiga och hållbara kundrelationer&lt;/li&gt;&lt;li&gt;Är ansvarstagande och självgående i det dagliga arbetet&lt;/li&gt;&lt;li&gt;Lojalitet och arbetsmoral är grundläggande värderingar för dig&lt;/li&gt;&lt;li&gt;Tar mentorskap för dina kollegor och teamet i stort&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Det vi ser som absolut viktigast för att du ska trivas i den här rollen är att du är kunnig, driven och självständig i ditt arbete. Du är serviceinriktad och uppskattar ett gott samarbete med både kunder och kollegor då detta är av största vikt för oss!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ytterligare information&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;För frågor om rekryteringsprocessen kontakta rekryterare Amanda Pehrson, amanda.pehrson@vattenfall.com&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan senast 2025-09-18.&lt;/strong&gt; Vi tar endast emot ansökningar via vår webbplats. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi ser fram emot din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi är övertygade om att mångfald bidrar till att bygga ett mer lönsamt och tilltalande företag och strävar efter att vara goda förebilder när det gäller mångfald. ENWELL arbetar aktivt för att alla medarbetare ska ha samma möjligheter och rättigheter oavsett ålder, etnisk eller kulturell bakgrund, könstillhörighet, religion/tro, sexuell läggning eller funktionsförutsättning.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om oss:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Energimarknaden och mer specifikt energieffektivisering i fastigheter, stora som små, är en viktig del i omställningen i samhället. Detta sträcker sig från EU:s allt högre krav för att kunna tillgodogöra sig grön finansiering till den enskilde villaägarens behov att påverka och sänka sina energikostnader. Enwell är väl positionerad för att leda utvecklingen.&lt;/p&gt;&lt;p&gt;Enwell är idag ett av Sveriges ledande företag med fokus på hållbara energilösningar för villa- och fastighetsmarknaden. Företaget bildades 2013 och våren 2017 inleddes ett samarbete med Vattenfall avseende värmepumpinstallationer till privatkunder. Vattenfall är från 2021 100% ägare. Enwell-gruppen består idag av ca 230 anställda, från Skåne i söder till Mora i norr och omsätter drygt 750 Mkr.&lt;/p&gt;&lt;p&gt;Läs gärna mer om oss på vår hemsida: www.enwell.se&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'För ett längre konsultuppdrag söker vi dig som söker en stimulerande arbetsmiljö i ett framstående företag som ligger i framkant inom digitalisering och hållbarhet. Är du en fena på webb, kommunikation och administration och har den erfarenhet och egenskaper vi söker? Varmt välkommen med din ansökan till detta spännande uppdrag på Ringhals/Vattenfall i Väröbacka!\n\nDina arbetsuppgifter i huvudsak\nArbetsuppgifter\n•\tAnsvara för möteskoordinering: planera, bjuda in och följa upp möten, samt skriva tekniska protokoll med hög precision\n•\tDriva och koordinera utvecklingsprojekt inom avdelningen för att förbättra processer och arbetsflöden\n•\tBygga och strukturera sidor, mappar och innehåll i Vattenfalls intranät \n•\tMigrera befintliga texter och länka dokument till intranätssidor\n•\tIntegrera och länka processbilder för att skapa tydliga visuella flöden\n•\tProducera, redigera och publicera texter på både svenska och engelska\n•\tSäkerställa att intranätets innehåll är uppdaterat, korrekt och lättillgängligt för slutanvändare\n\n\nVem är du?\nVi söker dig med följande erfarenhet/kvalifikationer:\n\n•\tFlera års erfarenhet av liknande administrativa uppgifter, gärna som administratör på en avdelning eller enhet samt webbadministration\n•\tMycket goda kunskaper i MS Office, inklusive Word, Excel och PowerPoint\n•\tMycket god vana av teknisk protokollskrivning och dokumentation\n•\tFlytande i engelska och svenska, både skriftligt och muntligt\n•\tErfarenhet av att driva och koordinera utvecklingsinitiativ inom verksamhet eller projekt\n•\tTidigare arbete inom projektledning eller kommunikationsområdet är meriterande\n\n\nOm verksamheten\nKonsultrollen passar dig som på kort tid vill skaffa dig bred erfarenhet. Vi erbjuder dig chansen att arbeta på populära arbetsplatser med välkända varumärken där du kan utveckla din kompetens och bredda ditt CV. Du kommer att trivas som konsult om du söker en värld av spännande uppdrag och nya kontaktnät. Vid din sida har du din konsultchef som agerar bollplank och stöttar dig i att lyckas på dina uppdrag. Vi vill att du ska må bra och trivas med oss på Poolia. Därför erbjuder vi dig friskvårdsbidrag, rabatter på olika träningsanläggningar m.m. Självklart omfattas din anställning på Poolia av kollektivavtal, försäkringar och tjänstepension.\n\nUrval och intervjuer sker löpande och tjänsten kan komma att tillsättas innan sista ansökningsdag.\n\nVarmt välkommen med din ansökan!', 'text_formatted': 'För ett längre konsultuppdrag söker vi dig som söker en stimulerande arbetsmiljö i ett framstående företag som ligger i framkant inom digitalisering och hållbarhet. Är du en fena på webb, kommunikation och administration och har den erfarenhet och egenskaper vi söker? Varmt välkommen med din ansökan till detta spännande uppdrag på Ringhals/Vattenfall i Väröbacka!\n\nDina arbetsuppgifter i huvudsak\nArbetsuppgifter\n•\tAnsvara för möteskoordinering: planera, bjuda in och följa upp möten, samt skriva tekniska protokoll med hög precision\n•\tDriva och koordinera utvecklingsprojekt inom avdelningen för att förbättra processer och arbetsflöden\n•\tBygga och strukturera sidor, mappar och innehåll i Vattenfalls intranät \n•\tMigrera befintliga texter och länka dokument till intranätssidor\n•\tIntegrera och länka processbilder för att skapa tydliga visuella flöden\n•\tProducera, redigera och publicera texter på både svenska och engelska\n•\tSäkerställa att intranätets innehåll är uppdaterat, korrekt och lättillgängligt för slutanvändare\n\n\nVem är du?\nVi söker dig med följande erfarenhet/kvalifikationer:\n\n•\tFlera års erfarenhet av liknande administrativa uppgifter, gärna som administratör på en avdelning eller enhet samt webbadministration\n•\tMycket goda kunskaper i MS Office, inklusive Word, Excel och PowerPoint\n•\tMycket god vana av teknisk protokollskrivning och dokumentation\n•\tFlytande i engelska och svenska, både skriftligt och muntligt\n•\tErfarenhet av att driva och koordinera utvecklingsinitiativ inom verksamhet eller projekt\n•\tTidigare arbete inom projektledning eller kommunikationsområdet är meriterande\n\n\nOm verksamheten\nKonsultrollen passar dig som på kort tid vill skaffa dig bred erfarenhet. Vi erbjuder dig chansen att arbeta på populära arbetsplatser med välkända varumärken där du kan utveckla din kompetens och bredda ditt CV. Du kommer att trivas som konsult om du söker en värld av spännande uppdrag och nya kontaktnät. Vid din sida har du din konsultchef som agerar bollplank och stöttar dig i att lyckas på dina uppdrag. Vi vill att du ska må bra och trivas med oss på Poolia. Därför erbjuder vi dig friskvårdsbidrag, rabatter på olika träningsanläggningar m.m. Självklart omfattas din anställning på Poolia av kollektivavtal, försäkringar och tjänstepension.\n\nUrval och intervjuer sker löpande och tjänsten kan komma att tillsättas innan sista ansökningsdag.\n\nVarmt välkommen med din ansökan!', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3762,7 +3734,11 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Fast l?n</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -3781,12 +3757,12 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5560362138', 'name': 'Vattenfall AB', 'workplace': 'Stockholm'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.poolia.se', 'organization_number': '5564267655', 'name': 'Poolia AB', 'workplace': 'Poolia Sverige AB'}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.smartrecruiters.com/Vattenfall/744000078953100-senior-tekniker-till-enwell', 'other': None}</t>
+          <t>{'information': None, 'reference': '74221', 'email': None, 'via_af': False, 'url': 'https://poolia.se/jobb/74221', 'other': None}</t>
         </is>
       </c>
       <c r="U22" t="b">
@@ -3801,12 +3777,12 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>{'concept_id': 'aGMK_AH5_Khi', 'label': 'Teatertekniker/Scentekniker', 'legacy_ams_taxonomy_id': '5211'}</t>
+          <t>{'concept_id': 'b3Jk_Gfs_oo9', 'label': 'Webbredaktör', 'legacy_ams_taxonomy_id': '6739'}</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>{'concept_id': '4BsK_q2C_sCL', 'label': 'Ljus-, ljud- och scentekniker', 'legacy_ams_taxonomy_id': '3522'}</t>
+          <t>{'concept_id': 'SgNH_hag_n9D', 'label': 'Journalister m.fl.', 'legacy_ams_taxonomy_id': '2642'}</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3816,32 +3792,32 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '11756', 'city': 'Stockholm', 'coordinates': [18.031656276824375, 59.303655622225904]}</t>
+          <t>{'municipality': 'Varberg', 'municipality_code': '1383', 'municipality_concept_id': 'AkUx_yAq_kGr', 'region': 'Hallands län', 'region_code': '13', 'region_concept_id': 'wjee_qH2_yb6', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.25209, 57.107117]}</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'b3Jk_Gfs_oo9', 'label': 'Webbredaktör', 'legacy_ams_taxonomy_id': '6739'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Christian Haraldsson', 'email': 'christian.haraldsson@poolia.se', 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2025-09-01T08:37:20</t>
+          <t>2025-09-02T08:45:26</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>2025-10-01T23:59:59</t>
+          <t>2025-09-05T23:59:59</t>
         </is>
       </c>
       <c r="AH22" t="b">
@@ -3850,11 +3826,11 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK22" t="n">
-        <v>1756708640673</v>
+        <v>1756795526268</v>
       </c>
     </row>
     <row r="23">
@@ -3863,10 +3839,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29880592</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>29975107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46-556570-3138-6377934-1</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -3875,22 +3855,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29880592</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975107</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87701347/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565703138/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Clinic &amp; operations coordinator</t>
+          <t>Engagerad lokal fotograf Kalix</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-09-14T23:59:59</t>
+          <t>2026-02-19T23:59:59</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -3898,12 +3878,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en driven koordinator till Studio Finoh i Stockholm.\nPlats: Magnus Ladulåsgatan 31, Stockholm\n Start: 1 september\n Omfattning: Deltid\nStudio Finoh växer och nu letar vi efter en organiserad, självgående och serviceinriktad koordinator som vill vara med och utveckla vår verksamhet i Stockholm. Vi söker dig som älskar struktur, har ett öga för detaljer och ett hjärta för skönhetsbranschen.\nDina arbetsuppgifter:\nVara ett nav i den dagliga driften, planera, strukturera och stötta teamet.\nHa kontakt med kunder via telefon, mejl och sociala medier.\nPublicera och hantera innehåll på våra sociala kanaler.\nHjälpa till med enklare administration och ekonomi.\nSe till att våra kliniker är organiserade och fungerar smidigt, både i Stockholm och i dialog med teamet i Örebro (Storgatan 28).\n\nVi söker dig som:\nÄr punktlig, strukturerad och kreativ.\nHar god kommunikationsförmåga och älskar att ge service.\nHar intresse för skönhet och estetik.\nHar erfarenhet eller känsla för att jobba med sociala medier.\nTycker det är kul med enklare ekonomi och administration.\nTrivs med att ha många bollar i luften – men också få saker att hända.\nÄr ambitiös och vill växa i din yrkesroll.\n\nDu blir en viktig del av vårt team och vi ser gärna att du är med och formar din roll tillsammans med oss.\nLåter det som du?\n Skicka din ansökan och CV till ansokningar@studiofinoh.se så snart som möjligt – intervjuer sker löpande!', 'text_formatted': '&lt;p&gt;Vi söker en driven koordinator till Studio Finoh i Stockholm.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plats:&lt;/strong&gt; Magnus Ladulåsgatan 31, Stockholm&lt;/p&gt;&lt;p&gt; &lt;strong&gt;Start:&lt;/strong&gt; 1 september&lt;/p&gt;&lt;p&gt; &lt;strong&gt;Omfattning:&lt;/strong&gt; Deltid&lt;/p&gt;&lt;p&gt;Studio Finoh växer och nu letar vi efter en &lt;strong&gt;organiserad, självgående och serviceinriktad koordinator&lt;/strong&gt; som vill vara med och utveckla vår verksamhet i Stockholm. Vi söker dig som älskar struktur, har ett öga för detaljer och ett hjärta för skönhetsbranschen.&lt;/p&gt;&lt;p&gt;Dina arbetsuppgifter:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vara ett nav i den dagliga driften, planera, strukturera och stötta teamet.&lt;/li&gt;&lt;li&gt;Ha kontakt med kunder via telefon, mejl och sociala medier.&lt;/li&gt;&lt;li&gt;Publicera och hantera innehåll på våra sociala kanaler.&lt;/li&gt;&lt;li&gt;Hjälpa till med enklare administration och ekonomi.&lt;/li&gt;&lt;li&gt;Se till att våra kliniker är organiserade och fungerar smidigt, både i Stockholm och i dialog med teamet i Örebro (Storgatan 28).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Vi söker dig som:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Är &lt;strong&gt;punktlig, strukturerad och kreativ.&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Har god kommunikationsförmåga och älskar att ge service.&lt;/li&gt;&lt;li&gt;Har intresse för &lt;strong&gt;skönhet och estetik.&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Har erfarenhet eller känsla för att jobba med sociala medier.&lt;/li&gt;&lt;li&gt;Tycker det är kul med enklare ekonomi och administration.&lt;/li&gt;&lt;li&gt;Trivs med att ha många bollar i luften – men också få saker att hända.&lt;/li&gt;&lt;li&gt;Är ambitiös och vill växa i din yrkesroll.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Du blir en viktig del av vårt team och vi ser gärna att du är med och formar din roll tillsammans med oss.&lt;/p&gt;&lt;p&gt;Låter det som du?&lt;/p&gt;&lt;p&gt; Skicka din ansökan och CV till ansokningar@studiofinoh.se så snart som möjligt – intervjuer sker löpande!&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.\xa0\nVarför Diakrit?\nSom frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.\xa0\nVår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.\nMed hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.\xa0\nÄr det dig vi söker?\nVi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.\xa0\nFör att arbeta som frilansfotograf på Diakrit behöver du följande:\n \nKamerahus (systemkamera, helst fullformat)\n\n  \nVidvinkelzoomobjektiv\n\n \nNormalobjektiv eller zoom (t.ex 24-70mm)\n\n \nStabilt stativ\n\n \nExtern vridbar blixt\n\n \nKörkort och tillgång till bil\n\n \nF-skatt\n\n \n Om Diakrit:\nDiakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.\xa0 \nAnsökan:\nAnsök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.\xa0Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.\nFör att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.\nRekrytering sker löpande så vänta inte med din ansökan!', 'text_formatted': '&lt;p&gt;Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Varför Diakrit?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Vår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.&lt;/p&gt;&lt;p&gt;Med hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Är det dig vi söker?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För att arbeta som frilansfotograf på Diakrit behöver du följande:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Kamerahus (systemkamera, helst fullformat)&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Vidvinkelzoomobjektiv&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Normalobjektiv eller zoom (t.ex 24-70mm)&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Stabilt stativ&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern vridbar blixt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Körkort och tillgång till bil&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;F-skatt&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt; &lt;strong&gt;Om Diakrit:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Diakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.&amp;nbsp; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Ansök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.&amp;nbsp;Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.&lt;/p&gt;&lt;p&gt;För att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.&lt;/p&gt;&lt;p&gt;Rekrytering sker löpande så vänta inte med din ansökan! &lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3911,31 +3891,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lön enligt överenskommelse</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': None, 'name': 'Olsson, Nina', 'workplace': 'Studio Finoh'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5565703138', 'name': 'Diakrit Fastighetsmäklarservice AB', 'workplace': 'Diakrit '}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'Koordinator.', 'email': 'ansokningar@studiofinoh.se', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://career.diakrit.com/jobs/6377934-engagerad-lokal-fotograf-kalix?promotion=1609678-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U23" t="b">
@@ -3950,12 +3934,12 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>{'concept_id': 'dnxZ_Bvb_S9C', 'label': 'Platskoordinator', 'legacy_ams_taxonomy_id': '7233'}</t>
+          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3965,32 +3949,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Magnusladulåsgatan 31', 'postcode': '11865', 'city': 'STOCKHOLM', 'coordinates': [18.06229401319164, 59.312402233978545]}</t>
+          <t>{'municipality': 'Kalix', 'municipality_code': '2514', 'municipality_concept_id': 'cUyN_C9V_HLU', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [23.143965, 65.85528]}</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>{'skills': [{'weight': 5, 'concept_id': '8gwE_2o3_XRF', 'label': 'Ekonomiadministration', 'legacy_ams_taxonomy_id': '1410'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'DIAKRIT RECRUITMENT', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>2025-08-30T13:16:45</t>
+          <t>2025-09-02T06:55:15</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>2025-09-14T23:59:59</t>
+          <t>2026-02-19T23:59:59</t>
         </is>
       </c>
       <c r="AH23" t="b">
@@ -3999,11 +3983,11 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK23" t="n">
-        <v>1756552605667</v>
+        <v>1756788915726</v>
       </c>
     </row>
     <row r="24">
@@ -4012,10 +3996,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29968597</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>29975081</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>46-556570-3138-6377901-1</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -4024,22 +4012,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968597</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29975081</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88135911/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565703138/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Spelledare till Escape Room i Stockholm</t>
+          <t>Engagerad lokal fotograf Boden</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2026-02-19T23:59:59</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -4047,12 +4035,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. Ca 8 - 20 timmar per vecka.\nSom Game-Master har du följande uppgifter.\n- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.\n- Bevaka teknik som styr spelen.\n- Ta hand om kunderna efter spelet och ta betalt.\n- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.\n- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.\nDina Kvalifikationer:\n- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.\n- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.\n- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.\nOm dig\n- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.\n- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.\n- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.\nVänligen bifoga en bild på dig i ansökan.', 'text_formatted': '&lt;p&gt;Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. &lt;strong&gt;&lt;u&gt;Ca 8 - 20 timmar per vecka&lt;/u&gt;&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Som Game-Master har du följande uppgifter.&lt;/p&gt;&lt;p&gt;- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.&lt;/p&gt;&lt;p&gt;- Bevaka teknik som styr spelen.&lt;/p&gt;&lt;p&gt;- Ta hand om kunderna efter spelet och ta betalt.&lt;/p&gt;&lt;p&gt;- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.&lt;/p&gt;&lt;p&gt;- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.&lt;/p&gt;&lt;p&gt;Dina Kvalifikationer:&lt;/p&gt;&lt;p&gt;- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.&lt;/p&gt;&lt;p&gt;- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.&lt;/p&gt;&lt;p&gt;- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.&lt;/p&gt;&lt;p&gt;Om dig&lt;/p&gt;&lt;p&gt;- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.&lt;/p&gt;&lt;p&gt;- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.&lt;/p&gt;&lt;p&gt;- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Vänligen bifoga en bild på dig i ansökan.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.\xa0\nVarför Diakrit?\nSom frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.\xa0\nVår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.\nMed hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.\xa0\nÄr det dig vi söker?\nVi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.\xa0\nFör att arbeta som frilansfotograf på Diakrit behöver du följande:\n \nKamerahus (systemkamera, helst fullformat)\n\n  \nVidvinkelzoomobjektiv\n\n \nNormalobjektiv eller zoom (t.ex 24-70mm)\n\n \nStabilt stativ\n\n \nExtern vridbar blixt\n\n \nKörkort och tillgång till bil\n\n \nF-skatt\n\n \n Om Diakrit:\nDiakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.\xa0 \nAnsökan:\nAnsök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.\xa0Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.\nFör att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.\nRekrytering sker löpande så vänta inte med din ansökan!', 'text_formatted': '&lt;p&gt;Diakrit söker nu efter kreativa fotografer med hög serviceanda, som vill bli en del av vårt internationella fotografnätverk.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Varför Diakrit?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som frilansfotograf hos Diakrit får du möjlighet att fokusera på det du älskar - att ta snygga bilder och träffa människor! Det andra tar vi hand om.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Vår flexibla arbetsmodell ger dig friheten att styra över din vardag, samtidigt som du ges möjlighet att utveckla dina färdigheter inom foto, panorama, drönare och video. Du behöver inte själv sälja in dina uppdrag, utan det sköter vårt drivna säljteam. Vår Customer Solutions tar god hand om våra fotografer och kunder i det dagliga arbetet och vårt duktiga in-house redigeringsteam ser till att slutresultatet håller högsta kvalitet. Du har dessutom alltid stöd i ditt arbete från din regionansvariga fotochef.&lt;/p&gt;&lt;p&gt;Med hjälp av vår onlinekalender styr du enkelt din tillgänglighet och vi arbetar för att ge dig en så effektiv vardag som möjligt.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Är det dig vi söker?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som jobbar som fotograf, eller har fotografutbildning, och har ett skarpt öga både vad gäller ljus och komposition. Du behöver vara genuint intresserad av människor och hålla en hög servicenivå. Har du dessutom ett intresse för hem och inredning och kan lyfta fram det unika i varje bostad så kan vi vara en perfect match för varandra.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;För att arbeta som frilansfotograf på Diakrit behöver du följande:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Kamerahus (systemkamera, helst fullformat)&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Vidvinkelzoomobjektiv&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Normalobjektiv eller zoom (t.ex 24-70mm)&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Stabilt stativ&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern vridbar blixt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Körkort och tillgång till bil&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;F-skatt&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt; &lt;strong&gt;Om Diakrit:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Diakrit är världsledande inom fototjänster, digitala plattformar och innovativa produkter för att marknadsföra bostäder online. Vi har hjälpt fotografer att bygga en stabil fotokarriär sedan 2009. Idag har vi över 400 anställda Diakritare och vi samarbetar med över 500 frilansfotografer i Sverige, Norge, Danmark, Australien, Nya Zeeland och USA. Våra tjänster levererar vi till över 2000 stora fastighetsmäklarkunder världen över. Vår styrka är vår entrepenörsanda, höga kvalitet och innovationslust, samt vår förmåga att alltid se till den enskilde kundens behov. Hos Diakrit fokuserar vi på långsiktiga relationer med både kunder och medarbetare.&amp;nbsp; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ansökan:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Ansök online på career.diakrit.com genom att bifoga ditt CV och personliga brev tillsammans med arbetsprover bestående av ca 5 st egenproducerade bilder, med anknytning till interiör och inredning. Bilderna ska vara sparade i jpeg och ca 3000 pixlar på längden.&amp;nbsp;Du kan antingen skicka en länk till din portfolio eller ladda upp 5 enskilda bilder i ansökan.&lt;/p&gt;&lt;p&gt;För att kunna gå vidare med din ansökan behöver vi även veta vad du har för fotoutrustning.&lt;/p&gt;&lt;p&gt;Rekrytering sker löpande så vänta inte med din ansökan! &lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4060,31 +4048,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lön enligt överenskommelse</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://quezzle.se/', 'organization_number': '5590055058', 'name': 'Quezzle AB', 'workplace': 'Quezzle AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5565703138', 'name': 'Diakrit Fastighetsmäklarservice AB', 'workplace': 'Diakrit '}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://brain.quezzle.se/hr.php', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://career.diakrit.com/jobs/6377901-engagerad-lokal-fotograf-boden?promotion=1609676-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U24" t="b">
@@ -4099,12 +4091,12 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>{'concept_id': 'TpUz_Wcr_p76', 'label': 'Programvärd/Programvärdinna', 'legacy_ams_taxonomy_id': '6113'}</t>
+          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>{'concept_id': 'xuSE_mtB_Mir', 'label': 'Övriga yrken inom kultur och underhållning', 'legacy_ams_taxonomy_id': '3439'}</t>
+          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4114,12 +4106,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Döbelnsgatan 12', 'postcode': '11358', 'city': 'Stockholm', 'coordinates': [18.0623278186604, 59.3404469806315]}</t>
+          <t>{'municipality': 'Boden', 'municipality_code': '2582', 'municipality_concept_id': 'y4NQ_tnB_eVd', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [21.688704, 65.82512]}</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}, {'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4129,17 +4121,17 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'DIAKRIT RECRUITMENT', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2025-08-30T09:42:50</t>
+          <t>2025-09-02T06:28:25</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2026-02-19T23:59:59</t>
         </is>
       </c>
       <c r="AH24" t="b">
@@ -4148,11 +4140,11 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK24" t="n">
-        <v>1756539770718</v>
+        <v>1756787305771</v>
       </c>
     </row>
     <row r="25">
@@ -4161,10 +4153,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>29968562</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>29974278</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>46-556902-4804-6319802-2</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
@@ -4173,22 +4169,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968562</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29974278</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88135911/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5569024804/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Spelledare till Escape Room i Stockholm</t>
+          <t>Experience Designer (XD)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -4196,12 +4192,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. Ca 8 - 20 timmar per vecka.\nSom Game-Master har du följande uppgifter.\n- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.\n- Bevaka teknik som styr spelen.\n- Ta hand om kunderna efter spelet och ta betalt.\n- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.\n- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.\nDina Kvalifikationer:\n- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.\n- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.\n- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.\nOm dig\n- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.\n- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.\n- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.\nVänligen bifoga en bild på dig i ansökan.', 'text_formatted': '&lt;p&gt;Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. &lt;strong&gt;&lt;u&gt;Ca 8 - 20 timmar per vecka&lt;/u&gt;&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Som Game-Master har du följande uppgifter.&lt;/p&gt;&lt;p&gt;- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.&lt;/p&gt;&lt;p&gt;- Bevaka teknik som styr spelen.&lt;/p&gt;&lt;p&gt;- Ta hand om kunderna efter spelet och ta betalt.&lt;/p&gt;&lt;p&gt;- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.&lt;/p&gt;&lt;p&gt;- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.&lt;/p&gt;&lt;p&gt;Dina Kvalifikationer:&lt;/p&gt;&lt;p&gt;- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.&lt;/p&gt;&lt;p&gt;- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.&lt;/p&gt;&lt;p&gt;- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.&lt;/p&gt;&lt;p&gt;Om dig&lt;/p&gt;&lt;p&gt;- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.&lt;/p&gt;&lt;p&gt;- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.&lt;/p&gt;&lt;p&gt;- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Vänligen bifoga en bild på dig i ansökan.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': "At EVORA, our culture drives everything we do:\nWe collaborate, we care, and we grow—together. We’re a passionate team on a mission that makes a real difference.\xa0\nWho we areWe’re experts in real estate, investing, sustainability, and data collection. Now, we’re looking for a new EVORIAN to join us in Product Engineering and make us even better. \nWe believe the future lies in breaking down silos and creating seamless interactions that build genuine confidence and trust in the services we offer. We're shifting toward journey-centric design, and we need someone who gets excited about connecting the dots between touchpoints, making complex systems feel intuitive, and turning ordinary service moments into meaningful ones.\nThe teamWorking within our distributed team setup, you'll belong to our design team (distributed in UK and Gothenburg, Sweden) while spending your time either embedded with a product team as their design lead or partnering across departments on initiatives that span multiple touchpoints. We're looking for an Experience Designer (XD) who sees the bigger picture and enjoys the challenge of\xa0transforming complex ESG data into clear insights that drive sustainable investment decisions.\xa0Someone who brings (service) design thinking to product work.\xa0\nRole descriptionYou'll apply journey-level thinking when leading end-to-end design initiatives from discovery to delivery, balancing business outcomes and goals with user and customer needs. You'll use customer journeys and service blueprints to uncover insights and identify opportunities, then translate these into improved service moments and polished digital experiences. Hands-on nitty-gritty work will remain a significant part of your role alongside the journey-level thinking.\nYou'll design across both our products and services portfolio. We are using a\xa0modern tech stack for building our\xa0web applications.\xa0Our ESG services include e.g. data collection,\xa0climate risk assessments, and sustainable reports.\nAs we're shifting toward journey-centric design, you'll collaborate to define what great digital experience looks like at EVORA. You will also\xa0help breaking down organisational silos to create seamless interactions that build confidence and trust, throughout our services and products.\nWe are looking for We are open to all experience levels in UX, Product Design, or Service Design.\n You are a design thinker that\xa0has experience in journey mapping and service blueprints to identify gaps and opportunities to inform decisions. \n Full product lifecycle hands-on skills – from discovery to delivery including assumption validation, user research, wireframing/prototyping.\n Have experience documenting research findings and comfortably presenting the rationale for your design decisions to diverse stakeholders.\xa0\n Can balance multiple stakeholders while maintaining a clear design perspective.\n Enjoy working in ambiguous, complex problem spaces where you can take ownership and collaborate closely with cross-functional partners and stakeholders.\n Have experience with tools such as\xa0Figma, Miro,\xa0Storybook, Dovetail etc.\n Enjoy mentoring others and contributing to design culture.\n Bonus if you\xa0have experience working in B2B and SaaS product organisations.\n Our offer to you Design autonomy: While we're part of a larger organisation, our team operates with significant independence and collaborative decision-making.\n Early-stage opportunity: Join us during this journey-centric transformation and help shape the direction of digital\xa0experience design at EVORA.\n Growth opportunities: Develop your skills across various design disciplines, strategy, and emerging technologies in a growing organisation.\n Learning together: Join a culture where we learn from each other - share insights from your work and help shape our design practices with your personal perspective.\n Work-life balance: Flexible working arrangements that respect your personal time – a hybrid work culture with options to work from our London or Gothenburg offices.\n Innovation time: Regular hackathons to explore emerging technologies, exciting topics, and collaborate on complex challenges. Imagine where Agentic AI could transform sustainability experiences or fully transform back-office processes? \n \nDo you want to design experiences that feel connected, purposeful, and trusted? Apply now and join our growing 4-person design team!\xa0You will report to the Design Manager.", 'text_formatted': "At EVORA, our culture drives everything we do:&lt;p&gt;We collaborate, we care, and we grow—together. We’re a passionate team on a mission that makes a real difference.&amp;nbsp;&lt;/p&gt;Who we are&lt;p&gt;We’re experts in real estate, investing, sustainability, and data collection. Now, we’re looking for a new EVORIAN to join us in Product Engineering and make us even better. &lt;/p&gt;&lt;p&gt;We believe the future lies in breaking down silos and creating seamless interactions that build genuine confidence and trust in the services we offer. We're shifting toward journey-centric design&lt;strong&gt;,&lt;/strong&gt; and we need someone who gets excited about connecting the dots between touchpoints, making complex systems feel intuitive, and turning ordinary service moments into meaningful ones.&lt;/p&gt;The team&lt;p&gt;Working within our distributed team setup, you'll belong to our design team (distributed in UK and Gothenburg, Sweden) while spending your time either embedded with a product team as their design lead or partnering across departments on initiatives that span multiple touchpoints. We're looking for an &lt;strong&gt;Experience Designer (XD)&lt;/strong&gt; who sees the bigger picture and enjoys the challenge of&amp;nbsp;transforming complex ESG data into clear insights that drive sustainable investment decisions.&amp;nbsp;Someone who brings (service) design thinking to product work.&amp;nbsp;&lt;/p&gt;Role description&lt;p&gt;You'll apply journey-level thinking when leading end-to-end design initiatives from discovery to delivery, balancing business outcomes and goals with user and customer needs. You'll use customer journeys and service blueprints to uncover insights and identify opportunities, then translate these into improved service moments and polished digital experiences. Hands-on nitty-gritty work will remain a significant part of your role alongside the journey-level thinking.&lt;/p&gt;&lt;p&gt;You'll design across both our products and services portfolio. We are using a&amp;nbsp;modern tech stack for building our&amp;nbsp;web applications.&amp;nbsp;Our ESG services include e.g. data collection,&amp;nbsp;climate risk assessments, and sustainable reports.&lt;/p&gt;&lt;p&gt;As we're shifting toward journey-centric design, you'll collaborate to define what great digital experience looks like at EVORA. You will also&amp;nbsp;help breaking down organisational silos to create seamless interactions that build confidence and trust, throughout our services and products.&lt;/p&gt;We are looking for&lt;ul&gt; &lt;li&gt;We are open to all experience levels in UX, Product Design, or Service Design.&lt;/li&gt; &lt;li&gt;You are a design thinker that&amp;nbsp;has experience in journey mapping and service blueprints to identify gaps and opportunities to inform decisions. &lt;/li&gt; &lt;li&gt;Full product lifecycle hands-on skills – from discovery to delivery including assumption validation, user research, wireframing/prototyping.&lt;/li&gt; &lt;li&gt;Have experience documenting research findings and comfortably presenting the rationale for your design decisions to diverse stakeholders.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Can balance multiple stakeholders while maintaining a clear design perspective.&lt;/li&gt; &lt;li&gt;Enjoy working in ambiguous, complex problem spaces where you can take ownership and collaborate closely with cross-functional partners and stakeholders.&lt;/li&gt; &lt;li&gt;Have experience with tools such as&amp;nbsp;Figma, Miro,&amp;nbsp;Storybook, Dovetail etc.&lt;/li&gt; &lt;li&gt;Enjoy mentoring others and contributing to design culture.&lt;/li&gt; &lt;li&gt;Bonus if you&amp;nbsp;have experience working in B2B and SaaS product organisations.&lt;/li&gt; &lt;/ul&gt;Our offer to you&lt;ul&gt; &lt;li&gt;&lt;strong&gt;Design autonomy:&lt;/strong&gt; While we're part of a larger organisation, our team operates with significant independence and collaborative decision-making.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Early-stage opportunity:&lt;/strong&gt; Join us during this journey-centric transformation and help shape the direction of digital&amp;nbsp;experience design at EVORA.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Growth opportunities:&lt;/strong&gt; Develop your skills across various design disciplines, strategy, and emerging technologies in a growing organisation.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Learning together:&lt;/strong&gt; Join a culture where we learn from each other - share insights from your work and help shape our design practices with your personal perspective.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Work-life balance:&lt;/strong&gt; Flexible working arrangements that respect your personal time – a hybrid work culture with options to work from our London or Gothenburg offices.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Innovation time:&lt;/strong&gt; Regular hackathons to explore emerging technologies, exciting topics, and collaborate on complex challenges. Imagine where Agentic AI could transform sustainability experiences or fully transform back-office processes? &lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Do you want to design experiences that feel connected, purposeful, and trusted? Apply now and join our growing 4-person design team!&amp;nbsp;You will report to the Design Manager. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nEmployment Period according to agreement'}</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4209,31 +4205,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lön enligt överenskommelse</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://quezzle.se/', 'organization_number': '5590055058', 'name': 'Quezzle AB', 'workplace': 'Quezzle AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://evoraglobal.com', 'organization_number': '5569024804', 'name': 'Metry AB', 'workplace': 'EVORA Global'}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'Spelledare Stockholm', 'email': None, 'via_af': False, 'url': 'https://brain.quezzle.se/hr.php', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.evoraglobal.com/jobs/6319802-experience-designer-xd?promotion=1608557-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U25" t="b">
@@ -4248,12 +4248,12 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>{'concept_id': 'TpUz_Wcr_p76', 'label': 'Programvärd/Programvärdinna', 'legacy_ams_taxonomy_id': '6113'}</t>
+          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>{'concept_id': 'xuSE_mtB_Mir', 'label': 'Övriga yrken inom kultur och underhållning', 'legacy_ams_taxonomy_id': '3439'}</t>
+          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4263,12 +4263,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Döbelnsgatan 12', 'postcode': '11358', 'city': 'Stockholm', 'coordinates': [18.0623278186604, 59.3404469806315]}</t>
+          <t>{'municipality': 'Göteborg', 'municipality_code': '1480', 'municipality_concept_id': 'PVZL_BQT_XtL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [11.97456, 57.70887]}</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}, {'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4278,17 +4278,17 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Sebastian Levander', 'email': 'slevander@evoraglobal.com', 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>2025-08-30T09:42:35</t>
+          <t>2025-09-01T16:42:55</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="AH25" t="b">
@@ -4297,11 +4297,11 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK25" t="n">
-        <v>1756539755741</v>
+        <v>1756737775986</v>
       </c>
     </row>
     <row r="26">
@@ -4310,79 +4310,91 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29968203</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>29974199</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>46-202100-4474-1420</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['nystartsjobb']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968203</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29974199</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021004474/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Unpaid Autumn Intern</t>
+          <t>Arkivarie</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{'text': 'Company Description\nCharity Art Gallery (CAG) in Stockholm makes exhibiting art easy and accessible. Artists can send their original works by post, email digital images for printing and framing, or bring their art in person. CAG offers affordable and flexible options for artists, with prices starting at just 490 SEK. Additionally, artists can join the international Artsy online gallery for global exposure. CAG is a welcoming and artist-friendly environment for showcasing your work.\n\n\nRole Description\nThis is a temporary, unpaid Autumn intern role located on-site at Charity Art Gallery Skrapan in Stockholm. The intern will assist with daily gallery operations, including setting up exhibitions, assisting visitors, and looking for new artists/exhibitors/performers. This role is ideal for individuals interested in gaining hands-on experience in the art gallery environment. The intern will sit in the gallery 10.00 to 15.00 or 14.00 to 19.00 from September 1st to November 30, and / or maybe weekends 12.00 to 17.00. The intern can make commission by becoming an affiliate&gt; https://alexcolard.com/affiliate-agreement-page/\n\n\nQualifications\nExcellent communication skills\nAbility to work independently\nInterest in art and gallery management\nProficiency in basic marketing principles\nBasic knowledge of customer service\nFluency in both Swedish and English is a plus\nEnthusiasm for working in a supportive, creative environment\n\n\n\nÖppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Company Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Charity Art Gallery (CAG) in Stockholm makes exhibiting art easy and accessible. Artists can send their original works by post, email digital images for printing and framing, or bring their art in person. CAG offers affordable and flexible options for artists, with prices starting at just 490 SEK. Additionally, artists can join the international Artsy online gallery for global exposure. CAG is a welcoming and artist-friendly environment for showcasing your work.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Role Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This is a temporary, unpaid Autumn intern role located on-site at Charity Art Gallery Skrapan in Stockholm. The intern will assist with daily gallery operations, including setting up exhibitions, assisting visitors, and looking for new artists/exhibitors/performers. This role is ideal for individuals interested in gaining hands-on experience in the art gallery environment. The intern will sit in the gallery 10.00 to 15.00 or 14.00 to 19.00 from September 1st to November 30, and / or maybe weekends 12.00 to 17.00. The intern can make commission by becoming an affiliate&amp;gt; https://alexcolard.com/affiliate-agreement-page/&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Excellent communication skills&lt;/li&gt;&lt;li&gt;Ability to work independently&lt;/li&gt;&lt;li&gt;Interest in art and gallery management&lt;/li&gt;&lt;li&gt;Proficiency in basic marketing principles&lt;/li&gt;&lt;li&gt;Basic knowledge of customer service&lt;/li&gt;&lt;li&gt;Fluency in both Swedish and English is a plus&lt;/li&gt;&lt;li&gt;Enthusiasm for working in a supportive, creative environment&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p id="oppenforalla"&gt;Öppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Det är på regeringens uppdrag som Statens fastighetsverk (SFV) förvaltar vårt gemensamma natur- och kulturarv. Vi förvaltar en mångfald av statligt ägda fastigheter – däribland regeringsbyggnader, domstolar, slott och kungsgårdar, teatrar, museer, ambassader\n\nsamt en sjundedel av landets yta bestående av skog och mark.\n\nSom medarbetare är vi stolta över att vara anställda på en myndighet, arbeta utifrån den statliga värdegrunden och få bidra till en positiv samhällsutveckling.\n\nArkiv- och informationsförvaltning är en del av myndighetens ledningsstöd. Vi säkerställer en enhetlig, korrekt och hållbar informationsförvaltning. Förvaltningen består idag av 20 medarbetare som stödjer den dagliga informationshanteringen samt tar sig an de långsiktiga utmaningarna och utvecklar förutsättningar för en modern informationsförvaltning.\n\nVill du lära dig mer om överlämnande av arkivbestånd? Vill du få praktisk erfarenhet inom området? Vill du bidra till att bevara vårt kulturarv? Då kan du vara vår arkivarie!\n\nDin roll\n\nEnheten förbereder för närvarande överlämnande av delar av myndighetens analoga arkivbestånd till Riksarkivet.\n\nDina arbetsuppgifter är av praktisk karaktär och består av att ordna och förteckna fysiska handlingar enligt allmänna arkivschemat. Du jobbar med kontorsdokument, fotografier och ritningar. I arbetet ingår även inventering, gallring, rensning och annan arkivvård. Du arbetar i team med ett flertal medarbetare på enheten.\n\nTunga lyft förekommer då packning och annan logistik ingår i arbetet inför överlämnandet av arkivbeståndet.\n\nRollen är tidsbegränsad från och med 2025-10-15, dock längst till och med 2026-09-30.\n\nDin profil\n\nVi tror att du är i början av din yrkeskarriär som arkivarie och vill omsätta dina teoretiska kunskaper i ett pågående projekt med Riksarkivet.\n\nVi söker dig som har:\n\n\n• akademisk examen om minst 60 HP inom arkivvetenskap eller informationsvetenskap,\n• god svenska i tal och skrift,\n• god vana av att arbeta i digitala system där du söker och förtecknar information samt\n• erfarenhet av samarbete i större team.\n\nDet är meriterande om du har:\n\n\n• kunskap av att läsa ritningar samt\n• arbetat i uppdrag med skarpa deadlines.\n\nPersonliga egenskaper\n\nVi lägger stor vikt vid dina personliga egenskaper. Vi söker dig som har lätt att samarbeta, lära dig, är självgående och har vana att ta sig an uppgifter tillsammans med andra. Du är noggrann, stresstålig och pragmatiskt lagd. Du har förmåga att prioritera och organisera dina arbetsuppgifter och respekterar givna tidsramar.\n\nSå söker du tjänsten\xa0\n\nFör att söka tjänsten ber vi dig bifoga ditt CV och besvara ett antal urvalsfrågor som utgår från kravprofilen. Vid första urvalet kommer vi endast att utgå ifrån ditt CV och dina svar på frågorna. Vi önskar att du svarar konkret och kortfattat, och att det finns en tydlig koppling mellan dina svar och ditt CV. \xa0\n\nOm du har skyddade personuppgifter ber vi dig att kontakta rekryterande chef för att skicka in din ansökan.\xa0 \xa0\n\nFör frågor är du välkommen att kontakta rekryterande chef Lenka Medin tfn 010-478 72 10.\xa0\n\nFackliga representanter för Saco, Seko och OFR/S nås via vår växel, 010-478 70 00. Mer information om SFV hittar du på\u202fwww.sfv.se.\xa0\xa0\n\nSista ansökningsdag: 2025-09-21\xa0\n\nMer information \xa0\n \xa0\n Anställningsform: Tjänsten är en särskild visstidsanställning (SÄVA) från och med 2025-10-15, dock längst till och med 2026-09-30. SFV avser att anställa en eller flera arkivarier.\n\nPlacering: Stockholm\xa0\n\nTillträde: Önskat tillträde 2025-10-15\xa0\xa0\n\nMöjlighet till distansarbete: Det finns ingen möjlighet till distansarbete i denna tjänst.\n\nInnan ett beslut om anställning fattas kan en säkerhetsprövning enligt säkerhetsskyddslagen (2018:585) komma att genomföras. Om anställningen avser befattning i säkerhetsklass kommer säkerhetsprövningen även att innefatta en registerkontroll och i vissa fall krävs svenskt medborgarskap.\xa0\n\nStatens fastighetsverk verkar inom branscher som är exponerade mot olika risker för oegentligheter, i förbyggande syfte förekommer därför tjänster där lämplighetsprövning genomförs.\xa0\n\nJobba hos oss\xa0\n\nPå SFV arbetar vi på medborgarnas uppdrag, med utgångspunkt i den statliga värdegrunden och utifrån vår medarbetarbetarpolicy. Medarbetare på SFV har god förståelse för SFV:s uppdrag och mål, tar ansvar och samarbetar. Våra chefer leder vårt arbete genom att ha helhetssyn, leda mot resultat samt skapa delaktighet och involvering.\xa0\xa0\xa0\xa0\xa0\n\nTa del av vår medarbetarpolicy och hur det är att jobba hos oss på Jobba hos oss | SFV.\xa0\n\nVälkommen till oss!', 'text_formatted': 'Det är på regeringens uppdrag som Statens fastighetsverk (SFV) förvaltar vårt gemensamma natur- och kulturarv. Vi förvaltar en mångfald av statligt ägda fastigheter – däribland regeringsbyggnader, domstolar, slott och kungsgårdar, teatrar, museer, ambassader\n\nsamt en sjundedel av landets yta bestående av skog och mark.\n\nSom medarbetare är vi stolta över att vara anställda på en myndighet, arbeta utifrån den statliga värdegrunden och få bidra till en positiv samhällsutveckling.\n\nArkiv- och informationsförvaltning är en del av myndighetens ledningsstöd. Vi säkerställer en enhetlig, korrekt och hållbar informationsförvaltning. Förvaltningen består idag av 20 medarbetare som stödjer den dagliga informationshanteringen samt tar sig an de långsiktiga utmaningarna och utvecklar förutsättningar för en modern informationsförvaltning.\n\nVill du lära dig mer om överlämnande av arkivbestånd? Vill du få praktisk erfarenhet inom området? Vill du bidra till att bevara vårt kulturarv? Då kan du vara vår arkivarie!\n\nDin roll\n\nEnheten förbereder för närvarande överlämnande av delar av myndighetens analoga arkivbestånd till Riksarkivet.\n\nDina arbetsuppgifter är av praktisk karaktär och består av att ordna och förteckna fysiska handlingar enligt allmänna arkivschemat. Du jobbar med kontorsdokument, fotografier och ritningar. I arbetet ingår även inventering, gallring, rensning och annan arkivvård. Du arbetar i team med ett flertal medarbetare på enheten.\n\nTunga lyft förekommer då packning och annan logistik ingår i arbetet inför överlämnandet av arkivbeståndet.\n\nRollen är tidsbegränsad från och med 2025-10-15, dock längst till och med 2026-09-30.\n\nDin profil\n\nVi tror att du är i början av din yrkeskarriär som arkivarie och vill omsätta dina teoretiska kunskaper i ett pågående projekt med Riksarkivet.\n\nVi söker dig som har:\n\n\n• akademisk examen om minst 60 HP inom arkivvetenskap eller informationsvetenskap,\n• god svenska i tal och skrift,\n• god vana av att arbeta i digitala system där du söker och förtecknar information samt\n• erfarenhet av samarbete i större team.\n\nDet är meriterande om du har:\n\n\n• kunskap av att läsa ritningar samt\n• arbetat i uppdrag med skarpa deadlines.\n\nPersonliga egenskaper\n\nVi lägger stor vikt vid dina personliga egenskaper. Vi söker dig som har lätt att samarbeta, lära dig, är självgående och har vana att ta sig an uppgifter tillsammans med andra. Du är noggrann, stresstålig och pragmatiskt lagd. Du har förmåga att prioritera och organisera dina arbetsuppgifter och respekterar givna tidsramar.\n\nSå söker du tjänsten\xa0\n\nFör att söka tjänsten ber vi dig bifoga ditt CV och besvara ett antal urvalsfrågor som utgår från kravprofilen. Vid första urvalet kommer vi endast att utgå ifrån ditt CV och dina svar på frågorna. Vi önskar att du svarar konkret och kortfattat, och att det finns en tydlig koppling mellan dina svar och ditt CV. \xa0\n\nOm du har skyddade personuppgifter ber vi dig att kontakta rekryterande chef för att skicka in din ansökan.\xa0 \xa0\n\nFör frågor är du välkommen att kontakta rekryterande chef Lenka Medin tfn 010-478 72 10.\xa0\n\nFackliga representanter för Saco, Seko och OFR/S nås via vår växel, 010-478 70 00. Mer information om SFV hittar du på\u202fwww.sfv.se.\xa0\xa0\n\nSista ansökningsdag: 2025-09-21\xa0\n\nMer information \xa0\n \xa0\n Anställningsform: Tjänsten är en särskild visstidsanställning (SÄVA) från och med 2025-10-15, dock längst till och med 2026-09-30. SFV avser att anställa en eller flera arkivarier.\n\nPlacering: Stockholm\xa0\n\nTillträde: Önskat tillträde 2025-10-15\xa0\xa0\n\nMöjlighet till distansarbete: Det finns ingen möjlighet till distansarbete i denna tjänst.\n\nInnan ett beslut om anställning fattas kan en säkerhetsprövning enligt säkerhetsskyddslagen (2018:585) komma att genomföras. Om anställningen avser befattning i säkerhetsklass kommer säkerhetsprövningen även att innefatta en registerkontroll och i vissa fall krävs svenskt medborgarskap.\xa0\n\nStatens fastighetsverk verkar inom branscher som är exponerade mot olika risker för oegentligheter, i förbyggande syfte förekommer därför tjänster där lämplighetsprövning genomförs.\xa0\n\nJobba hos oss\xa0\n\nPå SFV arbetar vi på medborgarnas uppdrag, med utgångspunkt i den statliga värdegrunden och utifrån vår medarbetarbetarpolicy. Medarbetare på SFV har god förståelse för SFV:s uppdrag och mål, tar ansvar och samarbetar. Våra chefer leder vårt arbete genom att ha helhetssyn, leda mot resultat samt skapa delaktighet och involvering.\xa0\xa0\xa0\xa0\xa0\n\nTa del av vår medarbetarpolicy och hur det är att jobba hos oss på Jobba hos oss | SFV.\xa0\n\nVälkommen till oss!\xa0', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
+          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{'concept_id': 'vVtj_qm6_GQu', 'label': 'Rörlig ackords- eller provisionslön', 'legacy_ams_taxonomy_id': '8'}</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Individuell lönesättning</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>{'min': None, 'max': None}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://charity-art-gallery.com/', 'organization_number': None, 'name': 'Colard, Alexis Stefan', 'workplace': 'Charity Art Gallery / next to Rituals store'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.statensfastighetsverk.se/', 'organization_number': '2021004474', 'name': 'Statens Fastighetsverk', 'workplace': 'Statens fastighetsverk'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': 'alexcolard@me.com', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.sfv.se/om-oss/karriar/lediga-jobb/?rmpage=job&amp;rmjob=1420&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
         </is>
       </c>
       <c r="U26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -4393,12 +4405,12 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>{'concept_id': 'mHAm_gqB_wSy', 'label': 'First assistant director', 'legacy_ams_taxonomy_id': '7147'}</t>
+          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4408,32 +4420,32 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Gotgatan 76', 'postcode': '11830', 'city': 'STOCKHOLM', 'coordinates': [18.073030963585687, 59.311965444797465]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [{'weight': 5, 'concept_id': 'u2a1_mAW_vt1', 'label': 'Konst och media', 'legacy_ams_taxonomy_id': '5'}], 'education_level': [{'weight': 5, 'concept_id': '3Bof_mmm_XRk', 'label': 'Eftergymnasial utbildning kortare än två år', 'legacy_ams_taxonomy_id': '5'}]}</t>
-        </is>
-      </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>[{'name': 'Alex Colard', 'description': None, 'email': None, 'telephone': '0728425659', 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>2025-08-29T17:10:05</t>
+          <t>2025-09-01T16:32:45</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-21T23:59:59</t>
         </is>
       </c>
       <c r="AH26" t="b">
@@ -4442,11 +4454,11 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK26" t="n">
-        <v>1756480205795</v>
+        <v>1756737336670</v>
       </c>
     </row>
     <row r="27">
@@ -4455,12 +4467,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29968224</t>
+          <t>29973719</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>46-212000-0142-853115</t>
+          <t>46-556945-6659-quest-7165</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -4471,22 +4483,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968224</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29973719</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2120000142/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5569456659/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tekniker till Skarpnäcks kulturhus sökes för behovsanställning</t>
+          <t>Arkivarie till vår kund!</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-09-12T23:59:59</t>
+          <t>2025-09-05T23:59:59</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -4494,7 +4506,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{'text': 'Stockholm – vår huvudstad med miljoner drömmar, förväntningar och ambitioner. Vi jobbar för alla som lever här idag och i framtiden. Nu söker vi dig som vill tänka stort, nytt och annorlunda med oss – för stockholmarna.\n\nSkarpnäcks stadsdelsförvaltning erbjuder dig en arbetsplats där ett aktivt medarbetarskap och ett tydligt ledarskap är grunden för att ge stockholmarna den bästa verksamheten. Eftersom vi gemensamt skapar vår arbetsmiljö är det viktigt med öppenhet, respekt och lyhördhet.\n\n\r\n\r\nVill du ha ett roligt jobb och bidra till det kulturella utbudet i Skarpnäcks stadsdel? Nu söker vi nya ljud/ljustekniker till Skarpnäcks kulturhus.\r\n\r\nVälkommen till oss\n\nPå Skarpnäcks kulturhus finns en replokal, inspelningsstudio, en verkstad, en danssal, en blackbox, en konstfoajé med en liten scen och en stor sal med scen, läktare och biograf. I huset finns även ett bibliotek, en restaurang och en fritidsgård.\n\nVi hyr ut våra lokaler och arrangerar egna aktiviteter och evenemang, många gånger i samarbete med andra aktörer.\n\nKulturhuset kan ha verksamhet från kl. 07:00 på morgonen till kl. 00:00 på natten, ange gärna i ansökan vilka tider som passar dig bäst. Störst behov finns helger och eftermiddag/kväll.\n\nDin roll\n\nVi söker en tekniker som kan arbeta vid behov. Det innebär att du inte har några fasta timmar utan kontaktas när det behövs, t.ex. vid ordinarie personals sjukdom, när hyresgäster bokat in sig utanför öppettider eller när vi genomför olika arrangemang. Denna tjänst passar därför dig som endast önskar arbeta extra, kanske kombinerar du det med studier eller eget skapande.\n\nSom tekniker arbetar du främst vid hyresgästers bokningar och kulturhusets egna evenemang. Det kan vara allt från enkel föreläsningsteknik som projektor och mikrofoner till mer avancerad evenemangsteknik med både ljud och ljus som t.ex. dans- och teaterföreställningar eller större konserter. Du kan också arbeta med förberedelser inför dessa i form av att tala med arrangörerna och guida dem i vilken teknik de kommer att behöva. Det kan också ingå att möblera inför en bokning med läktare eller bord och stolar och möblera av efteråt.\n\nDin kompetens och erfarenhet\nDet är en fördel om du är utbildad ljus- eller ljudtekniker.\xa0\n\nVarmt välkommen med din ansökan!\nStockholms stad arbetar med kompetensbaserad rekrytering som syftar till att se till varje persons kompetens och därmed motverka diskriminering.', 'text_formatted': 'Stockholm – vår huvudstad med miljoner drömmar, förväntningar och ambitioner. Vi jobbar för alla som lever här idag och i framtiden. Nu söker vi dig som vill tänka stort, nytt och annorlunda med oss – för stockholmarna.\n\nSkarpnäcks stadsdelsförvaltning erbjuder dig en arbetsplats där ett aktivt medarbetarskap och ett tydligt ledarskap är grunden för att ge stockholmarna den bästa verksamheten. Eftersom vi gemensamt skapar vår arbetsmiljö är det viktigt med öppenhet, respekt och lyhördhet.\n\n\r\n\r\nVill du ha ett roligt jobb och bidra till det kulturella utbudet i Skarpnäcks stadsdel? Nu söker vi nya ljud/ljustekniker till Skarpnäcks kulturhus.\r\n\r\nVälkommen till oss\n\nPå Skarpnäcks kulturhus finns en replokal, inspelningsstudio, en verkstad, en danssal, en blackbox, en konstfoajé med en liten scen och en stor sal med scen, läktare och biograf. I huset finns även ett bibliotek, en restaurang och en fritidsgård.\n\nVi hyr ut våra lokaler och arrangerar egna aktiviteter och evenemang, många gånger i samarbete med andra aktörer.\n\nKulturhuset kan ha verksamhet från kl. 07:00 på morgonen till kl. 00:00 på natten, ange gärna i ansökan vilka tider som passar dig bäst. Störst behov finns helger och eftermiddag/kväll.\n\nDin roll\n\nVi söker en tekniker som kan arbeta vid behov. Det innebär att du inte har några fasta timmar utan kontaktas när det behövs, t.ex. vid ordinarie personals sjukdom, när hyresgäster bokat in sig utanför öppettider eller när vi genomför olika arrangemang. Denna tjänst passar därför dig som endast önskar arbeta extra, kanske kombinerar du det med studier eller eget skapande.\n\nSom tekniker arbetar du främst vid hyresgästers bokningar och kulturhusets egna evenemang. Det kan vara allt från enkel föreläsningsteknik som projektor och mikrofoner till mer avancerad evenemangsteknik med både ljud och ljus som t.ex. dans- och teaterföreställningar eller större konserter. Du kan också arbeta med förberedelser inför dessa i form av att tala med arrangörerna och guida dem i vilken teknik de kommer att behöva. Det kan också ingå att möblera inför en bokning med läktare eller bord och stolar och möblera av efteråt.\n\nDin kompetens och erfarenhet\nDet är en fördel om du är utbildad ljus- eller ljudtekniker.\xa0\n\nVarmt välkommen med din ansökan!\nStockholms stad arbetar med kompetensbaserad rekrytering som syftar till att se till varje persons kompetens och därmed motverka diskriminering.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/Deltid. Enligt överenskommelse. Tillträde: Enligt överenskommelse\r\nVisstidsanställning till '}</t>
+          <t>{'text': 'Arbetet präglas av samarbete och dialog inom och utanför det egna teamet. Korta feedbackloopar och tät dialog med Kunden och dess verksamhet bidrar till att Leverantören är delaktig i hela utvecklingsprocessen.\n\nI arkiv teamet arbetar Leverantören dagligen med:\n\nIdentifiering av förbättringsområden inom arkivhanteringen\nFörslag på effektiviseringar och kvalitetshöjande åtgärder\nUtbildning och kompetensutveckling av medarbetare\nUppföljning och utvärdering av arkivprocesser\xa0\n\n\nFör att lyckas långsiktigt handlar en viktig del av utvecklingsarbetet om att bygga för kvalitet och automatisering, där stort fokus ligger på agilt arbetssätt. I uppdraget ingår att Leverantören ska dokumentera för Kundens räkning och kompetensöverföra till relevant personal hos Kunden\n\nHuvudsakliga arbetsuppgifter\n\nUpprättande och löpande uppdatering av arkivriktlinjer och arkivreglemente\nUtveckling av informationshanteringsplan och klassificeringsstruktur\nFramtagning och revidering av styrande dokument för arkivhantering\nGenomförande av gallringsutredningar och upprättande av bevarandeplaner\nAnalys och utvärdering av befintliga arkivprocesser\nLöpande arkivvård och kvalitetssäkring av arkivhanteringen\nUpprätthållande av struktur och ordning på Bolagsverkets handlingar\nHantering av både digitala och fysiska dokument\nRegistrering och klassificering av handlingar enligt fastställda rutiner\nRådgivning till medarbetare i arkivfrågor\n\n\nÖvriga arbetsuppgifter\n\nUtreda vilka handlingar som ska bevaras respektive gallras\nSäkerställa korrekt vård av handlingar i organisationens analoga samt digitala arkiv\nOrdning och förteckning av handlingar\nAdministration av arkivredovisningssystemet Klara\nSamarbete med Riksarkivet på Arkivcentrum Nord i Härnösand\n\n\nDin ansökan\n\nLåter rollen intressant och passande? Ansök i så fall omgående för vi intervjuar löpande och rollen kan tillsättas innan sista ansökningsdatum. Vi kan enbart ta emot och bearbeta din ansökan genom att du registrerar ditt CV i vår portal. Med avseende på GDPR kan vi ej ta emot ansökningar via e-post. Varmt välkommen med din ansökan! Uppdraget är en del av Quest Consulting personaluthyrning.\n\nOm oss\n\nQuest Consulting är ett auktoriserat konsultbolag med kollektivavtal, försäkringar, friskvård och tjänstepension. Vi är specialiserade inom IT, Teknik, HR, Administration och Ekonomi. Vår målsättning är att vara din personliga samarbetspartner och just därför är det så viktigt för oss att arbeta efter våra kärnvärden där våra ledord är att vara Personliga, Nyskapande och Professionella.', 'text_formatted': '&lt;p&gt;Arbetet präglas av samarbete och dialog inom och utanför det egna teamet. Korta feedbackloopar och tät dialog med Kunden och dess verksamhet bidrar till att Leverantören är delaktig i hela utvecklingsprocessen.&lt;/p&gt;\n&lt;p&gt;I arkiv teamet arbetar Leverantören dagligen med:&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Identifiering av förbättringsområden inom arkivhanteringen&lt;/li&gt;&lt;li&gt;Förslag på effektiviseringar och kvalitetshöjande åtgärder&lt;/li&gt;&lt;li&gt;Utbildning och kompetensutveckling av medarbetare&lt;/li&gt;&lt;li&gt;Uppföljning och utvärdering av arkivprocesser\xa0&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;För att lyckas långsiktigt handlar en viktig del av utvecklingsarbetet om att bygga för kvalitet och automatisering, där stort fokus ligger på agilt arbetssätt. I uppdraget ingår att Leverantören ska dokumentera för Kundens räkning och kompetensöverföra till relevant personal hos Kunden&lt;/p&gt;\n&lt;p&gt;Huvudsakliga arbetsuppgifter&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Upprättande och löpande uppdatering av arkivriktlinjer och arkivreglemente&lt;/li&gt;&lt;li&gt;Utveckling av informationshanteringsplan och klassificeringsstruktur&lt;/li&gt;&lt;li&gt;Framtagning och revidering av styrande dokument för arkivhantering&lt;/li&gt;&lt;li&gt;Genomförande av gallringsutredningar och upprättande av bevarandeplaner&lt;/li&gt;&lt;li&gt;Analys och utvärdering av befintliga arkivprocesser&lt;/li&gt;&lt;li&gt;Löpande arkivvård och kvalitetssäkring av arkivhanteringen&lt;/li&gt;&lt;li&gt;Upprätthållande av struktur och ordning på Bolagsverkets handlingar&lt;/li&gt;&lt;li&gt;Hantering av både digitala och fysiska dokument&lt;/li&gt;&lt;li&gt;Registrering och klassificering av handlingar enligt fastställda rutiner&lt;/li&gt;&lt;li&gt;Rådgivning till medarbetare i arkivfrågor&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;Övriga arbetsuppgifter&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Utreda vilka handlingar som ska bevaras respektive gallras&lt;/li&gt;&lt;li&gt;Säkerställa korrekt vård av handlingar i organisationens analoga samt digitala arkiv&lt;/li&gt;&lt;li&gt;Ordning och förteckning av handlingar&lt;/li&gt;&lt;li&gt;Administration av arkivredovisningssystemet Klara&lt;/li&gt;&lt;li&gt;Samarbete med Riksarkivet på Arkivcentrum Nord i Härnösand&lt;/li&gt;&lt;/ul&gt;\n&lt;p&gt;Din ansökan&lt;/p&gt;\n&lt;p&gt;Låter rollen intressant och passande? Ansök i så fall omgående för vi intervjuar löpande och rollen kan tillsättas innan sista ansökningsdatum. Vi kan enbart ta emot och bearbeta din ansökan genom att du registrerar ditt CV i vår portal. Med avseende på GDPR kan vi ej ta emot ansökningar via e-post. Varmt välkommen med din ansökan! Uppdraget är en del av Quest Consulting personaluthyrning.&lt;/p&gt;\n&lt;p&gt;Om oss&lt;/p&gt;\n&lt;p&gt;Quest Consulting är ett auktoriserat konsultbolag med kollektivavtal, försäkringar, friskvård och tjänstepension. Vi är specialiserade inom IT, Teknik, HR, Administration och Ekonomi. Vår målsättning är att vara din personliga samarbetspartner och just därför är det så viktigt för oss att arbeta efter våra kärnvärden där våra ledord är att vara Personliga, Nyskapande och Professionella.\xa0\xa0&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nUppdraget är på 100%'}</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4509,37 +4521,37 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Timlön</t>
+          <t>Månadslön - Fast lön</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Xj7x_7yZ_jEn', 'label': '3 månader – upp till 6 månader', 'legacy_ams_taxonomy_id': '3'}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120000142', 'name': 'Stockholms kommun', 'workplace': 'Stockholms stad, Skarpnäcks stadsdelsförvaltning, Kulturhuset'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://quest.se/', 'organization_number': '5569456659', 'name': 'Quest Consulting Sverige AB', 'workplace': 'Quest Consulting Sverige AB'}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '2025/4976', 'email': None, 'via_af': False, 'url': 'https://stockholmsstad.varbi.com/what:job/jobID:853115/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://pnty-apply.ponty-system.se/quest?id=7165&amp;pnty_src=arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -4550,12 +4562,12 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>{'concept_id': 'DjWo_rw6_r9z', 'label': 'Ljudtekniker', 'legacy_ams_taxonomy_id': '6085'}</t>
+          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>{'concept_id': '4BsK_q2C_sCL', 'label': 'Ljus-, ljud- och scentekniker', 'legacy_ams_taxonomy_id': '3522'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4570,27 +4582,27 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Erna Hellman', 'email': 'erna.hellman@stockholm.se', 'telephone': '08-50817316', 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2025-08-29T17:09:45</t>
+          <t>2025-09-01T15:43:26</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>2025-09-12T23:59:59</t>
+          <t>2025-09-05T23:59:59</t>
         </is>
       </c>
       <c r="AH27" t="b">
@@ -4603,7 +4615,7 @@
         </is>
       </c>
       <c r="AK27" t="n">
-        <v>1756480185855</v>
+        <v>1756734206056</v>
       </c>
     </row>
     <row r="28">
@@ -4612,12 +4624,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29968064</t>
+          <t>29971395</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>46-252004-7503-853103</t>
+          <t>46-559277-3492-6357488-1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -4628,22 +4640,18 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968064</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2520047503/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971395</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Kyrkomusiker till Södra Vedbo pastorat, Hult-Edshult församling</t>
+          <t>Hallvärd med fotoinriktning, halvtid (50%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -4651,7 +4659,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{'text': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Hult-Edshults församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\n - Spela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n - Leda körverksamhet för barn och vuxna.\n - Vara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå.\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'text_formatted': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Hult-Edshults församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\n - Spela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n - Leda körverksamhet för barn och vuxna.\n - Vara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå.\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100%. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
+          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. \n Arbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: halvtid (50%)\nVanligaste arbetstiderna: Måndag till fredag kl: 15-19 \nKörkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. &lt;/p&gt;&lt;p&gt; &lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;halvtid (50%)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vanligaste arbetstiderna:&lt;/strong&gt; Måndag till fredag kl: 15-19 &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4666,7 +4674,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Månadslön</t>
+          <t>Lön enligt överenskommelse</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4676,27 +4684,27 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2520047503', 'name': 'Södra Vedbo pastorat', 'workplace': 'Södra Vedbo pastorat'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '2025/588', 'email': None, 'via_af': False, 'url': 'https://svenskakyrkan.varbi.com/what:job/jobID:853103/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357488-hallvard-med-fotoinriktning-halvtid-50?promotion=1608130-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -4707,12 +4715,12 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>{'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}</t>
+          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>{'concept_id': 'AWJF_wqZ_va9', 'label': 'Musiker, sångare och kompositörer', 'legacy_ams_taxonomy_id': '2652'}</t>
+          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4722,12 +4730,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>{'municipality': 'Eksjö', 'municipality_code': '0686', 'municipality_concept_id': 'VacK_WF6_XVg', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [14.973222, 57.665165]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -4737,17 +4745,17 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Annica Sjöstrand', 'email': None, 'telephone': '0381-662318,annica.sjostrand@svenskakyrkan.se', 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2025-08-29T16:36:55</t>
+          <t>2025-09-01T11:37:25</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="AH28" t="b">
@@ -4760,7 +4768,7 @@
         </is>
       </c>
       <c r="AK28" t="n">
-        <v>1756478215692</v>
+        <v>1756719445681</v>
       </c>
     </row>
     <row r="29">
@@ -4769,12 +4777,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29967912</t>
+          <t>29971421</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>46-252004-7503-853092</t>
+          <t>46-559277-3492-6357451-1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -4785,22 +4793,18 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967912</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2520047503/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971421</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Kyrkomusiker till Södra Vedbo pastorat, Ingatorp-Bellö församling</t>
+          <t>Hallvärd med fotoinriktning  heltid (100%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -4808,7 +4812,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'text': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Ingatorp-Bellö församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\nSpela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n\nLeda körverksamhet för barn och vuxna.\n\nVara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå (gäller kyrkomusikertjänsterna).\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'text_formatted': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Ingatorp-Bellö församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\nSpela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n\nLeda körverksamhet för barn och vuxna.\n\nVara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå (gäller kyrkomusikertjänsterna).\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100%. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
+          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. \n Arbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: Heltid (100%)\nVanligaste arbetstiderna: Måndag till fredag kl: 8-17 eller 10-19 \n Körkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen. &lt;/p&gt;&lt;p&gt; &lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;Heltid (100%)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vanligaste arbetstiderna:&lt;/strong&gt; Måndag till fredag kl: 8-17 eller 10-19 &lt;/p&gt; &lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4823,7 +4827,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Månadslön</t>
+          <t>Lön enligt överenskommelse</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4844,16 +4848,16 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2520047503', 'name': 'Södra Vedbo pastorat', 'workplace': 'Södra Vedbo pastorat'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '2025/587', 'email': None, 'via_af': False, 'url': 'https://svenskakyrkan.varbi.com/what:job/jobID:853092/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357451-hallvard-med-fotoinriktning-heltid-100?promotion=1608126-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -4864,12 +4868,12 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>{'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}</t>
+          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>{'concept_id': 'AWJF_wqZ_va9', 'label': 'Musiker, sångare och kompositörer', 'legacy_ams_taxonomy_id': '2652'}</t>
+          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4879,12 +4883,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>{'municipality': 'Eksjö', 'municipality_code': '0686', 'municipality_concept_id': 'VacK_WF6_XVg', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [14.973222, 57.665165]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -4894,17 +4898,17 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Annica Sjöstrand', 'email': None, 'telephone': '0381-662318,annica.sjostrand@svenskakyrkan.se', 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>2025-08-29T16:02:46</t>
+          <t>2025-09-01T11:36:45</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="AH29" t="b">
@@ -4917,7 +4921,7 @@
         </is>
       </c>
       <c r="AK29" t="n">
-        <v>1756476166093</v>
+        <v>1756719405685</v>
       </c>
     </row>
     <row r="30">
@@ -4926,10 +4930,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29967599</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>29971419</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>46-559277-3492-6357386-1</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -4938,22 +4946,18 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967599</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/80430956/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29971419</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Produktionskoordinator  skapa struktur kring vårt växande sortiment</t>
+          <t>Hallvärd med fotoinriktning (timanställning)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-09-19T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -4961,7 +4965,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'text': 'Vi är i en spännande fas där vi introducerar ett nytt produktsortiment i vår fabrik – ett sortiment som redan är etablerat på marknaden. Samtidigt vill vi fortsätta utveckla vårt befintliga sortiment. Nu söker vi dig som vill vara med och få helheten att fungera – från planering till produktion – i nära samarbete med både interna och externa parter.\nVad du kommer att göra:\nPlanera och följa upp produktionen för både nya och befintliga produkter.\nSäkerställa att rätt material, komponenter och resurser finns tillgängliga.\nKoordinera mellan olika avdelningar såsom produktion, lager, teknik, försäljning och kvalitet.\nAnsvara för externa leverantörer och samarbetspartners i Sverige och internationellt för att säkerställa leveransförmåga och tidsramar.\nBidra till att utveckla rutiner och arbetssätt kring våra produktområden.\nVara med och driva förbättringar i hur vi arbetar med sortimentet över tid.\n\nVem vi tror att du är:\nDu har erfarenhet av planering inom produktion eller liknande miljö.\nDu gillar att ta initiativ och driva saker framåt.\nDu är van att jobba med affärssystem – erfarenhet av Monitor G5 är meriterande.\nDu har ett öga för både detaljer och helhet, och trivs med att samarbeta.\nDu är kommunikativ, lösningsorienterad och strukturerad.\n\nVad du får hos oss:\nEn roll där du får vara med och bygga upp något nytt – och vidareutveckla det vi redan gör.\nMöjlighet att påverka och förbättra både arbetssätt och produktion.\nEtt engagerat team och en arbetsplats med korta beslutsvägar.\nBra villkor och goda möjligheter att växa med oss.\n\nLämna in ansökan med personligt brev och CV till jobb@glimakra.com ange produktionskoordinator.\nFrågor kring tjänsten kontakta Thomas Oscarsson telefon 076-109 40 17.', 'text_formatted': '&lt;p&gt;Vi är i en spännande fas där vi introducerar ett nytt produktsortiment i vår fabrik – ett sortiment som redan är etablerat på marknaden. Samtidigt vill vi fortsätta utveckla vårt befintliga sortiment. Nu söker vi dig som vill vara med och få helheten att fungera – från planering till produktion – i nära samarbete med både interna och externa parter.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vad du kommer att göra:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Planera och följa upp produktionen för både nya och befintliga produkter.&lt;/li&gt;&lt;li&gt;Säkerställa att rätt material, komponenter och resurser finns tillgängliga.&lt;/li&gt;&lt;li&gt;Koordinera mellan olika avdelningar såsom produktion, lager, teknik, försäljning och kvalitet.&lt;/li&gt;&lt;li&gt;Ansvara för externa leverantörer och samarbetspartners i Sverige och internationellt för att säkerställa leveransförmåga och tidsramar.&lt;/li&gt;&lt;li&gt;Bidra till att utveckla rutiner och arbetssätt kring våra produktområden.&lt;/li&gt;&lt;li&gt;Vara med och driva förbättringar i hur vi arbetar med sortimentet över tid.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vem vi tror att du är:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Du har erfarenhet av planering inom produktion eller liknande miljö.&lt;/li&gt;&lt;li&gt;Du gillar att ta initiativ och driva saker framåt.&lt;/li&gt;&lt;li&gt;Du är van att jobba med affärssystem – erfarenhet av &lt;strong&gt;Monitor&lt;/strong&gt; &lt;strong&gt;G5 &lt;/strong&gt;är meriterande.&lt;/li&gt;&lt;li&gt;Du har ett öga för både detaljer och helhet, och trivs med att samarbeta.&lt;/li&gt;&lt;li&gt;Du är kommunikativ, lösningsorienterad och strukturerad.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad du får hos oss:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;En roll där du får vara med och bygga upp något nytt – och vidareutveckla det vi redan gör.&lt;/li&gt;&lt;li&gt;Möjlighet att påverka och förbättra både arbetssätt och produktion.&lt;/li&gt;&lt;li&gt;Ett engagerat team och en arbetsplats med korta beslutsvägar.&lt;/li&gt;&lt;li&gt;Bra villkor och goda möjligheter att växa med oss.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Lämna in ansökan med personligt brev och CV till jobb@glimakra.com ange produktionskoordinator.&lt;/p&gt;&lt;p&gt;Frågor kring tjänsten kontakta Thomas Oscarsson telefon 076-109 40 17.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Om Carla\nVi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.\nOm rollen\nVi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen.\xa0\nArbetsuppgifter:\n \nI din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se\n\n \nExtern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt\n\n \nTillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen\n\n \nUppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet\n\n \nNära samarbete med Content-teamet som skapar annonserna till hemsidan\n\n \nOmfattning: Timanställning vid behov \nKörkort: B-körkort krävs\nOrt: Stockholm, Kungsängen\nVi söker dig som\n \nGillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer\n\n \nÄr flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker\n\n \nÄr en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor\n\n \nGärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det\n\n \nHar fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område \n\n \nVad har vi att erbjuda dig?\nFörst och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. \nUtöver det så erbjuder vi:\n \nEn chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.\n\n \nEn arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.\n\n \nKonkurrenskraftig och marknadsmässig ersättning.\n\n \nVill du bli vår nya kollega?\nSe till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om Carla&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi på Carla vill sätta en ny standard för hur man köper bil. Vårt mål är att det ska vara lika lätt och tryggt att köpa en bil online, som allt annat man köper på nätet. Självklart ska alla bilar vara laddbara. Vårt mål är att fler människor ska kunna uppleva fördelarna med att köra elbilar. Därför har vi skapat det säkraste, mest bekväma och transparenta sättet att sälja, köpa en elbil på. Carla grundades år 2020 i Stockholm och vi befinner oss i en spännande tillväxtfas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker nu en Hallvärd med fotoinriktning för en timanställning, där du är vår back up när livet händer, vid sjukfrånvaro eller arbetstoppar. Du kommer att arbeta på vårt nya servicecenter i Kungsängen.&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Arbetsuppgifter:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;I din roll som Hallvärd kommer dina huvudsakliga arbetsuppgifter vara att fotografera alla bilar som ska publiceras på carla.se&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Extern och intern 360-foto gör vi i en modern fotobox, medan detaljbilder på highlights och eventuella brister fotas manuellt&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Tillhörande arbete med bilen, såsom att lyfta i och ur i hjul vid fotografering och parkering efter att den är klar vid fotostationen&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Uppladdning av bilder i vårt interna affärssystem samt uppdatera bilens status i produktionsflödet&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Nära samarbete med Content-teamet som skapar annonserna till hemsidan&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Omfattning: &lt;/strong&gt;Timanställning vid behov &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Körkort: &lt;/strong&gt;B-körkort krävs&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ort:&lt;/strong&gt; Stockholm, Kungsängen&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi söker dig som&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;Gillar ordning och reda, arbetar strukturerat samt har ett öga för detaljer&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är flexibel i ditt arbetssätt och gillar att lära dig och bli bra på nya saker&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Är en god kommunikatör och teamplayer som enkelt driver en tydlig dialog både i tal och skrift med ditt team och andra kollegor&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Gärna har någon erfarenhet av att arbeta med bilar eller ett intresse av det&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Har fotografering som hobby och vill skaffa dig ytterligare erfarenheter inom område &lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad har vi att erbjuda dig?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Först och främst så erbjuder vi en fantastisk möjlighet att ansluta till ett bolag som bygger en ny onlinemarknad, med starka värderingar och en affärsmodell som ska vara hållbar på alla sätt. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Utöver det så erbjuder vi:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;p&gt;En chans att skapa din egen väg på ett relativt nystartat bolag, med möjligheten att växa och lära sig av duktiga och trevliga medarbetare.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;En arbetsplats som på riktigt tror på mångfald. Vi har anställt och fortsätter anställa helt oberoende av etnisk bakgrund, utbildning, erfarenhet, sexuell läggning och allt annat som borde vara självklart 2024.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;&lt;p&gt;Konkurrenskraftig och marknadsmässig ersättning.&lt;/p&gt;&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vill du bli vår nya kollega?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Se till att ansöka redan idag! Urval och intervjuprocessen sker löpande så säkerställ att skicka din ansökan snarast.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -4974,7 +4978,11 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lön enligt överenskommelse</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -4982,47 +4990,43 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.glimakra.com', 'organization_number': '5561207837', 'name': 'Glimakra Of Sweden AB', 'workplace': 'Glimakra of Sweden AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5592773492', 'name': 'Carla AB', 'workplace': 'Carla'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': 'jobb@glimakra.com', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.carla.se/jobs/6357386-hallvard-med-fotoinriktning-timanstallning?promotion=1608123-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
+          <t>{'concept_id': '1N2U_6xW_Tdx', 'label': 'Fotograf', 'legacy_ams_taxonomy_id': '4790'}</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': '3J38_DNz_YKK', 'label': 'Fotografer', 'legacy_ams_taxonomy_id': '3431'}</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5032,32 +5036,32 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>{'municipality': 'Östra Göinge', 'municipality_code': '1256', 'municipality_concept_id': 'LTt7_CGG_RUf', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'KILINGEVÄGEN 13', 'postcode': '28064', 'city': 'GLIMÅKRA', 'coordinates': [14.171403, 56.220295]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>{'skills': [{'weight': 10, 'concept_id': 'w8bU_wHe_omF', 'label': 'MS Office', 'legacy_ams_taxonomy_id': '608767'}, {'weight': 10, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}], 'languages': [{'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>{'skills': [{'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}, {'weight': 5, 'concept_id': '1FbS_vYp_DC3', 'label': 'Monitor, affärssystem', 'legacy_ams_taxonomy_id': '607513'}], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>[{'name': 'Thomas Oscarsson', 'description': None, 'email': 'thomas.oscarsson@glimakra.com', 'telephone': '076 109 40 17', 'contact_type': 'Fabrikschef'}]</t>
+          <t>[{'name': None, 'description': 'Filippa Bengtsson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2025-08-29T15:33:30</t>
+          <t>2025-09-01T11:36:05</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2025-09-19T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="AH30" t="b">
@@ -5066,11 +5070,11 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK30" t="n">
-        <v>1756474410666</v>
+        <v>1756719365659</v>
       </c>
     </row>
     <row r="31">
@@ -5079,12 +5083,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29967499</t>
+          <t>29970793</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>46-556322-6157-wb-299854</t>
+          <t>46-559360-7517-6372546-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -5095,22 +5099,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967499</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29970793</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5563226157/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5593607517/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Graphic Designer (1-Year Contract)</t>
+          <t>Kommunikationsstrategisk designer/Art director - Malmö, Hybrid</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-09-24T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -5118,7 +5122,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>{'text': "RaySearch develops innovative software solutions to improve cancer care. About 1000 clinics in more than 40 countries use RaySearch software to improve treatments and quality of life for patients. RaySearch was founded in 2000 and is listed on Nasdaq Stockholm. The headquarters is located in Stockholm, with subsidiaries in the US, Europe and Asia - Pacific. Today we are more than 400 employees with a common vision of improving cancer care with innovative software. Our great staff is crucial for our success and we offer a fantastic working environment in modern offices, flexibility and good opportunities for development. We believe in equal opportunities, value diversity and work actively to prevent discrimination.\r\n\r\nDo you want to use your skills to make a real difference? Join us in the fight against cancer! RaySearch is looking for a talented Graphic Designer to help take our communications to the next level. \n\nBecome part of our Marketing team\n\nThis is a full-time, temporary one year parental leave cover position based at our head office in Stockholm. You will be part of our global marketing department, which handles the strategic planning and creative work for all of our markets. We have high ambitions for our communications and place great emphasis on design aspects. We apply an office-first approach, meaning that most of the work will be carried out on-site.\n\nYour role\n\nThe main purpose of this position is to support with design deliverables for the marketing team, by translating brand and marketing objectives into beautiful and clear visual communications. \n\nYour main tasks:\n\n• Provide design and layout support of required marketing materials; including advertising, digital marketing, email newsletters, events, and other marketing collateral - using guidelines to ensure brand consistency. \n• Deliver artwork specified in the marketing production plan and weekly project meetings. \n• Commission printers and other media producers. \n• Add and maintain marketing collateral to the media bank, in conjunction with other media bank admins. \n• Provide layout and design update support for the RaySearch website. \n• Create presentation slides and transform existing business presentations into powerful visuals. \n• Occasionally support the motion designers with layouts and style frames. \n• Push the envelope by tracking design trends and proposing new avenues for the marketing team to explore and utilize. \n\nYour profile\n\nYou are passionate about creating and can see the big picture when it comes to design and concepts. You have experience working with other creatives and posses a structured and organized workflow, with a flexible mindset. At RaySearch Laboratories, we take great pride in the work that we do because it plays an integral role in the fight against cancer. We believe software holds the key to advancing and improving cancer treatment for patients worldwide.\n\nExperience &amp; skills:\n\n• Degree in graphic design. \n• Proficient in industry-standard design software, including Adobe Creative Suite (Photoshop, Illustrator, InDesign). \n• Ability to work both independently and collaboratively in a team environment. \n• Strong portfolio showcasing a diverse range of design projects. \n• Excellent understanding of typography, color theory, and layout principles. \n• Experience working with creative teams (Designers and Art Directors) \n• Solid knowledge of print and digital design best practices. \n• Ability to communicate in English (both written and spoken) \n• Experience in working with and editing PowerPoint templates. \n\nIt’s an advantage, but not required, if you posses these skill sets: \n\n• Video editing skills. \n• Knowledge of photography and the ability to take and edit photos for design projects. \n• Basic HTML/CSS knowledge for web design projects. \n• Illustration skills, both digital and traditional, to add a unique dimension to design projects. \n\nOur Culture\n\nCulture at RaySearch is the driving force behind our organization, where everything we do is driven by a shared passion for innovation and the fight against cancer. Our dedication is reflected in our ability to deliver exceptional results, pay close attention to detail, and consistently go the extra mile. Our employees stand out as experts in their field, driven by a relentless focus on solving problems - no matter how complex. At RaySearch, we take pride in leading the way in cancer treatment, leveraging cutting-edge technology to develop innovative solutions that make a real difference in patient care.\n\nOur Offer\n\nYour dedicated marketing team consists of about nine people. You report to the Head of Marketing and work closely with the Art Director and design team. \n\nAt RaySearch, we offer a diverse and inclusive work environment, fostering openness, sincerity, and collaboration. Located in Hagastaden, Stockholm's Life Science Hub, our modern and creative workspace includes an in-house gym, yoga, and social activities like ping pong, table football, and regular after-work events. Our bistro serves a fantastic lunch buffet, and we offer morning- and afternoon-fika every day. Our rooftop terrace also provides a stunning 360-degree view of Stockholm, enhancing the work experience. All of this comes attached with a competitive compensation and benefits package.\n\nApplication\n\nPlease apply to the position through the application form below. Selection and interviews will be ongoing. We do not accept applications by e-mail.", 'text_formatted': "RaySearch develops innovative software solutions to improve cancer care. About 1000 clinics in more than 40 countries use RaySearch software to improve treatments and quality of life for patients. RaySearch was founded in 2000 and is listed on Nasdaq Stockholm. The headquarters is located in Stockholm, with subsidiaries in the US, Europe and Asia - Pacific. Today we are more than 400 employees with a common vision of improving cancer care with innovative software. Our great staff is crucial for our success and we offer a fantastic working environment in modern offices, flexibility and good opportunities for development. We believe in equal opportunities, value diversity and work actively to prevent discrimination.\r\n\r\nDo you want to use your skills to make a real difference? Join us in the fight against cancer! RaySearch is looking for a talented Graphic Designer to help take our communications to the next level. \n\nBecome part of our Marketing team\n\nThis is a full-time, temporary one year parental leave cover position based at our head office in Stockholm. You will be part of our global marketing department, which handles the strategic planning and creative work for all of our markets. We have high ambitions for our communications and place great emphasis on design aspects. We apply an office-first approach, meaning that most of the work will be carried out on-site.\n\nYour role\n\nThe main purpose of this position is to support with design deliverables for the marketing team, by translating brand and marketing objectives into beautiful and clear visual communications. \n\nYour main tasks:\n\n• Provide design and layout support of required marketing materials; including advertising, digital marketing, email newsletters, events, and other marketing collateral - using guidelines to ensure brand consistency. \n• Deliver artwork specified in the marketing production plan and weekly project meetings. \n• Commission printers and other media producers. \n• Add and maintain marketing collateral to the media bank, in conjunction with other media bank admins. \n• Provide layout and design update support for the RaySearch website. \n• Create presentation slides and transform existing business presentations into powerful visuals. \n• Occasionally support the motion designers with layouts and style frames. \n• Push the envelope by tracking design trends and proposing new avenues for the marketing team to explore and utilize. \n\nYour profile\n\nYou are passionate about creating and can see the big picture when it comes to design and concepts. You have experience working with other creatives and posses a structured and organized workflow, with a flexible mindset. At RaySearch Laboratories, we take great pride in the work that we do because it plays an integral role in the fight against cancer. We believe software holds the key to advancing and improving cancer treatment for patients worldwide.\n\nExperience &amp; skills:\n\n• Degree in graphic design. \n• Proficient in industry-standard design software, including Adobe Creative Suite (Photoshop, Illustrator, InDesign). \n• Ability to work both independently and collaboratively in a team environment. \n• Strong portfolio showcasing a diverse range of design projects. \n• Excellent understanding of typography, color theory, and layout principles. \n• Experience working with creative teams (Designers and Art Directors) \n• Solid knowledge of print and digital design best practices. \n• Ability to communicate in English (both written and spoken) \n• Experience in working with and editing PowerPoint templates. \n\nIt’s an advantage, but not required, if you posses these skill sets: \n\n• Video editing skills. \n• Knowledge of photography and the ability to take and edit photos for design projects. \n• Basic HTML/CSS knowledge for web design projects. \n• Illustration skills, both digital and traditional, to add a unique dimension to design projects. \n\nOur Culture\n\nCulture at RaySearch is the driving force behind our organization, where everything we do is driven by a shared passion for innovation and the fight against cancer. Our dedication is reflected in our ability to deliver exceptional results, pay close attention to detail, and consistently go the extra mile. Our employees stand out as experts in their field, driven by a relentless focus on solving problems - no matter how complex. At RaySearch, we take pride in leading the way in cancer treatment, leveraging cutting-edge technology to develop innovative solutions that make a real difference in patient care.\n\nOur Offer\n\nYour dedicated marketing team consists of about nine people. You report to the Head of Marketing and work closely with the Art Director and design team. \n\nAt RaySearch, we offer a diverse and inclusive work environment, fostering openness, sincerity, and collaboration. Located in Hagastaden, Stockholm's Life Science Hub, our modern and creative workspace includes an in-house gym, yoga, and social activities like ping pong, table football, and regular after-work events. Our bistro serves a fantastic lunch buffet, and we offer morning- and afternoon-fika every day. Our rooftop terrace also provides a stunning 360-degree view of Stockholm, enhancing the work experience. All of this comes attached with a competitive compensation and benefits package.\n\nApplication\n\nPlease apply to the position through the application form below. Selection and interviews will be ongoing. We do not accept applications by e-mail.", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '-\r\n-'}</t>
+          <t>{'text': 'Vill du bidra till att utveckla framtidens hållbara mobilitet? \n Vi söker en erfaren Kommunikationsstrategisk designer/Art Director som vill kombinera strategiskt arbete med kreativ produktion. Här får du möjlighet att driva kommunikationsinsatser i spännande mobilitetsprojekt och skapa tydliga, visuellt starka lösningar för en bred målgrupp.\n\nDina ansvarsområden\nVara ett strategiskt och praktiskt stöd i mobilitetsprojekt\n\n\nUtveckla koncept och kommunikationsstrategier\n\n\nTa fram presentationsmaterial, t.ex. PowerPoint och digitala handböcker \n\n\nBidra i utvecklingen av en digital handbok inom ett EU-finansierat Interreg-projekt\n\n\nArbeta prestigelöst med både komplexa strategiska uppdrag och enklare produktioner\n\n\nSamverka med projektorganisationen och säkerställa högkvalitativa leveranser\n\n Din profil\n\nGedigen erfarenhet av strategiskt kommunikationsarbete\n\n\nMångårig erfarenhet som Art Director \n\n\nVan att kommunicera med olika målgrupper och visualisera komplex information\n\n\nErfarenhet av designuppdrag för Interreg/EU-projekt och/eller offentlig verksamhet\n\n\nErfarenhet av komplexa tryckproduktioner\n\n\nRelevant eftergymnasial utbildning\n\n \nMeriterande:\n\nInternationell erfarenhet och flytande engelska \n\n\nErfarenhet av mobilitetsfrågor och/eller kommunikation kring hållbarhet\n\n Uppdragets ramar\n\nPlats: ca 30 % onsite (Malmö/Lund), 70 % distans\n\n\nOmfattning: 150–200 timmar\n\n\nStart: Omgående \n\n\nSlutdatum: 31 augusti 2026 (möjlighet till 12 månaders förlängning)\n\n\nErsättning: Löpande timarvode (ingen ersättning för resor eller restid)\n\n \n Är du redo att kombinera strategi och kreativitet för att forma framtidens mobilitet? Ansök redan idag!\nSway Sourcing är en innovativ rekryteringspartner som specialiserar sig på att matcha rätt talang med rätt företag – snabbt och effektivt. Vårt huvudfokus ligger inom Ekonomi, Administration, HR, Marknad och IT, men vi har även den breda expertis och flexibilitet som krävs för att leverera skräddarsydda rekryteringslösningar inom alla branscher.\nTrots att vi är en relativt ny aktör har vi redan byggt förtroende hos många av Sveriges största företag och arbetar både nationellt och internationellt. Med baser i Sverige och Spanien erbjuder vi en unik kombination av lokal expertis och global räckvidd. Vårt starka nätverk och djupa branschinsikter gör oss till en självklar partner för företag som vill ligga steget före i sin rekrytering.', 'text_formatted': '&lt;p&gt;Vill du bidra till att utveckla framtidens hållbara mobilitet? &lt;/p&gt;&lt;p&gt; Vi söker en erfaren Kommunikationsstrategisk designer/Art Director som vill kombinera strategiskt arbete med kreativ produktion. Här får du möjlighet att driva kommunikationsinsatser i spännande mobilitetsprojekt och skapa tydliga, visuellt starka lösningar för en bred målgrupp.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;Dina ansvarsområden&lt;p&gt;&lt;/p&gt;&lt;p&gt;Vara ett strategiskt och praktiskt stöd i mobilitetsprojekt&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Utveckla koncept och kommunikationsstrategier&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Ta fram presentationsmaterial, t.ex. PowerPoint och digitala handböcker &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Bidra i utvecklingen av en digital handbok inom ett EU-finansierat Interreg-projekt&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Arbeta prestigelöst med både komplexa strategiska uppdrag och enklare produktioner&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Samverka med projektorganisationen och säkerställa högkvalitativa leveranser&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;Din profil&lt;p&gt;&lt;/p&gt;&lt;p&gt;Gedigen erfarenhet av strategiskt kommunikationsarbete&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Mångårig erfarenhet som Art Director &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Van att kommunicera med olika målgrupper och visualisera komplex information&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av designuppdrag för Interreg/EU-projekt och/eller offentlig verksamhet&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av komplexa tryckproduktioner&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Relevant eftergymnasial utbildning&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Meriterande:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Internationell erfarenhet och flytande engelska &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Erfarenhet av mobilitetsfrågor och/eller kommunikation kring hållbarhet&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;Uppdragets ramar&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plats:&lt;/strong&gt; ca 30 % onsite (Malmö/Lund), 70 % distans&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Omfattning:&lt;/strong&gt; 150–200 timmar&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Start:&lt;/strong&gt; Omgående &lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Slutdatum:&lt;/strong&gt; 31 augusti 2026 (möjlighet till 12 månaders förlängning)&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ersättning:&lt;/strong&gt; Löpande timarvode (ingen ersättning för resor eller restid)&lt;/p&gt;&lt;p&gt;&lt;/p&gt;&lt;ul&gt; &lt;/ul&gt;&lt;p&gt; Är du redo att kombinera strategi och kreativitet för att forma framtidens mobilitet? Ansök redan idag!&lt;/p&gt;&lt;p&gt;Sway Sourcing är en innovativ rekryteringspartner som specialiserar sig på att matcha rätt talang med rätt företag – snabbt och effektivt. Vårt huvudfokus ligger inom Ekonomi, Administration, HR, Marknad och IT, men vi har även den breda expertis och flexibilitet som krävs för att leverera skräddarsydda rekryteringslösningar inom alla branscher.&lt;/p&gt;&lt;p&gt;Trots att vi är en relativt ny aktör har vi redan byggt förtroende hos många av Sveriges största företag och arbetar både nationellt och internationellt. Med baser i Sverige och Spanien erbjuder vi en unik kombination av lokal expertis och global räckvidd. Vårt starka nätverk och djupa branschinsikter gör oss till en självklar partner för företag som vill ligga steget före i sin rekrytering.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5133,7 +5137,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Enligt överenskommelse</t>
+          <t>Lön enligt överenskommelse</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5154,12 +5158,12 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5563226157', 'name': 'Raysearch Laboratories AB (Publ)', 'workplace': 'RaySearch Laboratories AB (publ)'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5593607517', 'name': 'Sway Sourcing Sweden AB', 'workplace': 'Sway Sourcing'}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.raysearchlabs.com/career/?jobid=299854&amp;ref=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.swaysourcing.com/jobs/6372546-kommunikationsstrategisk-designer-art-director-malmo-hybrid?promotion=1607929-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U31" t="b">
@@ -5174,7 +5178,7 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>{'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}</t>
+          <t>{'concept_id': 'E4KE_68y_6ag', 'label': 'Art Director/AD', 'legacy_ams_taxonomy_id': '6193'}</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5189,12 +5193,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Lund', 'municipality_code': '1281', 'municipality_concept_id': 'muSY_tsR_vDZ', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.191008, 55.70466]}</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E4KE_68y_6ag', 'label': 'Art Director/AD', 'legacy_ams_taxonomy_id': '6193'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5204,17 +5208,17 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Christopher Sandoval', 'email': 'christopher@swaysourcing.com', 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2025-08-29T15:24:55</t>
+          <t>2025-09-01T10:32:25</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>2025-09-24T23:59:59</t>
+          <t>2026-02-18T23:59:59</t>
         </is>
       </c>
       <c r="AH31" t="b">
@@ -5227,7 +5231,7 @@
         </is>
       </c>
       <c r="AK31" t="n">
-        <v>1756473895728</v>
+        <v>1756715545762</v>
       </c>
     </row>
     <row r="32">
@@ -5236,14 +5240,10 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29967066</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>46-212000-2098-3467</t>
-        </is>
-      </c>
+          <t>29970093</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
@@ -5252,18 +5252,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967066</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29970093</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87184914/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Skolbibliotekarie till två F-6-skolor i Sala, vikariat</t>
+          <t>Bibliotikarie</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-09-23T23:59:59</t>
+          <t>2025-11-01T23:59:59</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -5271,7 +5275,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{'text': 'Sala kommun i östra Västmanland har ca 23 000 invånare och är till ytan länets största. Kommunen har flera mindre tätorter samt Sala stad med 12 000 invånare. Sala har genom sin historiska betydelse, främst Sala Silvergruva, sin givna plats på Sveriges karta.\n\nSala kommun utvecklar skolbiblioteken och digitaliseringen\xa0inom grundskolan. Vi jobbar med att stärka elevernas läs- och skrivutveckling, källkritiska förmåga\xa0och skolornas digitalisering. Skolbibliotekets verksamhet skall vara en del i undervisningen för att stärka elevernas språkliga förmåga och digitala kompetens. Skolbibliotekarierna är anställda under rektor men har en samordnare och kommungemensamma professionsträffar.\xa0\n\nVi söker nu en vikarierande skolbibliotekarie till två av Salas F-6-skolors för läsåret 25/26.\xa0\n\nArbetsuppgifter\xa0\nI rollen som skolbibliotekarie arbetar du för ökad måluppfyllelse enligt läroplanen, vilket innebär att främja läsintresse, öka läskunnigheten, arbeta med skolans digitalisering och elevernas digitala kompetens. Du kommer tillsammans med lärare och annan personal att leda pedagogiska aktiviteter i bibliotek och klassrum kring exempelvis media och informationskunskap (MIK)\xa0och\xa0att utveckla och bedriva läsfrämjande projekt. I uppgiften ingår även att ge stöd till lärare och elever i litteratur- och medieanvändning. Arbetet kommer\xa0till stora delar vara förlagt till klassrummen.\xa0\n\nKvalifikationer\nVi söker i första hand dig som har erfarenhet av skolbiblioteksverksamhet sedan tidigare. Vi ser gärna att du har relevant högskoleutbildning, exempelvis från bibliotekshögskolan eller lärarprogrammet.\xa0Du har också kunskap och ett starkt engagemang kring läs- och skrivinlärning, skolbiblioteksfrågor och att arbeta med digitalisering. Arbetet kräver integritet, god analytisk och kommunikativ förmåga och ett gott samarbete. Sala är en geografiskt stor kommun med många skolor på landsbygden, vilket gör att körkort är ett krav och gärna tillgång till egen bil. Stor vikt läggs vid personlig lämplighet.\n\nAnställningsvillkor\nSemestertjänst, 100 procent, vikariat för läsåret 25/26. Individuell lönesättning tillämpas.\n\nKrav på registerutdrag vid erbjudande av anställning. Detta enligt lagen om registerkontroll inom skol-, fritidshem och förskoleverksamhet. Rikspolisstyrelsens belastningsregister, RPS 442.5 (14-01-14).\n\nAnsökan\nAnsök senast\xa023 september 2025. Vi tar inte emot ansökningar via e-post.\nAnställningsprocessen kan ske löpande och komma att inledas innan ansökningstiden gått ut.\xa0\n\nUpplysningar\nVill du veta mer om tjänsten kontakta\n\nSkolbibliotekssamordnare Jenny Floderer, jenny.floderer@sala.se 0224-74 81 42\n\nRektor Jenny Larde, jenny.larde@sala.se 0224-74 80 28\n\nVi undanber oss vänligen men bestämt erbjudanden om annonserings- och rekryteringshjälp.', 'text_formatted': 'Sala kommun i östra Västmanland har ca 23 000 invånare och är till ytan länets största. Kommunen har flera mindre tätorter samt Sala stad med 12 000 invånare. Sala har genom sin historiska betydelse, främst Sala Silvergruva, sin givna plats på Sveriges karta.\n\nSala kommun utvecklar skolbiblioteken och digitaliseringen\xa0inom grundskolan. Vi jobbar med att stärka elevernas läs- och skrivutveckling, källkritiska förmåga\xa0och skolornas digitalisering. Skolbibliotekets verksamhet skall vara en del i undervisningen för att stärka elevernas språkliga förmåga och digitala kompetens. Skolbibliotekarierna är anställda under rektor men har en samordnare och kommungemensamma professionsträffar.\xa0\n\nVi söker nu en vikarierande skolbibliotekarie till två av Salas F-6-skolors för läsåret 25/26.\xa0\n\nArbetsuppgifter\xa0\nI rollen som skolbibliotekarie arbetar du för ökad måluppfyllelse enligt läroplanen, vilket innebär att främja läsintresse, öka läskunnigheten, arbeta med skolans digitalisering och elevernas digitala kompetens. Du kommer tillsammans med lärare och annan personal att leda pedagogiska aktiviteter i bibliotek och klassrum kring exempelvis media och informationskunskap (MIK)\xa0och\xa0att utveckla och bedriva läsfrämjande projekt. I uppgiften ingår även att ge stöd till lärare och elever i litteratur- och medieanvändning. Arbetet kommer\xa0till stora delar vara förlagt till klassrummen.\xa0\n\nKvalifikationer\nVi söker i första hand dig som har erfarenhet av skolbiblioteksverksamhet sedan tidigare. Vi ser gärna att du har relevant högskoleutbildning, exempelvis från bibliotekshögskolan eller lärarprogrammet.\xa0Du har också kunskap och ett starkt engagemang kring läs- och skrivinlärning, skolbiblioteksfrågor och att arbeta med digitalisering. Arbetet kräver integritet, god analytisk och kommunikativ förmåga och ett gott samarbete. Sala är en geografiskt stor kommun med många skolor på landsbygden, vilket gör att körkort är ett krav och gärna tillgång till egen bil. Stor vikt läggs vid personlig lämplighet.\n\nAnställningsvillkor\nSemestertjänst, 100 procent, vikariat för läsåret 25/26. Individuell lönesättning tillämpas.\n\nKrav på registerutdrag vid erbjudande av anställning. Detta enligt lagen om registerkontroll inom skol-, fritidshem och förskoleverksamhet. Rikspolisstyrelsens belastningsregister, RPS 442.5 (14-01-14).\n\nAnsökan\nAnsök senast\xa023 september 2025. Vi tar inte emot ansökningar via e-post.\nAnställningsprocessen kan ske löpande och komma att inledas innan ansökningstiden gått ut.\xa0\n\nUpplysningar\nVill du veta mer om tjänsten kontakta\n\nSkolbibliotekssamordnare Jenny Floderer, jenny.floderer@sala.se 0224-74 81 42\n\nRektor Jenny Larde, jenny.larde@sala.se 0224-74 80 28\n\nVi undanber oss vänligen men bestämt erbjudanden om annonserings- och rekryteringshjälp.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
+          <t>{'text': 'Hej du skolbibliotikarie med några års erfarenhet av jobbet!\nVi på Skolia hälsar dig välkommen att söka en spännande tjänst under utveckling. Vill du vara med och starta en ny verksamhetsgren hos oss, biblioteksutveckling och underhåll av små bibliotek?\nSkolia arbetar bla med fristående mindre skolor i Skåne och vi vill kunna erbjuda de ett stöd i uppbyggandet och underhållet av ett bibliotek.\nLåter det intressant? Är du den vi söker? Vi söker dig med adekvat utbildning för tjänsten.\n\n\nSök!', 'text_formatted': '&lt;p&gt;Hej du skolbibliotikarie med några års erfarenhet av jobbet!&lt;/p&gt;&lt;p&gt;Vi på Skolia hälsar dig välkommen att söka en spännande tjänst under utveckling. Vill du vara med och starta en ny verksamhetsgren hos oss, biblioteksutveckling och underhåll av små bibliotek?&lt;/p&gt;&lt;p&gt;Skolia arbetar bla med fristående mindre skolor i Skåne och vi vill kunna erbjuda de ett stöd i uppbyggandet och underhållet av ett bibliotek.&lt;/p&gt;&lt;p&gt;Låter det intressant? Är du den vi söker? Vi söker dig med adekvat utbildning för tjänsten.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sök!&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5284,11 +5288,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Individuell lönesättning tillämpas.</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
@@ -5296,23 +5296,23 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.sala.se/', 'organization_number': '2120002098', 'name': 'Sala kommun', 'workplace': 'Sala kommun'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.skolia.se', 'organization_number': '5568279474', 'name': 'Skolia AB', 'workplace': 'Skolia AB'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'http://www.sala.se/ledigajobb?rmpage=job&amp;rmjob=3467&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': 'Skolbibliotikarie', 'email': 'maria.brakel@skolia.se', 'via_af': False, 'url': None, 'other': 'mail '}</t>
         </is>
       </c>
       <c r="U32" t="b">
@@ -5322,16 +5322,12 @@
         <v>0</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>{'concept_id': 'n9RX_nnz_ZYF', 'label': 'Skolbibliotekarie', 'legacy_ams_taxonomy_id': '2453'}</t>
+          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5346,32 +5342,32 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>{'municipality': 'Sala', 'municipality_code': '1981', 'municipality_concept_id': 'dAen_yTK_tqz', 'region': 'Västmanlands län', 'region_code': '19', 'region_concept_id': 'G6DV_fKE_Viz', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [16.606327, 59.92086]}</t>
+          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Stadiongatan 65', 'postcode': '21762', 'city': 'MALMÖ', 'coordinates': [12.975194578977, 55.5848854113152]}</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'n9RX_nnz_ZYF', 'label': 'Skolbibliotekarie', 'legacy_ams_taxonomy_id': '2453'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Jenny Larde', 'email': 'jenny.larde@sala.se', 'telephone': '0224-74 80 06', 'contact_type': 'tf chef mediaenheten'}, {'name': None, 'description': 'Jenny Floderer', 'email': 'jenny.floderer@sala.se', 'telephone': '0224-74 81 42', 'contact_type': 'Skolbiblioteksutvecklare'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>2025-08-29T14:38:26</t>
+          <t>2025-09-01T09:20:55</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>2025-09-23T23:59:59</t>
+          <t>2025-11-01T23:59:59</t>
         </is>
       </c>
       <c r="AH32" t="b">
@@ -5380,11 +5376,11 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK32" t="n">
-        <v>1756471106094</v>
+        <v>1756797725748</v>
       </c>
     </row>
     <row r="33">
@@ -5393,10 +5389,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29966929</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>29969963</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>46-212000-2924-852070</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
@@ -5405,22 +5405,18 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966929</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969963</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
+          <t>Dansresidens vid Vara Konserthus</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -5428,7 +5424,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Dansresidens vid Vara Konserthus\xa0\nVi söker en grupp verksamma inom dansområdet som vill skapa en ny dansföreställning eller utveckla en redan befintlig föreställningsidé.\r\n\r\nMålgruppen för föreställningen ska vara barn och unga i åldrarna 10-12 år. Vi erbjuder vår scen för möjlighet till rep, och produktionsmedel, samt möjligheten att spela den färdiga föreställningen för skolpublik. Välkommen med din ansökan! \xa0\xa0\n\nAnsökningsperiod: 1 sept – 1 okt 2025\xa0\nDatum för produktionsresidenset: Repetitionsperiod v. 34-35, 2026. \xa0\nFöljt av sex skolföreställningar under v. 36, 2026. \xa0\xa0\nPlats: Vara Konserthus, Vara \xa0\xa0\nScen: Sparbanken Blackbox (https://varakonserthus-my.sharepoint.com/:f:/g/personal/vkh-extern_varakonserthus_onmicrosoft_com/Evx8DeQIXf1OoCJIzXQojO8BVGzbAvMFwNYOhaX2kbqywA).\xa0\xa0\xa0\n\nVad innebär residenset?\xa0\xa0\xa0\nResidenset innebär att skapa eller utveckla en befintlig scenkonstproduktion. Målgruppen är barn i mellanstadieåldern. Residenset utmynnar i en föreställning med premiär på Vara Konserthus september 2026. Det är att föredra att föreställningen görs som en samproduktion där ni har tillgång till en annan lokal för repetition och/eller ytterligare finansiering av projektet.\xa0\xa0\n\nProduktionsresidenset görs inom ramen för Vara Konserthus residensverksamhet som är ett uppdrag från Västra Götalandsregion.\xa0\xa0\xa0\n\nVad erbjuder Vara Konserthus?\xa0\xa0\n - 250\u202f000 kr produktionsmedel för framtagande av produktionen. \xa0\nProduktionsmedel är avsedda för att bekosta relevanta funktioner för framtagandet av föreställningen så som ex. ljus- och ljudtekniker, producent samt koreograf.\xa0\xa0\xa0\n - Tillgång till konserthusets scenlokal Sparbanken Blackbox under 2 veckors repetition (v. 34 och 35, 2026).\xa0\xa0\xa0\n - Produktionsresidenset i blackboxen sker med överenskommen teknisk specifikation. Det kan exempelvis inkludera enkelt ljud och ljus, eventuell dansmatta/riggning som bestäms vid planeringsmöte inför beslut om residens.\xa0\xa0\xa0\xa0\n - Repetition i Vara Konserthus lokal Studion eller motsvarande lokal våren 2026 innan själva produktionsresidenset är även en möjlighet.\xa0\xa0\xa0\n - Under vecka 36 genomförs sex skolföreställningar på Vara Konserthus. Gaget för föreställningarna ingår i ovan nämnda produktionsbudget.\xa0\xa0\xa0\n - Vara Konserthus bokar och bekostar boende för max 5 personer i Vara under residenstiden och under eventuell repperiod i Studion.\xa0\xa0\xa0\n - Löpande kontakt med ansvarig producent och tekniker under residenstiden.\xa0\xa0\n\nVem kan söka?\xa0\xa0\xa0\nDu eller ni som söker ska vara professionellt verksamma inom dansstområdet med utbildning inom området. Förutsättningarna är även att ni ska vara skrivna i Sverige och ha F-skatt. Vi ser gärna att ni ämnar turnera föreställningen i Västra Götalandsregionen eller övriga Sverige, samt att det tidigt i planeringen tas hänsyn till turnéanpassning av föreställningen. Vi ser gärna att tekniker (operativ samt samordnande) samt producent finns bland funktionerna i teamet.\xa0\n\nVad skall ansökan innehålla?\xa0\xa0\xa0\n - En kortare presentation där du i skrift och bild beskriver din idé. Bilderna kan vara inspirationsbilder som ger en känsla för inriktningen på det konstnärliga innehållet.\xa0\xa0\xa0\n - Utkast på produktionsplanering\xa0\xa0\n - Teknisk specifikation – beskrivning av rummet och önskat tekniskt behov\xa0\xa0\xa0\n - Presentation av samtliga i teamet\xa0\xa0\xa0\xa0\n - Tidigare produktioner. Gärna dokumentation i form av rörlig bild exempelvis länk till trailers, inspelade föreställningar etc.\xa0\xa0\xa0\n - En enkel budget för produktionen, där även eventuell annan finansiering framgår.\xa0\n\nHur går urvalsprocessen till?\xa0 \xa0\xa0\nUrvalet görs av konserthusets produktionsgrupp, bestående av produktionschef och producenter. Ansökan kommer först att läsas enskilt och sedan behandlas i samtal med produktionsgruppen. I samband med ansökningsperioden kommer även intervjuer att göras.\nSvar om residensplats meddelas oktober 2025.\n\nHar du frågor?\xa0\xa0\nKontakta Ida Jarlgren, producent Vara Konserthus\nmailto:ida.jarlgren@varakonserthus.se\xa0\xa0\n\nVälkommen med din ansökan!\xa0\xa0\xa0\n\nOm Vara Konserthus\xa0 \xa0\xa0\nVara Konserthus är en levande mötesplats som varje år presenterar nästan 200 konserter och föreställningar för 70 000 besökare. Här upplever du allt från symfonier och jazz till stand-up och teater. Vi är övertygade om att kultur gör Vara med omnejd till en ännu trevligare plats att besöka, leva och verka i.\xa0\xa0\n\nMed uppdrag från Vara kommun ser vi till att alla, oavsett ålder, har tillgång till kulturella upplevelser. Vi samarbetar med lokala kulturaktörer, skolor och föreningar för att stärka kulturens roll i regionen.\xa0\xa0\n\nFrån Västra Götalandsregionen har vi uppdraget att bli en nod för konstnärlig utveckling, med fokus på musik, dans och kultur för barn och unga. Vi utvecklar storbandsmusiken genom\xa0https://www.bohuslanbigband.com/\xa0och ungdomsstorbandet\xa0https://www.bohuslanbigband.com/next-generation-big-band/, och samarbetar med residensartister för att stärka vår position som en viktig scen och mötesplats.\xa0\xa0\n\nUtöver konserter arrangerar vi årligen närmare 200 konferenser och event med över 10 000 besökare. Vår nyaste scen,\xa0https://www.varakonserthus.se/scener-och-salar/sparbanken-blackbox/, invigdes 2019 och erbjuder teknisk utrustning och flexibilitet för både traditionell scenkonst och nya konstformer som nycirkus.\xa0\xa0\n\nLäs mer om Vara Konserthus på\xa0https://www.varakonserthus.se/', 'text_formatted': 'Dansresidens vid Vara Konserthus\xa0\nVi söker en grupp verksamma inom dansområdet som vill skapa en ny dansföreställning eller utveckla en redan befintlig föreställningsidé.\r\n\r\nMålgruppen för föreställningen ska vara barn och unga i åldrarna 10-12 år. Vi erbjuder vår scen för möjlighet till rep, och produktionsmedel, samt möjligheten att spela den färdiga föreställningen för skolpublik. Välkommen med din ansökan! \xa0\xa0\n\nAnsökningsperiod: 1 sept – 1 okt 2025\xa0\nDatum för produktionsresidenset: Repetitionsperiod v. 34-35, 2026. \xa0\nFöljt av sex skolföreställningar under v. 36, 2026. \xa0\xa0\nPlats: Vara Konserthus, Vara \xa0\xa0\nScen: Sparbanken Blackbox (https://varakonserthus-my.sharepoint.com/:f:/g/personal/vkh-extern_varakonserthus_onmicrosoft_com/Evx8DeQIXf1OoCJIzXQojO8BVGzbAvMFwNYOhaX2kbqywA).\xa0\xa0\xa0\n\nVad innebär residenset?\xa0\xa0\xa0\nResidenset innebär att skapa eller utveckla en befintlig scenkonstproduktion. Målgruppen är barn i mellanstadieåldern. Residenset utmynnar i en föreställning med premiär på Vara Konserthus september 2026. Det är att föredra att föreställningen görs som en samproduktion där ni har tillgång till en annan lokal för repetition och/eller ytterligare finansiering av projektet.\xa0\xa0\n\nProduktionsresidenset görs inom ramen för Vara Konserthus residensverksamhet som är ett uppdrag från Västra Götalandsregion.\xa0\xa0\xa0\n\nVad erbjuder Vara Konserthus?\xa0\xa0\n - 250\u202f000 kr produktionsmedel för framtagande av produktionen. \xa0\nProduktionsmedel är avsedda för att bekosta relevanta funktioner för framtagandet av föreställningen så som ex. ljus- och ljudtekniker, producent samt koreograf.\xa0\xa0\xa0\n - Tillgång till konserthusets scenlokal Sparbanken Blackbox under 2 veckors repetition (v. 34 och 35, 2026).\xa0\xa0\xa0\n - Produktionsresidenset i blackboxen sker med överenskommen teknisk specifikation. Det kan exempelvis inkludera enkelt ljud och ljus, eventuell dansmatta/riggning som bestäms vid planeringsmöte inför beslut om residens.\xa0\xa0\xa0\xa0\n - Repetition i Vara Konserthus lokal Studion eller motsvarande lokal våren 2026 innan själva produktionsresidenset är även en möjlighet.\xa0\xa0\xa0\n - Under vecka 36 genomförs sex skolföreställningar på Vara Konserthus. Gaget för föreställningarna ingår i ovan nämnda produktionsbudget.\xa0\xa0\xa0\n - Vara Konserthus bokar och bekostar boende för max 5 personer i Vara under residenstiden och under eventuell repperiod i Studion.\xa0\xa0\xa0\n - Löpande kontakt med ansvarig producent och tekniker under residenstiden.\xa0\xa0\n\nVem kan söka?\xa0\xa0\xa0\nDu eller ni som söker ska vara professionellt verksamma inom dansstområdet med utbildning inom området. Förutsättningarna är även att ni ska vara skrivna i Sverige och ha F-skatt. Vi ser gärna att ni ämnar turnera föreställningen i Västra Götalandsregionen eller övriga Sverige, samt att det tidigt i planeringen tas hänsyn till turnéanpassning av föreställningen. Vi ser gärna att tekniker (operativ samt samordnande) samt producent finns bland funktionerna i teamet.\xa0\n\nVad skall ansökan innehålla?\xa0\xa0\xa0\n - En kortare presentation där du i skrift och bild beskriver din idé. Bilderna kan vara inspirationsbilder som ger en känsla för inriktningen på det konstnärliga innehållet.\xa0\xa0\xa0\n - Utkast på produktionsplanering\xa0\xa0\n - Teknisk specifikation – beskrivning av rummet och önskat tekniskt behov\xa0\xa0\xa0\n - Presentation av samtliga i teamet\xa0\xa0\xa0\xa0\n - Tidigare produktioner. Gärna dokumentation i form av rörlig bild exempelvis länk till trailers, inspelade föreställningar etc.\xa0\xa0\xa0\n - En enkel budget för produktionen, där även eventuell annan finansiering framgår.\xa0\n\nHur går urvalsprocessen till?\xa0 \xa0\xa0\nUrvalet görs av konserthusets produktionsgrupp, bestående av produktionschef och producenter. Ansökan kommer först att läsas enskilt och sedan behandlas i samtal med produktionsgruppen. I samband med ansökningsperioden kommer även intervjuer att göras.\nSvar om residensplats meddelas oktober 2025.\n\nHar du frågor?\xa0\xa0\nKontakta Ida Jarlgren, producent Vara Konserthus\nmailto:ida.jarlgren@varakonserthus.se\xa0\xa0\n\nVälkommen med din ansökan!\xa0\xa0\xa0\n\nOm Vara Konserthus\xa0 \xa0\xa0\nVara Konserthus är en levande mötesplats som varje år presenterar nästan 200 konserter och föreställningar för 70 000 besökare. Här upplever du allt från symfonier och jazz till stand-up och teater. Vi är övertygade om att kultur gör Vara med omnejd till en ännu trevligare plats att besöka, leva och verka i.\xa0\xa0\n\nMed uppdrag från Vara kommun ser vi till att alla, oavsett ålder, har tillgång till kulturella upplevelser. Vi samarbetar med lokala kulturaktörer, skolor och föreningar för att stärka kulturens roll i regionen.\xa0\xa0\n\nFrån Västra Götalandsregionen har vi uppdraget att bli en nod för konstnärlig utveckling, med fokus på musik, dans och kultur för barn och unga. Vi utvecklar storbandsmusiken genom\xa0https://www.bohuslanbigband.com/\xa0och ungdomsstorbandet\xa0https://www.bohuslanbigband.com/next-generation-big-band/, och samarbetar med residensartister för att stärka vår position som en viktig scen och mötesplats.\xa0\xa0\n\nUtöver konserter arrangerar vi årligen närmare 200 konferenser och event med över 10 000 besökare. Vår nyaste scen,\xa0https://www.varakonserthus.se/scener-och-salar/sparbanken-blackbox/, invigdes 2019 och erbjuder teknisk utrustning och flexibilitet för både traditionell scenkonst och nya konstformer som nycirkus.\xa0\xa0\n\nLäs mer om Vara Konserthus på\xa0https://www.varakonserthus.se/\xa0', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Begränsad residensperiod. Tillträde: November 2025\r\nVisstidsanställning till '}</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5441,31 +5437,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Månadslön</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120002924', 'name': 'Vara kommun', 'workplace': 'Vara konserthus AB'}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
+          <t>{'information': None, 'reference': '2025/221', 'email': None, 'via_af': False, 'url': 'https://vara.varbi.com/what:job/jobID:852070/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U33" t="b">
@@ -5480,12 +5480,12 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
+          <t>{'concept_id': 'euJP_wxo_skF', 'label': 'Dansare', 'legacy_ams_taxonomy_id': '6050'}</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': 'gmRr_7tt_eHj', 'label': 'Koreografer och dansare', 'legacy_ams_taxonomy_id': '2653'}</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5495,32 +5495,32 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
+          <t>{'municipality': 'Vara', 'municipality_code': '1470', 'municipality_concept_id': 'fbHM_yhA_BqS', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.960194, 58.26178]}</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'euJP_wxo_skF', 'label': 'Dansare', 'legacy_ams_taxonomy_id': '6050'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2025-08-29T14:24:20</t>
+          <t>2025-09-01T09:06:25</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="AH33" t="b">
@@ -5529,11 +5529,11 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK33" t="n">
-        <v>1756470260707</v>
+        <v>1756710385733</v>
       </c>
     </row>
     <row r="34">
@@ -5542,10 +5542,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29966863</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>29969956</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>46-202100-3138-4337</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -5554,22 +5558,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966863</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969956</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2021003138/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
+          <t>Bibliotekarie</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-22T23:59:59</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -5577,7 +5581,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Högskolan i Borås erbjuder mer än bara ett jobb – här är du med och påverkar och bidrar till utveckling. Vi vill att du ska må bra både på och utanför jobbet. Därför erbjuder vi bland annat flexibla arbetstider, ett generöst semesteravtal och bra villkor vid föräldraledighet. Det finns även möjlighet till internationell kompetensutveckling genom studier eller praktik utomlands. Med vårt centrala läge har du nära till stadens utbud och goda pendlingsmöjligheter.\n\nVälkommen till oss på Biblioteket!\n\nDina arbetsuppgifter\nBiblioteket ingår i högskolans verksamhetsstöd och utför ett uppskattat arbete som är väl integrerat i högskolans utbildning och forskning. Biblioteket är en välbesökt mötesplats där studenter, personal och allmänhet är välkomna att ta del av samlingar och använda studie- och lärmiljöer. Vi erbjuder stöd och vägledning både genom personliga möten och i digitala kanaler. Service av hög kvalitet med användaren i fokus är en självklarhet för oss. Nu söker vi dig som vill vara med och utveckla servicen till våra användare.\n\nDina arbetsuppgifter innebär:\xa0\n\n\n• tjänstgöring i informationsdisk och arbete med övriga supportkanaler, t ex chat\n• arbete med låne- och cirkulationsfrågor, både i form av kontakt med användare och genom systemadministration (bibliotekssystem Alma).\n• att delta i arbetet med schemaläggning och utveckling av bibliotekets användarstöd\n• att delta i utvecklingsprojekt med möjlighet att ge idéer till verksamhetsutveckling\n• andra, allmänt förekommande arbetsuppgifter för bibliotekarier.\n\n\nDina kvalifikationer\xa0\nVi söker dig som har\xa0examen i biblioteks- och informationsvetenskap eller annan akademisk examen som arbetsgivaren bedömer likvärdig. Du behöver även ha mycket goda kunskaper i svenska och engelska, både muntliga och skriftliga.\xa0Stor vikt kommer att läggas vid personlig lämplighet och du behöver ha\xa0förmåga att ta egna initiativ samt att självständigt planera och utföra arbetsuppgifter. Därutöver har du\xa0god service- och samarbetsförmåga, god digital kompetens och är kommunikativ och relationsbyggande.\n\nDin anställning\nSärskild visstidsanställning, heltid (100 %) under 11 månader. Tillträde enligt överenskommelse.\xa0\n\nPlaceringsort\xa0Borås.\xa0\n\nDiarienummer:\xa0PA2025/136\n\nSå här ansöker du \nVälkommen med din kompletta ansökan inklusive diarienummer och bilagor via vårt rekryteringssystem senast 22 september.\xa0\n\nGuide för hur du ansöker i vårt rekryteringssystem och bilagor som ska bifogas\n\nHögskolan i Borås uppmuntrar ansökningar från personer med varierande bakgrunder, erfarenheter och synsätt eftersom detta berikar och stärker vår verksamhet. Vi eftersträvar jämn könsfördelning hos medarbetarna och värdesätter mångfald i verksamheten.\n\nVill du veta mer?\nHögskolan i Borås är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nFörmåner för anställda\n\nJobba hos oss\n\nKontakta nedanstående personer om du vill veta mer:\n\nJonas Gilbert, rekryterande chef.\n\nFacklig företrädare för Saco-S är Klas Håkan Alm som nås via högskolans växel tfn 033-435 40 00. Facklig företrädare för OFR/S nås via stvidhb@hb.se.\n\n\nVi undanber oss kontakt med rekryteringsföretag och annonsförsäljare i samband med denna rekrytering.', 'text_formatted': 'Högskolan i Borås erbjuder mer än bara ett jobb – här är du med och påverkar och bidrar till utveckling. Vi vill att du ska må bra både på och utanför jobbet. Därför erbjuder vi bland annat flexibla arbetstider, ett generöst semesteravtal och bra villkor vid föräldraledighet. Det finns även möjlighet till internationell kompetensutveckling genom studier eller praktik utomlands. Med vårt centrala läge har du nära till stadens utbud och goda pendlingsmöjligheter.\n\nVälkommen till oss på Biblioteket!\n\nDina arbetsuppgifter\nBiblioteket ingår i högskolans verksamhetsstöd och utför ett uppskattat arbete som är väl integrerat i högskolans utbildning och forskning. Biblioteket är en välbesökt mötesplats där studenter, personal och allmänhet är välkomna att ta del av samlingar och använda studie- och lärmiljöer. Vi erbjuder stöd och vägledning både genom personliga möten och i digitala kanaler. Service av hög kvalitet med användaren i fokus är en självklarhet för oss. Nu söker vi dig som vill vara med och utveckla servicen till våra användare.\n\nDina arbetsuppgifter innebär:\xa0\n\n\n• tjänstgöring i informationsdisk och arbete med övriga supportkanaler, t ex chat\n• arbete med låne- och cirkulationsfrågor, både i form av kontakt med användare och genom systemadministration (bibliotekssystem Alma).\n• att delta i arbetet med schemaläggning och utveckling av bibliotekets användarstöd\n• att delta i utvecklingsprojekt med möjlighet att ge idéer till verksamhetsutveckling\n• andra, allmänt förekommande arbetsuppgifter för bibliotekarier.\n\n\nDina kvalifikationer\xa0\nVi söker dig som har\xa0examen i biblioteks- och informationsvetenskap eller annan akademisk examen som arbetsgivaren bedömer likvärdig. Du behöver även ha mycket goda kunskaper i svenska och engelska, både muntliga och skriftliga.\xa0Stor vikt kommer att läggas vid personlig lämplighet och du behöver ha\xa0förmåga att ta egna initiativ samt att självständigt planera och utföra arbetsuppgifter. Därutöver har du\xa0god service- och samarbetsförmåga, god digital kompetens och är kommunikativ och relationsbyggande.\n\nDin anställning\nSärskild visstidsanställning, heltid (100 %) under 11 månader. Tillträde enligt överenskommelse.\xa0\n\nPlaceringsort\xa0Borås.\xa0\n\nDiarienummer:\xa0PA2025/136\n\nSå här ansöker du \nVälkommen med din kompletta ansökan inklusive diarienummer och bilagor via vårt rekryteringssystem senast 22 september.\xa0\n\nGuide för hur du ansöker i vårt rekryteringssystem och bilagor som ska bifogas\n\nHögskolan i Borås uppmuntrar ansökningar från personer med varierande bakgrunder, erfarenheter och synsätt eftersom detta berikar och stärker vår verksamhet. Vi eftersträvar jämn könsfördelning hos medarbetarna och värdesätter mångfald i verksamheten.\n\nVill du veta mer?\nHögskolan i Borås är en statlig myndighet vilket innebär att du får särskilda förmåner, generös semester och en förmånlig tjänstepension.\n\nFörmåner för anställda\n\nJobba hos oss\n\nKontakta nedanstående personer om du vill veta mer:\n\nJonas Gilbert, rekryterande chef.\n\nFacklig företrädare för Saco-S är Klas Håkan Alm som nås via högskolans växel tfn 033-435 40 00. Facklig företrädare för OFR/S nås via stvidhb@hb.se.\n\n\nVi undanber oss kontakt med rekryteringsföretag och annonsförsäljare i samband med denna rekrytering.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5590,10 +5594,14 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Månadslön</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -5609,12 +5617,12 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.hb.se/', 'organization_number': '2021003138', 'name': 'Högskolan i Borås', 'workplace': 'Högskolan i Borås'}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.hb.se/Om-hogskolan/Jobba-hos-oss/Lediga-anstallningar/?rmpage=job&amp;rmjob=4337&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
         </is>
       </c>
       <c r="U34" t="b">
@@ -5629,12 +5637,12 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
+          <t>{'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5644,32 +5652,32 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>{'municipality': 'Landskrona', 'municipality_code': '1282', 'municipality_concept_id': 'Yt5s_Vf9_rds', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
+          <t>{'municipality': 'Borås', 'municipality_code': '1490', 'municipality_concept_id': 'TpRZ_bFL_jhL', 'region': 'Västra Götalands län', 'region_code': '14', 'region_concept_id': 'zdoY_6u5_Krt', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [12.939819, 57.721035]}</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'GujS_MtW_PRH', 'label': 'Bibliotekarie', 'legacy_ams_taxonomy_id': '5899'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2025-08-29T14:19:45</t>
+          <t>2025-09-01T09:05:26</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-22T23:59:59</t>
         </is>
       </c>
       <c r="AH34" t="b">
@@ -5678,11 +5686,11 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK34" t="n">
-        <v>1756469985697</v>
+        <v>1756710326316</v>
       </c>
     </row>
     <row r="35">
@@ -5691,7 +5699,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29966825</t>
+          <t>29969937</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -5703,35 +5711,35 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966825</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969937</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/85591282/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
+          <t>TOLKAR I TELEGU OCH LETTISKA ÖVER HELA SVERIGE</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2026-02-01T23:59:59</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Vi är en modern tolkförmedling som bokar och förmedlar tolkar genom vår webb och app.\nNu söker vi tolkar i telegu över hela Sverige.\nVi söker tolkar på alla nivåer.  Har du mycket goda språkfärdigheter, men saknar utbildning, erbjuder vi dig en kostnadsfri onlineutbildning.\nDu ska, förutom goda språkkunskaper, ha god samhällsuppfattning, vara serviceinriktad och kan röra dig i många miljöer och sammanhang. Att vara tolk är ett roligt arbete, och kräver att du har hög integritet, är noggrann, mycket ansvarsfull och kan passa tider.\nVi utför tolkuppdrag både på plats hos kunder och via telefon samt video\nKörkort och bil krävs ej men är en fördel för uppdrag på plats\nArbetet är vid behov och alla bokningar sker genom webben eller mobilen. Via telefon eller video kan du få uppdrag i hela Sverige.\nANSÖK PÅ: https://rekrytering.digitaltolk.se/', 'text_formatted': '&lt;p&gt;Vi är en modern tolkförmedling som bokar och förmedlar tolkar genom vår webb och app.&lt;/p&gt;&lt;p&gt;Nu söker vi tolkar i telegu över hela Sverige.&lt;/p&gt;&lt;p&gt;Vi söker tolkar på alla nivåer.  Har du mycket goda språkfärdigheter, men saknar utbildning, erbjuder vi dig en kostnadsfri onlineutbildning.&lt;/p&gt;&lt;p&gt;Du ska, förutom goda språkkunskaper, ha god samhällsuppfattning, vara serviceinriktad och kan röra dig i många miljöer och sammanhang. Att vara tolk är ett roligt arbete, och kräver att du har hög integritet, är noggrann, mycket ansvarsfull och kan passa tider.&lt;/p&gt;&lt;p&gt;Vi utför tolkuppdrag både på plats hos kunder och via telefon samt video&lt;/p&gt;&lt;p&gt;Körkort och bil krävs ej men är en fördel för uppdrag på plats&lt;/p&gt;&lt;p&gt;Arbetet är vid behov och alla bokningar sker genom webben eller mobilen. Via telefon eller video kan du få uppdrag i hela Sverige.&lt;/p&gt;&lt;p&gt;ANSÖK PÅ: https://rekrytering.digitaltolk.se/&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5742,28 +5750,28 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.digitaltolk.se', 'organization_number': '5569367484', 'name': 'Vs Consulting AB', 'workplace': 'DIGITAL INTERPRETATIONS SCANDINAVIA AB'}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': None, 'other': 'jobb.digitaltolk.se'}</t>
         </is>
       </c>
       <c r="U35" t="b">
@@ -5778,12 +5786,12 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
+          <t>{'concept_id': 'vaEY_R9R_LjB', 'label': 'Tolk', 'legacy_ams_taxonomy_id': '6037'}</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': 'PQDm_Z63_zst', 'label': 'Översättare, tolkar och lingvister m.fl.', 'legacy_ams_taxonomy_id': '2643'}</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -5793,7 +5801,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>{'municipality': 'Helsingborg', 'municipality_code': '1283', 'municipality_concept_id': 'qj3q_oXH_MGR', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
+          <t>{'municipality': None, 'municipality_code': None, 'municipality_concept_id': None, 'region': None, 'region_code': None, 'region_concept_id': None, 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -5803,22 +5811,22 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2025-08-29T14:15:15</t>
+          <t>2025-09-01T09:03:20</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2026-02-01T23:59:59</t>
         </is>
       </c>
       <c r="AH35" t="b">
@@ -5831,7 +5839,7 @@
         </is>
       </c>
       <c r="AK35" t="n">
-        <v>1756469715676</v>
+        <v>1756710200766</v>
       </c>
     </row>
     <row r="36">
@@ -5840,14 +5848,10 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29966103</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>46-559205-2400-6367127-1</t>
-        </is>
-      </c>
+          <t>29969716</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
@@ -5856,22 +5860,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966103</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29969716</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5592052400/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88255487/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
+          <t>Senior Tekniker till Enwell</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-15T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -5879,7 +5883,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{'text': "Our team is on a mission to design great user experiences that help our over 2 million web customers create, configure, and develop their web presence. \n \nWe are looking for an experienced Digital Commerce Product Designer who has a solid understanding of e-commerce metrics to collaborate with our marketing leads in translating user needs and business ideas into outstanding landing pages, order and upselling/cross-selling flows, campaign concepts, and visual designs for our one.com brand. \nAs a passionate designer, you excel at transforming complex concepts into beautiful, simple, and user-friendly experiences. You inspire the organisation with insightful customer journeys, value propositions, and prototypes. Driven by data, you utilise market and user research methods such as interviews, surveys, usability tests, A/B tests and heatmaps to test and refine ideas both before and after implementation. This means that rather than being measured on the output of your design work, you are being measured on the success of your designs. As a true team player, you will work closely with our marketing, product, UX and design, and development teams. And, to our 32 passionate designers, you are a sparring partner who is inspiring, results-driven and keen to make a difference. \nQualifications  5+ years of experience in e-commerce, digital commerce, marketing, or agency settings \n Degree in New Media Design, Visual Communication, Product Design, UX Design, or similar \n Strong digital commerce-focused design portfolio with\xa0a mobile-first mindset, with expertise in designing for both mobile and desktop. \n You can conduct data analysis, market, and user research to identify best practices and shape hypotheses on how best to address requirements. \n Ability to translate user needs and business goals into clear, effective design \n Skilled in user research, data analysis, customer journeys, and persona creation \n Experience with tools like Maze, HotJar, Dovetail, Mixpanel, and Google Analytics \n Advocate for user testing, customer centricity, and evidence-based design decisions \n Comfortable collaborating across teams – from concept and ideation to implementation \n You are effective in managing stakeholders. Engage and involve them from the beginning (research, strategy, concept) to the end (design and implementation). \n Proficient in Figma and Adobe Creative Cloud \n Familiar with working in Agile/Scrum teams and using design systems \n High attention to detail and strong visual aesthetics\n You provide and receive honest, valuable feedback.\n \nYou’re a curious, collaborative, and creative problem solver who enjoys turning complexity into clarity. You have a passion for beautiful, minimalist design and care deeply about creating meaningful user experiences. You’re confident in your craft, open to feedback, and thrive in a fast-moving, team-oriented environment. Most importantly, you want to make the web not just more usable — but more beautiful. \nAbout usone.com is a part of group.one is a leading European provider of online presence, cloud hosting, and digital marketing services. Over 2 million customers trust us with their online success. Our global team consists of 1 500+ employees operating from nearly 20 locations across 15 countries, with our headquarters in Sweden. Thanks to the support of our partners Cinven and Ontario Teachers' Pension Plan, we are steadily expanding the group's service portfolio and geographical footprint.\nWhen you join group.one, you become a part of a global network that values collaboration, growth, and excellence. Join us in creating online success stories!\nWe don't care whether you are female, male or diverse, where you come from, how old you are, what colour your skin is or what you believe in. For us, the focus is on mutual respect, personal appreciation as well as fun and motivation at work. Develop yourself - your personality - because we focus on you as a person and team member.\nWe want to continue to grow with you. That's why we look forward to getting to know you.", 'text_formatted': '&lt;p&gt;Our team is on a mission to design great user experiences that help our over 2 million web customers create, configure, and develop their web presence. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;We are looking for an experienced Digital Commerce Product Designer who has a solid understanding of e-commerce metrics to collaborate with our marketing leads in translating user needs and business ideas into outstanding landing pages, order and upselling/cross-selling flows, campaign concepts, and visual designs for our one.com brand. &lt;/p&gt;&lt;p&gt;As a passionate designer, you excel at transforming complex concepts into beautiful, simple, and user-friendly experiences. You inspire the organisation with insightful customer journeys, value propositions, and prototypes. Driven by data, you utilise market and user research methods such as interviews, surveys, usability tests, A/B tests and heatmaps to test and refine ideas both before and after implementation. This means that rather than being measured on the output of your design work, you are being measured on the success of your designs. As a true team player, you will work closely with our marketing, product, UX and design, and development teams. And, to our 32 passionate designers, you are a sparring partner who is inspiring, results-driven and keen to make a difference. &lt;/p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;5+ years of experience in e-commerce, digital commerce, marketing, or agency settings &lt;/li&gt; &lt;li&gt;Degree in New Media Design, Visual Communication, Product Design, UX Design, or similar &lt;/li&gt; &lt;li&gt;Strong digital commerce-focused design portfolio with&amp;nbsp;a mobile-first mindset, with expertise in designing for both mobile and desktop. &lt;/li&gt; &lt;li&gt;You can conduct data analysis, market, and user research to identify best practices and shape hypotheses on how best to address requirements. &lt;/li&gt; &lt;li&gt;Ability to translate user needs and business goals into clear, effective design &lt;/li&gt; &lt;li&gt;Skilled in user research, data analysis, customer journeys, and persona creation &lt;/li&gt; &lt;li&gt;Experience with tools like Maze, HotJar, Dovetail, Mixpanel, and Google Analytics &lt;/li&gt; &lt;li&gt;Advocate for user testing, customer centricity, and evidence-based design decisions &lt;/li&gt; &lt;li&gt;Comfortable collaborating across teams – from concept and ideation to implementation &lt;/li&gt; &lt;li&gt;You are effective in managing stakeholders. Engage and involve them from the beginning (research, strategy, concept) to the end (design and implementation). &lt;/li&gt; &lt;li&gt;Proficient in Figma and Adobe Creative Cloud &lt;/li&gt; &lt;li&gt;Familiar with working in Agile/Scrum teams and using design systems &lt;/li&gt; &lt;li&gt;High attention to detail and strong visual aesthetics&lt;/li&gt; &lt;li&gt;You provide and receive honest, valuable feedback.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;You’re a curious, collaborative, and creative problem solver who enjoys turning complexity into clarity. You have a passion for beautiful, minimalist design and care deeply about creating meaningful user experiences. You’re confident in your craft, open to feedback, and thrive in a fast-moving, team-oriented environment. Most importantly, you want to make the web not just more usable — but more beautiful. &lt;/p&gt;About us&lt;p&gt;one.com is a part of group.one is a leading European provider of online presence, cloud hosting, and digital marketing services. Over 2 million customers trust us with their online success. Our global team consists of 1 500+ employees operating from nearly 20 locations across 15 countries, with our headquarters in Sweden. Thanks to the support of our partners &lt;a href="https://www.cinven.com/"&gt;Cinven&lt;/a&gt; and &lt;a href="https://www.otpp.com/en-ca/"&gt;Ontario Teachers\' Pension Plan&lt;/a&gt;, we are steadily expanding the group\'s service portfolio and geographical footprint.&lt;/p&gt;&lt;p&gt;When you join &lt;a href="https://www.group.one/en"&gt;group.one&lt;/a&gt;, you become a part of a global network that values collaboration, growth, and excellence. Join us in creating online success stories!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;We don\'t care whether you are female, male or diverse, where you come from, how old you are, what colour your skin is or what you believe in. For us, the focus is on mutual respect, personal appreciation as well as fun and motivation at work. Develop yourself - your personality - because we focus on you as a person and team member.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;We want to continue to grow with you. That\'s why we look forward to getting to know you.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
+          <t>{'text': 'Företagsbeskrivning\nPå Enwell brinner vi för att skapa en hållbar framtid för kommande generationer.\u202fDetta har vi gemensamt med vår ägare Vattenfall och tillsammans jobbar vi för en fossilfri framtid. Vill du vara med? \nVi befinner oss just nu på en spännande resa, där vi genom ett högt engagemang från kollegor och en entreprenöriell företagskultur vill konsolidera och professionalisera marknaden för hållbara energilösningar för villa- och fastighetsmarknaden. \nPå denna tillväxtresa behöver vi vidareutveckla Enwell med nya medarbetare som vill vara med och bygga ett marknadsledande bolag. \nEnwell söker nu en erfaren Tekniker/Installatör till vårt team i Stockholm!\nOm rollen\nI den här rollen kommer du bli en del av ett härligt och glatt team bestående av både erfarna kollegor och nya talanger inom branschen. Du kommer samarbeta med kollegor i andra tekniska roller samt med vår serviceavdelning. För oss är det viktigt att du som person kan bidra till vår utveckling, både inom teamet och i vår kundresa framåt.\n\n\nDu kommer ansvara för installation, driftsättning, service och felsökning av olika typer av värmepumpar. Du arbetar med allt från rördragning och elanslutningar till funktionstester och kundrådgivning. I rollen ingår även att dokumentera arbetet noggrant och säkerställa att allt sker enligt gällande föreskrifter – alltid med kundens behov och upplevelse i fokus.\nDina huvudsakliga arbetsuppgifter:\nAnsvara för installation och driftsättning av olika typer av värmepumpar såsom bergvärme, luftvatten och frånluftsvärmepumpar\nGenomföra provkörning och funktionstest av installerad värmepump\nUtföra regelbundet underhåll och service på installerade värmepumpar för att säkerställa att systemen fungerar optimalt\nIdentifiera och åtgärda problem som kan uppstå med värmepumpar och andra tillhörande system (till exempel cirkulationspumpar, styrsystem)\nFelsöka och reparera mekaniska och elektriska problem i värmesystemet\n\nKundkontakt och Rådgivning\nGe kunderna rådgivning och vägledning kring värmesystem och energibesparande åtgärder utifrån kundens behov och förutsättningar\nSäkerställa tydlig kommunikation med kunden gällande installation, service och tidsramar\n\nDokumentation och Rapportering\nFöra noggranna protokoll och rapporter över installationer, serviceåtgärder och felsökningar\nSäkerställa att all dokumentation, inklusive garantier och certifikat, är korrekt och arkiverad enligt företagets rutiner\n\nKravspecifikation\nVi söker dig som har följande:\nArbetslivserfarenhet av VVS-arbeten\nArbetslivserfarenhet som tekniker /värmepumpsinstallatör med inriktning bergvärme, luftvatten och frånluftsvärmepumpar\nVan vid att arbeta med digital avrapportering\nKörkort B\nGod kunskap i Officepaket samt andra digitala planeringssystem \nGoda skriftliga som muntliga kunskaper i svenska\n\nMeriterande:\nHeta arbeten certifikat\nTidigare erfarenhet av arbete med fastighetsanläggningar \nTidigare haft en arbetsledande roll eller liknande\nSpråkkunskaper utöver svenska språket\n\nPersonliga egenskaper:\nPersonlig mognad gällande både de tekniska, och de mänskliga aspekterna i rollen\nHög servicekänsla. Du är duktig på att skapa långsiktiga och hållbara kundrelationer\nÄr ansvarstagande och självgående i det dagliga arbetet\nLojalitet och arbetsmoral är grundläggande värderingar för dig\nTar mentorskap för dina kollegor och teamet i stort\n\nDet vi ser som absolut viktigast för att du ska trivas i den här rollen är att du är kunnig, driven och självständig i ditt arbete. Du är serviceinriktad och uppskattar ett gott samarbete med både kunder och kollegor då detta är av största vikt för oss!\nYtterligare information\nFör frågor om rekryteringsprocessen kontakta rekryterare Amanda Pehrson, amanda.pehrson@vattenfall.com\nVälkommen med din ansökan senast 2025-09-18. Vi tar endast emot ansökningar via vår webbplats. \nVi ser fram emot din ansökan!\nVi är övertygade om att mångfald bidrar till att bygga ett mer lönsamt och tilltalande företag och strävar efter att vara goda förebilder när det gäller mångfald. ENWELL arbetar aktivt för att alla medarbetare ska ha samma möjligheter och rättigheter oavsett ålder, etnisk eller kulturell bakgrund, könstillhörighet, religion/tro, sexuell läggning eller funktionsförutsättning.\nOm oss:\nEnergimarknaden och mer specifikt energieffektivisering i fastigheter, stora som små, är en viktig del i omställningen i samhället. Detta sträcker sig från EU:s allt högre krav för att kunna tillgodogöra sig grön finansiering till den enskilde villaägarens behov att påverka och sänka sina energikostnader. Enwell är väl positionerad för att leda utvecklingen.\nEnwell är idag ett av Sveriges ledande företag med fokus på hållbara energilösningar för villa- och fastighetsmarknaden. Företaget bildades 2013 och våren 2017 inleddes ett samarbete med Vattenfall avseende värmepumpinstallationer till privatkunder. Vattenfall är från 2021 100% ägare. Enwell-gruppen består idag av ca 230 anställda, från Skåne i söder till Mora i norr och omsätter drygt 750 Mkr.\nLäs gärna mer om oss på vår hemsida: www.enwell.se', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Företagsbeskrivning&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;På Enwell brinner vi för att skapa en hållbar framtid för kommande generationer.\u202fDetta har vi gemensamt med vår ägare Vattenfall och tillsammans jobbar vi för en fossilfri framtid. Vill du vara med? &lt;/p&gt;&lt;p&gt;Vi befinner oss just nu på en spännande resa, där vi genom ett högt engagemang från kollegor och en entreprenöriell företagskultur vill konsolidera och professionalisera marknaden för hållbara energilösningar för villa- och fastighetsmarknaden. &lt;/p&gt;&lt;p&gt;På denna tillväxtresa behöver vi vidareutveckla Enwell med nya medarbetare som vill vara med och bygga ett marknadsledande bolag. &lt;/p&gt;&lt;p&gt;Enwell söker nu en erfaren &lt;strong&gt;Tekniker/Installatör &lt;/strong&gt;till vårt team i Stockholm!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;I den här rollen kommer du bli en del av ett härligt och glatt team bestående av både erfarna kollegor och nya talanger inom branschen. Du kommer samarbeta med kollegor i andra tekniska roller samt med vår serviceavdelning. För oss är det viktigt att du som person kan bidra till vår utveckling, både inom teamet och i vår kundresa framåt.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du kommer ansvara för installation, driftsättning, service och felsökning av olika typer av värmepumpar. Du arbetar med allt från rördragning och elanslutningar till funktionstester och kundrådgivning. I rollen ingår även att dokumentera arbetet noggrant och säkerställa att allt sker enligt gällande föreskrifter – alltid med kundens behov och upplevelse i fokus.&lt;/p&gt;&lt;p&gt;Dina huvudsakliga arbetsuppgifter:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ansvara för installation och driftsättning av olika typer av värmepumpar såsom bergvärme, luftvatten och frånluftsvärmepumpar&lt;/li&gt;&lt;li&gt;Genomföra provkörning och funktionstest av installerad värmepump&lt;/li&gt;&lt;li&gt;Utföra regelbundet underhåll och service på installerade värmepumpar för att säkerställa att systemen fungerar optimalt&lt;/li&gt;&lt;li&gt;Identifiera och åtgärda problem som kan uppstå med värmepumpar och andra tillhörande system (till exempel cirkulationspumpar, styrsystem)&lt;/li&gt;&lt;li&gt;Felsöka och reparera mekaniska och elektriska problem i värmesystemet&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Kundkontakt och Rådgivning&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Ge kunderna rådgivning och vägledning kring värmesystem och energibesparande åtgärder utifrån kundens behov och förutsättningar&lt;/li&gt;&lt;li&gt;Säkerställa tydlig kommunikation med kunden gällande installation, service och tidsramar&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Dokumentation och Rapportering&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Föra noggranna protokoll och rapporter över installationer, serviceåtgärder och felsökningar&lt;/li&gt;&lt;li&gt;Säkerställa att all dokumentation, inklusive garantier och certifikat, är korrekt och arkiverad enligt företagets rutiner&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Kravspecifikation&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi söker dig som har följande:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Arbetslivserfarenhet av VVS-arbeten&lt;/li&gt;&lt;li&gt;Arbetslivserfarenhet som tekniker /värmepumpsinstallatör med inriktning bergvärme, luftvatten och frånluftsvärmepumpar&lt;/li&gt;&lt;li&gt;Van vid att arbeta med digital avrapportering&lt;/li&gt;&lt;li&gt;Körkort B&lt;/li&gt;&lt;li&gt;God kunskap i Officepaket samt andra digitala planeringssystem &lt;/li&gt;&lt;li&gt;Goda skriftliga som muntliga kunskaper i svenska&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Meriterande:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Heta arbeten certifikat&lt;/li&gt;&lt;li&gt;Tidigare erfarenhet av arbete med fastighetsanläggningar &lt;/li&gt;&lt;li&gt;Tidigare haft en arbetsledande roll eller liknande&lt;/li&gt;&lt;li&gt;Språkkunskaper utöver svenska språket&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Personliga egenskaper:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Personlig mognad gällande både de tekniska, och de mänskliga aspekterna i rollen&lt;/li&gt;&lt;li&gt;Hög servicekänsla. Du är duktig på att skapa långsiktiga och hållbara kundrelationer&lt;/li&gt;&lt;li&gt;Är ansvarstagande och självgående i det dagliga arbetet&lt;/li&gt;&lt;li&gt;Lojalitet och arbetsmoral är grundläggande värderingar för dig&lt;/li&gt;&lt;li&gt;Tar mentorskap för dina kollegor och teamet i stort&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Det vi ser som absolut viktigast för att du ska trivas i den här rollen är att du är kunnig, driven och självständig i ditt arbete. Du är serviceinriktad och uppskattar ett gott samarbete med både kunder och kollegor då detta är av största vikt för oss!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Ytterligare information&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;För frågor om rekryteringsprocessen kontakta rekryterare Amanda Pehrson, amanda.pehrson@vattenfall.com&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan senast 2025-09-18.&lt;/strong&gt; Vi tar endast emot ansökningar via vår webbplats. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi ser fram emot din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Vi är övertygade om att mångfald bidrar till att bygga ett mer lönsamt och tilltalande företag och strävar efter att vara goda förebilder när det gäller mångfald. ENWELL arbetar aktivt för att alla medarbetare ska ha samma möjligheter och rättigheter oavsett ålder, etnisk eller kulturell bakgrund, könstillhörighet, religion/tro, sexuell läggning eller funktionsförutsättning.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om oss:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Energimarknaden och mer specifikt energieffektivisering i fastigheter, stora som små, är en viktig del i omställningen i samhället. Detta sträcker sig från EU:s allt högre krav för att kunna tillgodogöra sig grön finansiering till den enskilde villaägarens behov att påverka och sänka sina energikostnader. Enwell är väl positionerad för att leda utvecklingen.&lt;/p&gt;&lt;p&gt;Enwell är idag ett av Sveriges ledande företag med fokus på hållbara energilösningar för villa- och fastighetsmarknaden. Företaget bildades 2013 och våren 2017 inleddes ett samarbete med Vattenfall avseende värmepumpinstallationer till privatkunder. Vattenfall är från 2021 100% ägare. Enwell-gruppen består idag av ca 230 anställda, från Skåne i söder till Mora i norr och omsätter drygt 750 Mkr.&lt;/p&gt;&lt;p&gt;Läs gärna mer om oss på vår hemsida: www.enwell.se&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -5892,11 +5896,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -5915,12 +5915,12 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.one.com', 'organization_number': '5592052400', 'name': 'One.com Group AB', 'workplace': 'one.com'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5560362138', 'name': 'Vattenfall AB', 'workplace': 'Stockholm'}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.one.com/jobs/6367127-senior-product-designer?promotion=1606440-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.smartrecruiters.com/Vattenfall/744000078953100-senior-tekniker-till-enwell', 'other': None}</t>
         </is>
       </c>
       <c r="U36" t="b">
@@ -5935,12 +5935,12 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
+          <t>{'concept_id': 'aGMK_AH5_Khi', 'label': 'Teatertekniker/Scentekniker', 'legacy_ams_taxonomy_id': '5211'}</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
+          <t>{'concept_id': '4BsK_q2C_sCL', 'label': 'Ljus-, ljud- och scentekniker', 'legacy_ams_taxonomy_id': '3522'}</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.003822, 55.60498]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': '11756', 'city': 'Stockholm', 'coordinates': [18.031656276824375, 59.303655622225904]}</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -5965,17 +5965,17 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Malin Hägglöf', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2025-08-29T13:01:46</t>
+          <t>2025-09-01T08:37:20</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>2026-02-15T23:59:59</t>
+          <t>2025-10-01T23:59:59</t>
         </is>
       </c>
       <c r="AH36" t="b">
@@ -5984,11 +5984,11 @@
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK36" t="n">
-        <v>1756465306034</v>
+        <v>1756708640673</v>
       </c>
     </row>
     <row r="37">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29966057</t>
+          <t>29880592</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -6009,22 +6009,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966057</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29880592</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/80312122/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87701347/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Harness Designer</t>
+          <t>Clinic &amp; operations coordinator</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-14T23:59:59</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>{'text': 'Company Description\nWelcome to a world, where your ideas lead to something big. Welcome to Bosch!\nBosch Thermoteknik AB in Tranås develops, manufactures, and sells heat pumps for the European market. We are approximately 650 employees and form part of the large Bosch Group, which consists of approximately 417,000 employees worldwide.\nWe work with sustainable simplification of everyday life where the focus is on the environment, innovation, and development. In Tranås there is a production unit and a competence and development center. The heat pumps we manufacture draw energy from different sources - the mountain, the water, or the air. We work to constantly be at the forefront and contribute to sustainable energy and a better environment with the goal of creating a simplified everyday life for our customers. In short, we create technology that is "Invented for life".\n\n\nJob Description\nYour contribution to something big\nAre you a highly skilled and self-driven Harness Design Engineer looking for a role where you can take full ownership of the entire design and development process? We are seeking an expert in Siemens NX Electrical Routing to lead the design, development, and implementation of complex electrical harnesses. This is a hands-on role that requires a deep understanding of both the theoretical and practical aspects of electrical engineering.\nYou will have end-to-end ownership of the harness design process, from initial concept to final implementation. This includes creating 3D harness designs and detailed 2D manufacturing drawings.\nYou will be responsible for developing and maintaining complex electrical schematics and leading the selection and integration of new electrical components.\nYou will perform critical electrical calculations for cable and fuse dimensioning, ensuring the safety and reliability of our products.\nYou will be the point person for analyzing and interpreting a wide range of internal and external requirements, translating them into precise material order specifications.\nYou will be expected to build and validate harness samples from the ground up, demonstrating your practical expertise with a variety of workshop tools.\nYou will take a leading role in 8D problem-solving initiatives and comprehensive risk assessments.\nYour expertise will be crucial in contributing to Failure Mode and Effects Analyses (FMEAs).\n\n\n\nQualifications\nWhat distinguishes you\nRequired skills\nTo be successful in this role, you must have:\nDemonstrable, in-depth experience in Siemens NX Electrical Routing is essential. You will be expected to start creating complex 3D harness designs and 2D manufacturing drawings from day one.\nA proven ability to work autonomously and hands-on experience with a variety of tools for building physical harness samples. You must have practical experience with workshop tools and be able to validate your designs through hands-on sample creation.\nGood written and verbal communication skills in English, necessary for our international work environment.\nA highly analytical and systematic approach to problem-solving.\n\nPreferred skills\nFor an even greater impact in this role, you will ideally have:\nCertification as an electrician.\nA strong working knowledge of IEC 60335 standards and topics related to product certification.\nGood written and verbal communication skills in Swedish.\nProficiency in SAP.\n\n\n\nAdditional Information\nAt Bosch, we care for you, our business, and our environment. Our promise to our associates is rock-solid. We grow together into countless roles, positions, and opportunities and we are interested in developing the “whole” you, not just the “9 to 5” you, because life is all about balance.\nAt Bosch, we celebrate you. Our people are what make us remarkable. Therefore we recognize your contribution with competitive salary packages, collective agreements with unions, occupational pension, and other attractive benefits, such as wellness contribution, smart work, flexible working hours, Gym &amp; Yoga classes at site. Let’s not forget the sincere “thank you” for our employees’ contribution. Our success is your success. Let’s celebrate together.\nAt Bosch we understand that everyone has their own focus in life, whether it is about new professional challenges, training, and development, or more time for family, friends, and hobbies, whatever your goals are we are flexible. Let ‘s strike a balance.\nAt Bosch, we believe everyone is different and that is what we love. Get inspired by a cooperative, open, respectful, and trustworthy workplace where you can be yourself and be enriched by the perspectives of our community around the globe.\nJoin us and feel the difference. #LikeABosch', 'text_formatted': '&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Company Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Welcome to a world, where your ideas lead to something big. Welcome to Bosch!&lt;/p&gt;&lt;p&gt;Bosch Thermoteknik AB in Tranås develops, manufactures, and sells heat pumps for the European market. We are approximately 650 employees and form part of the large Bosch Group, which consists of approximately 417,000 employees worldwide.&lt;/p&gt;&lt;p&gt;We work with sustainable simplification of everyday life where the focus is on the environment, innovation, and development. In Tranås there is a production unit and a competence and development center. The heat pumps we manufacture draw energy from different sources - the mountain, the water, or the air. We work to constantly be at the forefront and contribute to sustainable energy and a better environment with the goal of creating a simplified everyday life for our customers. In short, we create technology that is &lt;strong&gt;"Invented for life"&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Job Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your contribution to something big&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Are you a highly skilled and self-driven Harness Design Engineer looking for a role where you can take full ownership of the entire design and development process? We are seeking an expert in Siemens NX Electrical Routing to lead the design, development, and implementation of complex electrical harnesses. This is a hands-on role that requires a deep understanding of both the theoretical and practical aspects of electrical engineering.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;You will have end-to-end ownership of the harness design process, from initial concept to final implementation. This includes creating 3D harness designs and detailed 2D manufacturing drawings.&lt;/li&gt;&lt;li&gt;You will be responsible for developing and maintaining complex electrical schematics and leading the selection and integration of new electrical components.&lt;/li&gt;&lt;li&gt;You will perform critical electrical calculations for cable and fuse dimensioning, ensuring the safety and reliability of our products.&lt;/li&gt;&lt;li&gt;You will be the point person for analyzing and interpreting a wide range of internal and external requirements, translating them into precise material order specifications.&lt;/li&gt;&lt;li&gt;You will be expected to build and validate harness samples from the ground up, demonstrating your practical expertise with a variety of workshop tools.&lt;/li&gt;&lt;li&gt;You will take a leading role in 8D problem-solving initiatives and comprehensive risk assessments.&lt;/li&gt;&lt;li&gt;Your expertise will be crucial in contributing to Failure Mode and Effects Analyses (FMEAs).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;What distinguishes you&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Required skills&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;To be successful in this role, you must have:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Demonstrable, in-depth experience in Siemens NX Electrical Routing is essential. You will be expected to start creating complex 3D harness designs and 2D manufacturing drawings from day one.&lt;/li&gt;&lt;li&gt;A proven ability to work autonomously and hands-on experience with a variety of tools for building physical harness samples. You must have practical experience with workshop tools and be able to validate your designs through hands-on sample creation.&lt;/li&gt;&lt;li&gt;Good written and verbal communication skills in English, necessary for our international work environment.&lt;/li&gt;&lt;li&gt;A highly analytical and systematic approach to problem-solving.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Preferred skills&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;For an even greater impact in this role, you will ideally have:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Certification as an electrician.&lt;/li&gt;&lt;li&gt;A strong working knowledge of IEC 60335 standards and topics related to product certification.&lt;/li&gt;&lt;li&gt;Good written and verbal communication skills in Swedish.&lt;/li&gt;&lt;li&gt;Proficiency in SAP.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Additional Information&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;At Bosch, we care for you, our business, and our environment. Our promise to our associates is rock-solid. We grow together into countless roles, positions, and opportunities and we are interested in developing the “whole” you, not just the “9 to 5” you, because life is all about balance.&lt;/p&gt;&lt;p&gt;At Bosch, we celebrate you.&lt;strong&gt; &lt;/strong&gt;Our people are what make us remarkable. Therefore we recognize your contribution with competitive salary packages, collective agreements with unions, occupational pension, and other attractive benefits, such as wellness contribution, smart work, flexible working hours, Gym &amp;amp; Yoga classes at site. Let’s not forget the sincere “&lt;strong&gt;thank you&lt;/strong&gt;” for our employees’ contribution. Our success is your success. Let’s celebrate together.&lt;/p&gt;&lt;p&gt;At Bosch we understand that everyone has their own focus in life, whether it is about new professional challenges, training, and development, or more time for family, friends, and hobbies, whatever your goals are we are flexible. Let ‘s strike a balance.&lt;/p&gt;&lt;p&gt;At Bosch, we believe everyone is different and that is what we love. Get inspired by a cooperative, open, respectful, and trustworthy workplace where you can be yourself and be enriched by the perspectives of our community around the globe.&lt;/p&gt;&lt;p&gt;Join us and feel the difference. #LikeABosch&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Vi söker en driven koordinator till Studio Finoh i Stockholm.\nPlats: Magnus Ladulåsgatan 31, Stockholm\n Start: 1 september\n Omfattning: Deltid\nStudio Finoh växer och nu letar vi efter en organiserad, självgående och serviceinriktad koordinator som vill vara med och utveckla vår verksamhet i Stockholm. Vi söker dig som älskar struktur, har ett öga för detaljer och ett hjärta för skönhetsbranschen.\nDina arbetsuppgifter:\nVara ett nav i den dagliga driften, planera, strukturera och stötta teamet.\nHa kontakt med kunder via telefon, mejl och sociala medier.\nPublicera och hantera innehåll på våra sociala kanaler.\nHjälpa till med enklare administration och ekonomi.\nSe till att våra kliniker är organiserade och fungerar smidigt, både i Stockholm och i dialog med teamet i Örebro (Storgatan 28).\n\nVi söker dig som:\nÄr punktlig, strukturerad och kreativ.\nHar god kommunikationsförmåga och älskar att ge service.\nHar intresse för skönhet och estetik.\nHar erfarenhet eller känsla för att jobba med sociala medier.\nTycker det är kul med enklare ekonomi och administration.\nTrivs med att ha många bollar i luften – men också få saker att hända.\nÄr ambitiös och vill växa i din yrkesroll.\n\nDu blir en viktig del av vårt team och vi ser gärna att du är med och formar din roll tillsammans med oss.\nLåter det som du?\n Skicka din ansökan och CV till ansokningar@studiofinoh.se så snart som möjligt – intervjuer sker löpande!', 'text_formatted': '&lt;p&gt;Vi söker en driven koordinator till Studio Finoh i Stockholm.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Plats:&lt;/strong&gt; Magnus Ladulåsgatan 31, Stockholm&lt;/p&gt;&lt;p&gt; &lt;strong&gt;Start:&lt;/strong&gt; 1 september&lt;/p&gt;&lt;p&gt; &lt;strong&gt;Omfattning:&lt;/strong&gt; Deltid&lt;/p&gt;&lt;p&gt;Studio Finoh växer och nu letar vi efter en &lt;strong&gt;organiserad, självgående och serviceinriktad koordinator&lt;/strong&gt; som vill vara med och utveckla vår verksamhet i Stockholm. Vi söker dig som älskar struktur, har ett öga för detaljer och ett hjärta för skönhetsbranschen.&lt;/p&gt;&lt;p&gt;Dina arbetsuppgifter:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vara ett nav i den dagliga driften, planera, strukturera och stötta teamet.&lt;/li&gt;&lt;li&gt;Ha kontakt med kunder via telefon, mejl och sociala medier.&lt;/li&gt;&lt;li&gt;Publicera och hantera innehåll på våra sociala kanaler.&lt;/li&gt;&lt;li&gt;Hjälpa till med enklare administration och ekonomi.&lt;/li&gt;&lt;li&gt;Se till att våra kliniker är organiserade och fungerar smidigt, både i Stockholm och i dialog med teamet i Örebro (Storgatan 28).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Vi söker dig som:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Är &lt;strong&gt;punktlig, strukturerad och kreativ.&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Har god kommunikationsförmåga och älskar att ge service.&lt;/li&gt;&lt;li&gt;Har intresse för &lt;strong&gt;skönhet och estetik.&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Har erfarenhet eller känsla för att jobba med sociala medier.&lt;/li&gt;&lt;li&gt;Tycker det är kul med enklare ekonomi och administration.&lt;/li&gt;&lt;li&gt;Trivs med att ha många bollar i luften – men också få saker att hända.&lt;/li&gt;&lt;li&gt;Är ambitiös och vill växa i din yrkesroll.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Du blir en viktig del av vårt team och vi ser gärna att du är med och formar din roll tillsammans med oss.&lt;/p&gt;&lt;p&gt;Låter det som du?&lt;/p&gt;&lt;p&gt; Skicka din ansökan och CV till ansokningar@studiofinoh.se så snart som möjligt – intervjuer sker löpande!&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6048,28 +6048,28 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5562629062', 'name': 'Bosch Thermoteknik AB', 'workplace': 'Bosch Thermoteknik AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': None, 'name': 'Olsson, Nina', 'workplace': 'Studio Finoh'}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.smartrecruiters.com/BoschGroup/744000078972425-harness-designer', 'other': None}</t>
+          <t>{'information': None, 'reference': 'Koordinator.', 'email': 'ansokningar@studiofinoh.se', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U37" t="b">
@@ -6084,12 +6084,12 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>{'concept_id': '42SW_cUg_uq2', 'label': 'Designer', 'legacy_ams_taxonomy_id': '3305'}</t>
+          <t>{'concept_id': 'dnxZ_Bvb_S9C', 'label': 'Platskoordinator', 'legacy_ams_taxonomy_id': '7233'}</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PF4H_kQD_zpL', 'label': 'Övriga designer och formgivare', 'legacy_ams_taxonomy_id': '2179'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>{'municipality': 'Tranås', 'municipality_code': '0687', 'municipality_concept_id': 'Namm_SpC_RPG', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Hjälmarydsvägen 8', 'postcode': '57338', 'city': 'Tranås', 'coordinates': [14.9563209009392, 58.0144461800287]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Magnusladulåsgatan 31', 'postcode': '11865', 'city': 'STOCKHOLM', 'coordinates': [18.06229401319164, 59.312402233978545]}</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': '8gwE_2o3_XRF', 'label': 'Ekonomiadministration', 'legacy_ams_taxonomy_id': '1410'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2025-08-29T12:55:35</t>
+          <t>2025-08-30T13:16:45</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-14T23:59:59</t>
         </is>
       </c>
       <c r="AH37" t="b">
@@ -6137,7 +6137,7 @@
         </is>
       </c>
       <c r="AK37" t="n">
-        <v>1756464935671</v>
+        <v>1756552605667</v>
       </c>
     </row>
     <row r="38">
@@ -6146,14 +6146,10 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29965980</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>46-556034-9192-3116</t>
-        </is>
-      </c>
+          <t>29968597</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -6162,35 +6158,35 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29965980</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968597</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5560349192/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88135911/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aktörer till Halloween på Furuviksparken</t>
+          <t>Spelledare till Escape Room i Stockholm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-09-10T23:59:59</t>
+          <t>2025-09-29T23:59:59</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>{'text': 'Till hösten slår\xa0Furuvik\xa0upp portarna för en oförglömlig Halloween. Som aktör på Furuviksparken arbetar du tillsammans med andra aktörer för att bjuda på magiska upplevelser genom att underhålla våra gäster runt om i parken. Vill du vara en del av höstens roligaste event och bjuda våra gäster på upplevelser i världsklass, då väntar vi spänt på att få träffa dig!\n\nAtt jobba som aktör\nSom aktör på Halloween arbetar du i något av våra skräckhus som till exempel\xa0zombie eller väsen. Din uppgift blir att skrämma och underhålla våra gäster för att maximera deras upplevelse. Rollerna varierar, men de flesta karaktärer jobbar huvudsakligen med att skrämmas. Det finns ett fåtal mer avancerade roller, både läskiga och mindre läskiga. Vi söker dig som kan\xa0arbeta 9-12 oktober, 18-19 oktober, 25-26 oktober samt 30 oktober - 2 november. Det är viktigt att du kan närvara under större delen av dessa dagar och även medverka på utbildningstillfällen i anslutning till anställning.\n\nVad som krävs\nTill de här rollerna söker vi dig som älskar teater, improvisation eller bara att skrämmas. Du behöver även:\n- Klara av att jobba i mörka och trånga utrymmen med höga ljud\n- Kunna ta regi\n- Kunna läsa av människor och anpassa ditt agerande därefter\xa0\n\nFör dessa tjänster behöver du kunna kommunicera på svenska. Har du utbildning och/eller yrkesvana inom teater eller motsvarande är det meriterande men inget krav. Oavsett vilken aktörsoll du har kommer du att arbeta efter angivna riktlinjer och förutsättningar som finns inom ramen för det område som du arbetar inom.\xa0\n\nVåra roller\nVi delar upp våra aktörsroller i två olika kategorier, aktörsroll och avancerad aktörsroll:\n\nAktörsroll\nInom denna kategori finns de flesta av våra roller och det finns roller både för dig som har teatererfarenhet och för dig som inte har det. Dessa roller innebär att man genom sitt agerande skapar\xa0rysmysiga\xa0samt\xa0skräckfyllda upplevelser för alla våra gäster. Enklare improvisation är varmt välkommet! Du behöver kunna anpassa ditt agerande utefter vilka gäster du har framför dig, små som stora. Till dessa roller söker vi helt enkelt dig som verkligen gillar att agera och röra på dig! Kanske är du\xa0den fängslade gasten i\xa0kaptensgården eller en zombiepassagerare i zombieexpressen.\n\nAvancerad aktörsroll\nI den här kategorin finns både roller med färdiga monologer och roller med mer improvisation. För dessa roller söker vi dig som har teatererfarenhet eller liknande. Målet är såklart även här att underhålla och/eller skrämma våra gäster. I rollerna utgår du från en karaktärsbeskrivning med vissa riktlinjer, men förväntas också kunna agera och improvisera inom ramen för karaktären. Vissa av de avancerade rollerna är helt och hållet baserade på improvisation och kräver mer av dig som aktör. Du behöver kunna ta regi och inom ramarna kunna lägga din personliga touch på rollen.\u202fVåra avancerade roller är röstkrävande och passar dig som har erfarenhet av röstövningar. Ansvarstillägg tillkommer utöver grundlönen inom denna kategori av roller.\xa0Om du väljer att söka en avancerad roll kommer första steget i rekryteringsprocessen vara en videoaudition.\n\nMer information om tjänsten\nI samband med anställningens start får du en ordentlig utbildning inom det område du skall jobba på. Där får du lära dig att arbeta i din karaktär på ett tryggt och säkert sätt utifrån rätt riktlinjer och förutsättningar.\xa0Lön tillämpas enligt kollektivavtal.\xa0Vissa roller har ansvarstillägg beroende på rollens komplexitet.\xa0Vi erbjuder ej personalboenden.\n\nSom medarbetare på Furuviksparken får du vara med om en unik möjlighet och skapa minnen för livet. Det är en rolig och utmanande arbetsmiljö med möjlighet att lära känna nya vänner. \n\nUrvalet sker löpande, så skicka in din ansökan redan idag! Vi tar endast emot ansökningar via vår hemsida.\n\nVarmt välkommen med din ansökan!\n\n\nOm Furuviksparken\n\nFuruvik är en kombinationspark med djurpark, tivoli, vattenland och konsertarena, naturskönt belägen vid havet ca 1 mil söder om Gävle. Furuvik öppnade redan 1900. Varje år har parken ca 500 anställda under säsong och besöks av ca 340 000 gäster.\n\nFuruvik är sedan 2010 en del av Parks and Resorts, Nordens ledande aktör inom upplevelseindustrin. I gruppen ingår några av Sveriges mest populära resmål; Gröna Lund, Kolmården, Furuvik och Skara Sommarland. Parks and Resorts är ett familjeföretag som investerar allt överskott i verksamhetens fortsatta utveckling.', 'text_formatted': 'Till hösten slår\xa0Furuvik\xa0upp portarna för en oförglömlig Halloween. Som aktör på Furuviksparken arbetar du tillsammans med andra aktörer för att bjuda på magiska upplevelser genom att underhålla våra gäster runt om i parken. Vill du vara en del av höstens roligaste event och bjuda våra gäster på upplevelser i världsklass, då väntar vi spänt på att få träffa dig!\n\nAtt jobba som aktör\nSom aktör på Halloween arbetar du i något av våra skräckhus som till exempel\xa0zombie eller väsen. Din uppgift blir att skrämma och underhålla våra gäster för att maximera deras upplevelse. Rollerna varierar, men de flesta karaktärer jobbar huvudsakligen med att skrämmas. Det finns ett fåtal mer avancerade roller, både läskiga och mindre läskiga. Vi söker dig som kan\xa0arbeta 9-12 oktober, 18-19 oktober, 25-26 oktober samt 30 oktober - 2 november. Det är viktigt att du kan närvara under större delen av dessa dagar och även medverka på utbildningstillfällen i anslutning till anställning.\n\nVad som krävs\nTill de här rollerna söker vi dig som älskar teater, improvisation eller bara att skrämmas. Du behöver även:\n- Klara av att jobba i mörka och trånga utrymmen med höga ljud\n- Kunna ta regi\n- Kunna läsa av människor och anpassa ditt agerande därefter\xa0\n\nFör dessa tjänster behöver du kunna kommunicera på svenska. Har du utbildning och/eller yrkesvana inom teater eller motsvarande är det meriterande men inget krav. Oavsett vilken aktörsoll du har kommer du att arbeta efter angivna riktlinjer och förutsättningar som finns inom ramen för det område som du arbetar inom.\xa0\n\nVåra roller\nVi delar upp våra aktörsroller i två olika kategorier, aktörsroll och avancerad aktörsroll:\n\nAktörsroll\nInom denna kategori finns de flesta av våra roller och det finns roller både för dig som har teatererfarenhet och för dig som inte har det. Dessa roller innebär att man genom sitt agerande skapar\xa0rysmysiga\xa0samt\xa0skräckfyllda upplevelser för alla våra gäster. Enklare improvisation är varmt välkommet! Du behöver kunna anpassa ditt agerande utefter vilka gäster du har framför dig, små som stora. Till dessa roller söker vi helt enkelt dig som verkligen gillar att agera och röra på dig! Kanske är du\xa0den fängslade gasten i\xa0kaptensgården eller en zombiepassagerare i zombieexpressen.\n\nAvancerad aktörsroll\nI den här kategorin finns både roller med färdiga monologer och roller med mer improvisation. För dessa roller söker vi dig som har teatererfarenhet eller liknande. Målet är såklart även här att underhålla och/eller skrämma våra gäster. I rollerna utgår du från en karaktärsbeskrivning med vissa riktlinjer, men förväntas också kunna agera och improvisera inom ramen för karaktären. Vissa av de avancerade rollerna är helt och hållet baserade på improvisation och kräver mer av dig som aktör. Du behöver kunna ta regi och inom ramarna kunna lägga din personliga touch på rollen.\u202fVåra avancerade roller är röstkrävande och passar dig som har erfarenhet av röstövningar. Ansvarstillägg tillkommer utöver grundlönen inom denna kategori av roller.\xa0Om du väljer att söka en avancerad roll kommer första steget i rekryteringsprocessen vara en videoaudition.\n\nMer information om tjänsten\nI samband med anställningens start får du en ordentlig utbildning inom det område du skall jobba på. Där får du lära dig att arbeta i din karaktär på ett tryggt och säkert sätt utifrån rätt riktlinjer och förutsättningar.\xa0Lön tillämpas enligt kollektivavtal.\xa0Vissa roller har ansvarstillägg beroende på rollens komplexitet.\xa0Vi erbjuder ej personalboenden.\n\nSom medarbetare på Furuviksparken får du vara med om en unik möjlighet och skapa minnen för livet. Det är en rolig och utmanande arbetsmiljö med möjlighet att lära känna nya vänner. \n\nUrvalet sker löpande, så skicka in din ansökan redan idag! Vi tar endast emot ansökningar via vår hemsida.\n\nVarmt välkommen med din ansökan!\n\n\nOm Furuviksparken\n\nFuruvik är en kombinationspark med djurpark, tivoli, vattenland och konsertarena, naturskönt belägen vid havet ca 1 mil söder om Gävle. Furuvik öppnade redan 1900. Varje år har parken ca 500 anställda under säsong och besöks av ca 340 000 gäster.\n\nFuruvik är sedan 2010 en del av Parks and Resorts, Nordens ledande aktör inom upplevelseindustrin. I gruppen ingår några av Sveriges mest populära resmål; Gröna Lund, Kolmården, Furuvik och Skara Sommarland. Parks and Resorts är ett familjeföretag som investerar allt överskott i verksamhetens fortsatta utveckling.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Deltid/\r\nEj specificerat'}</t>
+          <t>{'text': 'Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. Ca 8 - 20 timmar per vecka.\nSom Game-Master har du följande uppgifter.\n- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.\n- Bevaka teknik som styr spelen.\n- Ta hand om kunderna efter spelet och ta betalt.\n- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.\n- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.\nDina Kvalifikationer:\n- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.\n- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.\n- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.\nOm dig\n- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.\n- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.\n- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.\nVänligen bifoga en bild på dig i ansökan.', 'text_formatted': '&lt;p&gt;Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. &lt;strong&gt;&lt;u&gt;Ca 8 - 20 timmar per vecka&lt;/u&gt;&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Som Game-Master har du följande uppgifter.&lt;/p&gt;&lt;p&gt;- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.&lt;/p&gt;&lt;p&gt;- Bevaka teknik som styr spelen.&lt;/p&gt;&lt;p&gt;- Ta hand om kunderna efter spelet och ta betalt.&lt;/p&gt;&lt;p&gt;- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.&lt;/p&gt;&lt;p&gt;- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.&lt;/p&gt;&lt;p&gt;Dina Kvalifikationer:&lt;/p&gt;&lt;p&gt;- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.&lt;/p&gt;&lt;p&gt;- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.&lt;/p&gt;&lt;p&gt;- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.&lt;/p&gt;&lt;p&gt;Om dig&lt;/p&gt;&lt;p&gt;- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.&lt;/p&gt;&lt;p&gt;- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.&lt;/p&gt;&lt;p&gt;- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Vänligen bifoga en bild på dig i ansökan.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6198,35 +6194,31 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Enligt avtal</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Sy9J_aRd_ALx', 'label': '11 dagar - upp till 3 månader', 'legacy_ams_taxonomy_id': '7'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.furuvik.se/', 'organization_number': '5560349192', 'name': 'AB Furuviksparken', 'workplace': 'Furuviksparken'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://quezzle.se/', 'organization_number': '5590055058', 'name': 'Quezzle AB', 'workplace': 'Quezzle AB'}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://parksandresorts.com/jobba-hos-oss/ansokan?rmpage=job&amp;rmjob=3116&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://brain.quezzle.se/hr.php', 'other': None}</t>
         </is>
       </c>
       <c r="U38" t="b">
@@ -6241,12 +6233,12 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Xoz2_dQe_9KC', 'label': 'Skådespelare', 'legacy_ams_taxonomy_id': '6051'}</t>
+          <t>{'concept_id': 'TpUz_Wcr_p76', 'label': 'Programvärd/Programvärdinna', 'legacy_ams_taxonomy_id': '6113'}</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>{'concept_id': 'iBUL_s38_izZ', 'label': 'Skådespelare', 'legacy_ams_taxonomy_id': '2655'}</t>
+          <t>{'concept_id': 'xuSE_mtB_Mir', 'label': 'Övriga yrken inom kultur och underhållning', 'legacy_ams_taxonomy_id': '3439'}</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -6256,12 +6248,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>{'municipality': 'Gävle', 'municipality_code': '2180', 'municipality_concept_id': 'qk8Y_2b6_82D', 'region': 'Gävleborgs län', 'region_code': '21', 'region_concept_id': 'zupA_8Nt_xcD', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [17.141273, 60.67488]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Döbelnsgatan 12', 'postcode': '11358', 'city': 'Stockholm', 'coordinates': [18.0623278186604, 59.3404469806315]}</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'Xoz2_dQe_9KC', 'label': 'Skådespelare', 'legacy_ams_taxonomy_id': '6051'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}, {'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -6271,17 +6263,17 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Rekryteringen Furuvik', 'email': 'rekrytering@parksandresorts.com', 'telephone': None, 'contact_type': 'Parks and Resorts'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2025-08-29T12:46:55</t>
+          <t>2025-08-30T09:42:50</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>2025-09-10T23:59:59</t>
+          <t>2025-09-29T23:59:59</t>
         </is>
       </c>
       <c r="AH38" t="b">
@@ -6290,11 +6282,11 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK38" t="n">
-        <v>1756464415704</v>
+        <v>1756539770718</v>
       </c>
     </row>
     <row r="39">
@@ -6303,7 +6295,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29965329</t>
+          <t>29968562</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -6315,35 +6307,35 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29965329</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968562</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/87420686/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88135911/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Documentation Engineer</t>
+          <t>Spelledare till Escape Room i Stockholm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-11-27T23:59:59</t>
+          <t>2025-09-29T23:59:59</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>{'text': 'Responsibilities\n• Use the clients document management tool) as it pertains to meet the quality requirements on documents and assist neutron instrument teams Instrument into compiling the instrument technical documentation. \nThis includes:\n-create new document\n-create new revision of existing document,\n-find/use appropriate template\n-assign reviewers\n-describe purpose of review\n-help identify review scope necessary\n-start review process\n• Proof-read and edit technical documents in English - fix formatting errors, language errors.\n• Help document owners fix existing documents with known errors and bring them into alignment with quality requirements for clients documentation.\n• Structure the documentation by linking documents to the wide facility breakdown structure.\n• Determine, based on guidelines, where documentation needs to be complemented or updated.\n• The assignment may also include\n-Confluence content management\n-Management of Jira tasks\nRequired Qualifications:\n• Bachelor in technical field (ex. engineering, physics, safety, chemistry) or an equivalent combination of education and experience.\n• Experience in document management.\n• Experience writing, proof-reading, and editing of technical documentation; experience with documentation in English.\n• Ability to communicate well with individuals in technical fields including engineering, science, safety, instrumentation and control, information technology.\n• Experience in reading, consolidating, writing, and updating technical information in complex capital projects.\n• Strong skills in Microsoft Office, especially Microsoft Word\n• Good knowledge in searching for, analyzing and process information.\n• Excellent oral and written English skills\nPlease send Your CV to jobs@telescopeservices.se.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Responsibilities&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Use the clients document management tool) as it pertains to meet the quality requirements on documents and assist neutron instrument teams Instrument into compiling the instrument technical documentation. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;This includes:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;-create new document&lt;/p&gt;&lt;p&gt;-create new revision of existing document,&lt;/p&gt;&lt;p&gt;-find/use appropriate template&lt;/p&gt;&lt;p&gt;-assign reviewers&lt;/p&gt;&lt;p&gt;-describe purpose of review&lt;/p&gt;&lt;p&gt;-help identify review scope necessary&lt;/p&gt;&lt;p&gt;-start review process&lt;/p&gt;&lt;p&gt;• Proof-read and edit technical documents in English - fix formatting errors, language errors.&lt;/p&gt;&lt;p&gt;• Help document owners fix existing documents with known errors and bring them into alignment with quality requirements for clients documentation.&lt;/p&gt;&lt;p&gt;• Structure the documentation by linking documents to the wide facility breakdown structure.&lt;/p&gt;&lt;p&gt;• Determine, based on guidelines, where documentation needs to be complemented or updated.&lt;/p&gt;&lt;p&gt;• The assignment may also include&lt;/p&gt;&lt;p&gt;-Confluence content management&lt;/p&gt;&lt;p&gt;-Management of Jira tasks&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Required Qualifications:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;• Bachelor in technical field (ex. engineering, physics, safety, chemistry) or an equivalent combination of education and experience.&lt;/p&gt;&lt;p&gt;• Experience in document management.&lt;/p&gt;&lt;p&gt;• Experience writing, proof-reading, and editing of technical documentation; experience with documentation in English.&lt;/p&gt;&lt;p&gt;• Ability to communicate well with individuals in technical fields including engineering, science, safety, instrumentation and control, information technology.&lt;/p&gt;&lt;p&gt;• Experience in reading, consolidating, writing, and updating technical information in complex capital projects.&lt;/p&gt;&lt;p&gt;• Strong skills in Microsoft Office, especially Microsoft Word&lt;/p&gt;&lt;p&gt;• Good knowledge in searching for, analyzing and process information.&lt;/p&gt;&lt;p&gt;• Excellent oral and written English skills&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Please send Your CV to jobs@telescopeservices.se.&lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. Ca 8 - 20 timmar per vecka.\nSom Game-Master har du följande uppgifter.\n- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.\n- Bevaka teknik som styr spelen.\n- Ta hand om kunderna efter spelet och ta betalt.\n- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.\n- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.\nDina Kvalifikationer:\n- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.\n- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.\n- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.\nOm dig\n- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.\n- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.\n- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.\nVänligen bifoga en bild på dig i ansökan.', 'text_formatted': '&lt;p&gt;Vi söker en Game-Master som har flexibilitet att ta sporadiska timmar under veckodagar och helger. &lt;strong&gt;&lt;u&gt;Ca 8 - 20 timmar per vecka&lt;/u&gt;&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Som Game-Master har du följande uppgifter.&lt;/p&gt;&lt;p&gt;- Möta kunder. Introducera kunder till Escape Room-konceptet och till spelregler.&lt;/p&gt;&lt;p&gt;- Bevaka teknik som styr spelen.&lt;/p&gt;&lt;p&gt;- Ta hand om kunderna efter spelet och ta betalt.&lt;/p&gt;&lt;p&gt;- Ställa i ordning efter grupper och förbereda utrustning för nästa grupp.&lt;/p&gt;&lt;p&gt;- Svara på frågor eller bokningsförfrågningar som kommer via e-post eller telefonsamtal.&lt;/p&gt;&lt;p&gt;Dina Kvalifikationer:&lt;/p&gt;&lt;p&gt;- Mycket hög social kompetens då du kommer att se till att kunderna blir nöjda med aktiviteten oavsett resultaten de uppnår.&lt;/p&gt;&lt;p&gt;- Stresstålighet och förmåga att hantera tidspress. Ibland krävs det att du gör jobbar under högt tempo för att hålla tidsschema. Därför bör du vara en stresstålig person som klarar av detta.&lt;/p&gt;&lt;p&gt;- Bra engelska i tall och skrift är ett krav då vi har en del engelsktalande kunder.&lt;/p&gt;&lt;p&gt;Om dig&lt;/p&gt;&lt;p&gt;- Du är en kreativ person och kommer med idéer/ förslag för att förbättra verksamheten.&lt;/p&gt;&lt;p&gt;- Du känner dig hemma i datormiljö och sociala medier. Har du dessutom intresse av att skriva blogginlägg så är det en bra merit.&lt;/p&gt;&lt;p&gt;- Du kommunicerar på felfri svenska i tal och skrift (modersmål). Ett måste eftersom du kommer att hantera kundkommunikationen via e-post och sociala medier.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Vänligen bifoga en bild på dig i ansökan.&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6354,28 +6346,28 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5568072820', 'name': 'Nexer Telescope AB', 'workplace': 'Telescope Services AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://quezzle.se/', 'organization_number': '5590055058', 'name': 'Quezzle AB', 'workplace': 'Quezzle AB'}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'TSS-DOE-241203', 'email': 'jobs@telescopeservices.se', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': 'Spelledare Stockholm', 'email': None, 'via_af': False, 'url': 'https://brain.quezzle.se/hr.php', 'other': None}</t>
         </is>
       </c>
       <c r="U39" t="b">
@@ -6390,12 +6382,12 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>{'concept_id': 'q9PK_qMB_caU', 'label': 'Dokumentalist', 'legacy_ams_taxonomy_id': '5903'}</t>
+          <t>{'concept_id': 'TpUz_Wcr_p76', 'label': 'Programvärd/Programvärdinna', 'legacy_ams_taxonomy_id': '6113'}</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'xuSE_mtB_Mir', 'label': 'Övriga yrken inom kultur och underhållning', 'legacy_ams_taxonomy_id': '3439'}</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -6405,12 +6397,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>{'municipality': 'Lund', 'municipality_code': '1281', 'municipality_concept_id': 'muSY_tsR_vDZ', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Scheelevägen 16', 'postcode': '22363', 'city': 'Lund', 'coordinates': [13.2194708109225, 55.7150970449687]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Döbelnsgatan 12', 'postcode': '11358', 'city': 'Stockholm', 'coordinates': [18.0623278186604, 59.3404469806315]}</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [{'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}, {'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -6425,12 +6417,12 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2025-08-29T11:22:45</t>
+          <t>2025-08-30T09:42:35</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>2025-11-27T23:59:59</t>
+          <t>2025-09-29T23:59:59</t>
         </is>
       </c>
       <c r="AH39" t="b">
@@ -6443,7 +6435,7 @@
         </is>
       </c>
       <c r="AK39" t="n">
-        <v>1756459365679</v>
+        <v>1756539755741</v>
       </c>
     </row>
     <row r="40">
@@ -6452,91 +6444,79 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29964150</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>46-212000-0159-108307</t>
-        </is>
-      </c>
+          <t>29968203</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nystartsjobb']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29964150</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2120000159/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968203</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ljudtekniker till Södertälje Stadsscen</t>
+          <t>Unpaid Autumn Intern</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-09-12T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>{'text': 'Brinner du för livemusik, scenkonst och modern ljudteknik? Vill du arbeta i ett kreativt och dynamiskt hus där ingen dag är den andra lik?\nNu söker vi en ljudtekniker som vill vara med och utveckla Södertälje Stadsscen – en gästspelsscen med ett brett utbud av konserter, föreställningar, film, konferenser och event.\n\xa0\nOm rollen\nSom ljudtekniker hos oss ansvarar du för ljudet vid konserter, föreställningar och konferenser samt för rigg, underhåll och utveckling av vår ljudutrustning.\nDu arbetar nära kollegor inom ljus, scen, video och streaming, ofta i tätt samarbete med gästspelande produktioner och artister. Rollen innebär stor variation – från ljuddesign vid konserter och scenproduktioner till streaming, digitala möten och utomhusevenemang.\nDu blir en del av vårt tekniska team som består av två ljudtekniker, två ljustekniker och en scenmästare/ gruppledare.\n\xa0\nVem är du?\nPersonliga egenskaper:\n- Du trivs i kreativa miljöer där tempot växlar mellan högt och lågt.\n- Du är lösningsorienterad, kommunikativ och serviceinriktad.\n- Du kan ta helhetsansvar i produktioner och har känsla för detaljer.\n- Du är social, trygg i mötet med gästande produktioner och medveten om vikten av arbetsmiljö och säkerhet.\n- Du har förmåga att arbeta både självständigt och i team, och delar gärna med dig av idéer och kunskap.\nKvalifikationer (obligatoriska):\n- Relevant högskoleutbildning inom ljudteknik eller motsvarande dokumenterad erfarenhet som arbetsgivaren bedömer som likvärdig.\n- Flera års erfarenhet av professionellt arbete med ljudteknik inom t.ex. livekonserter, scenkonst, tv/ film eller arenaproduktion.\n- Mycket goda kunskaper i ljudmixning och ljuddesign.\n- Erfarenhet av Dante-nätverk.\n- God förståelse för scenkonstens produktionsprocesser och samspel mellan ljud, ljus, scen och video.\n- Mycket goda IT- och nätverkskunskaper för teater-/eventproduktion.\n- Goda kunskaper i svenska och engelska.\n- B-körkort.\nMeriterande:\n- Erfarenhet av turnerande verksamhet.\n- Kunskap om Yamaha, Midas eller Allen &amp; Heath dLive.\n- Arbete med trådlösa system (Shure ULX-D) och PA: d&amp;b audioteknik.\n- Kunskap i Qlab, Reaper, Logic.\n- Erfarenhet av streaming, AV-over-IP, Netgear AV och projektion/video.\n- Ljus- och scenteknisk kompetens utöver ljud.\n- Erfarenhet av ljud till tv/film.\n- Det är också meriterande om du innehar utbildning och godkända behörigheter för: truckkort, heta arbeten, förarbevis för mobila arbetsplattformar eller C-körkort.\n\xa0\nOm tjänsten\n- Tillsvidareanställning, 100 %\n- Tillträde enligt överenskommelse\n- Arbetstiderna är schemalagda och inkluderar kvällar och helger.\nVi lägger stor vikt vid dina personliga egenskaper.\n\xa0\nOm Södertälje Stadsscen\nSödertälje Stadsscen är kommunens största scenkomplex för scenkonst och konferens, bestående av scenerna Estrad och Trombon. Varje år genomförs över 500 evenemang: musik, teater, dans, film, live på bio, stand-up, mässor och konferenser. Vi är en gästspelsscen utan egen ensemble, med fokus på ett brett kulturutbud och ett varmt värdskap för artister, arrangörer och publik.\n\xa0\nVi erbjuder dig\nVarje dag går ca 6 000 personer till sitt jobb i Södertälje kommun. Vi har många olika roller hos oss och vill erbjuda dig ett meningsfullt jobb där du får möjlighet att bidra till samhället och samtidigt känna glädje. Som medarbetare hos oss får du möjlighet att utvecklas och sätta avtryck på riktigt.\nSom anställd i Södertälje kommun erbjuds du bl.a. trygga anställningsvillkor, ett generöst friskvårdsbidrag, flexibilitet vad gäller arbetstid och arbetsformer samt möjlighet att byta semesterdagstillägget mot extra lediga dagar. För mer detaljerad information kring våra förmåner läs gärna mer på vår externa hemsida: https://www.sodertalje.se/formaner\nSödertälje Stadsscen ligger ett stenkast från pendeltåget nära Södertälje stadshus. Det finns en lunchresturang i huset och du har nära till centrum med restauranger, butiker med mera. Går du åt andra hållet kommer du upp till Torekällberget där du kan kliva in i en 1800-talsmiljö och reflektera över ditt senaste möte med en kringla i handen. Du har en kontorsplats i ett öppet kontorslandskap som är beläget i anslutning till verksamheten.\n\xa0\nVälkommen till oss!\nUrval och intervjuer kan komma att ske löpande under ansökningstiden.\nEn anställning hos oss kan innebära placering i säkerhetsklass. En säkerhetsprövning med registerkontroll enligt Säkerhetsskyddslagen (2018:585) kan därför komma att genomföras före beslut om anställning. För en del av våra arbetsuppgifter i säkerhetsklass krävs svenskt medborgarskap.\nVi tar gärna emot samtal från dig som är intresserad av jobbet men vi tackar nej till dig som säljer annonser och rekryteringstjänster', 'text_formatted': '&lt;p&gt;Brinner du för livemusik, scenkonst och modern ljudteknik? Vill du arbeta i ett kreativt och dynamiskt hus där ingen dag är den andra lik?&lt;br /&gt;Nu söker vi en ljudtekniker som vill vara med och utveckla Södertälje Stadsscen – en gästspelsscen med ett brett utbud av konserter, föreställningar, film, konferenser och event.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rollen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som ljudtekniker hos oss ansvarar du för ljudet vid konserter, föreställningar och konferenser samt för rigg, underhåll och utveckling av vår ljudutrustning.&lt;/p&gt;&lt;p&gt;Du arbetar nära kollegor inom ljus, scen, video och streaming, ofta i tätt samarbete med gästspelande produktioner och artister. Rollen innebär stor variation – från ljuddesign vid konserter och scenproduktioner till streaming, digitala möten och utomhusevenemang.&lt;/p&gt;&lt;p&gt;Du blir en del av vårt tekniska team som består av två ljudtekniker, två ljustekniker och en scenmästare/ gruppledare.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vem är du?&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Personliga egenskaper:&lt;br /&gt;- Du trivs i kreativa miljöer där tempot växlar mellan högt och lågt.&lt;br /&gt;- Du är lösningsorienterad, kommunikativ och serviceinriktad.&lt;br /&gt;- Du kan ta helhetsansvar i produktioner och har känsla för detaljer.&lt;br /&gt;- Du är social, trygg i mötet med gästande produktioner och medveten om vikten av arbetsmiljö och säkerhet.&lt;br /&gt;- Du har förmåga att arbeta både självständigt och i team, och delar gärna med dig av idéer och kunskap.&lt;/p&gt;&lt;p&gt;Kvalifikationer (obligatoriska):&lt;br /&gt;- Relevant högskoleutbildning inom ljudteknik eller motsvarande dokumenterad erfarenhet som arbetsgivaren bedömer som likvärdig.&lt;br /&gt;- Flera års erfarenhet av professionellt arbete med ljudteknik inom t.ex. livekonserter, scenkonst, tv/ film eller arenaproduktion.&lt;br /&gt;- Mycket goda kunskaper i ljudmixning och ljuddesign.&lt;br /&gt;- Erfarenhet av Dante-nätverk.&lt;br /&gt;- God förståelse för scenkonstens produktionsprocesser och samspel mellan ljud, ljus, scen och video.&lt;br /&gt;- Mycket goda IT- och nätverkskunskaper för teater-/eventproduktion.&lt;br /&gt;- Goda kunskaper i svenska och engelska.&lt;br /&gt;- B-körkort.&lt;/p&gt;&lt;p&gt;Meriterande:&lt;br /&gt;- Erfarenhet av turnerande verksamhet.&lt;br /&gt;- Kunskap om Yamaha, Midas eller Allen &amp; Heath dLive.&lt;br /&gt;- Arbete med trådlösa system (Shure ULX-D) och PA: d&amp;b audioteknik.&lt;br /&gt;- Kunskap i Qlab, Reaper, Logic.&lt;br /&gt;- Erfarenhet av streaming, AV-over-IP, Netgear AV och projektion/video.&lt;br /&gt;- Ljus- och scenteknisk kompetens utöver ljud.&lt;br /&gt;- Erfarenhet av ljud till tv/film.&lt;br /&gt;- Det är också meriterande om du innehar utbildning och godkända behörigheter för: truckkort, heta arbeten, förarbevis för mobila arbetsplattformar eller C-körkort.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;- Tillsvidareanställning, 100 %&lt;br /&gt;- Tillträde enligt överenskommelse&lt;br /&gt;- Arbetstiderna är schemalagda och inkluderar kvällar och helger.&lt;/p&gt;&lt;p&gt;Vi lägger stor vikt vid dina personliga egenskaper.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om Södertälje Stadsscen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Södertälje Stadsscen är kommunens största scenkomplex för scenkonst och konferens, bestående av scenerna Estrad och Trombon. Varje år genomförs över 500 evenemang: musik, teater, dans, film, live på bio, stand-up, mässor och konferenser. Vi är en gästspelsscen utan egen ensemble, med fokus på ett brett kulturutbud och ett varmt värdskap för artister, arrangörer och publik.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi erbjuder dig&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Varje dag går ca 6 000 personer till sitt jobb i Södertälje kommun. Vi har många olika roller hos oss och vill erbjuda dig ett meningsfullt jobb där du får möjlighet att bidra till samhället och samtidigt känna glädje. Som medarbetare hos oss får du möjlighet att utvecklas och sätta avtryck på riktigt.&lt;/p&gt;&lt;p&gt;Som anställd i Södertälje kommun erbjuds du bl.a. trygga anställningsvillkor, ett generöst friskvårdsbidrag, flexibilitet vad gäller arbetstid och arbetsformer samt möjlighet att byta semesterdagstillägget mot extra lediga dagar. För mer detaljerad information kring våra förmåner läs gärna mer på vår externa hemsida: https://www.sodertalje.se/formaner&lt;/p&gt;&lt;p&gt;Södertälje Stadsscen ligger ett stenkast från pendeltåget nära Södertälje stadshus. Det finns en lunchresturang i huset och du har nära till centrum med restauranger, butiker med mera. Går du åt andra hållet kommer du upp till Torekällberget där du kan kliva in i en 1800-talsmiljö och reflektera över ditt senaste möte med en kringla i handen. Du har en kontorsplats i ett öppet kontorslandskap som är beläget i anslutning till verksamheten.&lt;br /&gt;\xa0&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen till oss!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Urval och intervjuer kan komma att ske löpande under ansökningstiden.&lt;/p&gt;&lt;p&gt;En anställning hos oss kan innebära placering i säkerhetsklass. En säkerhetsprövning med registerkontroll enligt Säkerhetsskyddslagen (2018:585) kan därför komma att genomföras före beslut om anställning. För en del av våra arbetsuppgifter i säkerhetsklass krävs svenskt medborgarskap.&lt;/p&gt;&lt;p&gt;Vi tar gärna emot samtal från dig som är intresserad av jobbet men vi tackar nej till dig som säljer annonser och rekryteringstjänster&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
+          <t>{'text': 'Company Description\nCharity Art Gallery (CAG) in Stockholm makes exhibiting art easy and accessible. Artists can send their original works by post, email digital images for printing and framing, or bring their art in person. CAG offers affordable and flexible options for artists, with prices starting at just 490 SEK. Additionally, artists can join the international Artsy online gallery for global exposure. CAG is a welcoming and artist-friendly environment for showcasing your work.\n\n\nRole Description\nThis is a temporary, unpaid Autumn intern role located on-site at Charity Art Gallery Skrapan in Stockholm. The intern will assist with daily gallery operations, including setting up exhibitions, assisting visitors, and looking for new artists/exhibitors/performers. This role is ideal for individuals interested in gaining hands-on experience in the art gallery environment. The intern will sit in the gallery 10.00 to 15.00 or 14.00 to 19.00 from September 1st to November 30, and / or maybe weekends 12.00 to 17.00. The intern can make commission by becoming an affiliate&gt; https://alexcolard.com/affiliate-agreement-page/\n\n\nQualifications\nExcellent communication skills\nAbility to work independently\nInterest in art and gallery management\nProficiency in basic marketing principles\nBasic knowledge of customer service\nFluency in both Swedish and English is a plus\nEnthusiasm for working in a supportive, creative environment\n\n\n\nÖppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Company Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Charity Art Gallery (CAG) in Stockholm makes exhibiting art easy and accessible. Artists can send their original works by post, email digital images for printing and framing, or bring their art in person. CAG offers affordable and flexible options for artists, with prices starting at just 490 SEK. Additionally, artists can join the international Artsy online gallery for global exposure. CAG is a welcoming and artist-friendly environment for showcasing your work.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Role Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;This is a temporary, unpaid Autumn intern role located on-site at Charity Art Gallery Skrapan in Stockholm. The intern will assist with daily gallery operations, including setting up exhibitions, assisting visitors, and looking for new artists/exhibitors/performers. This role is ideal for individuals interested in gaining hands-on experience in the art gallery environment. The intern will sit in the gallery 10.00 to 15.00 or 14.00 to 19.00 from September 1st to November 30, and / or maybe weekends 12.00 to 17.00. The intern can make commission by becoming an affiliate&amp;gt; https://alexcolard.com/affiliate-agreement-page/&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Excellent communication skills&lt;/li&gt;&lt;li&gt;Ability to work independently&lt;/li&gt;&lt;li&gt;Interest in art and gallery management&lt;/li&gt;&lt;li&gt;Proficiency in basic marketing principles&lt;/li&gt;&lt;li&gt;Basic knowledge of customer service&lt;/li&gt;&lt;li&gt;Fluency in both Swedish and English is a plus&lt;/li&gt;&lt;li&gt;Enthusiasm for working in a supportive, creative environment&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p id="oppenforalla"&gt;Öppen för alla\nVi fokuserar på din kompetens, inte dina övriga förutsättningar. Vi är öppna för att anpassa rollen eller arbetsplatsen efter dina behov.&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PFZr_Syz_cUq', 'label': 'Vanlig anställning', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '1paU_aCR_nGn', 'label': 'Behovsanställning', 'legacy_ams_taxonomy_id': '4'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Enl ök</t>
-        </is>
-      </c>
+          <t>{'concept_id': 'vVtj_qm6_GQu', 'label': 'Rörlig ackords- eller provisionslön', 'legacy_ams_taxonomy_id': '8'}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': None, 'label': None, 'legacy_ams_taxonomy_id': None}</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': None, 'max': None}</t>
         </is>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120000159', 'name': 'Södertälje kommun', 'workplace': 'Södertälje kommun'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://charity-art-gallery.com/', 'organization_number': None, 'name': 'Colard, Alexis Stefan', 'workplace': 'Charity Art Gallery / next to Rituals store'}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://candidate.hr-manager.net/ApplicationInit.aspx?cid=1362&amp;ProjectId=152088&amp;DepartmentId=19120&amp;MediaId=4681&amp;SkipAdvertisement=true&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': 'alexcolard@me.com', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -6547,12 +6527,12 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>{'concept_id': 'DjWo_rw6_r9z', 'label': 'Ljudtekniker', 'legacy_ams_taxonomy_id': '6085'}</t>
+          <t>{'concept_id': 'mHAm_gqB_wSy', 'label': 'First assistant director', 'legacy_ams_taxonomy_id': '7147'}</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>{'concept_id': '4BsK_q2C_sCL', 'label': 'Ljus-, ljud- och scentekniker', 'legacy_ams_taxonomy_id': '3522'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6562,32 +6542,32 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>{'municipality': 'Södertälje', 'municipality_code': '0181', 'municipality_concept_id': 'g6hK_M1o_hiU', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [17.625689, 59.195362]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Gotgatan 76', 'postcode': '11830', 'city': 'STOCKHOLM', 'coordinates': [18.073030963585687, 59.311965444797465]}</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'DjWo_rw6_r9z', 'label': 'Ljudtekniker', 'legacy_ams_taxonomy_id': '6085'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [{'weight': 5, 'concept_id': 'u2a1_mAW_vt1', 'label': 'Konst och media', 'legacy_ams_taxonomy_id': '5'}], 'education_level': [{'weight': 5, 'concept_id': '3Bof_mmm_XRk', 'label': 'Eftergymnasial utbildning kortare än två år', 'legacy_ams_taxonomy_id': '5'}]}</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Eduardo Morris', 'email': 'eduardo.morris@sodertalje.se', 'telephone': '08-52301722', 'contact_type': 'Resultatenhetschef'}]</t>
+          <t>[{'name': 'Alex Colard', 'description': None, 'email': None, 'telephone': '0728425659', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2025-08-29T09:28:45</t>
+          <t>2025-08-29T17:10:05</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>2025-09-12T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="AH40" t="b">
@@ -6596,11 +6576,11 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK40" t="n">
-        <v>1756452525640</v>
+        <v>1756480205795</v>
       </c>
     </row>
     <row r="41">
@@ -6609,12 +6589,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29963239</t>
+          <t>29968224</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>46-556559-5450-15114138</t>
+          <t>46-212000-0142-853115</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -6625,22 +6605,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29963239</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968224</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5565595450/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2120000142/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Koordinator till industriföretag i Boden!</t>
+          <t>Tekniker till Skarpnäcks kulturhus sökes för behovsanställning</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2025-09-12T23:59:59</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -6648,7 +6628,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>{'text': 'Har du tidigare erfarenhet från ett större industri-eller byggprojekt? Ansök då om rollen som koordinator hos vår kund i Boden redan idag, vi arbetar med löpande urval!\n\nOM TJÄNSTEN \nI rollen som koordinator ansvarar du för att stödja framtagning, samordning och uppföljning av dokumentation som krävs för överlämning från byggnation till driftsättning. Rollen är central för att säkerställa att anläggningen blir mekaniskt färdigställd. Arbetet innebär nära samarbete med olika avdelningar och team för att säkerställa att projektkrav och tidsplaner uppfylls. \n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Stödja säkerhetsinitiativ (HES, IIF, BBS) och rapportera risker/avvikelser  \n* Hjälpa till att utveckla rutiner  \n* Koordinera dokumentation från entreprenörer och leverantörer så att den uppfyller standarder  \n* Stödja interna revisioner och genomföra korrigerande åtgärder  \n* Förbereda checklistor, tidplaner, statusrapporter och loggar  \n* Delta i möten och bidra till förbättringar\n\n\nVI SÖKER DIG SOM \n- Har tidigare erfarenhet av arbete inom industri-eller byggbranschen\n- Har god förståelse för överlämningsprocesser och dokumentation\n- Har erfarenhet av att arbeta med uppföljningsverktyg och databaser\n- Har en stark kommunikationsförmåga\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Vid ansökan efterfrågas ett CV. Personligt brev använder vi inte som urvalsmetod och behöver därför inte bifogas. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nN/A', 'text_formatted': 'Har du tidigare erfarenhet från ett större industri-eller byggprojekt? Ansök då om rollen som koordinator hos vår kund i Boden redan idag, vi arbetar med löpande urval!\n\nOM TJÄNSTEN \nI rollen som koordinator ansvarar du för att stödja framtagning, samordning och uppföljning av dokumentation som krävs för överlämning från byggnation till driftsättning. Rollen är central för att säkerställa att anläggningen blir mekaniskt färdigställd. Arbetet innebär nära samarbete med olika avdelningar och team för att säkerställa att projektkrav och tidsplaner uppfylls. \n\nARBETSUPPGIFTER \n\nArbetsuppgifter\n\n\n* Stödja säkerhetsinitiativ (HES, IIF, BBS) och rapportera risker/avvikelser  \n* Hjälpa till att utveckla rutiner  \n* Koordinera dokumentation från entreprenörer och leverantörer så att den uppfyller standarder  \n* Stödja interna revisioner och genomföra korrigerande åtgärder  \n* Förbereda checklistor, tidplaner, statusrapporter och loggar  \n* Delta i möten och bidra till förbättringar\n\n\nVI SÖKER DIG SOM \n- Har tidigare erfarenhet av arbete inom industri-eller byggbranschen\n- Har god förståelse för överlämningsprocesser och dokumentation\n- Har erfarenhet av att arbeta med uppföljningsverktyg och databaser\n- Har en stark kommunikationsförmåga\n\nFör att lyckas i rollen har du följande personliga egenskaper:\n- Hjälpsam\n- Ordningsam\n- Ansvarstagande\n\nVår rekryteringsprocess\n\nDenna rekryteringsprocess hanteras av Academic Work och vår kunds önskemål är att alla frågor rörande tjänsten skickas till Academic Work.\n\nVi tillämpar löpande urval och kommer plocka ner annonsen när tillräckligt många kandidater har nått slutskedet i rekryteringsprocessen. Vid ansökan efterfrågas ett CV. Personligt brev använder vi inte som urvalsmetod och behöver därför inte bifogas. Rekryteringsprocessen innehåller två urvalstest: ett personlighetstest och ett test i kognitiv förmåga. Testerna är ett verktyg för att kunna hitta den kandidat med högst potential för tjänsten samt främja jämlikhet, mångfald och en rättvis rekryteringsprocess.\n\nINFORMATION OM FÖRETAGET \nN/A', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid'}</t>
+          <t>{'text': 'Stockholm – vår huvudstad med miljoner drömmar, förväntningar och ambitioner. Vi jobbar för alla som lever här idag och i framtiden. Nu söker vi dig som vill tänka stort, nytt och annorlunda med oss – för stockholmarna.\n\nSkarpnäcks stadsdelsförvaltning erbjuder dig en arbetsplats där ett aktivt medarbetarskap och ett tydligt ledarskap är grunden för att ge stockholmarna den bästa verksamheten. Eftersom vi gemensamt skapar vår arbetsmiljö är det viktigt med öppenhet, respekt och lyhördhet.\n\n\r\n\r\nVill du ha ett roligt jobb och bidra till det kulturella utbudet i Skarpnäcks stadsdel? Nu söker vi nya ljud/ljustekniker till Skarpnäcks kulturhus.\r\n\r\nVälkommen till oss\n\nPå Skarpnäcks kulturhus finns en replokal, inspelningsstudio, en verkstad, en danssal, en blackbox, en konstfoajé med en liten scen och en stor sal med scen, läktare och biograf. I huset finns även ett bibliotek, en restaurang och en fritidsgård.\n\nVi hyr ut våra lokaler och arrangerar egna aktiviteter och evenemang, många gånger i samarbete med andra aktörer.\n\nKulturhuset kan ha verksamhet från kl. 07:00 på morgonen till kl. 00:00 på natten, ange gärna i ansökan vilka tider som passar dig bäst. Störst behov finns helger och eftermiddag/kväll.\n\nDin roll\n\nVi söker en tekniker som kan arbeta vid behov. Det innebär att du inte har några fasta timmar utan kontaktas när det behövs, t.ex. vid ordinarie personals sjukdom, när hyresgäster bokat in sig utanför öppettider eller när vi genomför olika arrangemang. Denna tjänst passar därför dig som endast önskar arbeta extra, kanske kombinerar du det med studier eller eget skapande.\n\nSom tekniker arbetar du främst vid hyresgästers bokningar och kulturhusets egna evenemang. Det kan vara allt från enkel föreläsningsteknik som projektor och mikrofoner till mer avancerad evenemangsteknik med både ljud och ljus som t.ex. dans- och teaterföreställningar eller större konserter. Du kan också arbeta med förberedelser inför dessa i form av att tala med arrangörerna och guida dem i vilken teknik de kommer att behöva. Det kan också ingå att möblera inför en bokning med läktare eller bord och stolar och möblera av efteråt.\n\nDin kompetens och erfarenhet\nDet är en fördel om du är utbildad ljus- eller ljudtekniker.\xa0\n\nVarmt välkommen med din ansökan!\nStockholms stad arbetar med kompetensbaserad rekrytering som syftar till att se till varje persons kompetens och därmed motverka diskriminering.', 'text_formatted': 'Stockholm – vår huvudstad med miljoner drömmar, förväntningar och ambitioner. Vi jobbar för alla som lever här idag och i framtiden. Nu söker vi dig som vill tänka stort, nytt och annorlunda med oss – för stockholmarna.\n\nSkarpnäcks stadsdelsförvaltning erbjuder dig en arbetsplats där ett aktivt medarbetarskap och ett tydligt ledarskap är grunden för att ge stockholmarna den bästa verksamheten. Eftersom vi gemensamt skapar vår arbetsmiljö är det viktigt med öppenhet, respekt och lyhördhet.\n\n\r\n\r\nVill du ha ett roligt jobb och bidra till det kulturella utbudet i Skarpnäcks stadsdel? Nu söker vi nya ljud/ljustekniker till Skarpnäcks kulturhus.\r\n\r\nVälkommen till oss\n\nPå Skarpnäcks kulturhus finns en replokal, inspelningsstudio, en verkstad, en danssal, en blackbox, en konstfoajé med en liten scen och en stor sal med scen, läktare och biograf. I huset finns även ett bibliotek, en restaurang och en fritidsgård.\n\nVi hyr ut våra lokaler och arrangerar egna aktiviteter och evenemang, många gånger i samarbete med andra aktörer.\n\nKulturhuset kan ha verksamhet från kl. 07:00 på morgonen till kl. 00:00 på natten, ange gärna i ansökan vilka tider som passar dig bäst. Störst behov finns helger och eftermiddag/kväll.\n\nDin roll\n\nVi söker en tekniker som kan arbeta vid behov. Det innebär att du inte har några fasta timmar utan kontaktas när det behövs, t.ex. vid ordinarie personals sjukdom, när hyresgäster bokat in sig utanför öppettider eller när vi genomför olika arrangemang. Denna tjänst passar därför dig som endast önskar arbeta extra, kanske kombinerar du det med studier eller eget skapande.\n\nSom tekniker arbetar du främst vid hyresgästers bokningar och kulturhusets egna evenemang. Det kan vara allt från enkel föreläsningsteknik som projektor och mikrofoner till mer avancerad evenemangsteknik med både ljud och ljus som t.ex. dans- och teaterföreställningar eller större konserter. Du kan också arbeta med förberedelser inför dessa i form av att tala med arrangörerna och guida dem i vilken teknik de kommer att behöva. Det kan också ingå att möblera inför en bokning med läktare eller bord och stolar och möblera av efteråt.\n\nDin kompetens och erfarenhet\nDet är en fördel om du är utbildad ljus- eller ljudtekniker.\xa0\n\nVarmt välkommen med din ansökan!\nStockholms stad arbetar med kompetensbaserad rekrytering som syftar till att se till varje persons kompetens och därmed motverka diskriminering.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/Deltid. Enligt överenskommelse. Tillträde: Enligt överenskommelse\r\nVisstidsanställning till '}</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -6663,37 +6643,37 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Enligt avtal</t>
+          <t>Timlön</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'Xj7x_7yZ_jEn', 'label': '3 månader – upp till 6 månader', 'legacy_ams_taxonomy_id': '3'}</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>{'min': 100, 'max': 100}</t>
+          <t>{'min': 0, 'max': 100}</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.academicwork.se', 'organization_number': '5565595450', 'name': 'Academic Work Sweden AB', 'workplace': 'Academic Work'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120000142', 'name': 'Stockholms kommun', 'workplace': 'Stockholms stad, Skarpnäcks stadsdelsförvaltning, Kulturhuset'}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': '15114138', 'email': None, 'via_af': False, 'url': 'http://www.academicwork.se/jobad/koordinator-till-industriforetag-i-boden/15114138?apply=1', 'other': None}</t>
+          <t>{'information': None, 'reference': '2025/4976', 'email': None, 'via_af': False, 'url': 'https://stockholmsstad.varbi.com/what:job/jobID:853115/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -6704,12 +6684,12 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>{'concept_id': 'dnxZ_Bvb_S9C', 'label': 'Platskoordinator', 'legacy_ams_taxonomy_id': '7233'}</t>
+          <t>{'concept_id': 'DjWo_rw6_r9z', 'label': 'Ljudtekniker', 'legacy_ams_taxonomy_id': '6085'}</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
+          <t>{'concept_id': '4BsK_q2C_sCL', 'label': 'Ljus-, ljud- och scentekniker', 'legacy_ams_taxonomy_id': '3522'}</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -6719,12 +6699,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>{'municipality': 'Boden', 'municipality_code': '2582', 'municipality_concept_id': 'y4NQ_tnB_eVd', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [21.688704, 65.82512]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'dnxZ_Bvb_S9C', 'label': 'Platskoordinator', 'legacy_ams_taxonomy_id': '7233'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -6734,17 +6714,17 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Jennifer Johansson', 'email': None, 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': None, 'description': 'Erna Hellman', 'email': 'erna.hellman@stockholm.se', 'telephone': '08-50817316', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>2025-08-29T00:01:19</t>
+          <t>2025-08-29T17:09:45</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>2025-09-29T23:59:59</t>
+          <t>2025-09-12T23:59:59</t>
         </is>
       </c>
       <c r="AH41" t="b">
@@ -6757,7 +6737,7 @@
         </is>
       </c>
       <c r="AK41" t="n">
-        <v>1756418479790</v>
+        <v>1756480185855</v>
       </c>
     </row>
     <row r="42">
@@ -6766,12 +6746,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29960914</t>
+          <t>29968064</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>46-212000-0746-F213A90205A4401583B63391236B7534</t>
+          <t>46-252004-7503-853103</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -6782,22 +6762,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960914</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29968064</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2120000746/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2520047503/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skolbibliotekarie </t>
+          <t>Kyrkomusiker till Södra Vedbo pastorat, Hult-Edshult församling</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -6805,7 +6785,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>{'text': 'Vad roligt att du är intresserad av att jobba hos oss! Då värderar du förmodligen, precis som vi, ett jobb som är viktigt på riktigt. Här på Kalmar kommun arbetar vi tillsammans för att hela tiden göra Kalmar ännu bättre - för alla som lever sina liv här, driver företag eller besöker vår fina kommun.\n\nUtbildningsförvaltningens verksamheter har utvecklats starkt under de senaste tio åren, med ökande resultat för eleverna, höga värden när det gäller nöjdhet och trygghet, och inte minst en av Sveriges högsta lärarbehörigheter. Vi vill fånga alla barns och elevers lust att lära samt uppmuntra varje individ att vilja utvecklas.\n\nUtbildningsförvaltningen genomför under 2025 en satsning på skolbibliotek i syfte att öka elevers tillgång till skolbibliotekariekompetens, likvärdighet samt det läsfrämjande arbetet.\n\nVi söker nu en bibliotekarie som vill vara med att utveckla skolbiblioteksverksamheten i Kalmar kommun. Bibliotekarie söks till följande grundskolor:\n\nFalkenbergsområdet som består av Falkenbergsskolan åk F-9, Vasaskolan åk F-6 samt Kalmarsundsskolan åk F-6.\n\nVälkommen till oss!\r\n\r\nARBETSUPPGIFTER\nVi arbetar för att skolbiblioteket ska ha en tydlig pedagogisk funktion vars främsta uppgift är att genom samverkan med pedagoger bidra till att stärka elevers språkliga förmåga och digitala kompetens samt skapa ett skolbibliotek för alla.\xa0\n\nDu kommer att arbeta med att utveckla elevernas medie- och informationskunnighet och digitala kompetens, samt stärka elevernas läsengagemang och läsförmåga. Du arbetar läsfrämjande både i samarbete med skolans personal och på egen hand. Du planerar och genomför undervisning och handleder elever både i bibliotek och klassrum. Du tar en aktiv del i skolområdets systematiska kvalitetsarbete när det gäller att bland annat stärka elevernas språkliga kompetens.\xa0\n\nDu ansvarar för skolbiblioteksrummet och arbetar för att biblioteket är en lärmiljö som är socialt, pedagogiskt och fysiskt tillgängligt. Du verkar för att skolbiblioteket är en aktiv del i skolans värdegrundsarbete och demokratiska uppdrag. I arbetsuppgifterna ingår medieplanering och inköp, cirkulation och mediehantering. Du förväntas delta i kompetensutvecklingsinsatser som syftar till att utveckla skolbiblioteksverksamheten. Tillsammans med skolbibliotekariekollegor ingår du i ett nätverk för kollegialt lärande.\r\n\r\nKVALIFIKATIONER\nVi söker dig som i första hand har en examen inom biblioteks- och informationsvetenskap eller i andra hand annan relevant akademisk examen. Meriterande är några års erfarenhet av skolbiblioteksarbete.\n\nFör att passa i den här rollen behöver du ha ett stort engagemang för barn och unga och deras lärande. Du har även en stark ambition att omsätta forskning och fördjupade ämneskunskaper till välfungerande skolbibliotekspraktik.\n\nVi söker dig som har en god förmåga att arbeta tillsammans med andra och skapa goda relationer med både elever och kollegor. Du skapar förutsättningar för att lärande ska kunna ske och uppmuntrar till dialog, delaktighet och engagemang. Du tar även initiativ och ansvar för att arbetet går framåt oavsett om du arbetar ensam eller tillsammans med andra. Du bidrar med nya idéer och perspektiv och ser ofta mer än en möjlig lösning i olika situationer.\n\nBelastningsregister behöver uppvisas innan anställning.\n\nVälkommen med din ansökan!\r\n\nÖVRIGT\nKalmar kommun kontrollerar identitet och arbetstillstånd innan någon anställs. Detta innebär att du som söker jobb hos oss behöver visa legitimation. Om det är aktuellt kan du även behöva visa upp ditt uppehålls- och arbetstillstånd.\n\nSom tillsvidareanställd i Kalmar kommun kommer du att krigsplaceras på din arbetsplats och förväntas bidra med ditt arbete vid höjd beredskap.\n\nVissa tjänster inom Kalmar kommun är placerade i säkerhetsklass, vilket innebär att en säkerhetsprövning enligt säkerhetsskyddslagen kan komma att genomföras före beslut om anställning.', 'text_formatted': 'Vad roligt att du är intresserad av att jobba hos oss! Då värderar du förmodligen, precis som vi, ett jobb som är viktigt på riktigt. Här på Kalmar kommun arbetar vi tillsammans för att hela tiden göra Kalmar ännu bättre - för alla som lever sina liv här, driver företag eller besöker vår fina kommun.\n\nUtbildningsförvaltningens verksamheter har utvecklats starkt under de senaste tio åren, med ökande resultat för eleverna, höga värden när det gäller nöjdhet och trygghet, och inte minst en av Sveriges högsta lärarbehörigheter. Vi vill fånga alla barns och elevers lust att lära samt uppmuntra varje individ att vilja utvecklas.\n\nUtbildningsförvaltningen genomför under 2025 en satsning på skolbibliotek i syfte att öka elevers tillgång till skolbibliotekariekompetens, likvärdighet samt det läsfrämjande arbetet.\n\nVi söker nu en bibliotekarie som vill vara med att utveckla skolbiblioteksverksamheten i Kalmar kommun. Bibliotekarie söks till följande grundskolor:\n\nFalkenbergsområdet som består av Falkenbergsskolan åk F-9, Vasaskolan åk F-6 samt Kalmarsundsskolan åk F-6.\n\nVälkommen till oss!\r\n\r\nARBETSUPPGIFTER\nVi arbetar för att skolbiblioteket ska ha en tydlig pedagogisk funktion vars främsta uppgift är att genom samverkan med pedagoger bidra till att stärka elevers språkliga förmåga och digitala kompetens samt skapa ett skolbibliotek för alla.\xa0\n\nDu kommer att arbeta med att utveckla elevernas medie- och informationskunnighet och digitala kompetens, samt stärka elevernas läsengagemang och läsförmåga. Du arbetar läsfrämjande både i samarbete med skolans personal och på egen hand. Du planerar och genomför undervisning och handleder elever både i bibliotek och klassrum. Du tar en aktiv del i skolområdets systematiska kvalitetsarbete när det gäller att bland annat stärka elevernas språkliga kompetens.\xa0\n\nDu ansvarar för skolbiblioteksrummet och arbetar för att biblioteket är en lärmiljö som är socialt, pedagogiskt och fysiskt tillgängligt. Du verkar för att skolbiblioteket är en aktiv del i skolans värdegrundsarbete och demokratiska uppdrag. I arbetsuppgifterna ingår medieplanering och inköp, cirkulation och mediehantering. Du förväntas delta i kompetensutvecklingsinsatser som syftar till att utveckla skolbiblioteksverksamheten. Tillsammans med skolbibliotekariekollegor ingår du i ett nätverk för kollegialt lärande.\r\n\r\nKVALIFIKATIONER\nVi söker dig som i första hand har en examen inom biblioteks- och informationsvetenskap eller i andra hand annan relevant akademisk examen. Meriterande är några års erfarenhet av skolbiblioteksarbete.\n\nFör att passa i den här rollen behöver du ha ett stort engagemang för barn och unga och deras lärande. Du har även en stark ambition att omsätta forskning och fördjupade ämneskunskaper till välfungerande skolbibliotekspraktik.\n\nVi söker dig som har en god förmåga att arbeta tillsammans med andra och skapa goda relationer med både elever och kollegor. Du skapar förutsättningar för att lärande ska kunna ske och uppmuntrar till dialog, delaktighet och engagemang. Du tar även initiativ och ansvar för att arbetet går framåt oavsett om du arbetar ensam eller tillsammans med andra. Du bidrar med nya idéer och perspektiv och ser ofta mer än en möjlig lösning i olika situationer.\n\nBelastningsregister behöver uppvisas innan anställning.\n\nVälkommen med din ansökan!\r\n\nÖVRIGT\nKalmar kommun kontrollerar identitet och arbetstillstånd innan någon anställs. Detta innebär att du som söker jobb hos oss behöver visa legitimation. Om det är aktuellt kan du även behöva visa upp ditt uppehålls- och arbetstillstånd.\n\nSom tillsvidareanställd i Kalmar kommun kommer du att krigsplaceras på din arbetsplats och förväntas bidra med ditt arbete vid höjd beredskap.\n\nVissa tjänster inom Kalmar kommun är placerade i säkerhetsklass, vilket innebär att en säkerhetsprövning enligt säkerhetsskyddslagen kan komma att genomföras före beslut om anställning.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid. \r\nTillsvidareanställning, tillträde: Tillträde enligt överenskommelse.'}</t>
+          <t>{'text': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Hult-Edshults församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\n - Spela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n - Leda körverksamhet för barn och vuxna.\n - Vara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå.\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'text_formatted': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Hult-Edshults församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\n - Spela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n - Leda körverksamhet för barn och vuxna.\n - Vara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå.\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100%. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -6841,16 +6821,16 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2120000746', 'name': 'Kalmar kommun', 'workplace': 'Kalmar kommun, Utbildningsförvaltningen'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2520047503', 'name': 'Södra Vedbo pastorat', 'workplace': 'Södra Vedbo pastorat'}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'C274182', 'email': None, 'via_af': False, 'url': 'https://recruit.visma.com/spa/public/apply?guidAssignment=f213a902-05a4-4015-83b6-3391236b7534&amp;publishCode=AMS&amp;TK=e3030143-a7d7-46cd-ad1e-3890663110fa', 'other': None}</t>
+          <t>{'information': None, 'reference': '2025/588', 'email': None, 'via_af': False, 'url': 'https://svenskakyrkan.varbi.com/what:job/jobID:853103/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -6861,12 +6841,12 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>{'concept_id': 'n9RX_nnz_ZYF', 'label': 'Skolbibliotekarie', 'legacy_ams_taxonomy_id': '2453'}</t>
+          <t>{'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'AWJF_wqZ_va9', 'label': 'Musiker, sångare och kompositörer', 'legacy_ams_taxonomy_id': '2652'}</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -6876,32 +6856,32 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>{'municipality': 'Kalmar', 'municipality_code': '0880', 'municipality_concept_id': 'Pnmg_SgP_uHQ', 'region': 'Kalmar län', 'region_code': '08', 'region_concept_id': '9QUH_2bb_6Np', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [16.35678, 56.663445]}</t>
+          <t>{'municipality': 'Eksjö', 'municipality_code': '0686', 'municipality_concept_id': 'VacK_WF6_XVg', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [14.973222, 57.665165]}</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Josefin Danielsson', 'email': None, 'telephone': '010-352 60 27', 'contact_type': 'Verksamhetsutvecklare'}, {'name': None, 'description': 'Per-Ola Jacobson', 'email': None, 'telephone': '010-35 25 451', 'contact_type': 'Rektor Falkenbergsskolan'}]</t>
+          <t>[{'name': None, 'description': 'Annica Sjöstrand', 'email': None, 'telephone': '0381-662318,annica.sjostrand@svenskakyrkan.se', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>2025-08-29T00:00:00</t>
+          <t>2025-08-29T16:36:55</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>2025-09-28T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="AH42" t="b">
@@ -6914,7 +6894,7 @@
         </is>
       </c>
       <c r="AK42" t="n">
-        <v>1756379416465</v>
+        <v>1756478215692</v>
       </c>
     </row>
     <row r="43">
@@ -6923,12 +6903,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29963088</t>
+          <t>29967912</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>46-559486-8696-20599</t>
+          <t>46-252004-7503-853092</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -6939,18 +6919,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29963088</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967912</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2520047503/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Senior systemutvecklare</t>
+          <t>Kyrkomusiker till Södra Vedbo pastorat, Ingatorp-Bellö församling</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-09-15T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -6958,7 +6942,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker för kunds räkning. För att ansöka till tjänsten, vänligen besök https://karriarguiden.se/sv/jobb/senior-systemutvecklare-100-remote-inga-problem. Vi ser fram emot din ansökan!\n                        \nVi söker just nu efter en senior och erfaren systemutvecklare till vårt backendteam. Bor du inte i Stockholm, eller vill jobba helt eller delvis hemifrån är det inte något hinder för oss.\n\nLimetta är en framgångsrik digital byrå med över 20 år i branschen. Vår strategi är att växa med cirka 10% per år med en bibehållen stabil lönsamhet. Vi söker nu förstärkning till vårt utvecklarteam som består av cirka 20 systemutvecklare med bred teknisk kompetens.\nArbetsbeskrivning\nTillsammans med utvecklare, projektledare och kreatörer bygger du de vassaste och bästa lösningarna till våra kunder. Du är van att förstå kunders krav och komma med egna lösningsförslag. Du kommer att ha stort inflytande över teknikval, arkitektur, plattformar, verktyg och kod. Stacken består av C# i botten men projekten varierar och t.ex TypeScript, React eller Vue finns möjlighet att fördjupa sig i. Vi jobbar i en modern utvecklingsmiljö i Azure DevOps (GIT) och du tillsammans med teamet ser till att vi ligger i framkant även här.\nOm dig\nDu är trygg i din roll som systemutvecklare, är självgående, ansvarstagande och initiativrik. Tillsammans med teamet bestående av utvecklare, projektledare och kreatörer, är din roll att bygga de bästa och smartaste lösningarna anpassat efter kundernas behov. Du har en hunger efter ny teknik och föreslår gärna innovativa lösningar på komplexa problem. Vi ser att du är kommunikativ, serviceinriktad och lyhörd för våra kunder.\nDu• Har flera års erfarenhet av system och webbutveckling inom .NET\n• Är driven och självgående och kan arbeta självständigt\n• Är van att ta ansvar för den tekniska lösningen, systemarkitektur, samt leda och bistå andra i teamet med kunskap och råd.\n• Trivs i agila team bestående av både utvecklare och kreatörer och du bidrar gärna genom att hjälpa dina kollegor.\n• Har mycket goda kunskaper i .NET/C#, SQL Server och Git\n• Har erfarenhet av CI/CD, serverkonfiguration och automatisering.\n• Vill fortsätta lära dig och använda nya spännande tekniker och är intresserad av DevOps, Cloud-plattformar (t.ex. Azure / AWS), Powershell, Docker eller andra spännande verktyg och tjänster.\n\nThomas och Patrik är några kollegor i utvecklarteamet\nVi erbjuder dig\nEn utvecklande arbetsmiljö där du får jobba med problemlösning och nya tekniker. Mycket variation mellan olika typer av kunder och projekt.\n\nEtt kompetent team bland trevliga kollegor med olika spetskompetenser. På Limetta jobbar idag cirka 25 personer.\n\nAllt det formella man ska förvänta sig av sin arbetsgivare finns på plats:\n• Bra lön och sex veckors semester\n• Tjänstepension (motsvarande ITP1), sjukvårdsförsäkring samt en mängd övriga försäkringar.\n• Trevliga lokaler med bra kommunikationer mitt i city med ”nära till allt”, men även möjlighet att arbeta på distans vid behov.\n• Frihet i val av dator, mobil och andra verktyg du behöver.\n• Hjälp med lägenhet i Stockholm om du flyttar hit\n\nUtanför jobbet händer det ofta kul saker. Gemensam frukost varje måndag och fredag, AW - ibland med aktiviteter, ibland bara en skön kväll på en trevlig restaurang eller pub, sommarfest och julmiddag.\n\nOm Limetta\nLimetta är en digital byrå med ett trettiotal anställda. Vi har lång erfarenhet av att skapa framgångsrika lösningar tillsammans med våra kunder. Vi har varit nominerade till Årets Byrå sju år i rad med flera pallplatser och en vinst bland meriterna.\n\nVi på Limetta menar att ett brinnande engagemang och förståelse för kundens behov kombinerat med avancerad teknik, strategisk kompetens, kreativ design och ett positivt förhållningssätt är ett framgångsrecept. Vi jobbar hårt för att dagligen överträffa oss själva.', 'text_formatted': 'Vi söker för kunds räkning. För att ansöka till tjänsten, vänligen besök https://karriarguiden.se/sv/jobb/senior-systemutvecklare-100-remote-inga-problem. Vi ser fram emot din ansökan!\n                        \nVi söker just nu efter en senior och erfaren systemutvecklare till vårt backendteam. Bor du inte i Stockholm, eller vill jobba helt eller delvis hemifrån är det inte något hinder för oss.\n\nLimetta är en framgångsrik digital byrå med över 20 år i branschen. Vår strategi är att växa med cirka 10% per år med en bibehållen stabil lönsamhet. Vi söker nu förstärkning till vårt utvecklarteam som består av cirka 20 systemutvecklare med bred teknisk kompetens.\nArbetsbeskrivning\nTillsammans med utvecklare, projektledare och kreatörer bygger du de vassaste och bästa lösningarna till våra kunder. Du är van att förstå kunders krav och komma med egna lösningsförslag. Du kommer att ha stort inflytande över teknikval, arkitektur, plattformar, verktyg och kod. Stacken består av C# i botten men projekten varierar och t.ex TypeScript, React eller Vue finns möjlighet att fördjupa sig i. Vi jobbar i en modern utvecklingsmiljö i Azure DevOps (GIT) och du tillsammans med teamet ser till att vi ligger i framkant även här.\nOm dig\nDu är trygg i din roll som systemutvecklare, är självgående, ansvarstagande och initiativrik. Tillsammans med teamet bestående av utvecklare, projektledare och kreatörer, är din roll att bygga de bästa och smartaste lösningarna anpassat efter kundernas behov. Du har en hunger efter ny teknik och föreslår gärna innovativa lösningar på komplexa problem. Vi ser att du är kommunikativ, serviceinriktad och lyhörd för våra kunder.\nDu• Har flera års erfarenhet av system och webbutveckling inom .NET\n• Är driven och självgående och kan arbeta självständigt\n• Är van att ta ansvar för den tekniska lösningen, systemarkitektur, samt leda och bistå andra i teamet med kunskap och råd.\n• Trivs i agila team bestående av både utvecklare och kreatörer och du bidrar gärna genom att hjälpa dina kollegor.\n• Har mycket goda kunskaper i .NET/C#, SQL Server och Git\n• Har erfarenhet av CI/CD, serverkonfiguration och automatisering.\n• Vill fortsätta lära dig och använda nya spännande tekniker och är intresserad av DevOps, Cloud-plattformar (t.ex. Azure / AWS), Powershell, Docker eller andra spännande verktyg och tjänster.\n\nThomas och Patrik är några kollegor i utvecklarteamet\nVi erbjuder dig\nEn utvecklande arbetsmiljö där du får jobba med problemlösning och nya tekniker. Mycket variation mellan olika typer av kunder och projekt.\n\nEtt kompetent team bland trevliga kollegor med olika spetskompetenser. På Limetta jobbar idag cirka 25 personer.\n\nAllt det formella man ska förvänta sig av sin arbetsgivare finns på plats:\n• Bra lön och sex veckors semester\n• Tjänstepension (motsvarande ITP1), sjukvårdsförsäkring samt en mängd övriga försäkringar.\n• Trevliga lokaler med bra kommunikationer mitt i city med ”nära till allt”, men även möjlighet att arbeta på distans vid behov.\n• Frihet i val av dator, mobil och andra verktyg du behöver.\n• Hjälp med lägenhet i Stockholm om du flyttar hit\n\nUtanför jobbet händer det ofta kul saker. Gemensam frukost varje måndag och fredag, AW - ibland med aktiviteter, ibland bara en skön kväll på en trevlig restaurang eller pub, sommarfest och julmiddag.\n\nOm Limetta\nLimetta är en digital byrå med ett trettiotal anställda. Vi har lång erfarenhet av att skapa framgångsrika lösningar tillsammans med våra kunder. Vi har varit nominerade till Årets Byrå sju år i rad med flera pallplatser och en vinst bland meriterna.\n\nVi på Limetta menar att ett brinnande engagemang och förståelse för kundens behov kombinerat med avancerad teknik, strategisk kompetens, kreativ design och ett positivt förhållningssätt är ett framgångsrecept. Vi jobbar hårt för att dagligen överträffa oss själva.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Ingatorp-Bellö församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\nSpela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n\nLeda körverksamhet för barn och vuxna.\n\nVara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå (gäller kyrkomusikertjänsterna).\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'text_formatted': 'Vill du vara med och bygga församling och arbeta med människor i alla åldrar? Välkommen att jobba hos oss!\xa0\n\nBeskrivning\nVi söker dig som har en kyrkomusikalisk bredd, är väl förtrogen med gudstjänstlivet i Svenska kyrkan och vill vara en del av och utveckla musik- och församlingslivet hos oss.\r\n\r\nDin huvudsakliga arbetsplats finns i Ingatorp-Bellö församling, men viss del av arbetet sker i andra delar av pastoratet.\n\nI pastoratet finns totalt nio präster och åtta kyrkomusiker.\n\n\n\nArbetsuppgifter\nSpela på gudstjänster, kyrkliga handlingar och övrig församlingsverksamhet.\xa0\n\nLeda körverksamhet för barn och vuxna.\n\nVara en resurs i konfirmandarbetet.\n\n\xa0\n\nKvalifikationer\nVi söker dig som:\n\n - värnar det lokala sammanhanget.\n - är en lagspelare som trivs i samarbete med det lilla arbetslaget.\n - har körkort och tillgång till bil.\n - är positiv, utåtriktad och känner dig trygg inför större grupper såväl som i det enskilda mötet.\n - vill planera och medverka i pastoratets arbete och se det ur ett helhetsperspektiv\n - brinner för att förmedla kristen tro.\n - är medlem i Svenska kyrkan.\n - har kyrkomusikerexamen, behörighet c-nivå (gäller kyrkomusikertjänsterna).\n\nStor vikt kommer att läggas vid personlig lämplighet. Vid anställning behöver du lämna ett utdrag ur belastningsregistret avsett för arbete med barn och unga.\n\n\xa0\n\nTjänsten är en tillsvidareanställning på 100 % där både dag-, kväll- och helgtjänstgöring förekommer. Tillträde enligt överenskommelse.\n\nVi är ett pastorat med sju församlingar i Eksjö kommun samt en liten del av Nässjö kommun. I våra församlingar finns det tolv kyrkor, tre kapell, tolv kyrkogårdar och två förskolor. Vi har cirka 12 300 kyrkotillhöriga och 80 anställda.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100%. Tillträde: Enligt överenskommelse\r\nTillsvidareanställning'}</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -6971,7 +6955,11 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Månadslön</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -6990,12 +6978,12 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://karriarguiden.se/sv/arbetsgivare/limetta', 'organization_number': '5594868696', 'name': 'Karriärguiden Group Sweden AB', 'workplace': 'Limetta'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2520047503', 'name': 'Södra Vedbo pastorat', 'workplace': 'Södra Vedbo pastorat'}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://karriarguiden.se/sv/jobb/senior-systemutvecklare-100-remote-inga-problem', 'other': None}</t>
+          <t>{'information': None, 'reference': '2025/587', 'email': None, 'via_af': False, 'url': 'https://svenskakyrkan.varbi.com/what:job/jobID:853092/type:job/where:1/apply:1', 'other': None}</t>
         </is>
       </c>
       <c r="U43" t="b">
@@ -7010,12 +6998,12 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
+          <t>{'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
+          <t>{'concept_id': 'AWJF_wqZ_va9', 'label': 'Musiker, sångare och kompositörer', 'legacy_ams_taxonomy_id': '2652'}</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -7025,12 +7013,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Eksjö', 'municipality_code': '0686', 'municipality_concept_id': 'VacK_WF6_XVg', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [14.973222, 57.665165]}</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'WoT4_oqQ_5Fa', 'label': 'Kantor/Kyrkomusiker', 'legacy_ams_taxonomy_id': '3362'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -7040,17 +7028,17 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Annica Sjöstrand', 'email': None, 'telephone': '0381-662318,annica.sjostrand@svenskakyrkan.se', 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>2025-08-28T20:33:58</t>
+          <t>2025-08-29T16:02:46</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>2025-09-15T23:59:59</t>
+          <t>2025-09-30T23:59:59</t>
         </is>
       </c>
       <c r="AH43" t="b">
@@ -7063,7 +7051,7 @@
         </is>
       </c>
       <c r="AK43" t="n">
-        <v>1756406038391</v>
+        <v>1756476166093</v>
       </c>
     </row>
     <row r="44">
@@ -7072,14 +7060,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29963090</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>46-559486-8696-20601</t>
-        </is>
-      </c>
+          <t>29967599</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
@@ -7088,18 +7072,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29963090</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967599</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/80430956/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Webbutvecklare</t>
+          <t>Produktionskoordinator  skapa struktur kring vårt växande sortiment</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-09-15T23:59:59</t>
+          <t>2025-09-19T23:59:59</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -7107,7 +7095,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker för kunds räkning. För att ansöka till tjänsten, vänligen besök https://karriarguiden.se/sv/jobb/webbutvecklare-100-remote-inga-problem. Vi ser fram emot din ansökan!\n                        \nVi söker efter CMS- och webbutvecklare med ca 4-6 års arbetslivserfarenhet till vårt utvecklarteam. Bor du inte i Stockholm, eller vill jobba helt eller delvis hemifrån är det inte något hinder för oss.\n\nLimetta är en framgångsrik digital byrå med över 25 år i branschen. Vår strategi är att växa med cirka 10% per år med en bibehållen stabil lönsamhet. Vi söker nu förstärkning till vårt utvecklarteam som består av cirka 25 systemutvecklare med bred teknisk kompetens.\nArbetsbeskrivning\nTillsammans med utvecklare, projektledare och kreatörer bygger du de vassaste och bästa lösningarna till våra kunder. Du är van att förstå kunders krav och komma med egna lösningsförslag. Du kommer att ha stort inflytande över teknikval, arkitektur, plattformar, verktyg och kod. Stacken består av C# i botten men projekten varierar och t.ex TypeScript, React eller Vue finns möjlighet att fördjupa sig i. Vi jobbar i en modern utvecklingsmiljö i Azure DevOps (GIT) och du tillsammans med teamet ser till att vi ligger i framkant även här. I många av våra projekt använder vi CMS-verktygen Optimizely (Episerver) eller Umbraco.\nOm dig\nDu är trygg i din roll som webbutvecklare, är självgående, ansvarstagande och initiativrik. Tillsammans med teamet bestående av utvecklare, projektledare och kreatörer, är din roll att bygga de bästa och smartaste lösningarna anpassat efter kundernas behov. Du har en hunger efter ny teknik och föreslår gärna innovativa lösningar på komplexa problem. Vi ser att du är kommunikativ, serviceinriktad och lyhörd för våra kunder.\nDu• Har minst 4-6 års erfarenhet av system och webbutveckling inom .NET\n• Är driven och självgående och kan arbeta självständigt\n• Trivs i agila team bestående av både utvecklare och kreatörer och du bidrar gärna genom att hjälpa dina kollegor\n• Har mycket goda kunskaper i .NET/C#, SQL Server och Git\n• Har erfarenhet av att arbeta i CMS, t ex Optimizely eller Umbraco\n• Vill fortsätta lära dig och använda nya spännande tekniker och är intresserad av DevOps, Cloud-plattformar (t.ex. Azure / AWS), Powershell, Docker eller andra spännande verktyg och tjänster.\n\nVi erbjuder dig\nEn utvecklande arbetsmiljö där du får jobba med problemlösning och nya tekniker. Mycket variation mellan olika typer av kunder och projekt.\n\nEtt kompetent team bland trevliga kollegor med olika spetskompetenser. På Limetta jobbar idag cirka 40 personer.\n\nAllt det formella man ska förvänta sig av sin arbetsgivare finns på plats:\n• Bra lön och sex veckors semester\n• Tjänstepension (motsvarande ITP1), sjukvårdsförsäkring samt en mängd övriga försäkringar.\n• Trevliga lokaler med bra kommunikationer mitt i city med ”nära till allt”, men även möjlighet att arbeta på distans.\n• Frihet i val av dator, mobil och andra verktyg du behöver.\n• Hjälp med lägenhet i Stockholm om du flyttar hit\n\nUtanför jobbet händer det kul saker med jämna mellanrum. Gemensam frukost, AW - ibland med aktiviteter, ibland bara en skön kväll på en trevlig pub, sommarfest och julmiddag. En gång fick vi t o m åka helikopter. Flera av oss har dock hunnit bilda familj, skaffa katt och har fullt upp med vardagspussel, så förvänta dig inte party alla dagar i veckan.\nOm Limetta\nLimetta är en digital byrå med ett trettiotal anställda. Vi har lång erfarenhet av att skapa framgångsrika lösningar tillsammans med våra kunder. Vi har varit nominerade till Årets Byrå sju år i rad med flera pallplatser och en vinst bland meriterna.\n\nVi på Limetta menar att ett brinnande engagemang och förståelse för kundens behov kombinerat med avancerad teknik, strategisk kompetens, kreativ design och ett positivt förhållningssätt är ett framgångsrecept. Vi jobbar hårt för att dagligen överträffa oss själva.', 'text_formatted': 'Vi söker för kunds räkning. För att ansöka till tjänsten, vänligen besök https://karriarguiden.se/sv/jobb/webbutvecklare-100-remote-inga-problem. Vi ser fram emot din ansökan!\n                        \nVi söker efter CMS- och webbutvecklare med ca 4-6 års arbetslivserfarenhet till vårt utvecklarteam. Bor du inte i Stockholm, eller vill jobba helt eller delvis hemifrån är det inte något hinder för oss.\n\nLimetta är en framgångsrik digital byrå med över 25 år i branschen. Vår strategi är att växa med cirka 10% per år med en bibehållen stabil lönsamhet. Vi söker nu förstärkning till vårt utvecklarteam som består av cirka 25 systemutvecklare med bred teknisk kompetens.\nArbetsbeskrivning\nTillsammans med utvecklare, projektledare och kreatörer bygger du de vassaste och bästa lösningarna till våra kunder. Du är van att förstå kunders krav och komma med egna lösningsförslag. Du kommer att ha stort inflytande över teknikval, arkitektur, plattformar, verktyg och kod. Stacken består av C# i botten men projekten varierar och t.ex TypeScript, React eller Vue finns möjlighet att fördjupa sig i. Vi jobbar i en modern utvecklingsmiljö i Azure DevOps (GIT) och du tillsammans med teamet ser till att vi ligger i framkant även här. I många av våra projekt använder vi CMS-verktygen Optimizely (Episerver) eller Umbraco.\nOm dig\nDu är trygg i din roll som webbutvecklare, är självgående, ansvarstagande och initiativrik. Tillsammans med teamet bestående av utvecklare, projektledare och kreatörer, är din roll att bygga de bästa och smartaste lösningarna anpassat efter kundernas behov. Du har en hunger efter ny teknik och föreslår gärna innovativa lösningar på komplexa problem. Vi ser att du är kommunikativ, serviceinriktad och lyhörd för våra kunder.\nDu• Har minst 4-6 års erfarenhet av system och webbutveckling inom .NET\n• Är driven och självgående och kan arbeta självständigt\n• Trivs i agila team bestående av både utvecklare och kreatörer och du bidrar gärna genom att hjälpa dina kollegor\n• Har mycket goda kunskaper i .NET/C#, SQL Server och Git\n• Har erfarenhet av att arbeta i CMS, t ex Optimizely eller Umbraco\n• Vill fortsätta lära dig och använda nya spännande tekniker och är intresserad av DevOps, Cloud-plattformar (t.ex. Azure / AWS), Powershell, Docker eller andra spännande verktyg och tjänster.\n\nVi erbjuder dig\nEn utvecklande arbetsmiljö där du får jobba med problemlösning och nya tekniker. Mycket variation mellan olika typer av kunder och projekt.\n\nEtt kompetent team bland trevliga kollegor med olika spetskompetenser. På Limetta jobbar idag cirka 40 personer.\n\nAllt det formella man ska förvänta sig av sin arbetsgivare finns på plats:\n• Bra lön och sex veckors semester\n• Tjänstepension (motsvarande ITP1), sjukvårdsförsäkring samt en mängd övriga försäkringar.\n• Trevliga lokaler med bra kommunikationer mitt i city med ”nära till allt”, men även möjlighet att arbeta på distans.\n• Frihet i val av dator, mobil och andra verktyg du behöver.\n• Hjälp med lägenhet i Stockholm om du flyttar hit\n\nUtanför jobbet händer det kul saker med jämna mellanrum. Gemensam frukost, AW - ibland med aktiviteter, ibland bara en skön kväll på en trevlig pub, sommarfest och julmiddag. En gång fick vi t o m åka helikopter. Flera av oss har dock hunnit bilda familj, skaffa katt och har fullt upp med vardagspussel, så förvänta dig inte party alla dagar i veckan.\nOm Limetta\nLimetta är en digital byrå med ett trettiotal anställda. Vi har lång erfarenhet av att skapa framgångsrika lösningar tillsammans med våra kunder. Vi har varit nominerade till Årets Byrå sju år i rad med flera pallplatser och en vinst bland meriterna.\n\nVi på Limetta menar att ett brinnande engagemang och förståelse för kundens behov kombinerat med avancerad teknik, strategisk kompetens, kreativ design och ett positivt förhållningssätt är ett framgångsrecept. Vi jobbar hårt för att dagligen överträffa oss själva.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Vi är i en spännande fas där vi introducerar ett nytt produktsortiment i vår fabrik – ett sortiment som redan är etablerat på marknaden. Samtidigt vill vi fortsätta utveckla vårt befintliga sortiment. Nu söker vi dig som vill vara med och få helheten att fungera – från planering till produktion – i nära samarbete med både interna och externa parter.\nVad du kommer att göra:\nPlanera och följa upp produktionen för både nya och befintliga produkter.\nSäkerställa att rätt material, komponenter och resurser finns tillgängliga.\nKoordinera mellan olika avdelningar såsom produktion, lager, teknik, försäljning och kvalitet.\nAnsvara för externa leverantörer och samarbetspartners i Sverige och internationellt för att säkerställa leveransförmåga och tidsramar.\nBidra till att utveckla rutiner och arbetssätt kring våra produktområden.\nVara med och driva förbättringar i hur vi arbetar med sortimentet över tid.\n\nVem vi tror att du är:\nDu har erfarenhet av planering inom produktion eller liknande miljö.\nDu gillar att ta initiativ och driva saker framåt.\nDu är van att jobba med affärssystem – erfarenhet av Monitor G5 är meriterande.\nDu har ett öga för både detaljer och helhet, och trivs med att samarbeta.\nDu är kommunikativ, lösningsorienterad och strukturerad.\n\nVad du får hos oss:\nEn roll där du får vara med och bygga upp något nytt – och vidareutveckla det vi redan gör.\nMöjlighet att påverka och förbättra både arbetssätt och produktion.\nEtt engagerat team och en arbetsplats med korta beslutsvägar.\nBra villkor och goda möjligheter att växa med oss.\n\nLämna in ansökan med personligt brev och CV till jobb@glimakra.com ange produktionskoordinator.\nFrågor kring tjänsten kontakta Thomas Oscarsson telefon 076-109 40 17.', 'text_formatted': '&lt;p&gt;Vi är i en spännande fas där vi introducerar ett nytt produktsortiment i vår fabrik – ett sortiment som redan är etablerat på marknaden. Samtidigt vill vi fortsätta utveckla vårt befintliga sortiment. Nu söker vi dig som vill vara med och få helheten att fungera – från planering till produktion – i nära samarbete med både interna och externa parter.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vad du kommer att göra:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Planera och följa upp produktionen för både nya och befintliga produkter.&lt;/li&gt;&lt;li&gt;Säkerställa att rätt material, komponenter och resurser finns tillgängliga.&lt;/li&gt;&lt;li&gt;Koordinera mellan olika avdelningar såsom produktion, lager, teknik, försäljning och kvalitet.&lt;/li&gt;&lt;li&gt;Ansvara för externa leverantörer och samarbetspartners i Sverige och internationellt för att säkerställa leveransförmåga och tidsramar.&lt;/li&gt;&lt;li&gt;Bidra till att utveckla rutiner och arbetssätt kring våra produktområden.&lt;/li&gt;&lt;li&gt;Vara med och driva förbättringar i hur vi arbetar med sortimentet över tid.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vem vi tror att du är:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Du har erfarenhet av planering inom produktion eller liknande miljö.&lt;/li&gt;&lt;li&gt;Du gillar att ta initiativ och driva saker framåt.&lt;/li&gt;&lt;li&gt;Du är van att jobba med affärssystem – erfarenhet av &lt;strong&gt;Monitor&lt;/strong&gt; &lt;strong&gt;G5 &lt;/strong&gt;är meriterande.&lt;/li&gt;&lt;li&gt;Du har ett öga för både detaljer och helhet, och trivs med att samarbeta.&lt;/li&gt;&lt;li&gt;Du är kommunikativ, lösningsorienterad och strukturerad.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Vad du får hos oss:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;En roll där du får vara med och bygga upp något nytt – och vidareutveckla det vi redan gör.&lt;/li&gt;&lt;li&gt;Möjlighet att påverka och förbättra både arbetssätt och produktion.&lt;/li&gt;&lt;li&gt;Ett engagerat team och en arbetsplats med korta beslutsvägar.&lt;/li&gt;&lt;li&gt;Bra villkor och goda möjligheter att växa med oss.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Lämna in ansökan med personligt brev och CV till jobb@glimakra.com ange produktionskoordinator.&lt;/p&gt;&lt;p&gt;Frågor kring tjänsten kontakta Thomas Oscarsson telefon 076-109 40 17.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -7139,12 +7127,12 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://karriarguiden.se/sv/arbetsgivare/limetta', 'organization_number': '5594868696', 'name': 'Karriärguiden Group Sweden AB', 'workplace': 'Limetta'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.glimakra.com', 'organization_number': '5561207837', 'name': 'Glimakra Of Sweden AB', 'workplace': 'Glimakra of Sweden AB'}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://karriarguiden.se/sv/jobb/webbutvecklare-100-remote-inga-problem', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': 'jobb@glimakra.com', 'via_af': False, 'url': None, 'other': None}</t>
         </is>
       </c>
       <c r="U44" t="b">
@@ -7154,17 +7142,21 @@
         <v>0</v>
       </c>
       <c r="W44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
+          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -7174,32 +7166,32 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Östra Göinge', 'municipality_code': '1256', 'municipality_concept_id': 'LTt7_CGG_RUf', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'KILINGEVÄGEN 13', 'postcode': '28064', 'city': 'GLIMÅKRA', 'coordinates': [14.171403, 56.220295]}</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 10, 'concept_id': 'w8bU_wHe_omF', 'label': 'MS Office', 'legacy_ams_taxonomy_id': '608767'}, {'weight': 10, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}], 'languages': [{'weight': 10, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 10, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}, {'weight': 5, 'concept_id': '1FbS_vYp_DC3', 'label': 'Monitor, affärssystem', 'legacy_ams_taxonomy_id': '607513'}], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Thomas Oscarsson', 'description': None, 'email': 'thomas.oscarsson@glimakra.com', 'telephone': '076 109 40 17', 'contact_type': 'Fabrikschef'}]</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>2025-08-28T20:33:58</t>
+          <t>2025-08-29T15:33:30</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>2025-09-15T23:59:59</t>
+          <t>2025-09-19T23:59:59</t>
         </is>
       </c>
       <c r="AH44" t="b">
@@ -7208,11 +7200,11 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK44" t="n">
-        <v>1756406038752</v>
+        <v>1756474410666</v>
       </c>
     </row>
     <row r="45">
@@ -7221,12 +7213,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29961937</t>
+          <t>29967499</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>46-556797-8126-6363348-1</t>
+          <t>46-556322-6157-wb-299854</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -7237,18 +7229,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29961937</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967499</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5563226157/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Visual Merchandiser till Åhléns Piteå</t>
+          <t>Graphic Designer (1-Year Contract)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-14T23:59:59</t>
+          <t>2025-09-24T23:59:59</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -7256,7 +7252,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>{'text': 'Om din roll\nSom Visual Merchandiser hos oss på Åhléns\xa0ansvarar du för att förstärka den visuella försäljningen och\xa0varuhusexponeringen. Liksom sortiment, koncept och Åhléns varumärken. Rollen innefattar också\xa0ansvar för att leda, inspirera och bygga upp VM-kunskap hos kollegorna i varuhuset.\xa0 \nI rollen som Visual Merchandiser\xa0ingår att:\n Ansvara för att den säljmiljön vi varuhuset är\xa0välkomnande, inspirerande, välfylld och\xa0säljande\n  Ansvara för att våra gäster ska bli inbjudna till en kundupplevelse runt hela varuhuset\n  Ansvara för att utveckla varuhusets arbetsmetodik och genomföra riktlinjer på ett effektivt sätt\xa0\n  Ansvara för att varuhuset alltid är en kommersiell handelsplats med försäljning i fokus\xa0\n  Följa upp och analysera försäljning\n  Utbilda och coacha kollegor inom visual merchandising\n \nI varuhuset blir du en del av ett passionerat team om Säljare, Säljledare/Avdelningschef/er samt Varuhuschef.\xa0\nSom Visual Merchandiser blir du en del av varuhusets ledningsgrupp när Varuhuschefen inte är på plats är du ytterst ansvarig.\xa0\xa0\nVi erbjuder dig:\nÅhléns har funnits i många svenska hjärtan i över 120 år. Med en lång historia inom detaljhandeln fortsätter vi drivas av ständig utveckling. Hos oss får du vara med på en spännande resa där vi kombinerar vår historia med innovation och nya arbetssätt för att skapa en lönsam och hållbar framtid. \nTill oss tar du med dig:\n Några års erfarenhet av visual merchandising\n Erfarenhet av försäljning inom detaljhandeln\n Vana att driva projekt\n Erfarenhet av att arbeta samt följa upp mot uppsatta KPIer\n Erfarenhet av att coacha andra i visual merchandising\n \nVi söker dig med ett genuint engagemang för det visuella uttrycket och som har ett starkt affärsfokus. Du förstår hur visuella beslut påverkar försäljningen och motiveras av att skapa inspirerande miljöer som driver resultat.\nDu har ett öga för detaljer, är\xa0strukturerad och bra på att planera och prioritera ditt arbete. Hos oss är tempot högt och förändringar sker snabbt, därför behöver du vara lösningsorienterad, flexibel och trygg i att agera när förutsättningarna ändras.\xa0\nDu är en kommunikativ lagspelare som trivs i samarbetet med andra, men är också självgående och van att ta egna initiativ. Du kombinerar din visuella kompetens med en förståelse för kundbeteende, försäljning och butiksdrift - och har alltid kundupplevelsen i fokus.\nOm rekryteringen\nTjänsten är ett vikariat till och med den 31 augusti 2026\xa0på 38,25 h/v.\xa0 Vi ser gärna att du kan börja hos oss så snart som möjligt.\nUrval och intervjuer kan komma att ske löpande och tjänsten kan tillsättas innan sista ansökningsdag, så skicka in din ansökan redan idag!\nSom Visual Merchandiser\xa0på Åhléns blir du en del av ett passionerat team som drivs av affärsmannaskap och entreprenörskap. Vi ger dig förtroende och möjligheten att växa i en utvecklande miljö. Med det hälsar vi dig varmt välkommen till Åhléns!', 'text_formatted': '&lt;p&gt;&lt;strong&gt;Om din roll&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Som Visual Merchandiser hos oss på Åhléns&amp;nbsp;ansvarar du för att förstärka den visuella försäljningen och&amp;nbsp;varuhusexponeringen. Liksom sortiment, koncept och Åhléns varumärken. Rollen innefattar också&amp;nbsp;ansvar för att leda, inspirera och bygga upp VM-kunskap hos kollegorna i varuhuset.&amp;nbsp; &lt;/p&gt;&lt;p&gt;I rollen som Visual Merchandiser&amp;nbsp;ingår att:&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Ansvara för att den säljmiljön vi varuhuset är&amp;nbsp;välkomnande, inspirerande, välfylld och&amp;nbsp;säljande&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Ansvara för att våra gäster ska bli inbjudna till en kundupplevelse runt hela varuhuset&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Ansvara för att utveckla varuhusets arbetsmetodik och genomföra riktlinjer på ett effektivt sätt&amp;nbsp;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Ansvara för att varuhuset alltid är en kommersiell handelsplats med försäljning i fokus&amp;nbsp;&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Följa upp och analysera försäljning&lt;/li&gt; &lt;/ul&gt;&lt;ul&gt; &lt;li&gt;Utbilda och coacha kollegor inom visual merchandising&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;I varuhuset blir du en del av ett passionerat team om Säljare, Säljledare/Avdelningschef/er samt Varuhuschef.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Som Visual Merchandiser blir du en del av varuhusets ledningsgrupp när Varuhuschefen inte är på plats är du ytterst ansvarig.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Vi erbjuder dig:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Åhléns har funnits i många svenska hjärtan i över 120 år. Med en lång historia inom detaljhandeln fortsätter vi drivas av ständig utveckling. Hos oss får du vara med på en spännande resa där vi kombinerar vår historia med innovation och nya arbetssätt för att skapa en lönsam och hållbar framtid. &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Till oss tar du med dig:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Några års erfarenhet av visual merchandising&lt;/li&gt; &lt;li&gt;Erfarenhet av försäljning inom detaljhandeln&lt;/li&gt; &lt;li&gt;Vana att driva projekt&lt;/li&gt; &lt;li&gt;Erfarenhet av att arbeta samt följa upp mot uppsatta KPIer&lt;/li&gt; &lt;li&gt;Erfarenhet av att coacha andra i visual merchandising&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Vi söker dig med ett genuint engagemang för det visuella uttrycket och som har ett starkt affärsfokus. Du förstår hur visuella beslut påverkar försäljningen och motiveras av att skapa inspirerande miljöer som driver resultat.&lt;/p&gt;&lt;p&gt;Du har ett öga för detaljer, är&amp;nbsp;strukturerad och bra på att planera och prioritera ditt arbete. Hos oss är tempot högt och förändringar sker snabbt, därför behöver du vara lösningsorienterad, flexibel och trygg i att agera när förutsättningarna ändras.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Du är en kommunikativ lagspelare som trivs i samarbetet med andra, men är också självgående och van att ta egna initiativ. Du kombinerar din visuella kompetens med en förståelse för kundbeteende, försäljning och butiksdrift - och har alltid kundupplevelsen i fokus.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om rekryteringen&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är ett vikariat till och med den 31 augusti 2026&amp;nbsp;på 38,25 h/v.&amp;nbsp; Vi ser gärna att du kan börja hos oss så snart som möjligt.&lt;/p&gt;&lt;p&gt;Urval och intervjuer kan komma att ske löpande och tjänsten kan tillsättas innan sista ansökningsdag, så skicka in din ansökan redan idag!&lt;/p&gt;&lt;p&gt;Som Visual Merchandiser&amp;nbsp;på Åhléns blir du en del av ett passionerat team som drivs av affärsmannaskap och entreprenörskap. Vi ger dig förtroende och möjligheten att växa i en utvecklande miljö. Med det hälsar vi dig varmt välkommen till Åhléns! &lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nAnställningstid enligt överenskommelse'}</t>
+          <t>{'text': "RaySearch develops innovative software solutions to improve cancer care. About 1000 clinics in more than 40 countries use RaySearch software to improve treatments and quality of life for patients. RaySearch was founded in 2000 and is listed on Nasdaq Stockholm. The headquarters is located in Stockholm, with subsidiaries in the US, Europe and Asia - Pacific. Today we are more than 400 employees with a common vision of improving cancer care with innovative software. Our great staff is crucial for our success and we offer a fantastic working environment in modern offices, flexibility and good opportunities for development. We believe in equal opportunities, value diversity and work actively to prevent discrimination.\r\n\r\nDo you want to use your skills to make a real difference? Join us in the fight against cancer! RaySearch is looking for a talented Graphic Designer to help take our communications to the next level. \n\nBecome part of our Marketing team\n\nThis is a full-time, temporary one year parental leave cover position based at our head office in Stockholm. You will be part of our global marketing department, which handles the strategic planning and creative work for all of our markets. We have high ambitions for our communications and place great emphasis on design aspects. We apply an office-first approach, meaning that most of the work will be carried out on-site.\n\nYour role\n\nThe main purpose of this position is to support with design deliverables for the marketing team, by translating brand and marketing objectives into beautiful and clear visual communications. \n\nYour main tasks:\n\n• Provide design and layout support of required marketing materials; including advertising, digital marketing, email newsletters, events, and other marketing collateral - using guidelines to ensure brand consistency. \n• Deliver artwork specified in the marketing production plan and weekly project meetings. \n• Commission printers and other media producers. \n• Add and maintain marketing collateral to the media bank, in conjunction with other media bank admins. \n• Provide layout and design update support for the RaySearch website. \n• Create presentation slides and transform existing business presentations into powerful visuals. \n• Occasionally support the motion designers with layouts and style frames. \n• Push the envelope by tracking design trends and proposing new avenues for the marketing team to explore and utilize. \n\nYour profile\n\nYou are passionate about creating and can see the big picture when it comes to design and concepts. You have experience working with other creatives and posses a structured and organized workflow, with a flexible mindset. At RaySearch Laboratories, we take great pride in the work that we do because it plays an integral role in the fight against cancer. We believe software holds the key to advancing and improving cancer treatment for patients worldwide.\n\nExperience &amp; skills:\n\n• Degree in graphic design. \n• Proficient in industry-standard design software, including Adobe Creative Suite (Photoshop, Illustrator, InDesign). \n• Ability to work both independently and collaboratively in a team environment. \n• Strong portfolio showcasing a diverse range of design projects. \n• Excellent understanding of typography, color theory, and layout principles. \n• Experience working with creative teams (Designers and Art Directors) \n• Solid knowledge of print and digital design best practices. \n• Ability to communicate in English (both written and spoken) \n• Experience in working with and editing PowerPoint templates. \n\nIt’s an advantage, but not required, if you posses these skill sets: \n\n• Video editing skills. \n• Knowledge of photography and the ability to take and edit photos for design projects. \n• Basic HTML/CSS knowledge for web design projects. \n• Illustration skills, both digital and traditional, to add a unique dimension to design projects. \n\nOur Culture\n\nCulture at RaySearch is the driving force behind our organization, where everything we do is driven by a shared passion for innovation and the fight against cancer. Our dedication is reflected in our ability to deliver exceptional results, pay close attention to detail, and consistently go the extra mile. Our employees stand out as experts in their field, driven by a relentless focus on solving problems - no matter how complex. At RaySearch, we take pride in leading the way in cancer treatment, leveraging cutting-edge technology to develop innovative solutions that make a real difference in patient care.\n\nOur Offer\n\nYour dedicated marketing team consists of about nine people. You report to the Head of Marketing and work closely with the Art Director and design team. \n\nAt RaySearch, we offer a diverse and inclusive work environment, fostering openness, sincerity, and collaboration. Located in Hagastaden, Stockholm's Life Science Hub, our modern and creative workspace includes an in-house gym, yoga, and social activities like ping pong, table football, and regular after-work events. Our bistro serves a fantastic lunch buffet, and we offer morning- and afternoon-fika every day. Our rooftop terrace also provides a stunning 360-degree view of Stockholm, enhancing the work experience. All of this comes attached with a competitive compensation and benefits package.\n\nApplication\n\nPlease apply to the position through the application form below. Selection and interviews will be ongoing. We do not accept applications by e-mail.", 'text_formatted': "RaySearch develops innovative software solutions to improve cancer care. About 1000 clinics in more than 40 countries use RaySearch software to improve treatments and quality of life for patients. RaySearch was founded in 2000 and is listed on Nasdaq Stockholm. The headquarters is located in Stockholm, with subsidiaries in the US, Europe and Asia - Pacific. Today we are more than 400 employees with a common vision of improving cancer care with innovative software. Our great staff is crucial for our success and we offer a fantastic working environment in modern offices, flexibility and good opportunities for development. We believe in equal opportunities, value diversity and work actively to prevent discrimination.\r\n\r\nDo you want to use your skills to make a real difference? Join us in the fight against cancer! RaySearch is looking for a talented Graphic Designer to help take our communications to the next level. \n\nBecome part of our Marketing team\n\nThis is a full-time, temporary one year parental leave cover position based at our head office in Stockholm. You will be part of our global marketing department, which handles the strategic planning and creative work for all of our markets. We have high ambitions for our communications and place great emphasis on design aspects. We apply an office-first approach, meaning that most of the work will be carried out on-site.\n\nYour role\n\nThe main purpose of this position is to support with design deliverables for the marketing team, by translating brand and marketing objectives into beautiful and clear visual communications. \n\nYour main tasks:\n\n• Provide design and layout support of required marketing materials; including advertising, digital marketing, email newsletters, events, and other marketing collateral - using guidelines to ensure brand consistency. \n• Deliver artwork specified in the marketing production plan and weekly project meetings. \n• Commission printers and other media producers. \n• Add and maintain marketing collateral to the media bank, in conjunction with other media bank admins. \n• Provide layout and design update support for the RaySearch website. \n• Create presentation slides and transform existing business presentations into powerful visuals. \n• Occasionally support the motion designers with layouts and style frames. \n• Push the envelope by tracking design trends and proposing new avenues for the marketing team to explore and utilize. \n\nYour profile\n\nYou are passionate about creating and can see the big picture when it comes to design and concepts. You have experience working with other creatives and posses a structured and organized workflow, with a flexible mindset. At RaySearch Laboratories, we take great pride in the work that we do because it plays an integral role in the fight against cancer. We believe software holds the key to advancing and improving cancer treatment for patients worldwide.\n\nExperience &amp; skills:\n\n• Degree in graphic design. \n• Proficient in industry-standard design software, including Adobe Creative Suite (Photoshop, Illustrator, InDesign). \n• Ability to work both independently and collaboratively in a team environment. \n• Strong portfolio showcasing a diverse range of design projects. \n• Excellent understanding of typography, color theory, and layout principles. \n• Experience working with creative teams (Designers and Art Directors) \n• Solid knowledge of print and digital design best practices. \n• Ability to communicate in English (both written and spoken) \n• Experience in working with and editing PowerPoint templates. \n\nIt’s an advantage, but not required, if you posses these skill sets: \n\n• Video editing skills. \n• Knowledge of photography and the ability to take and edit photos for design projects. \n• Basic HTML/CSS knowledge for web design projects. \n• Illustration skills, both digital and traditional, to add a unique dimension to design projects. \n\nOur Culture\n\nCulture at RaySearch is the driving force behind our organization, where everything we do is driven by a shared passion for innovation and the fight against cancer. Our dedication is reflected in our ability to deliver exceptional results, pay close attention to detail, and consistently go the extra mile. Our employees stand out as experts in their field, driven by a relentless focus on solving problems - no matter how complex. At RaySearch, we take pride in leading the way in cancer treatment, leveraging cutting-edge technology to develop innovative solutions that make a real difference in patient care.\n\nOur Offer\n\nYour dedicated marketing team consists of about nine people. You report to the Head of Marketing and work closely with the Art Director and design team. \n\nAt RaySearch, we offer a diverse and inclusive work environment, fostering openness, sincerity, and collaboration. Located in Hagastaden, Stockholm's Life Science Hub, our modern and creative workspace includes an in-house gym, yoga, and social activities like ping pong, table football, and regular after-work events. Our bistro serves a fantastic lunch buffet, and we offer morning- and afternoon-fika every day. Our rooftop terrace also provides a stunning 360-degree view of Stockholm, enhancing the work experience. All of this comes attached with a competitive compensation and benefits package.\n\nApplication\n\nPlease apply to the position through the application form below. Selection and interviews will be ongoing. We do not accept applications by e-mail.", 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '-\r\n-'}</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -7271,12 +7267,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lön enligt överenskommelse</t>
+          <t>Enligt överenskommelse</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -7292,16 +7288,16 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.ahlens.se', 'organization_number': '5567978126', 'name': 'Åhléns AB', 'workplace': 'Åhléns AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5563226157', 'name': 'Raysearch Laboratories AB (Publ)', 'workplace': 'RaySearch Laboratories AB (publ)'}</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobb.ahlens.se/jobs/6363348-visual-merchandiser-till-ahlens-pitea?promotion=1605091-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.raysearchlabs.com/career/?jobid=299854&amp;ref=platsbanken', 'other': None}</t>
         </is>
       </c>
       <c r="U45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -7312,12 +7308,12 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>{'concept_id': 'GTFy_iPM_msj', 'label': 'Butikskommunikatör/Visual merchandiser', 'legacy_ams_taxonomy_id': '7211'}</t>
+          <t>{'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>{'concept_id': 'CSUf_ZVM_a7Z', 'label': 'Inredare, dekoratörer och scenografer m.fl.', 'legacy_ams_taxonomy_id': '3432'}</t>
+          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -7327,32 +7323,32 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>{'municipality': 'Piteå', 'municipality_code': '2581', 'municipality_concept_id': 'umej_bP2_PpK', 'region': 'Norrbottens län', 'region_code': '25', 'region_concept_id': '9hXe_F4g_eTG', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [21.480036, 65.316696]}</t>
+          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'VpYo_k5f_N9R', 'label': 'Grafisk formgivare', 'legacy_ams_taxonomy_id': '4039'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Ann Höglund', 'email': 'ann.hoglund@ahlens.se', 'telephone': None, 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-08-28T15:13:05</t>
+          <t>2025-08-29T15:24:55</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>2026-02-14T23:59:59</t>
+          <t>2025-09-24T23:59:59</t>
         </is>
       </c>
       <c r="AH45" t="b">
@@ -7365,7 +7361,7 @@
         </is>
       </c>
       <c r="AK45" t="n">
-        <v>1756386785680</v>
+        <v>1756473895728</v>
       </c>
     </row>
     <row r="46">
@@ -7374,10 +7370,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29960832</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>29967066</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>46-212000-2098-3467</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
@@ -7386,22 +7386,18 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960832</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88341967/logotyper/logo.png</t>
-        </is>
-      </c>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29967066</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Reklam, annonsering , kundsupport</t>
+          <t>Skolbibliotekarie till två F-6-skolor i Sala, vikariat</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-23T23:59:59</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -7409,7 +7405,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.\nÄven lägga upp annonser på amazon, tradera, m.m.\n\n\nSe hemsidorna\nwww.uthyres.eu\nwww.rentalhome.se\nwww.ramsjocamping.com\n www.billebro.se\n\n\n\n\nI förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .\nDu bör ha god datorvana och erfarenhet av plattformar.\nÄven gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.\nTill viss del kundtjänst och kundhantering.\n\n\nTidrapportering dagligen.\nDu ska vara driven och resultatorienterad.\nBonus kan utgå senare om du presterar väl.\nOm du har körkort och bil är det ett plus.\n\n\nVi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se\nFörsäljning av elektronik via postorder, blocket mfl. www.billebro.se', 'text_formatted': '&lt;p&gt;Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.&lt;/p&gt;&lt;p&gt;Även lägga upp annonser på amazon, tradera, m.m.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Se hemsidorna&lt;/p&gt;&lt;p&gt;www.uthyres.eu&lt;/p&gt;&lt;p&gt;www.rentalhome.se&lt;/p&gt;&lt;p&gt;www.ramsjocamping.com&lt;/p&gt;&lt;p&gt; www.billebro.se&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;I förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .&lt;/p&gt;&lt;p&gt;Du bör ha god datorvana och erfarenhet av plattformar.&lt;/p&gt;&lt;p&gt;Även gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.&lt;/p&gt;&lt;p&gt;Till viss del kundtjänst och kundhantering.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Tidrapportering dagligen.&lt;/p&gt;&lt;p&gt;Du ska vara driven och resultatorienterad.&lt;/p&gt;&lt;p&gt;Bonus kan utgå senare om du presterar väl.&lt;/p&gt;&lt;p&gt;Om du har körkort och bil är det ett plus.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Vi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se&lt;/p&gt;&lt;p&gt;Försäljning av elektronik via postorder, blocket mfl. www.billebro.se&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'Sala kommun i östra Västmanland har ca 23 000 invånare och är till ytan länets största. Kommunen har flera mindre tätorter samt Sala stad med 12 000 invånare. Sala har genom sin historiska betydelse, främst Sala Silvergruva, sin givna plats på Sveriges karta.\n\nSala kommun utvecklar skolbiblioteken och digitaliseringen\xa0inom grundskolan. Vi jobbar med att stärka elevernas läs- och skrivutveckling, källkritiska förmåga\xa0och skolornas digitalisering. Skolbibliotekets verksamhet skall vara en del i undervisningen för att stärka elevernas språkliga förmåga och digitala kompetens. Skolbibliotekarierna är anställda under rektor men har en samordnare och kommungemensamma professionsträffar.\xa0\n\nVi söker nu en vikarierande skolbibliotekarie till två av Salas F-6-skolors för läsåret 25/26.\xa0\n\nArbetsuppgifter\xa0\nI rollen som skolbibliotekarie arbetar du för ökad måluppfyllelse enligt läroplanen, vilket innebär att främja läsintresse, öka läskunnigheten, arbeta med skolans digitalisering och elevernas digitala kompetens. Du kommer tillsammans med lärare och annan personal att leda pedagogiska aktiviteter i bibliotek och klassrum kring exempelvis media och informationskunskap (MIK)\xa0och\xa0att utveckla och bedriva läsfrämjande projekt. I uppgiften ingår även att ge stöd till lärare och elever i litteratur- och medieanvändning. Arbetet kommer\xa0till stora delar vara förlagt till klassrummen.\xa0\n\nKvalifikationer\nVi söker i första hand dig som har erfarenhet av skolbiblioteksverksamhet sedan tidigare. Vi ser gärna att du har relevant högskoleutbildning, exempelvis från bibliotekshögskolan eller lärarprogrammet.\xa0Du har också kunskap och ett starkt engagemang kring läs- och skrivinlärning, skolbiblioteksfrågor och att arbeta med digitalisering. Arbetet kräver integritet, god analytisk och kommunikativ förmåga och ett gott samarbete. Sala är en geografiskt stor kommun med många skolor på landsbygden, vilket gör att körkort är ett krav och gärna tillgång till egen bil. Stor vikt läggs vid personlig lämplighet.\n\nAnställningsvillkor\nSemestertjänst, 100 procent, vikariat för läsåret 25/26. Individuell lönesättning tillämpas.\n\nKrav på registerutdrag vid erbjudande av anställning. Detta enligt lagen om registerkontroll inom skol-, fritidshem och förskoleverksamhet. Rikspolisstyrelsens belastningsregister, RPS 442.5 (14-01-14).\n\nAnsökan\nAnsök senast\xa023 september 2025. Vi tar inte emot ansökningar via e-post.\nAnställningsprocessen kan ske löpande och komma att inledas innan ansökningstiden gått ut.\xa0\n\nUpplysningar\nVill du veta mer om tjänsten kontakta\n\nSkolbibliotekssamordnare Jenny Floderer, jenny.floderer@sala.se 0224-74 81 42\n\nRektor Jenny Larde, jenny.larde@sala.se 0224-74 80 28\n\nVi undanber oss vänligen men bestämt erbjudanden om annonserings- och rekryteringshjälp.', 'text_formatted': 'Sala kommun i östra Västmanland har ca 23 000 invånare och är till ytan länets största. Kommunen har flera mindre tätorter samt Sala stad med 12 000 invånare. Sala har genom sin historiska betydelse, främst Sala Silvergruva, sin givna plats på Sveriges karta.\n\nSala kommun utvecklar skolbiblioteken och digitaliseringen\xa0inom grundskolan. Vi jobbar med att stärka elevernas läs- och skrivutveckling, källkritiska förmåga\xa0och skolornas digitalisering. Skolbibliotekets verksamhet skall vara en del i undervisningen för att stärka elevernas språkliga förmåga och digitala kompetens. Skolbibliotekarierna är anställda under rektor men har en samordnare och kommungemensamma professionsträffar.\xa0\n\nVi söker nu en vikarierande skolbibliotekarie till två av Salas F-6-skolors för läsåret 25/26.\xa0\n\nArbetsuppgifter\xa0\nI rollen som skolbibliotekarie arbetar du för ökad måluppfyllelse enligt läroplanen, vilket innebär att främja läsintresse, öka läskunnigheten, arbeta med skolans digitalisering och elevernas digitala kompetens. Du kommer tillsammans med lärare och annan personal att leda pedagogiska aktiviteter i bibliotek och klassrum kring exempelvis media och informationskunskap (MIK)\xa0och\xa0att utveckla och bedriva läsfrämjande projekt. I uppgiften ingår även att ge stöd till lärare och elever i litteratur- och medieanvändning. Arbetet kommer\xa0till stora delar vara förlagt till klassrummen.\xa0\n\nKvalifikationer\nVi söker i första hand dig som har erfarenhet av skolbiblioteksverksamhet sedan tidigare. Vi ser gärna att du har relevant högskoleutbildning, exempelvis från bibliotekshögskolan eller lärarprogrammet.\xa0Du har också kunskap och ett starkt engagemang kring läs- och skrivinlärning, skolbiblioteksfrågor och att arbeta med digitalisering. Arbetet kräver integritet, god analytisk och kommunikativ förmåga och ett gott samarbete. Sala är en geografiskt stor kommun med många skolor på landsbygden, vilket gör att körkort är ett krav och gärna tillgång till egen bil. Stor vikt läggs vid personlig lämplighet.\n\nAnställningsvillkor\nSemestertjänst, 100 procent, vikariat för läsåret 25/26. Individuell lönesättning tillämpas.\n\nKrav på registerutdrag vid erbjudande av anställning. Detta enligt lagen om registerkontroll inom skol-, fritidshem och förskoleverksamhet. Rikspolisstyrelsens belastningsregister, RPS 442.5 (14-01-14).\n\nAnsökan\nAnsök senast\xa023 september 2025. Vi tar inte emot ansökningar via e-post.\nAnställningsprocessen kan ske löpande och komma att inledas innan ansökningstiden gått ut.\xa0\n\nUpplysningar\nVill du veta mer om tjänsten kontakta\n\nSkolbibliotekssamordnare Jenny Floderer, jenny.floderer@sala.se 0224-74 81 42\n\nRektor Jenny Larde, jenny.larde@sala.se 0224-74 80 28\n\nVi undanber oss vänligen men bestämt erbjudanden om annonserings- och rekryteringshjälp.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid/\r\nEj specificerat'}</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -7422,31 +7418,35 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Individuell lönesättning tillämpas.</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
+          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.uthyres.eu', 'organization_number': '5564232592', 'name': 'Logistik &amp; distribution i Norden AB', 'workplace': 'Billebro Dörarp '}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.sala.se/', 'organization_number': '2120002098', 'name': 'Sala kommun', 'workplace': 'Sala kommun'}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'REKLAM', 'email': 'application@billebro.se', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'http://www.sala.se/ledigajobb?rmpage=job&amp;rmjob=3467&amp;ref=arbetsformedlingen.se%2Fplatsbanken%2F&amp;utm_medium=talentech_publishing&amp;utm_source=platsbanken', 'other': None}</t>
         </is>
       </c>
       <c r="U46" t="b">
@@ -7456,17 +7456,21 @@
         <v>0</v>
       </c>
       <c r="W46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>{'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}</t>
+          <t>{'concept_id': 'n9RX_nnz_ZYF', 'label': 'Skolbibliotekarie', 'legacy_ams_taxonomy_id': '2453'}</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
+          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -7476,32 +7480,32 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>{'municipality': 'Ljungby', 'municipality_code': '0781', 'municipality_concept_id': 'GzKo_S48_QCm', 'region': 'Kronobergs län', 'region_code': '07', 'region_concept_id': 'tF3y_MF9_h5G', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Färsjövägen 18', 'postcode': '34155', 'city': 'Vittaryd', 'coordinates': [14.0024590071846, 56.985236256675]}</t>
+          <t>{'municipality': 'Sala', 'municipality_code': '1981', 'municipality_concept_id': 'dAen_yTK_tqz', 'region': 'Västmanlands län', 'region_code': '19', 'region_concept_id': 'G6DV_fKE_Viz', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [16.606327, 59.92086]}</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'n9RX_nnz_ZYF', 'label': 'Skolbibliotekarie', 'legacy_ams_taxonomy_id': '2453'}], 'education': [], 'education_level': []}</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
           <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}], 'education': [], 'education_level': []}</t>
-        </is>
-      </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': None, 'description': 'Jenny Larde', 'email': 'jenny.larde@sala.se', 'telephone': '0224-74 80 06', 'contact_type': 'tf chef mediaenheten'}, {'name': None, 'description': 'Jenny Floderer', 'email': 'jenny.floderer@sala.se', 'telephone': '0224-74 81 42', 'contact_type': 'Skolbiblioteksutvecklare'}]</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>2025-08-28T12:59:40</t>
+          <t>2025-08-29T14:38:26</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-23T23:59:59</t>
         </is>
       </c>
       <c r="AH46" t="b">
@@ -7510,11 +7514,11 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>VIA_ANNONSERA</t>
+          <t>VIA_PLATSBANKEN_DXA</t>
         </is>
       </c>
       <c r="AK46" t="n">
-        <v>1756378780659</v>
+        <v>1756471106094</v>
       </c>
     </row>
     <row r="47">
@@ -7523,7 +7527,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29960836</t>
+          <t>29966929</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -7535,22 +7539,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960836</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966929</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/88341966/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Reklam, annonsering , kundsupport</t>
+          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -7558,7 +7562,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.\nÄven lägga upp annonser på amazon, tradera, m.m.\n\n\nSe hemsidorna\nwww.uthyres.eu\nwww.rentalhome.se\nwww.ramsjocamping.com\n www.billebro.se\n\n\n\n\nI förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .\nDu bör ha god datorvana och erfarenhet av plattformar.\nÄven gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.\nTill viss del kundtjänst och kundhantering.\n\n\nTidrapportering dagligen.\nDu ska vara driven och resultatorienterad.\nBonus kan utgå senare om du presterar väl.\nOm du har körkort och bil är det ett plus.\n\n\nVi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se\nFörsäljning av elektronik via postorder, blocket mfl. www.billebro.se', 'text_formatted': '&lt;p&gt;Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.&lt;/p&gt;&lt;p&gt;Även lägga upp annonser på amazon, tradera, m.m.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Se hemsidorna&lt;/p&gt;&lt;p&gt;www.uthyres.eu&lt;/p&gt;&lt;p&gt;www.rentalhome.se&lt;/p&gt;&lt;p&gt;www.ramsjocamping.com&lt;/p&gt;&lt;p&gt; www.billebro.se&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;I förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .&lt;/p&gt;&lt;p&gt;Du bör ha god datorvana och erfarenhet av plattformar.&lt;/p&gt;&lt;p&gt;Även gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.&lt;/p&gt;&lt;p&gt;Till viss del kundtjänst och kundhantering.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Tidrapportering dagligen.&lt;/p&gt;&lt;p&gt;Du ska vara driven och resultatorienterad.&lt;/p&gt;&lt;p&gt;Bonus kan utgå senare om du presterar väl.&lt;/p&gt;&lt;p&gt;Om du har körkort och bil är det ett plus.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Vi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se&lt;/p&gt;&lt;p&gt;Försäljning av elektronik via postorder, blocket mfl. www.billebro.se&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -7579,23 +7583,23 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.uthyres.eu', 'organization_number': '5564232592', 'name': 'Logistik &amp; distribution i Norden AB', 'workplace': 'Företagshuset Mejeriet Ånge'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'REKLAM', 'email': 'application@billebro.se', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
         </is>
       </c>
       <c r="U47" t="b">
@@ -7610,12 +7614,12 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>{'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}</t>
+          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -7625,7 +7629,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>{'municipality': 'Ånge', 'municipality_code': '2260', 'municipality_concept_id': 'swVa_cyS_EMN', 'region': 'Västernorrlands län', 'region_code': '22', 'region_concept_id': 'NvUF_SP1_1zo', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Lantmannagatan 17', 'postcode': '84132', 'city': 'Ånge', 'coordinates': [15.6706758459036, 62.5239393176637]}</t>
+          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -7635,22 +7639,22 @@
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-08-28T12:58:20</t>
+          <t>2025-08-29T14:24:20</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="AH47" t="b">
@@ -7663,7 +7667,7 @@
         </is>
       </c>
       <c r="AK47" t="n">
-        <v>1756378700659</v>
+        <v>1756470260707</v>
       </c>
     </row>
     <row r="48">
@@ -7672,7 +7676,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29960708</t>
+          <t>29966863</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -7684,22 +7688,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960708</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966863</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/10020323/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Reklam, annonsering , kundsupport</t>
+          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -7707,7 +7711,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>{'text': 'Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.\nÄven lägga upp annonser på amazon, tradera, m.m.\n\n\nSe hemsidorna\nwww.uthyres.eu\nwww.rentalhome.se\nwww.ramsjocamping.com\n www.billebro.se\n\n\n\n\nI förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .\nDu bör ha god datorvana och erfarenhet av plattformar.\nÄven gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.\nTill viss del kundtjänst och kundhantering.\n\n\nTidrapportering dagligen.\nDu ska vara driven och resultatorienterad.\nBonus kan utgå senare om du presterar väl.\nOm du har körkort och bil är det ett plus.\n\n\nVi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se\nFörsäljning av elektronik via postorder, blocket mfl. www.billebro.se', 'text_formatted': '&lt;p&gt;Vi söker en person som kan bygga upp vår nya verksamhet med att hyra ut nära 1000 ställplatser på våra fastigheter runt om i Sverige.&lt;/p&gt;&lt;p&gt;Även lägga upp annonser på amazon, tradera, m.m.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Se hemsidorna&lt;/p&gt;&lt;p&gt;www.uthyres.eu&lt;/p&gt;&lt;p&gt;www.rentalhome.se&lt;/p&gt;&lt;p&gt;www.ramsjocamping.com&lt;/p&gt;&lt;p&gt; www.billebro.se&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;I förlängning i framtiden även delvis ansvara för vår Reklam, annonsering och liknande på sociala medier, hemsidor och annonsplatser, utöka vår synlighet på Booking, Airbnb, Expedia mfl .&lt;/p&gt;&lt;p&gt;Du bör ha god datorvana och erfarenhet av plattformar.&lt;/p&gt;&lt;p&gt;Även gärna skapa nya hemsidor är ett stort plus, dvs design av hemsidor via templates.&lt;/p&gt;&lt;p&gt;Till viss del kundtjänst och kundhantering.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Tidrapportering dagligen.&lt;/p&gt;&lt;p&gt;Du ska vara driven och resultatorienterad.&lt;/p&gt;&lt;p&gt;Bonus kan utgå senare om du presterar väl.&lt;/p&gt;&lt;p&gt;Om du har körkort och bil är det ett plus.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Vi hr två huvudverksamheter, uthyrning av fastigheter till vindkraftarbetare och liknande, se www.rentalhome.se&lt;/p&gt;&lt;p&gt;Försäljning av elektronik via postorder, blocket mfl. www.billebro.se&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
+          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -7728,23 +7732,23 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'concept_id': '947z_JGS_Uk2', 'label': 'Deltid', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': '6YE1_gAC_R2G', 'label': 'Heltid', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>{'min': 0, 'max': 100}</t>
+          <t>{'min': 100, 'max': 100}</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'http://www.uthyres.eu', 'organization_number': '5564232592', 'name': 'Logistik &amp; distribution i Norden AB', 'workplace': 'Logistik &amp; distribution i Norden AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'REKLAM', 'email': 'application@billebro.se', 'via_af': False, 'url': None, 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
         </is>
       </c>
       <c r="U48" t="b">
@@ -7759,12 +7763,12 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>{'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}</t>
+          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>{'concept_id': '8Bmh_vtM_zts', 'label': 'Grafiska formgivare m.fl.', 'legacy_ams_taxonomy_id': '2172'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -7774,7 +7778,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>{'municipality': 'Tyresö', 'municipality_code': '0138', 'municipality_concept_id': 'sTPc_k2B_SqV', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Höglidsvägen 28 A', 'postcode': '13550', 'city': 'Tyresö', 'coordinates': [18.203663334297, 59.2311220079203]}</t>
+          <t>{'municipality': 'Landskrona', 'municipality_code': '1282', 'municipality_concept_id': 'Yt5s_Vf9_rds', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -7784,22 +7788,22 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 5, 'concept_id': 'p6Y5_8hP_oFD', 'label': 'Reklamdesigner', 'legacy_ams_taxonomy_id': '4043'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-08-28T12:44:20</t>
+          <t>2025-08-29T14:19:45</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>2025-09-27T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="AH48" t="b">
@@ -7812,7 +7816,7 @@
         </is>
       </c>
       <c r="AK48" t="n">
-        <v>1756377860715</v>
+        <v>1756469985697</v>
       </c>
     </row>
     <row r="49">
@@ -7821,14 +7825,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>29960706</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>46-559519-6436-6351043-1</t>
-        </is>
-      </c>
+          <t>29966825</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -7837,18 +7837,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960706</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966825</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/84973413/logotyper/logo.png</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Design Manager WP1 – Led framtidens energiprojekt i Stockholm</t>
+          <t>Planerare / Beredare till spännande BCC Plant the Planet – Landskrona</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-14T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -7856,7 +7860,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'text': 'Som Design Manager WP1 ansvarar du för att leda planering och genomförande av designarbetet inom WP1. Du rapporterar till WP1 Owner och arbetar nära WP1-teamet samt övriga Design Managers inom BECCS för att säkerställa en sammanhållen och framgångsrik projektleverans.\n\nDina ansvarsområden\n Ansvara för designplanering och utförande för WP1 i enlighet med projektspecifikationer\n Utarbeta och följa upp den övergripande engineering plan med tydliga mål och milstolpar\n Planera och koordinera granskning och godkännandeprocesser av teknisk dokumentation\n Följa upp tekniska frågor och kommunikation med entreprenörer, samt eskalera vid behov\n Leda performance management för designteamet, inklusive rapportering, kostnads- och tiduppföljning\n Delta i och samordna tekniska gränssnitt mellan olika Work Packages\n Identifiera projekt- och designrisker samt utveckla lösningar\n Säkerställa kvalitet, produktivitet och bästa praxis inom design- och ingenjörsprocesserna\n Leda och stödja designteamet för att uppnå projektets mål\n Driva kontinuerlig förbättring, innovation och säkerhetskultur i projektet\n \nMöten och koordinering:\n Dagligen: Engineering performance management\n Veckovis: WP1 coordination meeting\n \nHos vår kund blir du del av ett projekt som gör verklig skillnad för både klimatet och framtida generationer. Du får arbeta i en internationell miljö med högt tempo, där samarbete, innovation och kvalitet är i fokus. Kunden erbjuder konkurrenskraftiga villkor och möjlighet att utvecklas i en av de mest spännande satsningarna inom hållbar industri i Sverige.\n\n Kravspecifikation:\nKravprofil\n Erfarenhet: Minst 10 års erfarenhet av projektledning och design management inom större infrastruktur-, energi- eller processindustrier, med fokus på komplexa civil- och grundläggningsprojekt (t.ex. markarbeten, platta på mark, kaj/docka).\n Kunskap: Djup förståelse för ingenjörsdesign, principer och metoder. God kännedom om regelverk, standarder och bästa praxis inom projektledning. Tvärdisciplinär teknisk förståelse (bygg, mekanik, process, el, automation m.m.).\n Kompetens: Dokumenterad förmåga att hantera risker, driva kvalitetsarbete, genomföra tekniska designgranskningar samt upprätthålla tidplaner och budget.\n Utbildning: Civilingenjörsexamen eller motsvarande. Relevanta certifieringar är meriterande.\n Språk: Mycket goda kunskaper i svenska (tal och skrift) samt god engelska.\n Personliga egenskaper: Kommunikativ, strukturerad och lösningsorienterad ledare som trivs i en dynamisk miljö och klarar att leverera under press.', 'text_formatted': '&lt;ul&gt; &lt;li&gt;Som &lt;strong&gt;Design Manager WP1&lt;/strong&gt; ansvarar du för att leda planering och genomförande av designarbetet inom WP1. Du rapporterar till WP1 Owner och arbetar nära WP1-teamet samt övriga Design Managers inom BECCS för att säkerställa en sammanhållen och framgångsrik projektleverans.&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Dina ansvarsområden&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Ansvara för designplanering och utförande för WP1 i enlighet med projektspecifikationer&lt;/li&gt; &lt;li&gt;Utarbeta och följa upp den övergripande engineering plan med tydliga mål och milstolpar&lt;/li&gt; &lt;li&gt;Planera och koordinera granskning och godkännandeprocesser av teknisk dokumentation&lt;/li&gt; &lt;li&gt;Följa upp tekniska frågor och kommunikation med entreprenörer, samt eskalera vid behov&lt;/li&gt; &lt;li&gt;Leda performance management för designteamet, inklusive rapportering, kostnads- och tiduppföljning&lt;/li&gt; &lt;li&gt;Delta i och samordna tekniska gränssnitt mellan olika Work Packages&lt;/li&gt; &lt;li&gt;Identifiera projekt- och designrisker samt utveckla lösningar&lt;/li&gt; &lt;li&gt;Säkerställa kvalitet, produktivitet och bästa praxis inom design- och ingenjörsprocesserna&lt;/li&gt; &lt;li&gt;Leda och stödja designteamet för att uppnå projektets mål&lt;/li&gt; &lt;li&gt;Driva kontinuerlig förbättring, innovation och säkerhetskultur i projektet&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Möten och koordinering:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;Dagligen: Engineering performance management&lt;/li&gt; &lt;li&gt;Veckovis: WP1 coordination meeting&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;Hos vår kund blir du del av ett projekt som gör verklig skillnad för både klimatet och framtida generationer. Du får arbeta i en internationell miljö med högt tempo, där samarbete, innovation och kvalitet är i fokus. Kunden erbjuder konkurrenskraftiga villkor och möjlighet att utvecklas i en av de mest spännande satsningarna inom hållbar industri i Sverige.&lt;/p&gt;&lt;/li&gt; &lt;li&gt;Kravspecifikation:&lt;p&gt;&lt;strong&gt;Kravprofil&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt; &lt;li&gt;&lt;strong&gt;Erfarenhet:&lt;/strong&gt; Minst 10 års erfarenhet av projektledning och design management inom större infrastruktur-, energi- eller processindustrier, med fokus på komplexa civil- och grundläggningsprojekt (t.ex. markarbeten, platta på mark, kaj/docka).&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Kunskap: &lt;/strong&gt;Djup förståelse för ingenjörsdesign, principer och metoder. God kännedom om regelverk, standarder och bästa praxis inom projektledning. Tvärdisciplinär teknisk förståelse (bygg, mekanik, process, el, automation m.m.).&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Kompetens:&lt;/strong&gt; Dokumenterad förmåga att hantera risker, driva kvalitetsarbete, genomföra tekniska designgranskningar samt upprätthålla tidplaner och budget.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Utbildning:&lt;/strong&gt; Civilingenjörsexamen eller motsvarande. Relevanta certifieringar är meriterande.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Språk:&lt;/strong&gt; Mycket goda kunskaper i svenska (tal och skrift) samt god engelska.&lt;/li&gt; &lt;li&gt;&lt;strong&gt;Personliga egenskaper:&lt;/strong&gt; Kommunikativ, strukturerad och lösningsorienterad ledare som trivs i en dynamisk miljö och klarar att leverera under press.&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nenligt överenskommelse'}</t>
+          <t>{'text': 'BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/\n \nPlanerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona\n\n\nÄr du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!\n\n\nDu får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!\n \nI dina arbetsuppgifter ingår:\nProduktionsberedning – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler\nPlanering och daglig uppföljning i möte – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering\nSystemunderhåll – inkl. produktionskalender, kapacitet/resurser\nUppföljning – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering\nMaterialavrop – dagliga materialavrop mot avtal\n\n \nDin profil:\nDu har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.\nErfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.\nDu är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. \n \nOm tjänsten:\nTjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.\nI denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.\n\n\nVälkommen med din ansökan!', 'text_formatted': '&lt;p&gt;&lt;em&gt;BCC Plant the Planet designar, tillverkar och förser plantproducenter över hela världen med all nödvändig utrustning. Vår affärsidé utgår från kundens behov och bygger på långt driven kundanpassning. Vi utvecklar, tillverkar och säljer skräddarsydda kompletta maskinsystem eller enskilda maskiner för odling av alla typer av grödor för kunder över hela världen. BCC är världsledande inom skogsföryngringskoncept och en växande aktör inom plantproduktion för kunder i segmenten agri- och hortikultur. Företaget grundades 1987 av Hans Björkemar och både huvudkontor och verkstad ligger i Landskrona. BCC har ca 50 anställda och en omsättning på ca 200 miljoner. Läs gärna mer här: https://bccab.com/sv/&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Planerare / Beredare till gröna och spännande BCC Plant the Planet – Landskrona&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Är du en fena på struktur och planering och har ett genuint intresse för teknik och produktion? Vill du arbeta på ett Landskronaföretag som förser plantproducenter över hela världen med världsledande egenutvecklade produkter? Då ska du se hit! Du erbjuds en mångsidig och utvecklande tjänst på ett företag som drivs av innovation och know-how och där du dessutom bidrar till en grönare värld!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Du får en bred och intressant roll med många olika kontaktytor inom produktion, inköp, lager och sälj/marknad. Du ansvarar bland annat för planering, produktionsberedning samt uppföljning och systemunderhåll. Du blir del av ett kompetent och trevligt team som med stor kunskap och engagemang gör skillnad!&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;I dina arbetsuppgifter ingår:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Produktionsberedning&lt;/strong&gt; – inkl. bereda konstruktionsstruktur till produktionsstruktur, operationsordning, ledtider, resurs- och produktgrupper, bereda inköpsartiklar, förkalkyler&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Planering och daglig uppföljning i möte&lt;/strong&gt; – inkl. huvud- och detaljplanering, tillverkningsorder, materialklarering/allokering, projektuppstart, omplantering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Systemunderhåll&lt;/strong&gt; – inkl. produktionskalender, kapacitet/resurser&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Uppföljning&lt;/strong&gt; – inkl. efterkalkyl, uppföljningsmöte, strukturuppdatering&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Materialavrop&lt;/strong&gt; – dagliga materialavrop mot avtal&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;Din profil:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Du har relevant utbildning samt flera års erfarenhet av planering och beredning inom tillverkande mekanisk industri eller processindustri. Du är bekväm med att arbeta i olika system såsom affärssystem och CAD-system.&lt;/p&gt;&lt;p&gt;Erfarenhet av ritningsläsning är ett krav då du kommer att omvandla underlag från R&amp;amp;D till produktionsunderlag i företagets affärssystem, som är Pyramid. Det är meriterande om du har erfarenhet av implementering/uppgradering av affärssystem och Lean.&lt;/p&gt;&lt;p&gt;Du är noggrann och strukturerad med god kommunikationsförmåga då din roll innebär många kontakter. Du är ansvarstagande och gillar att jobba i team men trivs också med uppgifter att lösa på egen hand. &lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Om tjänsten:&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Tjänsten är en tillsvidareanställning på heltid. Placering i Landskrona.&lt;/p&gt;&lt;p&gt;I denna rekrytering samarbetar BCC med Standby Workteam. Vi tillämpar löpande urval och intervjuer och ber dig därför att skicka in din ansökan snarast via länken nedan. För mer information om tjänsten, kontakta gärna Karin Dahlin på 0733 763 988.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Välkommen med din ansökan!&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; &lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -7869,11 +7873,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lön enligt överenskommelse</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -7892,16 +7892,16 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://selectus.se', 'organization_number': '5595196436', 'name': 'Selectus Bemanning AB', 'workplace': 'Selectus'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'https://www.standbyworkteam.se', 'organization_number': '5566005475', 'name': 'Standby Workteam AB', 'workplace': 'Standby workteam AB'}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.selectus.se/jobs/6351043-design-manager-wp1-led-framtidens-energiprojekt-i-stockholm?promotion=1604718-arbetsformedlingen', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.standbyworkteam.se/ledigajobb/2411bccber02/', 'other': None}</t>
         </is>
       </c>
       <c r="U49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="b">
         <v>0</v>
@@ -7912,12 +7912,12 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>{'concept_id': 'XpZG_8pA_V2c', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '3307'}</t>
+          <t>{'concept_id': 'YmFo_cvw_1Kv', 'label': 'Produktionskoordinator', 'legacy_ams_taxonomy_id': '7232'}</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>{'concept_id': 'DqLe_pH6_jyj', 'label': 'Industridesigner', 'legacy_ams_taxonomy_id': '2171'}</t>
+          <t>{'concept_id': 'PH2M_uV4_r72', 'label': 'Inspicienter och scriptor m.fl.', 'legacy_ams_taxonomy_id': '3433'}</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Helsingborg', 'municipality_code': '1283', 'municipality_concept_id': 'qj3q_oXH_MGR', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [None, None]}</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -7937,22 +7937,22 @@
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [{'weight': 5, 'concept_id': 'kvLG_4uo_M5p', 'label': 'Produktionsplanering, tillverkning', 'legacy_ams_taxonomy_id': '4640'}, {'weight': 5, 'concept_id': 'PuQP_aBK_nqJ', 'label': 'Produktionsteknik', 'legacy_ams_taxonomy_id': '4642'}, {'weight': 5, 'concept_id': 'aHCV_VsV_LiD', 'label': 'Ritningsläsning', 'legacy_ams_taxonomy_id': '4936'}, {'weight': 5, 'concept_id': 'eKuz_edm_kmi', 'label': 'Inköpsvana', 'legacy_ams_taxonomy_id': '603304'}], 'languages': [{'weight': 5, 'concept_id': 'zSLA_vw2_FXN', 'label': 'Svenska', 'legacy_ams_taxonomy_id': '502'}, {'weight': 5, 'concept_id': 'NVxJ_hLg_TYS', 'label': 'Engelska', 'legacy_ams_taxonomy_id': '283'}], 'work_experiences': [], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Elias Sauma', 'email': 'elias.sauma@selectus.se', 'telephone': None, 'contact_type': None}]</t>
+          <t>[{'name': 'Karin Dahlin', 'description': None, 'email': None, 'telephone': '0733 763 988', 'contact_type': 'Rekryteringskonsult'}]</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-08-28T12:37:45</t>
+          <t>2025-08-29T14:15:15</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>2026-02-14T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="AH49" t="b">
@@ -7961,11 +7961,11 @@
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK49" t="n">
-        <v>1756377465777</v>
+        <v>1756469715676</v>
       </c>
     </row>
     <row r="50">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29960428</t>
+          <t>29966103</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>46-556447-2677-000004790217043b89</t>
+          <t>46-559205-2400-6367127-1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -7990,22 +7990,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29960428</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966103</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5564472677/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/5592052400/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Arkivarie till statlig myndighet</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-09-09T23:59:59</t>
+          <t>2026-02-15T23:59:59</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{'text': 'Om tjänsten\nVi söker nu en Arkivarie till statlig myndighet i Stockholm. I tjänsten ingår bland annat att inventera, ordna och förteckna både analogt och digitalt material. Det analoga arkivet omfattar ca 73 hyllmeter, medan den digitala informationen främst finns i ärendehanteringssystemet Public 360 samt andra system. Förteckning sker enligt både allmänt arkivschema och verksamhetsbaserad arkivredovisning.\n\nTjänsten omfattar följande arbetsuppgifter:\n- Inventera, ordna och förteckna både analog och digital information.\n-Den analoga informationen består av ca 73 hyllmeter arkivbestånd.\n- Den digitala informationen avser främst myndighetens ärendehanteringssystem Public 360, som driftsattes 2015 samt övriga på myndigheten förekommande informationssystem.\n- Förtecknandet ska göras både enligt det allmänna arkivschemat och verksamhetsbaserad arkivredovisning.\n- och övrigt förekommande arbetsuppgifter för avvecklandet av ett arkiv.\n\nUppdragsperiod och omfattning:\nTjänsten som Arkivarie är ett konsultuppdrag på heltid med start omgående enligt överenskommelse och beräknas pågå som längst upp till 1000 timmar.\n\nKrav för tjänsten:\n• Högskoleutbildning med minst 60 högskolepoäng i arkivvetenskap eller annan jämförbar högskoleutbildning, alternativt motsvarande kompetens från tidigare arbetslivserfarenhet.\n• God kännedom om regelverk kring arkiv- och informationshantering, t.ex. arkivlagen, arkivförordningen, tryckfrihetsförordningen och offentlighets- och sekretesslagen.\n•  Minst 3-5 års praktisk erfarenhet av arkiv och diarieföring inom offentlig verksamhet.\n• Minst 3-5 års praktisk erfarenhet av avveckling av arkiv inom offentlig verksamhet.\n•  Minst 3-5 års praktisk erfarenhet att arbeta med digitala system och digitalisering av dokument\n•  God kommunikationsförmåga i tal och skrift på svenska.\n\nFör att vi ska ha möjlighet att ta dig vidare i processen behöver du tydligt redogjort i ditt CV att samtliga ovan krav är uppfyllda. Ange vilket/vilka uppdrag som påvisar efterfrågad erfarenhet. Tidsperiod ska anges i år och månad ÅÅ-MM.\n\nMeriterande för tjänsten:\n- Erfarenhet av ärendehanteringssystemet Public 360\n\nOm dig\nDu har en god analytisk förmåga och tar gärna egna initiativ. Du är självgående men trivs samtidigt med att samarbeta i team. Vidare har du en stark kommunikativ förmåga och samarbetar väl med olika funktioner och intressenter i arbetet.\n\nFör att säkerställa en kompetensbaserad rekrytering använder vi oss i denna process av arbetspsykologiska tester. Vi kommer att lägga stor vikt vid personlig lämplighet. Urval sker löpande och sista ansökningsdag är 2025-09-09.\n\nKontaktuppgifter\nHar du frågor om tjänsten eller rekryteringsprocessen är du varmt välkommen att kontakta ansvarig rekryterare: Hannah  Trollsås via Adecco´s växel 010 – 173 73 00 eller e-post: hannah.trollsas@adecco.se\n\nHar du frågor angående registrering, var god kontakta supporten via info@adecco.se\n\nVälkommen med din ansökan!', 'text_formatted': 'Om tjänsten\nVi söker nu en Arkivarie till statlig myndighet i Stockholm. I tjänsten ingår bland annat att inventera, ordna och förteckna både analogt och digitalt material. Det analoga arkivet omfattar ca 73 hyllmeter, medan den digitala informationen främst finns i ärendehanteringssystemet Public 360 samt andra system. Förteckning sker enligt både allmänt arkivschema och verksamhetsbaserad arkivredovisning.\n\nTjänsten omfattar följande arbetsuppgifter:\n- Inventera, ordna och förteckna både analog och digital information.\n-Den analoga informationen består av ca 73 hyllmeter arkivbestånd.\n- Den digitala informationen avser främst myndighetens ärendehanteringssystem Public 360, som driftsattes 2015 samt övriga på myndigheten förekommande informationssystem.\n- Förtecknandet ska göras både enligt det allmänna arkivschemat och verksamhetsbaserad arkivredovisning.\n- och övrigt förekommande arbetsuppgifter för avvecklandet av ett arkiv.\n\nUppdragsperiod och omfattning:\nTjänsten som Arkivarie är ett konsultuppdrag på heltid med start omgående enligt överenskommelse och beräknas pågå som längst upp till 1000 timmar.\n\nKrav för tjänsten:\n• Högskoleutbildning med minst 60 högskolepoäng i arkivvetenskap eller annan jämförbar högskoleutbildning, alternativt motsvarande kompetens från tidigare arbetslivserfarenhet.\n• God kännedom om regelverk kring arkiv- och informationshantering, t.ex. arkivlagen, arkivförordningen, tryckfrihetsförordningen och offentlighets- och sekretesslagen.\n•  Minst 3-5 års praktisk erfarenhet av arkiv och diarieföring inom offentlig verksamhet.\n• Minst 3-5 års praktisk erfarenhet av avveckling av arkiv inom offentlig verksamhet.\n•  Minst 3-5 års praktisk erfarenhet att arbeta med digitala system och digitalisering av dokument\n•  God kommunikationsförmåga i tal och skrift på svenska.\n\nFör att vi ska ha möjlighet att ta dig vidare i processen behöver du tydligt redogjort i ditt CV att samtliga ovan krav är uppfyllda. Ange vilket/vilka uppdrag som påvisar efterfrågad erfarenhet. Tidsperiod ska anges i år och månad ÅÅ-MM.\n\nMeriterande för tjänsten:\n- Erfarenhet av ärendehanteringssystemet Public 360\n\nOm dig\nDu har en god analytisk förmåga och tar gärna egna initiativ. Du är självgående men trivs samtidigt med att samarbeta i team. Vidare har du en stark kommunikativ förmåga och samarbetar väl med olika funktioner och intressenter i arbetet.\n\nFör att säkerställa en kompetensbaserad rekrytering använder vi oss i denna process av arbetspsykologiska tester. Vi kommer att lägga stor vikt vid personlig lämplighet. Urval sker löpande och sista ansökningsdag är 2025-09-09.\n\nKontaktuppgifter\nHar du frågor om tjänsten eller rekryteringsprocessen är du varmt välkommen att kontakta ansvarig rekryterare: Hannah  Trollsås via Adecco´s växel 010 – 173 73 00 eller e-post: hannah.trollsas@adecco.se\n\nHar du frågor angående registrering, var god kontakta supporten via info@adecco.se\n\nVälkommen med din ansökan!', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nVisstid'}</t>
+          <t>{'text': "Our team is on a mission to design great user experiences that help our over 2 million web customers create, configure, and develop their web presence. \n \nWe are looking for an experienced Digital Commerce Product Designer who has a solid understanding of e-commerce metrics to collaborate with our marketing leads in translating user needs and business ideas into outstanding landing pages, order and upselling/cross-selling flows, campaign concepts, and visual designs for our one.com brand. \nAs a passionate designer, you excel at transforming complex concepts into beautiful, simple, and user-friendly experiences. You inspire the organisation with insightful customer journeys, value propositions, and prototypes. Driven by data, you utilise market and user research methods such as interviews, surveys, usability tests, A/B tests and heatmaps to test and refine ideas both before and after implementation. This means that rather than being measured on the output of your design work, you are being measured on the success of your designs. As a true team player, you will work closely with our marketing, product, UX and design, and development teams. And, to our 32 passionate designers, you are a sparring partner who is inspiring, results-driven and keen to make a difference. \nQualifications  5+ years of experience in e-commerce, digital commerce, marketing, or agency settings \n Degree in New Media Design, Visual Communication, Product Design, UX Design, or similar \n Strong digital commerce-focused design portfolio with\xa0a mobile-first mindset, with expertise in designing for both mobile and desktop. \n You can conduct data analysis, market, and user research to identify best practices and shape hypotheses on how best to address requirements. \n Ability to translate user needs and business goals into clear, effective design \n Skilled in user research, data analysis, customer journeys, and persona creation \n Experience with tools like Maze, HotJar, Dovetail, Mixpanel, and Google Analytics \n Advocate for user testing, customer centricity, and evidence-based design decisions \n Comfortable collaborating across teams – from concept and ideation to implementation \n You are effective in managing stakeholders. Engage and involve them from the beginning (research, strategy, concept) to the end (design and implementation). \n Proficient in Figma and Adobe Creative Cloud \n Familiar with working in Agile/Scrum teams and using design systems \n High attention to detail and strong visual aesthetics\n You provide and receive honest, valuable feedback.\n \nYou’re a curious, collaborative, and creative problem solver who enjoys turning complexity into clarity. You have a passion for beautiful, minimalist design and care deeply about creating meaningful user experiences. You’re confident in your craft, open to feedback, and thrive in a fast-moving, team-oriented environment. Most importantly, you want to make the web not just more usable — but more beautiful. \nAbout usone.com is a part of group.one is a leading European provider of online presence, cloud hosting, and digital marketing services. Over 2 million customers trust us with their online success. Our global team consists of 1 500+ employees operating from nearly 20 locations across 15 countries, with our headquarters in Sweden. Thanks to the support of our partners Cinven and Ontario Teachers' Pension Plan, we are steadily expanding the group's service portfolio and geographical footprint.\nWhen you join group.one, you become a part of a global network that values collaboration, growth, and excellence. Join us in creating online success stories!\nWe don't care whether you are female, male or diverse, where you come from, how old you are, what colour your skin is or what you believe in. For us, the focus is on mutual respect, personal appreciation as well as fun and motivation at work. Develop yourself - your personality - because we focus on you as a person and team member.\nWe want to continue to grow with you. That's why we look forward to getting to know you.", 'text_formatted': '&lt;p&gt;Our team is on a mission to design great user experiences that help our over 2 million web customers create, configure, and develop their web presence. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;We are looking for an experienced Digital Commerce Product Designer who has a solid understanding of e-commerce metrics to collaborate with our marketing leads in translating user needs and business ideas into outstanding landing pages, order and upselling/cross-selling flows, campaign concepts, and visual designs for our one.com brand. &lt;/p&gt;&lt;p&gt;As a passionate designer, you excel at transforming complex concepts into beautiful, simple, and user-friendly experiences. You inspire the organisation with insightful customer journeys, value propositions, and prototypes. Driven by data, you utilise market and user research methods such as interviews, surveys, usability tests, A/B tests and heatmaps to test and refine ideas both before and after implementation. This means that rather than being measured on the output of your design work, you are being measured on the success of your designs. As a true team player, you will work closely with our marketing, product, UX and design, and development teams. And, to our 32 passionate designers, you are a sparring partner who is inspiring, results-driven and keen to make a difference. &lt;/p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt; &lt;ul&gt; &lt;li&gt;5+ years of experience in e-commerce, digital commerce, marketing, or agency settings &lt;/li&gt; &lt;li&gt;Degree in New Media Design, Visual Communication, Product Design, UX Design, or similar &lt;/li&gt; &lt;li&gt;Strong digital commerce-focused design portfolio with&amp;nbsp;a mobile-first mindset, with expertise in designing for both mobile and desktop. &lt;/li&gt; &lt;li&gt;You can conduct data analysis, market, and user research to identify best practices and shape hypotheses on how best to address requirements. &lt;/li&gt; &lt;li&gt;Ability to translate user needs and business goals into clear, effective design &lt;/li&gt; &lt;li&gt;Skilled in user research, data analysis, customer journeys, and persona creation &lt;/li&gt; &lt;li&gt;Experience with tools like Maze, HotJar, Dovetail, Mixpanel, and Google Analytics &lt;/li&gt; &lt;li&gt;Advocate for user testing, customer centricity, and evidence-based design decisions &lt;/li&gt; &lt;li&gt;Comfortable collaborating across teams – from concept and ideation to implementation &lt;/li&gt; &lt;li&gt;You are effective in managing stakeholders. Engage and involve them from the beginning (research, strategy, concept) to the end (design and implementation). &lt;/li&gt; &lt;li&gt;Proficient in Figma and Adobe Creative Cloud &lt;/li&gt; &lt;li&gt;Familiar with working in Agile/Scrum teams and using design systems &lt;/li&gt; &lt;li&gt;High attention to detail and strong visual aesthetics&lt;/li&gt; &lt;li&gt;You provide and receive honest, valuable feedback.&lt;/li&gt; &lt;/ul&gt;&lt;p&gt;You’re a curious, collaborative, and creative problem solver who enjoys turning complexity into clarity. You have a passion for beautiful, minimalist design and care deeply about creating meaningful user experiences. You’re confident in your craft, open to feedback, and thrive in a fast-moving, team-oriented environment. Most importantly, you want to make the web not just more usable — but more beautiful. &lt;/p&gt;About us&lt;p&gt;one.com is a part of group.one is a leading European provider of online presence, cloud hosting, and digital marketing services. Over 2 million customers trust us with their online success. Our global team consists of 1 500+ employees operating from nearly 20 locations across 15 countries, with our headquarters in Sweden. Thanks to the support of our partners &lt;a href="https://www.cinven.com/"&gt;Cinven&lt;/a&gt; and &lt;a href="https://www.otpp.com/en-ca/"&gt;Ontario Teachers\' Pension Plan&lt;/a&gt;, we are steadily expanding the group\'s service portfolio and geographical footprint.&lt;/p&gt;&lt;p&gt;When you join &lt;a href="https://www.group.one/en"&gt;group.one&lt;/a&gt;, you become a part of a global network that values collaboration, growth, and excellence. Join us in creating online success stories!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;We don\'t care whether you are female, male or diverse, where you come from, how old you are, what colour your skin is or what you believe in. For us, the focus is on mutual respect, personal appreciation as well as fun and motivation at work. Develop yourself - your personality - because we focus on you as a person and team member.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;We want to continue to grow with you. That\'s why we look forward to getting to know you.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': 'Heltid\r\nTillsvidare'}</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -8028,12 +8028,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Fast lön</t>
+          <t>Lön enligt överenskommelse</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'concept_id': 'qQUd_4qe_NDT', 'label': '6 månader eller längre', 'legacy_ams_taxonomy_id': '2'}</t>
+          <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8049,12 +8049,12 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': 'https://www.adecco.com/sv-se', 'organization_number': '5564472677', 'name': 'Adecco Sweden AB', 'workplace': 'Adecco Sweden AB'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': 'http://www.one.com', 'organization_number': '5592052400', 'name': 'One.com Group AB', 'workplace': 'one.com'}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://www.adecco.com/sv-se/ansok?zlid=17043b89-f5f6-4e5b-85cc-dbff21cef0f7&amp;src=AMS', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://careers.one.com/jobs/6367127-senior-product-designer?promotion=1606440-arbetsformedlingen', 'other': None}</t>
         </is>
       </c>
       <c r="U50" t="b">
@@ -8069,12 +8069,12 @@
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>{'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}</t>
+          <t>{'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'Mbt6_3ko_DiD', 'label': 'Designer inom spel och digitala medier', 'legacy_ams_taxonomy_id': '2173'}</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>{'municipality': 'Stockholm', 'municipality_code': '0180', 'municipality_concept_id': 'AvNB_uwa_6n6', 'region': 'Stockholms län', 'region_code': '01', 'region_concept_id': 'CifL_Rzy_Mku', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [18.06858, 59.329323]}</t>
+          <t>{'municipality': 'Malmö', 'municipality_code': '1280', 'municipality_concept_id': 'oYPt_yRA_Smm', 'region': 'Skåne län', 'region_code': '12', 'region_concept_id': 'CaRE_1nn_cSU', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.003822, 55.60498]}</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'E7nX_ux2_hF9', 'label': 'Arkivarie', 'legacy_ams_taxonomy_id': '5898'}], 'education': [], 'education_level': []}</t>
+          <t>{'skills': [], 'languages': [], 'work_experiences': [{'weight': 10, 'concept_id': 'PTs4_wYQ_zDP', 'label': 'Webbdesigner', 'legacy_ams_taxonomy_id': '3919'}], 'education': [], 'education_level': []}</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -8099,17 +8099,17 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Hannah Trollsås', 'email': None, 'telephone': None, 'contact_type': 'Ass. National Recruiter'}]</t>
+          <t>[{'name': None, 'description': 'Malin Hägglöf', 'email': None, 'telephone': None, 'contact_type': None}]</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-08-28T11:50:25</t>
+          <t>2025-08-29T13:01:46</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>2025-09-09T23:59:59</t>
+          <t>2026-02-15T23:59:59</t>
         </is>
       </c>
       <c r="AH50" t="b">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="AK50" t="n">
-        <v>1756475105877</v>
+        <v>1756465306034</v>
       </c>
     </row>
     <row r="51">
@@ -8131,14 +8131,10 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>29958713</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>46-232100-0156-851392</t>
-        </is>
-      </c>
+          <t>29966057</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
@@ -8147,22 +8143,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/platsbanken/annonser/29958713</t>
+          <t>https://arbetsformedlingen.se/platsbanken/annonser/29966057</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://arbetsformedlingen.se/rest/agas/api/v1/organisation/2321000156/logotyper/logo.png</t>
+          <t>https://arbetsformedlingen.se/rest/agas/api/v1/arbetsplatser/80312122/logotyper/logo.png</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Biblioteksutvecklare</t>
+          <t>Harness Designer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -8170,7 +8166,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>{'text': 'Om verksamheten\nKulturavdelningen arbetar med att initiera, stödja och leda utveckling inom konst- och kulturområdet i Värmland.\r\n\r\nVi utgår från Värmlands kulturplan och regional biblioteksplan, och bedriver verksamhet inom bild och form, dans, film, hemslöjd, litteratur och biblioteksutveckling. Vi främjar kulturell delaktighet, med särskilt fokus på barn, unga och kulturskapare.\xa0\n\nDina arbetsuppgifter\nSom biblioteksutvecklare bidrar du till en stark biblioteksregion och ett hållbart Värmland. Du leder utvecklingsprocesser tillsammans med folkbiblioteken, främjar kollegialt lärande och utforskar nya arbetssätt. Du arbetar strategiskt i ett team med ansvar för omvärldsbevakning, trendspaning och nätverksbyggande både regionalt och nationellt. Grunduppdraget är att stödja och stärka länets folkbibliotek i föränderliga behov och förutsättningar, vilket kan forma och förändra tjänstens innehåll över tid.\xa0\n\nDu blir en nyckelperson i arbetet med att stärka bibliotekens roll i samhället, särskilt inom områden som samverkan, delaktighet, lärande, MIK (medie- och informationskunnighet) och digital delaktighet. Viktiga frågor idag är att utveckla arbetet med bibliotekslagens prioriterade målgrupper.\xa0\n\nTjänsten kräver fysisk närvaro på arbetsplatsen, det är därmed inte aktuellt med distansavtal.\xa0\n\nDina kunskaper och kompetenser\nVi vill att du har:\n\n - Akademisk utbildning inom biblioteks- och informationsvetenskap eller liknande utbildning/erfarenhet som arbetsgivaren bedömer som likvärdig\n - Erfarenhet och kunskap inom biblioteksfältet\n - Erfarenhet av omvärldsbevakning samt intresse inom MIK och digital delaktighet\n - God förmåga att arbeta strukturerat med planering, genomförande och uppföljning samt vana vid att driva processer\n - Erfarenhet av förändringsarbete, att samordna arbetsgrupper och bedriva kompetensutveckling\n - Vana att bygga relationer och nätverk\n - Förmåga att kommunicera väl i tal och skrift på svenska\xa0\n - God samarbetsförmåga med externa parter\n - Förmåga att arbeta självständigt och som del i ett team\n - B-körkort\n\nDet är meriterande om du har erfarenhet av att arbeta i en politiskt styrd organisation. Stor vikt kommer att läggas vid dina personliga egenskaper.\n\nVi ser fram emot att välkomna en ny kollega som vill utveckla biblioteken med oss!\n\nOm Region Värmland\n\nVi är till för att alla som bor här ska må bra och för att vår region ska vara attraktiv och konkurrenskraftig. Vi gör skillnad inom hälso- och sjukvård, tandvård, kollektivtrafik, regional utveckling och kultur och bildning. Vi möter människor i livets största stunder och i alla de där vardagsögonblicken där emellan. Vår vision är livskvalitet i världsklass. Läs mer om hur det är att https://regionvarmland.se/regionvarmland/jobb-utbildning--forskning/jobba-med-oss/vara-formaner, och följ oss på sociala medier.\xa0\n\n\nVill du också jobba för alla i Värmland? Välkommen med din ansökan.\xa0\n\n\nÖvrigt\n\nI samband med eventuell anställning kan vi komma att be dig som sökande att lämna ett utdrag ur polisens belastningsregister. Inför anställning inom psykiatrisk vård, vård av funktionshindrade, vård av barn eller ungdomar gör arbetsgivaren en kontroll i polisens misstanke och belastningsregister. Ett utslag i detta register kan komma att påverka din möjlighet till anställning.\n\n\nHar du skyddad identitet och vill göra en ansökan ber vi dig att kontakta Kompetensförsörjningsenhet HR via Regionens växel 010-831 50 00. Då får du hjälp att lämna in din ansökan utan att den hanteras i Varbi. Tänk på att endast ta med information som är relevant för den aktuella befattningen.\n\n\nInför rekryteringsarbetet har Region Värmland tagit ställning till rekryteringskanaler och marknadsföring. Vi undanber oss därför alla erbjudanden om annonserings- och rekryteringshjälp i samband med denna annons.', 'text_formatted': 'Om verksamheten\nKulturavdelningen arbetar med att initiera, stödja och leda utveckling inom konst- och kulturområdet i Värmland.\r\n\r\nVi utgår från Värmlands kulturplan och regional biblioteksplan, och bedriver verksamhet inom bild och form, dans, film, hemslöjd, litteratur och biblioteksutveckling. Vi främjar kulturell delaktighet, med särskilt fokus på barn, unga och kulturskapare.\xa0\n\nDina arbetsuppgifter\nSom biblioteksutvecklare bidrar du till en stark biblioteksregion och ett hållbart Värmland. Du leder utvecklingsprocesser tillsammans med folkbiblioteken, främjar kollegialt lärande och utforskar nya arbetssätt. Du arbetar strategiskt i ett team med ansvar för omvärldsbevakning, trendspaning och nätverksbyggande både regionalt och nationellt. Grunduppdraget är att stödja och stärka länets folkbibliotek i föränderliga behov och förutsättningar, vilket kan forma och förändra tjänstens innehåll över tid.\xa0\n\nDu blir en nyckelperson i arbetet med att stärka bibliotekens roll i samhället, särskilt inom områden som samverkan, delaktighet, lärande, MIK (medie- och informationskunnighet) och digital delaktighet. Viktiga frågor idag är att utveckla arbetet med bibliotekslagens prioriterade målgrupper.\xa0\n\nTjänsten kräver fysisk närvaro på arbetsplatsen, det är därmed inte aktuellt med distansavtal.\xa0\n\nDina kunskaper och kompetenser\nVi vill att du har:\n\n - Akademisk utbildning inom biblioteks- och informationsvetenskap eller liknande utbildning/erfarenhet som arbetsgivaren bedömer som likvärdig\n - Erfarenhet och kunskap inom biblioteksfältet\n - Erfarenhet av omvärldsbevakning samt intresse inom MIK och digital delaktighet\n - God förmåga att arbeta strukturerat med planering, genomförande och uppföljning samt vana vid att driva processer\n - Erfarenhet av förändringsarbete, att samordna arbetsgrupper och bedriva kompetensutveckling\n - Vana att bygga relationer och nätverk\n - Förmåga att kommunicera väl i tal och skrift på svenska\xa0\n - God samarbetsförmåga med externa parter\n - Förmåga att arbeta självständigt och som del i ett team\n - B-körkort\n\nDet är meriterande om du har erfarenhet av att arbeta i en politiskt styrd organisation. Stor vikt kommer att läggas vid dina personliga egenskaper.\n\nVi ser fram emot att välkomna en ny kollega som vill utveckla biblioteken med oss!\n\nOm Region Värmland\n\nVi är till för att alla som bor här ska må bra och för att vår region ska vara attraktiv och konkurrenskraftig. Vi gör skillnad inom hälso- och sjukvård, tandvård, kollektivtrafik, regional utveckling och kultur och bildning. Vi möter människor i livets största stunder och i alla de där vardagsögonblicken där emellan. Vår vision är livskvalitet i världsklass. Läs mer om hur det är att https://regionvarmland.se/regionvarmland/jobb-utbildning--forskning/jobba-med-oss/vara-formaner, och följ oss på sociala medier.\xa0\n\n\nVill du också jobba för alla i Värmland? Välkommen med din ansökan.\xa0\n\n\nÖvrigt\n\nI samband med eventuell anställning kan vi komma att be dig som sökande att lämna ett utdrag ur polisens belastningsregister. Inför anställning inom psykiatrisk vård, vård av funktionshindrade, vård av barn eller ungdomar gör arbetsgivaren en kontroll i polisens misstanke och belastningsregister. Ett utslag i detta register kan komma att påverka din möjlighet till anställning.\n\n\nHar du skyddad identitet och vill göra en ansökan ber vi dig att kontakta Kompetensförsörjningsenhet HR via Regionens växel 010-831 50 00. Då får du hjälp att lämna in din ansökan utan att den hanteras i Varbi. Tänk på att endast ta med information som är relevant för den aktuella befattningen.\n\n\nInför rekryteringsarbetet har Region Värmland tagit ställning till rekryteringskanaler och marknadsföring. Vi undanber oss därför alla erbjudanden om annonserings- och rekryteringshjälp i samband med denna annons.', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': '100%. Tillträde: 1 februari 2026 eller enligt överenskommelse\r\nTillsvidareanställning'}</t>
+          <t>{'text': 'Company Description\nWelcome to a world, where your ideas lead to something big. Welcome to Bosch!\nBosch Thermoteknik AB in Tranås develops, manufactures, and sells heat pumps for the European market. We are approximately 650 employees and form part of the large Bosch Group, which consists of approximately 417,000 employees worldwide.\nWe work with sustainable simplification of everyday life where the focus is on the environment, innovation, and development. In Tranås there is a production unit and a competence and development center. The heat pumps we manufacture draw energy from different sources - the mountain, the water, or the air. We work to constantly be at the forefront and contribute to sustainable energy and a better environment with the goal of creating a simplified everyday life for our customers. In short, we create technology that is "Invented for life".\n\n\nJob Description\nYour contribution to something big\nAre you a highly skilled and self-driven Harness Design Engineer looking for a role where you can take full ownership of the entire design and development process? We are seeking an expert in Siemens NX Electrical Routing to lead the design, development, and implementation of complex electrical harnesses. This is a hands-on role that requires a deep understanding of both the theoretical and practical aspects of electrical engineering.\nYou will have end-to-end ownership of the harness design process, from initial concept to final implementation. This includes creating 3D harness designs and detailed 2D manufacturing drawings.\nYou will be responsible for developing and maintaining complex electrical schematics and leading the selection and integration of new electrical components.\nYou will perform critical electrical calculations for cable and fuse dimensioning, ensuring the safety and reliability of our products.\nYou will be the point person for analyzing and interpreting a wide range of internal and external requirements, translating them into precise material order specifications.\nYou will be expected to build and validate harness samples from the ground up, demonstrating your practical expertise with a variety of workshop tools.\nYou will take a leading role in 8D problem-solving initiatives and comprehensive risk assessments.\nYour expertise will be crucial in contributing to Failure Mode and Effects Analyses (FMEAs).\n\n\n\nQualifications\nWhat distinguishes you\nRequired skills\nTo be successful in this role, you must have:\nDemonstrable, in-depth experience in Siemens NX Electrical Routing is essential. You will be expected to start creating complex 3D harness designs and 2D manufacturing drawings from day one.\nA proven ability to work autonomously and hands-on experience with a variety of tools for building physical harness samples. You must have practical experience with workshop tools and be able to validate your designs through hands-on sample creation.\nGood written and verbal communication skills in English, necessary for our international work environment.\nA highly analytical and systematic approach to problem-solving.\n\nPreferred skills\nFor an even greater impact in this role, you will ideally have:\nCertification as an electrician.\nA strong working knowledge of IEC 60335 standards and topics related to product certification.\nGood written and verbal communication skills in Swedish.\nProficiency in SAP.\n\n\n\nAdditional Information\nAt Bosch, we care for you, our business, and our environment. Our promise to our associates is rock-solid. We grow together into countless roles, positions, and opportunities and we are interested in developing the “whole” you, not just the “9 to 5” you, because life is all about balance.\nAt Bosch, we celebrate you. Our people are what make us remarkable. Therefore we recognize your contribution with competitive salary packages, collective agreements with unions, occupational pension, and other attractive benefits, such as wellness contribution, smart work, flexible working hours, Gym &amp; Yoga classes at site. Let’s not forget the sincere “thank you” for our employees’ contribution. Our success is your success. Let’s celebrate together.\nAt Bosch we understand that everyone has their own focus in life, whether it is about new professional challenges, training, and development, or more time for family, friends, and hobbies, whatever your goals are we are flexible. Let ‘s strike a balance.\nAt Bosch, we believe everyone is different and that is what we love. Get inspired by a cooperative, open, respectful, and trustworthy workplace where you can be yourself and be enriched by the perspectives of our community around the globe.\nJoin us and feel the difference. #LikeABosch', 'text_formatted': '&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Company Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Welcome to a world, where your ideas lead to something big. Welcome to Bosch!&lt;/p&gt;&lt;p&gt;Bosch Thermoteknik AB in Tranås develops, manufactures, and sells heat pumps for the European market. We are approximately 650 employees and form part of the large Bosch Group, which consists of approximately 417,000 employees worldwide.&lt;/p&gt;&lt;p&gt;We work with sustainable simplification of everyday life where the focus is on the environment, innovation, and development. In Tranås there is a production unit and a competence and development center. The heat pumps we manufacture draw energy from different sources - the mountain, the water, or the air. We work to constantly be at the forefront and contribute to sustainable energy and a better environment with the goal of creating a simplified everyday life for our customers. In short, we create technology that is &lt;strong&gt;"Invented for life"&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Job Description&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Your contribution to something big&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Are you a highly skilled and self-driven Harness Design Engineer looking for a role where you can take full ownership of the entire design and development process? We are seeking an expert in Siemens NX Electrical Routing to lead the design, development, and implementation of complex electrical harnesses. This is a hands-on role that requires a deep understanding of both the theoretical and practical aspects of electrical engineering.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;You will have end-to-end ownership of the harness design process, from initial concept to final implementation. This includes creating 3D harness designs and detailed 2D manufacturing drawings.&lt;/li&gt;&lt;li&gt;You will be responsible for developing and maintaining complex electrical schematics and leading the selection and integration of new electrical components.&lt;/li&gt;&lt;li&gt;You will perform critical electrical calculations for cable and fuse dimensioning, ensuring the safety and reliability of our products.&lt;/li&gt;&lt;li&gt;You will be the point person for analyzing and interpreting a wide range of internal and external requirements, translating them into precise material order specifications.&lt;/li&gt;&lt;li&gt;You will be expected to build and validate harness samples from the ground up, demonstrating your practical expertise with a variety of workshop tools.&lt;/li&gt;&lt;li&gt;You will take a leading role in 8D problem-solving initiatives and comprehensive risk assessments.&lt;/li&gt;&lt;li&gt;Your expertise will be crucial in contributing to Failure Mode and Effects Analyses (FMEAs).&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Qualifications&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;What distinguishes you&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Required skills&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;To be successful in this role, you must have:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Demonstrable, in-depth experience in Siemens NX Electrical Routing is essential. You will be expected to start creating complex 3D harness designs and 2D manufacturing drawings from day one.&lt;/li&gt;&lt;li&gt;A proven ability to work autonomously and hands-on experience with a variety of tools for building physical harness samples. You must have practical experience with workshop tools and be able to validate your designs through hands-on sample creation.&lt;/li&gt;&lt;li&gt;Good written and verbal communication skills in English, necessary for our international work environment.&lt;/li&gt;&lt;li&gt;A highly analytical and systematic approach to problem-solving.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Preferred skills&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;For an even greater impact in this role, you will ideally have:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Certification as an electrician.&lt;/li&gt;&lt;li&gt;A strong working knowledge of IEC 60335 standards and topics related to product certification.&lt;/li&gt;&lt;li&gt;Good written and verbal communication skills in Swedish.&lt;/li&gt;&lt;li&gt;Proficiency in SAP.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Additional Information&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;At Bosch, we care for you, our business, and our environment. Our promise to our associates is rock-solid. We grow together into countless roles, positions, and opportunities and we are interested in developing the “whole” you, not just the “9 to 5” you, because life is all about balance.&lt;/p&gt;&lt;p&gt;At Bosch, we celebrate you.&lt;strong&gt; &lt;/strong&gt;Our people are what make us remarkable. Therefore we recognize your contribution with competitive salary packages, collective agreements with unions, occupational pension, and other attractive benefits, such as wellness contribution, smart work, flexible working hours, Gym &amp;amp; Yoga classes at site. Let’s not forget the sincere “&lt;strong&gt;thank you&lt;/strong&gt;” for our employees’ contribution. Our success is your success. Let’s celebrate together.&lt;/p&gt;&lt;p&gt;At Bosch we understand that everyone has their own focus in life, whether it is about new professional challenges, training, and development, or more time for family, friends, and hobbies, whatever your goals are we are flexible. Let ‘s strike a balance.&lt;/p&gt;&lt;p&gt;At Bosch, we believe everyone is different and that is what we love. Get inspired by a cooperative, open, respectful, and trustworthy workplace where you can be yourself and be enriched by the perspectives of our community around the globe.&lt;/p&gt;&lt;p&gt;Join us and feel the difference. #LikeABosch&lt;/p&gt;', 'company_information': None, 'needs': None, 'requirements': None, 'conditions': None}</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -8183,11 +8179,7 @@
           <t>{'concept_id': 'oG8G_9cW_nRf', 'label': 'Fast månads- vecko- eller timlön', 'legacy_ams_taxonomy_id': '1'}</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Månadslön, individuell månadslön</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
           <t>{'concept_id': 'a7uU_j21_mkL', 'label': 'Tills vidare', 'legacy_ams_taxonomy_id': '1'}</t>
@@ -8206,36 +8198,32 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr">
         <is>
-          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '2321000156', 'name': 'REGION VÄRMLAND', 'workplace': 'Kultur och bildning, Kulturavdelning 1'}</t>
+          <t>{'phone_number': None, 'email': None, 'url': None, 'organization_number': '5562629062', 'name': 'Bosch Thermoteknik AB', 'workplace': 'Bosch Thermoteknik AB'}</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>{'information': None, 'reference': 'RS/251691', 'email': None, 'via_af': False, 'url': 'https://regionvarmland.varbi.com/what:job/jobID:851392/type:job/where:1/apply:1', 'other': None}</t>
+          <t>{'information': None, 'reference': None, 'email': None, 'via_af': False, 'url': 'https://jobs.smartrecruiters.com/BoschGroup/744000078972425-harness-designer', 'other': None}</t>
         </is>
       </c>
       <c r="U51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
       <c r="W51" t="b">
-        <v>1</v>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>[{'concept_id': 'VTK8_WRx_GcM', 'label': 'B', 'legacy_ams_taxonomy_id': '3'}]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>{'concept_id': 'q23Y_yfC_6RM', 'label': 'Bibliotekskonsulent', 'legacy_ams_taxonomy_id': '2446'}</t>
+          <t>{'concept_id': '42SW_cUg_uq2', 'label': 'Designer', 'legacy_ams_taxonomy_id': '3305'}</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>{'concept_id': 'wVfo_Njx_1rB', 'label': 'Bibliotekarier och arkivarier', 'legacy_ams_taxonomy_id': '2622'}</t>
+          <t>{'concept_id': 'PF4H_kQD_zpL', 'label': 'Övriga designer och formgivare', 'legacy_ams_taxonomy_id': '2179'}</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -8245,7 +8233,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>{'municipality': 'Karlstad', 'municipality_code': '1780', 'municipality_concept_id': 'hRDj_PoV_sFU', 'region': 'Värmlands län', 'region_code': '17', 'region_concept_id': 'EVVp_h6U_GSZ', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': None, 'postcode': None, 'city': None, 'coordinates': [13.500804, 59.379135]}</t>
+          <t>{'municipality': 'Tranås', 'municipality_code': '0687', 'municipality_concept_id': 'Namm_SpC_RPG', 'region': 'Jönköpings län', 'region_code': '06', 'region_concept_id': 'MtbE_xWT_eMi', 'country': 'Sverige', 'country_code': '199', 'country_concept_id': 'i46j_HmG_v64', 'street_address': 'Hjälmarydsvägen 8', 'postcode': '57338', 'city': 'Tranås', 'coordinates': [14.9563209009392, 58.0144461800287]}</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -8260,17 +8248,17 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>[{'name': None, 'description': 'Oda Larsson, enhetschef', 'email': None, 'telephone': 'oda.larsson@regionvarmland.se', 'contact_type': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-08-28T08:29:36</t>
+          <t>2025-08-29T12:55:35</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>2025-09-30T23:59:59</t>
+          <t>2025-09-28T23:59:59</t>
         </is>
       </c>
       <c r="AH51" t="b">
@@ -8279,11 +8267,11 @@
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>VIA_PLATSBANKEN_DXA</t>
+          <t>VIA_ANNONSERA</t>
         </is>
       </c>
       <c r="AK51" t="n">
-        <v>1756362576016</v>
+        <v>1756464935671</v>
       </c>
     </row>
   </sheetData>
